--- a/Raw_data/EAB_Michigan_2024_raw_data_photos_removed.xlsx
+++ b/Raw_data/EAB_Michigan_2024_raw_data_photos_removed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/EAB_Michigan_2024_2025_github_folder/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{E6A25E5A-660E-410D-80FD-02C42A3E01DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E119C711-5D83-41DF-A599-E9E0344E6534}"/>
+  <xr:revisionPtr revIDLastSave="1383" documentId="8_{E6A25E5A-660E-410D-80FD-02C42A3E01DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E97B83C8-29CA-4DCA-B30A-DA049B010160}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7513" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8552" uniqueCount="923">
   <si>
     <t>center_tree_number</t>
   </si>
@@ -2722,6 +2722,96 @@
   </si>
   <si>
     <t>short grasses - viburnum</t>
+  </si>
+  <si>
+    <t>epicormic sprouts are new</t>
+  </si>
+  <si>
+    <t>Ash 1 - 07_20_2009</t>
+  </si>
+  <si>
+    <t>Ash 2 - 07_20_2009</t>
+  </si>
+  <si>
+    <t>It is fallen</t>
+  </si>
+  <si>
+    <t>It is a basal sprout of a dead stem</t>
+  </si>
+  <si>
+    <t>Frax 4 new - 08_03_2011</t>
+  </si>
+  <si>
+    <t>has samaras - smooth bark</t>
+  </si>
+  <si>
+    <t>it is a basal sprout - epicormic sprouts are new</t>
+  </si>
+  <si>
+    <t>smooth bark - epicormic sprouts are old</t>
+  </si>
+  <si>
+    <t>Frax spp. 1 - 08_11_2009</t>
+  </si>
+  <si>
+    <t>black and (green or pumpkin) and green</t>
+  </si>
+  <si>
+    <t>ferns (see photo) - spicebush - sandy soil</t>
+  </si>
+  <si>
+    <t>prickly ash - spicbush - ferns (see photo)</t>
+  </si>
+  <si>
+    <t>oak seedlings - ferns - spruce (see photo) - viburnum</t>
+  </si>
+  <si>
+    <t>spicebush - skunk cabbage - grasses - fallen leaves</t>
+  </si>
+  <si>
+    <t>skunk cabbage - flooded - grasses</t>
+  </si>
+  <si>
+    <t>wild geranium - horsetails - skunk cabbage - spicebush</t>
+  </si>
+  <si>
+    <t>ferns - grasses - flooded</t>
+  </si>
+  <si>
+    <t>fallen leaves - galls on seedlings</t>
+  </si>
+  <si>
+    <t>fallen leaves - coarse woody debris - short grasses</t>
+  </si>
+  <si>
+    <t>fallen leaves - Ostrya - tulip poplar - short grasses</t>
+  </si>
+  <si>
+    <t>blue cohosh (see photo)</t>
+  </si>
+  <si>
+    <t>taller grasses - bloodroot - fallen leaves</t>
+  </si>
+  <si>
+    <t>fallen leaves - blue cohosh - dead ash</t>
+  </si>
+  <si>
+    <t>fallen leaves - grasses</t>
+  </si>
+  <si>
+    <t>fallen leaves - ferns</t>
+  </si>
+  <si>
+    <t>Joe Pye Weed - tall grasses - flooded</t>
+  </si>
+  <si>
+    <t>skunk cabbage - grasses - spicebush - flooded - sedges</t>
+  </si>
+  <si>
+    <t>spicebush - flooded - skunk cabbage</t>
+  </si>
+  <si>
+    <t>tall grasses - flooded - spicebush - ferns</t>
   </si>
 </sst>
 </file>
@@ -2808,7 +2898,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2833,7 +2923,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3823,7 +3918,7 @@
   <dimension ref="A1:Q114"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="T91" sqref="T91"/>
     </sheetView>
   </sheetViews>
@@ -8534,11 +8629,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4294AC29-14D4-407D-99E4-B7615C9E66E2}">
-  <dimension ref="A1:N269"/>
+  <dimension ref="A1:N294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P122" sqref="P122"/>
+      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F298" sqref="F298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -19588,7 +19683,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="264" spans="1:14" ht="119.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>58</v>
       </c>
@@ -19825,6 +19920,988 @@
         <v>4</v>
       </c>
     </row>
+    <row r="270" spans="1:14" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="6">
+        <v>16</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C270" s="6">
+        <v>0</v>
+      </c>
+      <c r="D270" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E270" s="6">
+        <v>0</v>
+      </c>
+      <c r="F270" s="6">
+        <v>1</v>
+      </c>
+      <c r="G270" s="6">
+        <v>0</v>
+      </c>
+      <c r="H270" s="6">
+        <v>0</v>
+      </c>
+      <c r="I270" s="6">
+        <v>0</v>
+      </c>
+      <c r="J270" s="6">
+        <v>0</v>
+      </c>
+      <c r="K270" s="6">
+        <v>0</v>
+      </c>
+      <c r="L270" s="6">
+        <v>0</v>
+      </c>
+      <c r="N270" s="6" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A271">
+        <v>16</v>
+      </c>
+      <c r="B271" t="s">
+        <v>38</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>3.5</v>
+      </c>
+      <c r="E271">
+        <v>2</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271">
+        <v>1</v>
+      </c>
+      <c r="J271">
+        <v>1</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <v>1</v>
+      </c>
+      <c r="N271" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A272">
+        <v>16</v>
+      </c>
+      <c r="B272" t="s">
+        <v>39</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>15.5</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+      <c r="H272">
+        <v>2</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>1</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
+      <c r="L272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A273">
+        <v>16</v>
+      </c>
+      <c r="B273" t="s">
+        <v>40</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+      <c r="D273">
+        <v>15.5</v>
+      </c>
+      <c r="E273">
+        <v>3</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+      <c r="G273">
+        <v>1</v>
+      </c>
+      <c r="H273">
+        <v>6</v>
+      </c>
+      <c r="I273">
+        <v>1</v>
+      </c>
+      <c r="J273">
+        <v>1</v>
+      </c>
+      <c r="K273">
+        <v>1</v>
+      </c>
+      <c r="L273">
+        <v>3</v>
+      </c>
+      <c r="N273" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A274">
+        <v>18</v>
+      </c>
+      <c r="B274" t="s">
+        <v>36</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+      <c r="D274">
+        <v>15.5</v>
+      </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="I274">
+        <v>1</v>
+      </c>
+      <c r="J274">
+        <v>1</v>
+      </c>
+      <c r="K274">
+        <v>1</v>
+      </c>
+      <c r="L274">
+        <v>2</v>
+      </c>
+      <c r="N274" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A275">
+        <v>18</v>
+      </c>
+      <c r="B275" t="s">
+        <v>38</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+      <c r="H275">
+        <v>0</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>0</v>
+      </c>
+      <c r="L275">
+        <v>0</v>
+      </c>
+      <c r="N275" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A276">
+        <v>18</v>
+      </c>
+      <c r="B276" t="s">
+        <v>39</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+      <c r="D276">
+        <v>8</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+      <c r="H276">
+        <v>0</v>
+      </c>
+      <c r="I276">
+        <v>3</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>0</v>
+      </c>
+      <c r="L276">
+        <v>0</v>
+      </c>
+      <c r="N276" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A277">
+        <v>18</v>
+      </c>
+      <c r="B277" t="s">
+        <v>40</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+      <c r="H277">
+        <v>0</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <v>0</v>
+      </c>
+      <c r="L277">
+        <v>0</v>
+      </c>
+      <c r="N277" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A278">
+        <v>30</v>
+      </c>
+      <c r="B278" t="s">
+        <v>36</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+      <c r="D278">
+        <v>8</v>
+      </c>
+      <c r="E278">
+        <v>3</v>
+      </c>
+      <c r="F278">
+        <v>1</v>
+      </c>
+      <c r="G278">
+        <v>3</v>
+      </c>
+      <c r="H278">
+        <v>5</v>
+      </c>
+      <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>0</v>
+      </c>
+      <c r="L278">
+        <v>0</v>
+      </c>
+      <c r="N278" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A279">
+        <v>30</v>
+      </c>
+      <c r="B279" t="s">
+        <v>38</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+      <c r="D279">
+        <v>15.5</v>
+      </c>
+      <c r="E279">
+        <v>1</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>1</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+      <c r="I279">
+        <v>1</v>
+      </c>
+      <c r="J279">
+        <v>1</v>
+      </c>
+      <c r="K279">
+        <v>6</v>
+      </c>
+      <c r="L279">
+        <v>1</v>
+      </c>
+      <c r="N279" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A280">
+        <v>30</v>
+      </c>
+      <c r="B280" t="s">
+        <v>39</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+      <c r="D280">
+        <v>8</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>2</v>
+      </c>
+      <c r="G280">
+        <v>4</v>
+      </c>
+      <c r="H280">
+        <v>0</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <v>1</v>
+      </c>
+      <c r="L280">
+        <v>1</v>
+      </c>
+      <c r="N280" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A281">
+        <v>30</v>
+      </c>
+      <c r="B281" t="s">
+        <v>40</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>25.5</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>1</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
+      </c>
+      <c r="I281">
+        <v>1</v>
+      </c>
+      <c r="J281">
+        <v>1</v>
+      </c>
+      <c r="K281">
+        <v>1</v>
+      </c>
+      <c r="L281">
+        <v>0</v>
+      </c>
+      <c r="N281" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A282">
+        <v>29</v>
+      </c>
+      <c r="B282" t="s">
+        <v>36</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <v>8</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>1</v>
+      </c>
+      <c r="G282">
+        <v>1</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>2</v>
+      </c>
+      <c r="K282">
+        <v>0</v>
+      </c>
+      <c r="L282">
+        <v>1</v>
+      </c>
+      <c r="N282" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A283">
+        <v>29</v>
+      </c>
+      <c r="B283" t="s">
+        <v>38</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+      <c r="D283">
+        <v>8</v>
+      </c>
+      <c r="E283">
+        <v>2</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="H283">
+        <v>1</v>
+      </c>
+      <c r="I283">
+        <v>2</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>2</v>
+      </c>
+      <c r="L283">
+        <v>0</v>
+      </c>
+      <c r="N283" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A284">
+        <v>29</v>
+      </c>
+      <c r="B284" t="s">
+        <v>39</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+      <c r="H284">
+        <v>0</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>0</v>
+      </c>
+      <c r="L284">
+        <v>0</v>
+      </c>
+      <c r="N284" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A285">
+        <v>29</v>
+      </c>
+      <c r="B285" t="s">
+        <v>40</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>1</v>
+      </c>
+      <c r="H285">
+        <v>1</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>0</v>
+      </c>
+      <c r="N285" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A286">
+        <v>28</v>
+      </c>
+      <c r="B286" t="s">
+        <v>36</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>3.5</v>
+      </c>
+      <c r="E286">
+        <v>2</v>
+      </c>
+      <c r="F286">
+        <v>2</v>
+      </c>
+      <c r="G286">
+        <v>1</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>2</v>
+      </c>
+      <c r="K286">
+        <v>0</v>
+      </c>
+      <c r="L286">
+        <v>0</v>
+      </c>
+      <c r="N286" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A287">
+        <v>28</v>
+      </c>
+      <c r="B287" t="s">
+        <v>38</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+      <c r="D287">
+        <v>0</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <v>0</v>
+      </c>
+      <c r="L287">
+        <v>0</v>
+      </c>
+      <c r="N287" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A288">
+        <v>28</v>
+      </c>
+      <c r="B288" t="s">
+        <v>39</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+      <c r="H288">
+        <v>0</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>0</v>
+      </c>
+      <c r="L288">
+        <v>0</v>
+      </c>
+      <c r="N288" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A289">
+        <v>28</v>
+      </c>
+      <c r="B289" t="s">
+        <v>40</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+      <c r="D289">
+        <v>0.5</v>
+      </c>
+      <c r="E289">
+        <v>1</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>1</v>
+      </c>
+      <c r="H289">
+        <v>1</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <v>0</v>
+      </c>
+      <c r="L289">
+        <v>0</v>
+      </c>
+      <c r="N289" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A290">
+        <v>72</v>
+      </c>
+      <c r="B290" t="s">
+        <v>36</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+      <c r="D290">
+        <v>15.5</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="H290">
+        <v>1</v>
+      </c>
+      <c r="I290">
+        <v>4</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>0</v>
+      </c>
+      <c r="L290">
+        <v>3</v>
+      </c>
+      <c r="N290" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A291">
+        <v>72</v>
+      </c>
+      <c r="B291" t="s">
+        <v>38</v>
+      </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
+      <c r="D291">
+        <v>3.5</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="H291">
+        <v>0</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>2</v>
+      </c>
+      <c r="L291">
+        <v>0</v>
+      </c>
+      <c r="N291" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A292">
+        <v>72</v>
+      </c>
+      <c r="B292" t="s">
+        <v>39</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+      <c r="D292">
+        <v>1</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="H292">
+        <v>0</v>
+      </c>
+      <c r="I292">
+        <v>1</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292">
+        <v>0</v>
+      </c>
+      <c r="L292">
+        <v>0</v>
+      </c>
+      <c r="N292" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A293">
+        <v>72</v>
+      </c>
+      <c r="B293" t="s">
+        <v>40</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+      <c r="D293">
+        <v>0.5</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+      <c r="H293">
+        <v>1</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>0</v>
+      </c>
+      <c r="L293">
+        <v>0</v>
+      </c>
+      <c r="N293" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19832,16 +20909,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BD0D19-2CF9-4B20-BFF9-137DFE963B6F}">
-  <dimension ref="A1:K266"/>
+  <dimension ref="A1:L293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N126" sqref="N126"/>
+      <pane ySplit="1" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E297" sqref="E297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.26953125" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="14"/>
     <col min="12" max="12" width="16.54296875" customWidth="1"/>
     <col min="13" max="13" width="16.26953125" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
@@ -19876,7 +20954,7 @@
       <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="13" t="s">
         <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -19952,7 +21030,7 @@
       <c r="I6" t="s">
         <v>449</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="14">
         <v>0</v>
       </c>
     </row>
@@ -19981,7 +21059,7 @@
       <c r="I7" t="s">
         <v>449</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="14">
         <v>0</v>
       </c>
     </row>
@@ -20010,7 +21088,7 @@
       <c r="I8" t="s">
         <v>449</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="14">
         <v>0</v>
       </c>
     </row>
@@ -20039,7 +21117,7 @@
       <c r="I9" t="s">
         <v>449</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="14">
         <v>0</v>
       </c>
     </row>
@@ -20068,7 +21146,7 @@
       <c r="I10" t="s">
         <v>449</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="14">
         <v>0</v>
       </c>
     </row>
@@ -20097,7 +21175,7 @@
       <c r="I11" t="s">
         <v>449</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="14">
         <v>0</v>
       </c>
     </row>
@@ -20126,7 +21204,7 @@
       <c r="I12" t="s">
         <v>449</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="14">
         <v>50</v>
       </c>
     </row>
@@ -20155,7 +21233,7 @@
       <c r="I13" t="s">
         <v>449</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="14">
         <v>0</v>
       </c>
     </row>
@@ -20583,7 +21661,7 @@
       <c r="I50" t="s">
         <v>449</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="14">
         <v>0</v>
       </c>
     </row>
@@ -20612,7 +21690,7 @@
       <c r="I51" t="s">
         <v>449</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="14">
         <v>0</v>
       </c>
     </row>
@@ -20641,7 +21719,7 @@
       <c r="I52" t="s">
         <v>486</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -20670,7 +21748,7 @@
       <c r="I53" t="s">
         <v>486</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -20699,7 +21777,7 @@
       <c r="I54" t="s">
         <v>449</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="14">
         <v>0</v>
       </c>
     </row>
@@ -20728,7 +21806,7 @@
       <c r="I55" t="s">
         <v>449</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="14">
         <v>0</v>
       </c>
     </row>
@@ -20757,7 +21835,7 @@
       <c r="I56" t="s">
         <v>449</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="14">
         <v>0</v>
       </c>
     </row>
@@ -20786,7 +21864,7 @@
       <c r="I57" t="s">
         <v>449</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="14">
         <v>0.3</v>
       </c>
     </row>
@@ -20815,7 +21893,7 @@
       <c r="I58" t="s">
         <v>486</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J58" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -20844,7 +21922,7 @@
       <c r="I59" t="s">
         <v>486</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J59" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -20873,7 +21951,7 @@
       <c r="I60" t="s">
         <v>486</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J60" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -20902,7 +21980,7 @@
       <c r="I61" t="s">
         <v>486</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -20934,7 +22012,7 @@
       <c r="I62" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="J62" s="6">
+      <c r="J62" s="15">
         <v>0</v>
       </c>
     </row>
@@ -20966,7 +22044,7 @@
       <c r="I63" t="s">
         <v>486</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J63" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -20998,7 +22076,7 @@
       <c r="I64" t="s">
         <v>486</v>
       </c>
-      <c r="J64" t="s">
+      <c r="J64" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -21030,7 +22108,7 @@
       <c r="I65" t="s">
         <v>449</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="14">
         <v>0</v>
       </c>
     </row>
@@ -21062,7 +22140,7 @@
       <c r="I66" t="s">
         <v>449</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="14">
         <v>0</v>
       </c>
     </row>
@@ -21094,7 +22172,7 @@
       <c r="I67" t="s">
         <v>449</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="14">
         <v>0</v>
       </c>
     </row>
@@ -21126,7 +22204,7 @@
       <c r="I68" t="s">
         <v>449</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="14">
         <v>0</v>
       </c>
     </row>
@@ -21158,7 +22236,7 @@
       <c r="I69" t="s">
         <v>449</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="14">
         <v>100</v>
       </c>
     </row>
@@ -21190,7 +22268,7 @@
       <c r="I70" t="s">
         <v>486</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J70" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -21222,7 +22300,7 @@
       <c r="I71" t="s">
         <v>449</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="14">
         <v>0</v>
       </c>
     </row>
@@ -21254,7 +22332,7 @@
       <c r="I72" t="s">
         <v>449</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="14">
         <v>25</v>
       </c>
     </row>
@@ -21286,7 +22364,7 @@
       <c r="I73" t="s">
         <v>449</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="14">
         <v>0</v>
       </c>
     </row>
@@ -21318,7 +22396,7 @@
       <c r="I74" t="s">
         <v>449</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="14">
         <v>0</v>
       </c>
     </row>
@@ -21350,7 +22428,7 @@
       <c r="I75" t="s">
         <v>450</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="14">
         <v>50</v>
       </c>
     </row>
@@ -21382,7 +22460,7 @@
       <c r="I76" t="s">
         <v>450</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="14">
         <v>25</v>
       </c>
     </row>
@@ -21428,7 +22506,7 @@
       <c r="I78" t="s">
         <v>449</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="14">
         <v>0</v>
       </c>
     </row>
@@ -21460,7 +22538,7 @@
       <c r="I79" t="s">
         <v>486</v>
       </c>
-      <c r="J79" t="s">
+      <c r="J79" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -21492,7 +22570,7 @@
       <c r="I80" t="s">
         <v>486</v>
       </c>
-      <c r="J80" t="s">
+      <c r="J80" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -21524,7 +22602,7 @@
       <c r="I81" t="s">
         <v>486</v>
       </c>
-      <c r="J81" t="s">
+      <c r="J81" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -21556,7 +22634,7 @@
       <c r="I82" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="J82" s="6" t="s">
+      <c r="J82" s="15" t="s">
         <v>486</v>
       </c>
     </row>
@@ -21588,7 +22666,7 @@
       <c r="I83" t="s">
         <v>486</v>
       </c>
-      <c r="J83" t="s">
+      <c r="J83" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -21620,7 +22698,7 @@
       <c r="I84" t="s">
         <v>486</v>
       </c>
-      <c r="J84" t="s">
+      <c r="J84" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -21652,7 +22730,7 @@
       <c r="I85" t="s">
         <v>486</v>
       </c>
-      <c r="J85" t="s">
+      <c r="J85" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -21684,7 +22762,7 @@
       <c r="I86" t="s">
         <v>449</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="14">
         <v>0</v>
       </c>
     </row>
@@ -21716,7 +22794,7 @@
       <c r="I87" t="s">
         <v>449</v>
       </c>
-      <c r="J87">
+      <c r="J87" s="14">
         <v>30</v>
       </c>
     </row>
@@ -21748,7 +22826,7 @@
       <c r="I88" t="s">
         <v>449</v>
       </c>
-      <c r="J88">
+      <c r="J88" s="14">
         <v>0</v>
       </c>
     </row>
@@ -21780,7 +22858,7 @@
       <c r="I89" t="s">
         <v>449</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="14">
         <v>0</v>
       </c>
     </row>
@@ -21812,7 +22890,7 @@
       <c r="I90" t="s">
         <v>449</v>
       </c>
-      <c r="J90">
+      <c r="J90" s="14">
         <v>0</v>
       </c>
     </row>
@@ -21844,7 +22922,7 @@
       <c r="I91" t="s">
         <v>449</v>
       </c>
-      <c r="J91">
+      <c r="J91" s="14">
         <v>0</v>
       </c>
     </row>
@@ -21876,7 +22954,7 @@
       <c r="I92" t="s">
         <v>449</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="14">
         <v>50</v>
       </c>
     </row>
@@ -21908,7 +22986,7 @@
       <c r="I93" t="s">
         <v>449</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="14">
         <v>0</v>
       </c>
     </row>
@@ -21940,7 +23018,7 @@
       <c r="I94" t="s">
         <v>449</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="14">
         <v>0</v>
       </c>
     </row>
@@ -21972,7 +23050,7 @@
       <c r="I95" t="s">
         <v>449</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="14">
         <v>0</v>
       </c>
     </row>
@@ -22004,7 +23082,7 @@
       <c r="I96" t="s">
         <v>449</v>
       </c>
-      <c r="J96">
+      <c r="J96" s="14">
         <v>50</v>
       </c>
     </row>
@@ -22036,7 +23114,7 @@
       <c r="I97" t="s">
         <v>449</v>
       </c>
-      <c r="J97">
+      <c r="J97" s="14">
         <v>15</v>
       </c>
     </row>
@@ -22068,7 +23146,7 @@
       <c r="I98" t="s">
         <v>486</v>
       </c>
-      <c r="J98" t="s">
+      <c r="J98" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -22100,7 +23178,7 @@
       <c r="I99" t="s">
         <v>486</v>
       </c>
-      <c r="J99" t="s">
+      <c r="J99" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -22132,7 +23210,7 @@
       <c r="I100" t="s">
         <v>486</v>
       </c>
-      <c r="J100" t="s">
+      <c r="J100" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -22164,7 +23242,7 @@
       <c r="I101" t="s">
         <v>486</v>
       </c>
-      <c r="J101" t="s">
+      <c r="J101" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -22196,7 +23274,7 @@
       <c r="I102" t="s">
         <v>486</v>
       </c>
-      <c r="J102" t="s">
+      <c r="J102" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -22228,7 +23306,7 @@
       <c r="I103" t="s">
         <v>486</v>
       </c>
-      <c r="J103" t="s">
+      <c r="J103" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -22260,7 +23338,7 @@
       <c r="I104" t="s">
         <v>486</v>
       </c>
-      <c r="J104" t="s">
+      <c r="J104" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -22292,7 +23370,7 @@
       <c r="I105" t="s">
         <v>486</v>
       </c>
-      <c r="J105" t="s">
+      <c r="J105" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -22324,7 +23402,7 @@
       <c r="I106" t="s">
         <v>486</v>
       </c>
-      <c r="J106" t="s">
+      <c r="J106" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -22356,7 +23434,7 @@
       <c r="I107" t="s">
         <v>486</v>
       </c>
-      <c r="J107" t="s">
+      <c r="J107" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -22388,7 +23466,7 @@
       <c r="I108" t="s">
         <v>486</v>
       </c>
-      <c r="J108" t="s">
+      <c r="J108" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -22420,7 +23498,7 @@
       <c r="I109" t="s">
         <v>486</v>
       </c>
-      <c r="J109" t="s">
+      <c r="J109" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -22452,7 +23530,7 @@
       <c r="I110" t="s">
         <v>486</v>
       </c>
-      <c r="J110" t="s">
+      <c r="J110" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -22484,7 +23562,7 @@
       <c r="I111" t="s">
         <v>449</v>
       </c>
-      <c r="J111">
+      <c r="J111" s="14">
         <v>0</v>
       </c>
     </row>
@@ -22516,7 +23594,7 @@
       <c r="I112" t="s">
         <v>449</v>
       </c>
-      <c r="J112">
+      <c r="J112" s="14">
         <v>0</v>
       </c>
     </row>
@@ -22548,7 +23626,7 @@
       <c r="I113" t="s">
         <v>486</v>
       </c>
-      <c r="J113" t="s">
+      <c r="J113" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -22580,7 +23658,7 @@
       <c r="I114" t="s">
         <v>449</v>
       </c>
-      <c r="J114">
+      <c r="J114" s="14">
         <v>0</v>
       </c>
     </row>
@@ -22612,7 +23690,7 @@
       <c r="I115" t="s">
         <v>486</v>
       </c>
-      <c r="J115" t="s">
+      <c r="J115" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -22644,7 +23722,7 @@
       <c r="I116" t="s">
         <v>486</v>
       </c>
-      <c r="J116" t="s">
+      <c r="J116" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -22676,7 +23754,7 @@
       <c r="I117" t="s">
         <v>486</v>
       </c>
-      <c r="J117" t="s">
+      <c r="J117" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -22708,7 +23786,7 @@
       <c r="I118" t="s">
         <v>449</v>
       </c>
-      <c r="J118">
+      <c r="J118" s="14">
         <v>33</v>
       </c>
     </row>
@@ -22740,7 +23818,7 @@
       <c r="I119" t="s">
         <v>449</v>
       </c>
-      <c r="J119">
+      <c r="J119" s="14">
         <v>0</v>
       </c>
     </row>
@@ -22772,7 +23850,7 @@
       <c r="I120" t="s">
         <v>449</v>
       </c>
-      <c r="J120">
+      <c r="J120" s="14">
         <v>0</v>
       </c>
     </row>
@@ -22804,7 +23882,7 @@
       <c r="I121" t="s">
         <v>449</v>
       </c>
-      <c r="J121">
+      <c r="J121" s="14">
         <v>17</v>
       </c>
     </row>
@@ -22836,7 +23914,7 @@
       <c r="I122" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="J122" s="6" t="s">
+      <c r="J122" s="15" t="s">
         <v>486</v>
       </c>
     </row>
@@ -22868,7 +23946,7 @@
       <c r="I123" t="s">
         <v>486</v>
       </c>
-      <c r="J123" t="s">
+      <c r="J123" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -22900,7 +23978,7 @@
       <c r="I124" t="s">
         <v>486</v>
       </c>
-      <c r="J124" t="s">
+      <c r="J124" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -22932,7 +24010,7 @@
       <c r="I125" t="s">
         <v>486</v>
       </c>
-      <c r="J125" t="s">
+      <c r="J125" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -22964,7 +24042,7 @@
       <c r="I126" t="s">
         <v>449</v>
       </c>
-      <c r="J126">
+      <c r="J126" s="14">
         <v>14</v>
       </c>
       <c r="K126" t="s">
@@ -22999,7 +24077,7 @@
       <c r="I127" t="s">
         <v>449</v>
       </c>
-      <c r="J127">
+      <c r="J127" s="14">
         <v>0</v>
       </c>
     </row>
@@ -23031,7 +24109,7 @@
       <c r="I128" t="s">
         <v>486</v>
       </c>
-      <c r="J128" t="s">
+      <c r="J128" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -23063,7 +24141,7 @@
       <c r="I129" t="s">
         <v>486</v>
       </c>
-      <c r="J129" t="s">
+      <c r="J129" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -23095,7 +24173,7 @@
       <c r="I130" t="s">
         <v>449</v>
       </c>
-      <c r="J130">
+      <c r="J130" s="14">
         <v>0</v>
       </c>
     </row>
@@ -23127,7 +24205,7 @@
       <c r="I131" t="s">
         <v>486</v>
       </c>
-      <c r="J131" t="s">
+      <c r="J131" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -23159,7 +24237,7 @@
       <c r="I132" t="s">
         <v>449</v>
       </c>
-      <c r="J132">
+      <c r="J132" s="14">
         <v>0</v>
       </c>
     </row>
@@ -23191,7 +24269,7 @@
       <c r="I133" t="s">
         <v>449</v>
       </c>
-      <c r="J133">
+      <c r="J133" s="14">
         <v>0</v>
       </c>
     </row>
@@ -23223,7 +24301,7 @@
       <c r="I134" t="s">
         <v>486</v>
       </c>
-      <c r="J134" t="s">
+      <c r="J134" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -23255,7 +24333,7 @@
       <c r="I135" t="s">
         <v>486</v>
       </c>
-      <c r="J135" t="s">
+      <c r="J135" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -23287,7 +24365,7 @@
       <c r="I136" t="s">
         <v>486</v>
       </c>
-      <c r="J136" t="s">
+      <c r="J136" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -23319,7 +24397,7 @@
       <c r="I137" t="s">
         <v>486</v>
       </c>
-      <c r="J137" t="s">
+      <c r="J137" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -23351,7 +24429,7 @@
       <c r="I138" t="s">
         <v>486</v>
       </c>
-      <c r="J138" t="s">
+      <c r="J138" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -23383,7 +24461,7 @@
       <c r="I139" t="s">
         <v>486</v>
       </c>
-      <c r="J139" t="s">
+      <c r="J139" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -23415,7 +24493,7 @@
       <c r="I140" t="s">
         <v>486</v>
       </c>
-      <c r="J140" t="s">
+      <c r="J140" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -23447,7 +24525,7 @@
       <c r="I141" t="s">
         <v>449</v>
       </c>
-      <c r="J141">
+      <c r="J141" s="14">
         <v>0</v>
       </c>
     </row>
@@ -23479,7 +24557,7 @@
       <c r="I142" t="s">
         <v>486</v>
       </c>
-      <c r="J142" t="s">
+      <c r="J142" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -23511,7 +24589,7 @@
       <c r="I143" t="s">
         <v>486</v>
       </c>
-      <c r="J143" t="s">
+      <c r="J143" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -23543,7 +24621,7 @@
       <c r="I144" t="s">
         <v>486</v>
       </c>
-      <c r="J144" t="s">
+      <c r="J144" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -23575,7 +24653,7 @@
       <c r="I145" t="s">
         <v>486</v>
       </c>
-      <c r="J145" t="s">
+      <c r="J145" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -23607,7 +24685,7 @@
       <c r="I146" t="s">
         <v>486</v>
       </c>
-      <c r="J146" t="s">
+      <c r="J146" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -23639,7 +24717,7 @@
       <c r="I147" t="s">
         <v>486</v>
       </c>
-      <c r="J147" t="s">
+      <c r="J147" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -23671,7 +24749,7 @@
       <c r="I148" t="s">
         <v>486</v>
       </c>
-      <c r="J148" t="s">
+      <c r="J148" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -23703,7 +24781,7 @@
       <c r="I149" t="s">
         <v>486</v>
       </c>
-      <c r="J149" t="s">
+      <c r="J149" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -23735,7 +24813,7 @@
       <c r="I150" t="s">
         <v>486</v>
       </c>
-      <c r="J150" t="s">
+      <c r="J150" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -23767,7 +24845,7 @@
       <c r="I151" t="s">
         <v>486</v>
       </c>
-      <c r="J151" t="s">
+      <c r="J151" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -23799,7 +24877,7 @@
       <c r="I152" t="s">
         <v>486</v>
       </c>
-      <c r="J152" t="s">
+      <c r="J152" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -23831,7 +24909,7 @@
       <c r="I153" t="s">
         <v>486</v>
       </c>
-      <c r="J153" t="s">
+      <c r="J153" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -23863,7 +24941,7 @@
       <c r="I154" t="s">
         <v>486</v>
       </c>
-      <c r="J154" t="s">
+      <c r="J154" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -23895,7 +24973,7 @@
       <c r="I155" t="s">
         <v>486</v>
       </c>
-      <c r="J155" t="s">
+      <c r="J155" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -23927,7 +25005,7 @@
       <c r="I156" t="s">
         <v>486</v>
       </c>
-      <c r="J156" t="s">
+      <c r="J156" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -23959,7 +25037,7 @@
       <c r="I157" t="s">
         <v>486</v>
       </c>
-      <c r="J157" t="s">
+      <c r="J157" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -23991,7 +25069,7 @@
       <c r="I158" t="s">
         <v>449</v>
       </c>
-      <c r="J158">
+      <c r="J158" s="14">
         <v>0</v>
       </c>
     </row>
@@ -24023,7 +25101,7 @@
       <c r="I159" t="s">
         <v>449</v>
       </c>
-      <c r="J159">
+      <c r="J159" s="14">
         <v>100</v>
       </c>
     </row>
@@ -24055,7 +25133,7 @@
       <c r="I160" t="s">
         <v>486</v>
       </c>
-      <c r="J160" t="s">
+      <c r="J160" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -24087,7 +25165,7 @@
       <c r="I161" t="s">
         <v>486</v>
       </c>
-      <c r="J161" t="s">
+      <c r="J161" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -24119,7 +25197,7 @@
       <c r="I162" t="s">
         <v>449</v>
       </c>
-      <c r="J162">
+      <c r="J162" s="14">
         <v>7</v>
       </c>
     </row>
@@ -24151,7 +25229,7 @@
       <c r="I163" t="s">
         <v>449</v>
       </c>
-      <c r="J163">
+      <c r="J163" s="14">
         <v>0</v>
       </c>
       <c r="K163" t="s">
@@ -24186,7 +25264,7 @@
       <c r="I164" t="s">
         <v>449</v>
       </c>
-      <c r="J164">
+      <c r="J164" s="14">
         <v>0</v>
       </c>
     </row>
@@ -24218,7 +25296,7 @@
       <c r="I165" t="s">
         <v>449</v>
       </c>
-      <c r="J165">
+      <c r="J165" s="14">
         <v>6</v>
       </c>
     </row>
@@ -24250,7 +25328,7 @@
       <c r="I166" t="s">
         <v>449</v>
       </c>
-      <c r="J166">
+      <c r="J166" s="14">
         <v>0</v>
       </c>
     </row>
@@ -24282,7 +25360,7 @@
       <c r="I167" t="s">
         <v>449</v>
       </c>
-      <c r="J167">
+      <c r="J167" s="14">
         <v>3</v>
       </c>
     </row>
@@ -24314,7 +25392,7 @@
       <c r="I168" t="s">
         <v>449</v>
       </c>
-      <c r="J168">
+      <c r="J168" s="14">
         <v>11</v>
       </c>
     </row>
@@ -24346,7 +25424,7 @@
       <c r="I169" t="s">
         <v>449</v>
       </c>
-      <c r="J169">
+      <c r="J169" s="14">
         <v>0</v>
       </c>
     </row>
@@ -24378,7 +25456,7 @@
       <c r="I170" t="s">
         <v>449</v>
       </c>
-      <c r="J170">
+      <c r="J170" s="14">
         <v>4</v>
       </c>
     </row>
@@ -24410,7 +25488,7 @@
       <c r="I171" t="s">
         <v>449</v>
       </c>
-      <c r="J171">
+      <c r="J171" s="14">
         <v>0</v>
       </c>
     </row>
@@ -24442,7 +25520,7 @@
       <c r="I172" t="s">
         <v>449</v>
       </c>
-      <c r="J172">
+      <c r="J172" s="14">
         <v>0</v>
       </c>
     </row>
@@ -24474,7 +25552,7 @@
       <c r="I173" t="s">
         <v>449</v>
       </c>
-      <c r="J173">
+      <c r="J173" s="14">
         <v>12</v>
       </c>
     </row>
@@ -24506,7 +25584,7 @@
       <c r="I174" t="s">
         <v>486</v>
       </c>
-      <c r="J174" t="s">
+      <c r="J174" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -24538,7 +25616,7 @@
       <c r="I175" t="s">
         <v>486</v>
       </c>
-      <c r="J175" t="s">
+      <c r="J175" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -24570,7 +25648,7 @@
       <c r="I176" t="s">
         <v>486</v>
       </c>
-      <c r="J176" t="s">
+      <c r="J176" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -24602,7 +25680,7 @@
       <c r="I177" t="s">
         <v>486</v>
       </c>
-      <c r="J177" t="s">
+      <c r="J177" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -24634,7 +25712,7 @@
       <c r="I178" t="s">
         <v>486</v>
       </c>
-      <c r="J178" t="s">
+      <c r="J178" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -24666,7 +25744,7 @@
       <c r="I179" t="s">
         <v>486</v>
       </c>
-      <c r="J179" t="s">
+      <c r="J179" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -24698,7 +25776,7 @@
       <c r="I180" t="s">
         <v>486</v>
       </c>
-      <c r="J180" t="s">
+      <c r="J180" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -24730,7 +25808,7 @@
       <c r="I181" t="s">
         <v>486</v>
       </c>
-      <c r="J181" t="s">
+      <c r="J181" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -24762,7 +25840,7 @@
       <c r="I182" t="s">
         <v>486</v>
       </c>
-      <c r="J182" t="s">
+      <c r="J182" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -24794,7 +25872,7 @@
       <c r="I183" t="s">
         <v>486</v>
       </c>
-      <c r="J183" t="s">
+      <c r="J183" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -24826,7 +25904,7 @@
       <c r="I184" t="s">
         <v>449</v>
       </c>
-      <c r="J184">
+      <c r="J184" s="14">
         <v>0</v>
       </c>
     </row>
@@ -24858,7 +25936,7 @@
       <c r="I185" t="s">
         <v>486</v>
       </c>
-      <c r="J185" t="s">
+      <c r="J185" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -24890,7 +25968,7 @@
       <c r="I186" t="s">
         <v>449</v>
       </c>
-      <c r="J186">
+      <c r="J186" s="14">
         <v>0</v>
       </c>
       <c r="K186" t="s">
@@ -24925,7 +26003,7 @@
       <c r="I187" t="s">
         <v>449</v>
       </c>
-      <c r="J187">
+      <c r="J187" s="14">
         <v>0</v>
       </c>
     </row>
@@ -24957,7 +26035,7 @@
       <c r="I188" t="s">
         <v>449</v>
       </c>
-      <c r="J188">
+      <c r="J188" s="14">
         <v>0</v>
       </c>
     </row>
@@ -24989,7 +26067,7 @@
       <c r="I189" t="s">
         <v>449</v>
       </c>
-      <c r="J189">
+      <c r="J189" s="14">
         <v>0</v>
       </c>
     </row>
@@ -25021,7 +26099,7 @@
       <c r="I190" t="s">
         <v>486</v>
       </c>
-      <c r="J190" t="s">
+      <c r="J190" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -25053,7 +26131,7 @@
       <c r="I191" t="s">
         <v>486</v>
       </c>
-      <c r="J191" t="s">
+      <c r="J191" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -25085,7 +26163,7 @@
       <c r="I192" t="s">
         <v>449</v>
       </c>
-      <c r="J192">
+      <c r="J192" s="14">
         <v>0</v>
       </c>
     </row>
@@ -25117,7 +26195,7 @@
       <c r="I193" t="s">
         <v>449</v>
       </c>
-      <c r="J193">
+      <c r="J193" s="14">
         <v>0</v>
       </c>
     </row>
@@ -25149,7 +26227,7 @@
       <c r="I194" t="s">
         <v>486</v>
       </c>
-      <c r="J194" t="s">
+      <c r="J194" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -25181,7 +26259,7 @@
       <c r="I195" t="s">
         <v>486</v>
       </c>
-      <c r="J195" t="s">
+      <c r="J195" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -25213,7 +26291,7 @@
       <c r="I196" t="s">
         <v>486</v>
       </c>
-      <c r="J196" t="s">
+      <c r="J196" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -25245,7 +26323,7 @@
       <c r="I197" t="s">
         <v>449</v>
       </c>
-      <c r="J197">
+      <c r="J197" s="14">
         <v>0</v>
       </c>
     </row>
@@ -25277,7 +26355,7 @@
       <c r="I198" t="s">
         <v>486</v>
       </c>
-      <c r="J198" t="s">
+      <c r="J198" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -25309,7 +26387,7 @@
       <c r="I199" t="s">
         <v>486</v>
       </c>
-      <c r="J199" t="s">
+      <c r="J199" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -25341,7 +26419,7 @@
       <c r="I200" t="s">
         <v>486</v>
       </c>
-      <c r="J200" t="s">
+      <c r="J200" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -25373,7 +26451,7 @@
       <c r="I201" t="s">
         <v>486</v>
       </c>
-      <c r="J201" t="s">
+      <c r="J201" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -25405,7 +26483,7 @@
       <c r="I202" t="s">
         <v>486</v>
       </c>
-      <c r="J202" t="s">
+      <c r="J202" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -25437,7 +26515,7 @@
       <c r="I203" t="s">
         <v>486</v>
       </c>
-      <c r="J203" t="s">
+      <c r="J203" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -25469,7 +26547,7 @@
       <c r="I204" t="s">
         <v>486</v>
       </c>
-      <c r="J204" t="s">
+      <c r="J204" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -25501,7 +26579,7 @@
       <c r="I205" t="s">
         <v>486</v>
       </c>
-      <c r="J205" t="s">
+      <c r="J205" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -25533,21 +26611,21 @@
       <c r="I206" t="s">
         <v>486</v>
       </c>
-      <c r="J206" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="12">
+      <c r="J206" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A207">
         <v>40</v>
       </c>
       <c r="B207" t="s">
         <v>447</v>
       </c>
-      <c r="C207" s="12" t="s">
+      <c r="C207" t="s">
         <v>452</v>
       </c>
-      <c r="D207" s="12">
+      <c r="D207">
         <v>0</v>
       </c>
       <c r="E207" t="s">
@@ -25565,21 +26643,21 @@
       <c r="I207" t="s">
         <v>486</v>
       </c>
-      <c r="J207" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="12">
+      <c r="J207" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A208">
         <v>40</v>
       </c>
       <c r="B208" t="s">
         <v>448</v>
       </c>
-      <c r="C208" s="12" t="s">
+      <c r="C208" t="s">
         <v>452</v>
       </c>
-      <c r="D208" s="12">
+      <c r="D208">
         <v>0</v>
       </c>
       <c r="E208" t="s">
@@ -25597,21 +26675,21 @@
       <c r="I208" t="s">
         <v>486</v>
       </c>
-      <c r="J208" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="12">
+      <c r="J208" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A209">
         <v>40</v>
       </c>
       <c r="B209" t="s">
         <v>446</v>
       </c>
-      <c r="C209" s="12" t="s">
+      <c r="C209" t="s">
         <v>452</v>
       </c>
-      <c r="D209" s="12">
+      <c r="D209">
         <v>0</v>
       </c>
       <c r="E209" t="s">
@@ -25629,7 +26707,7 @@
       <c r="I209" t="s">
         <v>486</v>
       </c>
-      <c r="J209" t="s">
+      <c r="J209" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -25640,10 +26718,10 @@
       <c r="B210" t="s">
         <v>445</v>
       </c>
-      <c r="C210" s="12" t="s">
+      <c r="C210" t="s">
         <v>452</v>
       </c>
-      <c r="D210" s="12">
+      <c r="D210">
         <v>0</v>
       </c>
       <c r="E210" t="s">
@@ -25661,7 +26739,7 @@
       <c r="I210" t="s">
         <v>486</v>
       </c>
-      <c r="J210" t="s">
+      <c r="J210" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -25672,10 +26750,10 @@
       <c r="B211" t="s">
         <v>447</v>
       </c>
-      <c r="C211" s="12" t="s">
+      <c r="C211" t="s">
         <v>452</v>
       </c>
-      <c r="D211" s="12">
+      <c r="D211">
         <v>0</v>
       </c>
       <c r="E211" t="s">
@@ -25693,7 +26771,7 @@
       <c r="I211" t="s">
         <v>486</v>
       </c>
-      <c r="J211" t="s">
+      <c r="J211" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -25704,10 +26782,10 @@
       <c r="B212" t="s">
         <v>448</v>
       </c>
-      <c r="C212" s="12" t="s">
+      <c r="C212" t="s">
         <v>452</v>
       </c>
-      <c r="D212" s="12">
+      <c r="D212">
         <v>0</v>
       </c>
       <c r="E212" t="s">
@@ -25725,7 +26803,7 @@
       <c r="I212" t="s">
         <v>486</v>
       </c>
-      <c r="J212" t="s">
+      <c r="J212" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -25736,10 +26814,10 @@
       <c r="B213" t="s">
         <v>446</v>
       </c>
-      <c r="C213" s="12" t="s">
+      <c r="C213" t="s">
         <v>452</v>
       </c>
-      <c r="D213" s="12">
+      <c r="D213">
         <v>0</v>
       </c>
       <c r="E213" t="s">
@@ -25757,7 +26835,7 @@
       <c r="I213" t="s">
         <v>486</v>
       </c>
-      <c r="J213" t="s">
+      <c r="J213" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -25768,10 +26846,10 @@
       <c r="B214" t="s">
         <v>445</v>
       </c>
-      <c r="C214" s="12" t="s">
+      <c r="C214" t="s">
         <v>452</v>
       </c>
-      <c r="D214" s="12">
+      <c r="D214">
         <v>0</v>
       </c>
       <c r="E214" t="s">
@@ -25789,7 +26867,7 @@
       <c r="I214" t="s">
         <v>486</v>
       </c>
-      <c r="J214" t="s">
+      <c r="J214" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -25800,10 +26878,10 @@
       <c r="B215" t="s">
         <v>447</v>
       </c>
-      <c r="C215" s="12" t="s">
+      <c r="C215" t="s">
         <v>452</v>
       </c>
-      <c r="D215" s="12">
+      <c r="D215">
         <v>0</v>
       </c>
       <c r="E215" t="s">
@@ -25821,7 +26899,7 @@
       <c r="I215" t="s">
         <v>486</v>
       </c>
-      <c r="J215" t="s">
+      <c r="J215" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -25832,10 +26910,10 @@
       <c r="B216" t="s">
         <v>448</v>
       </c>
-      <c r="C216" s="12" t="s">
+      <c r="C216" t="s">
         <v>452</v>
       </c>
-      <c r="D216" s="12">
+      <c r="D216">
         <v>0</v>
       </c>
       <c r="E216" t="s">
@@ -25853,7 +26931,7 @@
       <c r="I216" t="s">
         <v>486</v>
       </c>
-      <c r="J216" t="s">
+      <c r="J216" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -25864,10 +26942,10 @@
       <c r="B217" t="s">
         <v>446</v>
       </c>
-      <c r="C217" s="12" t="s">
+      <c r="C217" t="s">
         <v>452</v>
       </c>
-      <c r="D217" s="12">
+      <c r="D217">
         <v>0</v>
       </c>
       <c r="E217" t="s">
@@ -25885,7 +26963,7 @@
       <c r="I217" t="s">
         <v>486</v>
       </c>
-      <c r="J217" t="s">
+      <c r="J217" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -25896,10 +26974,10 @@
       <c r="B218" t="s">
         <v>445</v>
       </c>
-      <c r="C218" s="12" t="s">
+      <c r="C218" t="s">
         <v>452</v>
       </c>
-      <c r="D218" s="12">
+      <c r="D218">
         <v>0</v>
       </c>
       <c r="E218" t="s">
@@ -25917,7 +26995,7 @@
       <c r="I218" t="s">
         <v>486</v>
       </c>
-      <c r="J218" t="s">
+      <c r="J218" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -25928,10 +27006,10 @@
       <c r="B219" t="s">
         <v>447</v>
       </c>
-      <c r="C219" s="12" t="s">
+      <c r="C219" t="s">
         <v>452</v>
       </c>
-      <c r="D219" s="12">
+      <c r="D219">
         <v>0</v>
       </c>
       <c r="E219" t="s">
@@ -25949,7 +27027,7 @@
       <c r="I219" t="s">
         <v>486</v>
       </c>
-      <c r="J219" t="s">
+      <c r="J219" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -25960,10 +27038,10 @@
       <c r="B220" t="s">
         <v>448</v>
       </c>
-      <c r="C220" s="12" t="s">
+      <c r="C220" t="s">
         <v>452</v>
       </c>
-      <c r="D220" s="12">
+      <c r="D220">
         <v>0</v>
       </c>
       <c r="E220" t="s">
@@ -25981,7 +27059,7 @@
       <c r="I220" t="s">
         <v>486</v>
       </c>
-      <c r="J220" t="s">
+      <c r="J220" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -25992,10 +27070,10 @@
       <c r="B221" t="s">
         <v>446</v>
       </c>
-      <c r="C221" s="12" t="s">
+      <c r="C221" t="s">
         <v>452</v>
       </c>
-      <c r="D221" s="12">
+      <c r="D221">
         <v>0</v>
       </c>
       <c r="E221" t="s">
@@ -26013,7 +27091,7 @@
       <c r="I221" t="s">
         <v>486</v>
       </c>
-      <c r="J221" t="s">
+      <c r="J221" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -26024,10 +27102,10 @@
       <c r="B222" t="s">
         <v>445</v>
       </c>
-      <c r="C222" s="12" t="s">
+      <c r="C222" t="s">
         <v>452</v>
       </c>
-      <c r="D222" s="12">
+      <c r="D222">
         <v>0</v>
       </c>
       <c r="E222" t="s">
@@ -26045,7 +27123,7 @@
       <c r="I222" t="s">
         <v>486</v>
       </c>
-      <c r="J222" t="s">
+      <c r="J222" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -26056,10 +27134,10 @@
       <c r="B223" t="s">
         <v>447</v>
       </c>
-      <c r="C223" s="12" t="s">
+      <c r="C223" t="s">
         <v>452</v>
       </c>
-      <c r="D223" s="12">
+      <c r="D223">
         <v>0</v>
       </c>
       <c r="E223" t="s">
@@ -26077,7 +27155,7 @@
       <c r="I223" t="s">
         <v>486</v>
       </c>
-      <c r="J223" t="s">
+      <c r="J223" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -26088,10 +27166,10 @@
       <c r="B224" t="s">
         <v>448</v>
       </c>
-      <c r="C224" s="12" t="s">
+      <c r="C224" t="s">
         <v>452</v>
       </c>
-      <c r="D224" s="12">
+      <c r="D224">
         <v>0</v>
       </c>
       <c r="E224" t="s">
@@ -26109,7 +27187,7 @@
       <c r="I224" t="s">
         <v>486</v>
       </c>
-      <c r="J224" t="s">
+      <c r="J224" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -26120,10 +27198,10 @@
       <c r="B225" t="s">
         <v>446</v>
       </c>
-      <c r="C225" s="12" t="s">
+      <c r="C225" t="s">
         <v>452</v>
       </c>
-      <c r="D225" s="12">
+      <c r="D225">
         <v>0</v>
       </c>
       <c r="E225" t="s">
@@ -26141,7 +27219,7 @@
       <c r="I225" t="s">
         <v>486</v>
       </c>
-      <c r="J225" t="s">
+      <c r="J225" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -26152,10 +27230,10 @@
       <c r="B226" t="s">
         <v>445</v>
       </c>
-      <c r="C226" s="12" t="s">
+      <c r="C226" t="s">
         <v>452</v>
       </c>
-      <c r="D226" s="12">
+      <c r="D226">
         <v>0</v>
       </c>
       <c r="E226" t="s">
@@ -26173,7 +27251,7 @@
       <c r="I226" t="s">
         <v>486</v>
       </c>
-      <c r="J226" t="s">
+      <c r="J226" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -26184,10 +27262,10 @@
       <c r="B227" t="s">
         <v>447</v>
       </c>
-      <c r="C227" s="12" t="s">
+      <c r="C227" t="s">
         <v>452</v>
       </c>
-      <c r="D227" s="12">
+      <c r="D227">
         <v>0</v>
       </c>
       <c r="E227" t="s">
@@ -26205,7 +27283,7 @@
       <c r="I227" t="s">
         <v>486</v>
       </c>
-      <c r="J227" t="s">
+      <c r="J227" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -26216,10 +27294,10 @@
       <c r="B228" t="s">
         <v>448</v>
       </c>
-      <c r="C228" s="12" t="s">
+      <c r="C228" t="s">
         <v>452</v>
       </c>
-      <c r="D228" s="12">
+      <c r="D228">
         <v>0</v>
       </c>
       <c r="E228" t="s">
@@ -26237,7 +27315,7 @@
       <c r="I228" t="s">
         <v>486</v>
       </c>
-      <c r="J228" t="s">
+      <c r="J228" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -26248,10 +27326,10 @@
       <c r="B229" t="s">
         <v>446</v>
       </c>
-      <c r="C229" s="12" t="s">
+      <c r="C229" t="s">
         <v>452</v>
       </c>
-      <c r="D229" s="12">
+      <c r="D229">
         <v>0</v>
       </c>
       <c r="E229" t="s">
@@ -26269,7 +27347,7 @@
       <c r="I229" t="s">
         <v>486</v>
       </c>
-      <c r="J229" t="s">
+      <c r="J229" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -26280,10 +27358,10 @@
       <c r="B230" t="s">
         <v>445</v>
       </c>
-      <c r="C230" s="12" t="s">
+      <c r="C230" t="s">
         <v>452</v>
       </c>
-      <c r="D230" s="12">
+      <c r="D230">
         <v>0</v>
       </c>
       <c r="E230" t="s">
@@ -26301,7 +27379,7 @@
       <c r="I230" t="s">
         <v>486</v>
       </c>
-      <c r="J230" t="s">
+      <c r="J230" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -26312,10 +27390,10 @@
       <c r="B231" t="s">
         <v>447</v>
       </c>
-      <c r="C231" s="12" t="s">
+      <c r="C231" t="s">
         <v>452</v>
       </c>
-      <c r="D231" s="12">
+      <c r="D231">
         <v>0</v>
       </c>
       <c r="E231" t="s">
@@ -26333,7 +27411,7 @@
       <c r="I231" t="s">
         <v>486</v>
       </c>
-      <c r="J231" t="s">
+      <c r="J231" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -26344,10 +27422,10 @@
       <c r="B232" t="s">
         <v>448</v>
       </c>
-      <c r="C232" s="12" t="s">
+      <c r="C232" t="s">
         <v>452</v>
       </c>
-      <c r="D232" s="12">
+      <c r="D232">
         <v>0</v>
       </c>
       <c r="E232" t="s">
@@ -26365,7 +27443,7 @@
       <c r="I232" t="s">
         <v>486</v>
       </c>
-      <c r="J232" t="s">
+      <c r="J232" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -26376,10 +27454,10 @@
       <c r="B233" t="s">
         <v>446</v>
       </c>
-      <c r="C233" s="12" t="s">
+      <c r="C233" t="s">
         <v>452</v>
       </c>
-      <c r="D233" s="12">
+      <c r="D233">
         <v>0</v>
       </c>
       <c r="E233" t="s">
@@ -26397,7 +27475,7 @@
       <c r="I233" t="s">
         <v>486</v>
       </c>
-      <c r="J233" t="s">
+      <c r="J233" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -26408,10 +27486,10 @@
       <c r="B234" t="s">
         <v>445</v>
       </c>
-      <c r="C234" s="12" t="s">
+      <c r="C234" t="s">
         <v>452</v>
       </c>
-      <c r="D234" s="12">
+      <c r="D234">
         <v>0</v>
       </c>
       <c r="E234" t="s">
@@ -26429,7 +27507,7 @@
       <c r="I234" t="s">
         <v>486</v>
       </c>
-      <c r="J234" t="s">
+      <c r="J234" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -26440,10 +27518,10 @@
       <c r="B235" t="s">
         <v>447</v>
       </c>
-      <c r="C235" s="12" t="s">
+      <c r="C235" t="s">
         <v>452</v>
       </c>
-      <c r="D235" s="12">
+      <c r="D235">
         <v>0</v>
       </c>
       <c r="E235" t="s">
@@ -26461,7 +27539,7 @@
       <c r="I235" t="s">
         <v>486</v>
       </c>
-      <c r="J235" t="s">
+      <c r="J235" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -26472,10 +27550,10 @@
       <c r="B236" t="s">
         <v>448</v>
       </c>
-      <c r="C236" s="12" t="s">
+      <c r="C236" t="s">
         <v>452</v>
       </c>
-      <c r="D236" s="12">
+      <c r="D236">
         <v>0</v>
       </c>
       <c r="E236" t="s">
@@ -26493,7 +27571,7 @@
       <c r="I236" t="s">
         <v>486</v>
       </c>
-      <c r="J236" t="s">
+      <c r="J236" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -26504,10 +27582,10 @@
       <c r="B237" t="s">
         <v>446</v>
       </c>
-      <c r="C237" s="12" t="s">
+      <c r="C237" t="s">
         <v>452</v>
       </c>
-      <c r="D237" s="12">
+      <c r="D237">
         <v>0</v>
       </c>
       <c r="E237" t="s">
@@ -26525,7 +27603,7 @@
       <c r="I237" t="s">
         <v>486</v>
       </c>
-      <c r="J237" t="s">
+      <c r="J237" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -26536,10 +27614,10 @@
       <c r="B238" t="s">
         <v>445</v>
       </c>
-      <c r="C238" s="12" t="s">
+      <c r="C238" t="s">
         <v>452</v>
       </c>
-      <c r="D238" s="12">
+      <c r="D238">
         <v>0</v>
       </c>
       <c r="E238" t="s">
@@ -26557,7 +27635,7 @@
       <c r="I238" t="s">
         <v>486</v>
       </c>
-      <c r="J238" t="s">
+      <c r="J238" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -26568,10 +27646,10 @@
       <c r="B239" t="s">
         <v>447</v>
       </c>
-      <c r="C239" s="12" t="s">
+      <c r="C239" t="s">
         <v>452</v>
       </c>
-      <c r="D239" s="12">
+      <c r="D239">
         <v>0</v>
       </c>
       <c r="E239" t="s">
@@ -26589,7 +27667,7 @@
       <c r="I239" t="s">
         <v>486</v>
       </c>
-      <c r="J239" t="s">
+      <c r="J239" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -26600,10 +27678,10 @@
       <c r="B240" t="s">
         <v>448</v>
       </c>
-      <c r="C240" s="12" t="s">
+      <c r="C240" t="s">
         <v>452</v>
       </c>
-      <c r="D240" s="12">
+      <c r="D240">
         <v>0</v>
       </c>
       <c r="E240" t="s">
@@ -26621,7 +27699,7 @@
       <c r="I240" t="s">
         <v>486</v>
       </c>
-      <c r="J240" t="s">
+      <c r="J240" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -26632,10 +27710,10 @@
       <c r="B241" t="s">
         <v>446</v>
       </c>
-      <c r="C241" s="12" t="s">
+      <c r="C241" t="s">
         <v>452</v>
       </c>
-      <c r="D241" s="12">
+      <c r="D241">
         <v>0</v>
       </c>
       <c r="E241" t="s">
@@ -26653,7 +27731,7 @@
       <c r="I241" t="s">
         <v>486</v>
       </c>
-      <c r="J241" t="s">
+      <c r="J241" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -26664,10 +27742,10 @@
       <c r="B242" t="s">
         <v>445</v>
       </c>
-      <c r="C242" s="12" t="s">
+      <c r="C242" t="s">
         <v>452</v>
       </c>
-      <c r="D242" s="12">
+      <c r="D242">
         <v>0</v>
       </c>
       <c r="E242" t="s">
@@ -26685,7 +27763,7 @@
       <c r="I242" t="s">
         <v>486</v>
       </c>
-      <c r="J242" t="s">
+      <c r="J242" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -26696,10 +27774,10 @@
       <c r="B243" t="s">
         <v>447</v>
       </c>
-      <c r="C243" s="12" t="s">
+      <c r="C243" t="s">
         <v>452</v>
       </c>
-      <c r="D243" s="12">
+      <c r="D243">
         <v>0</v>
       </c>
       <c r="E243" t="s">
@@ -26717,7 +27795,7 @@
       <c r="I243" t="s">
         <v>486</v>
       </c>
-      <c r="J243" t="s">
+      <c r="J243" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -26728,10 +27806,10 @@
       <c r="B244" t="s">
         <v>448</v>
       </c>
-      <c r="C244" s="12" t="s">
+      <c r="C244" t="s">
         <v>452</v>
       </c>
-      <c r="D244" s="12">
+      <c r="D244">
         <v>0</v>
       </c>
       <c r="E244" t="s">
@@ -26749,7 +27827,7 @@
       <c r="I244" t="s">
         <v>486</v>
       </c>
-      <c r="J244" t="s">
+      <c r="J244" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -26760,10 +27838,10 @@
       <c r="B245" t="s">
         <v>446</v>
       </c>
-      <c r="C245" s="12" t="s">
+      <c r="C245" t="s">
         <v>452</v>
       </c>
-      <c r="D245" s="12">
+      <c r="D245">
         <v>0</v>
       </c>
       <c r="E245" t="s">
@@ -26781,7 +27859,7 @@
       <c r="I245" t="s">
         <v>486</v>
       </c>
-      <c r="J245" t="s">
+      <c r="J245" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -26792,10 +27870,10 @@
       <c r="B246" t="s">
         <v>445</v>
       </c>
-      <c r="C246" s="12" t="s">
+      <c r="C246" t="s">
         <v>452</v>
       </c>
-      <c r="D246" s="12">
+      <c r="D246">
         <v>0</v>
       </c>
       <c r="E246" t="s">
@@ -26813,7 +27891,7 @@
       <c r="I246" t="s">
         <v>486</v>
       </c>
-      <c r="J246" t="s">
+      <c r="J246" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -26824,10 +27902,10 @@
       <c r="B247" t="s">
         <v>447</v>
       </c>
-      <c r="C247" s="12" t="s">
+      <c r="C247" t="s">
         <v>452</v>
       </c>
-      <c r="D247" s="12">
+      <c r="D247">
         <v>0</v>
       </c>
       <c r="E247" t="s">
@@ -26845,7 +27923,7 @@
       <c r="I247" t="s">
         <v>486</v>
       </c>
-      <c r="J247" t="s">
+      <c r="J247" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -26856,10 +27934,10 @@
       <c r="B248" t="s">
         <v>448</v>
       </c>
-      <c r="C248" s="12" t="s">
+      <c r="C248" t="s">
         <v>452</v>
       </c>
-      <c r="D248" s="12">
+      <c r="D248">
         <v>0</v>
       </c>
       <c r="E248" t="s">
@@ -26877,7 +27955,7 @@
       <c r="I248" t="s">
         <v>486</v>
       </c>
-      <c r="J248" t="s">
+      <c r="J248" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -26888,10 +27966,10 @@
       <c r="B249" t="s">
         <v>446</v>
       </c>
-      <c r="C249" s="12" t="s">
+      <c r="C249" t="s">
         <v>452</v>
       </c>
-      <c r="D249" s="12">
+      <c r="D249">
         <v>0</v>
       </c>
       <c r="E249" t="s">
@@ -26909,7 +27987,7 @@
       <c r="I249" t="s">
         <v>486</v>
       </c>
-      <c r="J249" t="s">
+      <c r="J249" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -26920,10 +27998,10 @@
       <c r="B250" t="s">
         <v>445</v>
       </c>
-      <c r="C250" s="12" t="s">
+      <c r="C250" t="s">
         <v>452</v>
       </c>
-      <c r="D250" s="12">
+      <c r="D250">
         <v>0</v>
       </c>
       <c r="E250" t="s">
@@ -26941,7 +28019,7 @@
       <c r="I250" t="s">
         <v>486</v>
       </c>
-      <c r="J250" t="s">
+      <c r="J250" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -26952,10 +28030,10 @@
       <c r="B251" t="s">
         <v>447</v>
       </c>
-      <c r="C251" s="12" t="s">
+      <c r="C251" t="s">
         <v>452</v>
       </c>
-      <c r="D251" s="12">
+      <c r="D251">
         <v>0</v>
       </c>
       <c r="E251" t="s">
@@ -26973,7 +28051,7 @@
       <c r="I251" t="s">
         <v>486</v>
       </c>
-      <c r="J251" t="s">
+      <c r="J251" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -26984,10 +28062,10 @@
       <c r="B252" t="s">
         <v>448</v>
       </c>
-      <c r="C252" s="12" t="s">
+      <c r="C252" t="s">
         <v>452</v>
       </c>
-      <c r="D252" s="12">
+      <c r="D252">
         <v>0</v>
       </c>
       <c r="E252" t="s">
@@ -27005,7 +28083,7 @@
       <c r="I252" t="s">
         <v>486</v>
       </c>
-      <c r="J252" t="s">
+      <c r="J252" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -27016,10 +28094,10 @@
       <c r="B253" t="s">
         <v>446</v>
       </c>
-      <c r="C253" s="12" t="s">
+      <c r="C253" t="s">
         <v>452</v>
       </c>
-      <c r="D253" s="12">
+      <c r="D253">
         <v>0</v>
       </c>
       <c r="E253" t="s">
@@ -27037,7 +28115,7 @@
       <c r="I253" t="s">
         <v>486</v>
       </c>
-      <c r="J253" t="s">
+      <c r="J253" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -27048,10 +28126,10 @@
       <c r="B254" t="s">
         <v>445</v>
       </c>
-      <c r="C254" s="12" t="s">
+      <c r="C254" t="s">
         <v>452</v>
       </c>
-      <c r="D254" s="12">
+      <c r="D254">
         <v>0</v>
       </c>
       <c r="E254" t="s">
@@ -27069,7 +28147,7 @@
       <c r="I254" t="s">
         <v>486</v>
       </c>
-      <c r="J254" t="s">
+      <c r="J254" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -27080,10 +28158,10 @@
       <c r="B255" t="s">
         <v>447</v>
       </c>
-      <c r="C255" s="12" t="s">
+      <c r="C255" t="s">
         <v>452</v>
       </c>
-      <c r="D255" s="12">
+      <c r="D255">
         <v>0</v>
       </c>
       <c r="E255" t="s">
@@ -27101,7 +28179,7 @@
       <c r="I255" t="s">
         <v>486</v>
       </c>
-      <c r="J255" t="s">
+      <c r="J255" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -27112,10 +28190,10 @@
       <c r="B256" t="s">
         <v>448</v>
       </c>
-      <c r="C256" s="12" t="s">
+      <c r="C256" t="s">
         <v>452</v>
       </c>
-      <c r="D256" s="12">
+      <c r="D256">
         <v>0</v>
       </c>
       <c r="E256" t="s">
@@ -27133,7 +28211,7 @@
       <c r="I256" t="s">
         <v>486</v>
       </c>
-      <c r="J256" t="s">
+      <c r="J256" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -27144,10 +28222,10 @@
       <c r="B257" t="s">
         <v>446</v>
       </c>
-      <c r="C257" s="12" t="s">
+      <c r="C257" t="s">
         <v>452</v>
       </c>
-      <c r="D257" s="12">
+      <c r="D257">
         <v>0</v>
       </c>
       <c r="E257" t="s">
@@ -27165,7 +28243,7 @@
       <c r="I257" t="s">
         <v>486</v>
       </c>
-      <c r="J257" t="s">
+      <c r="J257" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -27176,10 +28254,10 @@
       <c r="B258" t="s">
         <v>445</v>
       </c>
-      <c r="C258" s="12" t="s">
+      <c r="C258" t="s">
         <v>452</v>
       </c>
-      <c r="D258" s="12">
+      <c r="D258">
         <v>0</v>
       </c>
       <c r="E258" t="s">
@@ -27197,7 +28275,7 @@
       <c r="I258" t="s">
         <v>486</v>
       </c>
-      <c r="J258" t="s">
+      <c r="J258" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -27208,10 +28286,10 @@
       <c r="B259" t="s">
         <v>447</v>
       </c>
-      <c r="C259" s="12" t="s">
+      <c r="C259" t="s">
         <v>452</v>
       </c>
-      <c r="D259" s="12">
+      <c r="D259">
         <v>0</v>
       </c>
       <c r="E259" t="s">
@@ -27229,7 +28307,7 @@
       <c r="I259" t="s">
         <v>486</v>
       </c>
-      <c r="J259" t="s">
+      <c r="J259" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -27240,10 +28318,10 @@
       <c r="B260" t="s">
         <v>448</v>
       </c>
-      <c r="C260" s="12" t="s">
+      <c r="C260" t="s">
         <v>452</v>
       </c>
-      <c r="D260" s="12">
+      <c r="D260">
         <v>0</v>
       </c>
       <c r="E260" t="s">
@@ -27261,7 +28339,7 @@
       <c r="I260" t="s">
         <v>486</v>
       </c>
-      <c r="J260" t="s">
+      <c r="J260" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -27272,10 +28350,10 @@
       <c r="B261" t="s">
         <v>446</v>
       </c>
-      <c r="C261" s="12" t="s">
+      <c r="C261" t="s">
         <v>452</v>
       </c>
-      <c r="D261" s="12">
+      <c r="D261">
         <v>0</v>
       </c>
       <c r="E261" t="s">
@@ -27293,7 +28371,7 @@
       <c r="I261" t="s">
         <v>486</v>
       </c>
-      <c r="J261" t="s">
+      <c r="J261" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -27304,10 +28382,10 @@
       <c r="B262" t="s">
         <v>445</v>
       </c>
-      <c r="C262" s="12" t="s">
+      <c r="C262" t="s">
         <v>452</v>
       </c>
-      <c r="D262" s="12">
+      <c r="D262">
         <v>0</v>
       </c>
       <c r="E262" t="s">
@@ -27325,7 +28403,7 @@
       <c r="I262" t="s">
         <v>486</v>
       </c>
-      <c r="J262" t="s">
+      <c r="J262" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -27339,7 +28417,7 @@
       <c r="C263" t="s">
         <v>484</v>
       </c>
-      <c r="D263" s="12">
+      <c r="D263">
         <v>2</v>
       </c>
       <c r="E263" t="s">
@@ -27357,7 +28435,7 @@
       <c r="I263" t="s">
         <v>449</v>
       </c>
-      <c r="J263">
+      <c r="J263" s="14">
         <v>0</v>
       </c>
     </row>
@@ -27368,10 +28446,10 @@
       <c r="B264" t="s">
         <v>448</v>
       </c>
-      <c r="C264" s="12" t="s">
+      <c r="C264" t="s">
         <v>452</v>
       </c>
-      <c r="D264" s="12">
+      <c r="D264">
         <v>0</v>
       </c>
       <c r="E264" t="s">
@@ -27389,7 +28467,7 @@
       <c r="I264" t="s">
         <v>486</v>
       </c>
-      <c r="J264" t="s">
+      <c r="J264" s="14" t="s">
         <v>486</v>
       </c>
     </row>
@@ -27403,7 +28481,7 @@
       <c r="C265" t="s">
         <v>484</v>
       </c>
-      <c r="D265" s="12">
+      <c r="D265">
         <v>3</v>
       </c>
       <c r="E265" t="s">
@@ -27421,11 +28499,907 @@
       <c r="I265" t="s">
         <v>449</v>
       </c>
-      <c r="J265">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
+      <c r="J265" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="6">
+        <v>16</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="D266" s="6">
+        <v>5</v>
+      </c>
+      <c r="E266" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="F266" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="G266" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="H266" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="I266" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="J266" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A267">
+        <v>16</v>
+      </c>
+      <c r="B267" t="s">
+        <v>447</v>
+      </c>
+      <c r="C267" t="s">
+        <v>484</v>
+      </c>
+      <c r="D267">
+        <v>2</v>
+      </c>
+      <c r="E267" t="s">
+        <v>449</v>
+      </c>
+      <c r="F267" t="s">
+        <v>449</v>
+      </c>
+      <c r="G267" t="s">
+        <v>449</v>
+      </c>
+      <c r="H267" t="s">
+        <v>449</v>
+      </c>
+      <c r="I267" t="s">
+        <v>449</v>
+      </c>
+      <c r="J267" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A268">
+        <v>16</v>
+      </c>
+      <c r="B268" t="s">
+        <v>448</v>
+      </c>
+      <c r="C268" t="s">
+        <v>590</v>
+      </c>
+      <c r="D268">
+        <v>2</v>
+      </c>
+      <c r="E268" t="s">
+        <v>449</v>
+      </c>
+      <c r="F268" t="s">
+        <v>449</v>
+      </c>
+      <c r="G268" t="s">
+        <v>449</v>
+      </c>
+      <c r="H268" t="s">
+        <v>449</v>
+      </c>
+      <c r="I268" t="s">
+        <v>449</v>
+      </c>
+      <c r="J268" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A269">
+        <v>16</v>
+      </c>
+      <c r="B269" t="s">
+        <v>446</v>
+      </c>
+      <c r="C269" t="s">
+        <v>484</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+      <c r="E269" t="s">
+        <v>449</v>
+      </c>
+      <c r="F269" t="s">
+        <v>449</v>
+      </c>
+      <c r="G269" t="s">
+        <v>449</v>
+      </c>
+      <c r="H269" t="s">
+        <v>449</v>
+      </c>
+      <c r="I269" t="s">
+        <v>449</v>
+      </c>
+      <c r="J269" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A270">
+        <v>18</v>
+      </c>
+      <c r="B270" t="s">
+        <v>445</v>
+      </c>
+      <c r="C270" t="s">
+        <v>502</v>
+      </c>
+      <c r="D270">
+        <v>15</v>
+      </c>
+      <c r="E270" t="s">
+        <v>449</v>
+      </c>
+      <c r="F270" t="s">
+        <v>449</v>
+      </c>
+      <c r="G270" t="s">
+        <v>449</v>
+      </c>
+      <c r="H270" t="s">
+        <v>449</v>
+      </c>
+      <c r="I270" t="s">
+        <v>449</v>
+      </c>
+      <c r="J270" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A271">
+        <v>18</v>
+      </c>
+      <c r="B271" t="s">
+        <v>447</v>
+      </c>
+      <c r="C271" t="s">
+        <v>590</v>
+      </c>
+      <c r="D271">
+        <v>11</v>
+      </c>
+      <c r="E271" t="s">
+        <v>449</v>
+      </c>
+      <c r="F271" t="s">
+        <v>449</v>
+      </c>
+      <c r="G271" t="s">
+        <v>449</v>
+      </c>
+      <c r="H271" t="s">
+        <v>449</v>
+      </c>
+      <c r="I271" t="s">
+        <v>449</v>
+      </c>
+      <c r="J271" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A272">
+        <v>18</v>
+      </c>
+      <c r="B272" t="s">
+        <v>448</v>
+      </c>
+      <c r="C272" t="s">
+        <v>502</v>
+      </c>
+      <c r="D272">
+        <v>11</v>
+      </c>
+      <c r="E272" t="s">
+        <v>449</v>
+      </c>
+      <c r="F272" t="s">
+        <v>449</v>
+      </c>
+      <c r="G272" t="s">
+        <v>449</v>
+      </c>
+      <c r="H272" t="s">
+        <v>449</v>
+      </c>
+      <c r="I272" t="s">
+        <v>449</v>
+      </c>
+      <c r="J272" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A273">
+        <v>18</v>
+      </c>
+      <c r="B273" t="s">
+        <v>446</v>
+      </c>
+      <c r="C273" t="s">
+        <v>502</v>
+      </c>
+      <c r="D273">
+        <v>14</v>
+      </c>
+      <c r="E273" t="s">
+        <v>449</v>
+      </c>
+      <c r="F273" t="s">
+        <v>449</v>
+      </c>
+      <c r="G273" t="s">
+        <v>450</v>
+      </c>
+      <c r="H273" t="s">
+        <v>450</v>
+      </c>
+      <c r="I273" t="s">
+        <v>450</v>
+      </c>
+      <c r="J273" s="14">
+        <v>7</v>
+      </c>
+      <c r="L273" s="12"/>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A274">
+        <v>30</v>
+      </c>
+      <c r="B274" t="s">
+        <v>445</v>
+      </c>
+      <c r="C274" t="s">
+        <v>452</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274" t="s">
+        <v>486</v>
+      </c>
+      <c r="F274" t="s">
+        <v>486</v>
+      </c>
+      <c r="G274" t="s">
+        <v>486</v>
+      </c>
+      <c r="H274" t="s">
+        <v>486</v>
+      </c>
+      <c r="I274" t="s">
+        <v>486</v>
+      </c>
+      <c r="J274" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A275">
+        <v>30</v>
+      </c>
+      <c r="B275" t="s">
+        <v>447</v>
+      </c>
+      <c r="C275" t="s">
+        <v>452</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275" t="s">
+        <v>486</v>
+      </c>
+      <c r="F275" t="s">
+        <v>486</v>
+      </c>
+      <c r="G275" t="s">
+        <v>486</v>
+      </c>
+      <c r="H275" t="s">
+        <v>486</v>
+      </c>
+      <c r="I275" t="s">
+        <v>486</v>
+      </c>
+      <c r="J275" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A276">
+        <v>30</v>
+      </c>
+      <c r="B276" t="s">
+        <v>448</v>
+      </c>
+      <c r="C276" t="s">
+        <v>452</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276" t="s">
+        <v>486</v>
+      </c>
+      <c r="F276" t="s">
+        <v>486</v>
+      </c>
+      <c r="G276" t="s">
+        <v>486</v>
+      </c>
+      <c r="H276" t="s">
+        <v>486</v>
+      </c>
+      <c r="I276" t="s">
+        <v>486</v>
+      </c>
+      <c r="J276" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A277">
+        <v>30</v>
+      </c>
+      <c r="B277" t="s">
+        <v>446</v>
+      </c>
+      <c r="C277" t="s">
+        <v>452</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277" t="s">
+        <v>486</v>
+      </c>
+      <c r="F277" t="s">
+        <v>486</v>
+      </c>
+      <c r="G277" t="s">
+        <v>486</v>
+      </c>
+      <c r="H277" t="s">
+        <v>486</v>
+      </c>
+      <c r="I277" t="s">
+        <v>486</v>
+      </c>
+      <c r="J277" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A278">
+        <v>29</v>
+      </c>
+      <c r="B278" t="s">
+        <v>445</v>
+      </c>
+      <c r="C278" t="s">
+        <v>452</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278" t="s">
+        <v>486</v>
+      </c>
+      <c r="F278" t="s">
+        <v>486</v>
+      </c>
+      <c r="G278" t="s">
+        <v>486</v>
+      </c>
+      <c r="H278" t="s">
+        <v>486</v>
+      </c>
+      <c r="I278" t="s">
+        <v>486</v>
+      </c>
+      <c r="J278" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A279">
+        <v>29</v>
+      </c>
+      <c r="B279" t="s">
+        <v>447</v>
+      </c>
+      <c r="C279" t="s">
+        <v>452</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+      <c r="E279" t="s">
+        <v>486</v>
+      </c>
+      <c r="F279" t="s">
+        <v>486</v>
+      </c>
+      <c r="G279" t="s">
+        <v>486</v>
+      </c>
+      <c r="H279" t="s">
+        <v>486</v>
+      </c>
+      <c r="I279" t="s">
+        <v>486</v>
+      </c>
+      <c r="J279" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A280">
+        <v>29</v>
+      </c>
+      <c r="B280" t="s">
+        <v>448</v>
+      </c>
+      <c r="C280" t="s">
+        <v>452</v>
+      </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+      <c r="E280" t="s">
+        <v>486</v>
+      </c>
+      <c r="F280" t="s">
+        <v>486</v>
+      </c>
+      <c r="G280" t="s">
+        <v>486</v>
+      </c>
+      <c r="H280" t="s">
+        <v>486</v>
+      </c>
+      <c r="I280" t="s">
+        <v>486</v>
+      </c>
+      <c r="J280" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A281">
+        <v>29</v>
+      </c>
+      <c r="B281" t="s">
+        <v>446</v>
+      </c>
+      <c r="C281" t="s">
+        <v>452</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+      <c r="E281" t="s">
+        <v>486</v>
+      </c>
+      <c r="F281" t="s">
+        <v>486</v>
+      </c>
+      <c r="G281" t="s">
+        <v>486</v>
+      </c>
+      <c r="H281" t="s">
+        <v>486</v>
+      </c>
+      <c r="I281" t="s">
+        <v>486</v>
+      </c>
+      <c r="J281" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A282">
+        <v>28</v>
+      </c>
+      <c r="B282" t="s">
+        <v>445</v>
+      </c>
+      <c r="C282" t="s">
+        <v>452</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+      <c r="E282" t="s">
+        <v>486</v>
+      </c>
+      <c r="F282" t="s">
+        <v>486</v>
+      </c>
+      <c r="G282" t="s">
+        <v>486</v>
+      </c>
+      <c r="H282" t="s">
+        <v>486</v>
+      </c>
+      <c r="I282" t="s">
+        <v>486</v>
+      </c>
+      <c r="J282" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A283">
+        <v>28</v>
+      </c>
+      <c r="B283" t="s">
+        <v>447</v>
+      </c>
+      <c r="C283" t="s">
+        <v>452</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283" t="s">
+        <v>486</v>
+      </c>
+      <c r="F283" t="s">
+        <v>486</v>
+      </c>
+      <c r="G283" t="s">
+        <v>486</v>
+      </c>
+      <c r="H283" t="s">
+        <v>486</v>
+      </c>
+      <c r="I283" t="s">
+        <v>486</v>
+      </c>
+      <c r="J283" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A284">
+        <v>28</v>
+      </c>
+      <c r="B284" t="s">
+        <v>448</v>
+      </c>
+      <c r="C284" t="s">
+        <v>452</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284" t="s">
+        <v>486</v>
+      </c>
+      <c r="F284" t="s">
+        <v>486</v>
+      </c>
+      <c r="G284" t="s">
+        <v>486</v>
+      </c>
+      <c r="H284" t="s">
+        <v>486</v>
+      </c>
+      <c r="I284" t="s">
+        <v>486</v>
+      </c>
+      <c r="J284" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A285">
+        <v>28</v>
+      </c>
+      <c r="B285" t="s">
+        <v>446</v>
+      </c>
+      <c r="C285" t="s">
+        <v>452</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285" t="s">
+        <v>486</v>
+      </c>
+      <c r="F285" t="s">
+        <v>486</v>
+      </c>
+      <c r="G285" t="s">
+        <v>486</v>
+      </c>
+      <c r="H285" t="s">
+        <v>486</v>
+      </c>
+      <c r="I285" t="s">
+        <v>486</v>
+      </c>
+      <c r="J285" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A286">
+        <v>72</v>
+      </c>
+      <c r="B286" t="s">
+        <v>445</v>
+      </c>
+      <c r="C286" t="s">
+        <v>502</v>
+      </c>
+      <c r="D286">
+        <v>6</v>
+      </c>
+      <c r="E286" t="s">
+        <v>449</v>
+      </c>
+      <c r="F286" t="s">
+        <v>449</v>
+      </c>
+      <c r="G286" t="s">
+        <v>449</v>
+      </c>
+      <c r="H286" t="s">
+        <v>449</v>
+      </c>
+      <c r="I286" t="s">
+        <v>449</v>
+      </c>
+      <c r="J286" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A287">
+        <v>72</v>
+      </c>
+      <c r="B287" t="s">
+        <v>447</v>
+      </c>
+      <c r="C287" t="s">
+        <v>502</v>
+      </c>
+      <c r="D287">
+        <v>2</v>
+      </c>
+      <c r="E287" t="s">
+        <v>449</v>
+      </c>
+      <c r="F287" t="s">
+        <v>449</v>
+      </c>
+      <c r="G287" t="s">
+        <v>449</v>
+      </c>
+      <c r="H287" t="s">
+        <v>449</v>
+      </c>
+      <c r="I287" t="s">
+        <v>449</v>
+      </c>
+      <c r="J287" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A288">
+        <v>72</v>
+      </c>
+      <c r="B288" t="s">
+        <v>448</v>
+      </c>
+      <c r="C288" t="s">
+        <v>502</v>
+      </c>
+      <c r="D288">
+        <v>12</v>
+      </c>
+      <c r="E288" t="s">
+        <v>449</v>
+      </c>
+      <c r="F288" t="s">
+        <v>449</v>
+      </c>
+      <c r="G288" t="s">
+        <v>449</v>
+      </c>
+      <c r="H288" t="s">
+        <v>449</v>
+      </c>
+      <c r="I288" t="s">
+        <v>449</v>
+      </c>
+      <c r="J288" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A289">
+        <v>72</v>
+      </c>
+      <c r="B289" t="s">
+        <v>446</v>
+      </c>
+      <c r="C289" t="s">
+        <v>903</v>
+      </c>
+      <c r="D289">
+        <v>10</v>
+      </c>
+      <c r="E289" t="s">
+        <v>449</v>
+      </c>
+      <c r="F289" t="s">
+        <v>449</v>
+      </c>
+      <c r="G289" t="s">
+        <v>449</v>
+      </c>
+      <c r="H289" t="s">
+        <v>449</v>
+      </c>
+      <c r="I289" t="s">
+        <v>449</v>
+      </c>
+      <c r="J289" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A290">
+        <v>60</v>
+      </c>
+      <c r="B290" t="s">
+        <v>445</v>
+      </c>
+      <c r="C290" t="s">
+        <v>484</v>
+      </c>
+      <c r="D290">
+        <v>12</v>
+      </c>
+      <c r="E290" t="s">
+        <v>449</v>
+      </c>
+      <c r="F290" t="s">
+        <v>449</v>
+      </c>
+      <c r="G290" t="s">
+        <v>449</v>
+      </c>
+      <c r="H290" t="s">
+        <v>449</v>
+      </c>
+      <c r="I290" t="s">
+        <v>449</v>
+      </c>
+      <c r="J290" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A291">
+        <v>60</v>
+      </c>
+      <c r="B291" t="s">
+        <v>447</v>
+      </c>
+      <c r="C291" t="s">
+        <v>484</v>
+      </c>
+      <c r="D291">
+        <v>3</v>
+      </c>
+      <c r="E291" t="s">
+        <v>449</v>
+      </c>
+      <c r="F291" t="s">
+        <v>449</v>
+      </c>
+      <c r="G291" t="s">
+        <v>449</v>
+      </c>
+      <c r="H291" t="s">
+        <v>449</v>
+      </c>
+      <c r="I291" t="s">
+        <v>449</v>
+      </c>
+      <c r="J291" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A292">
+        <v>60</v>
+      </c>
+      <c r="B292" t="s">
+        <v>448</v>
+      </c>
+      <c r="C292" t="s">
+        <v>484</v>
+      </c>
+      <c r="D292">
+        <v>4</v>
+      </c>
+      <c r="E292" t="s">
+        <v>449</v>
+      </c>
+      <c r="F292" t="s">
+        <v>449</v>
+      </c>
+      <c r="G292" t="s">
+        <v>449</v>
+      </c>
+      <c r="H292" t="s">
+        <v>449</v>
+      </c>
+      <c r="I292" t="s">
+        <v>449</v>
+      </c>
+      <c r="J292" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A293">
+        <v>60</v>
+      </c>
+      <c r="B293" t="s">
+        <v>446</v>
+      </c>
+      <c r="C293" t="s">
+        <v>484</v>
+      </c>
+      <c r="D293">
+        <v>8</v>
+      </c>
+      <c r="E293" t="s">
+        <v>449</v>
+      </c>
+      <c r="F293" t="s">
+        <v>449</v>
+      </c>
+      <c r="G293" t="s">
+        <v>449</v>
+      </c>
+      <c r="H293" t="s">
+        <v>450</v>
+      </c>
+      <c r="I293" t="s">
+        <v>449</v>
+      </c>
+      <c r="J293" s="14">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27433,23 +29407,38 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA95277-679F-4206-8ACD-7B30D3EACF40}">
-  <dimension ref="A1:S310"/>
+  <dimension ref="A1:S385"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T83" sqref="T83"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A379" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E390" sqref="E390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" customWidth="1"/>
-    <col min="17" max="17" width="8" customWidth="1"/>
-    <col min="18" max="18" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" customWidth="1"/>
+    <col min="2" max="2" width="5.26953125" customWidth="1"/>
+    <col min="3" max="3" width="4.7265625" customWidth="1"/>
+    <col min="4" max="4" width="6.08984375" customWidth="1"/>
+    <col min="5" max="5" width="6.453125" customWidth="1"/>
+    <col min="6" max="6" width="5.1796875" customWidth="1"/>
+    <col min="7" max="7" width="4.54296875" customWidth="1"/>
+    <col min="8" max="8" width="5.1796875" customWidth="1"/>
+    <col min="9" max="9" width="5" customWidth="1"/>
+    <col min="10" max="10" width="5.1796875" customWidth="1"/>
+    <col min="11" max="11" width="7.08984375" customWidth="1"/>
+    <col min="12" max="12" width="7.54296875" customWidth="1"/>
+    <col min="13" max="13" width="6.08984375" customWidth="1"/>
+    <col min="14" max="14" width="5.26953125" customWidth="1"/>
+    <col min="15" max="15" width="5.7265625" customWidth="1"/>
+    <col min="16" max="16" width="4.81640625" customWidth="1"/>
+    <col min="17" max="17" width="9" customWidth="1"/>
+    <col min="18" max="18" width="13.1796875" customWidth="1"/>
+    <col min="19" max="19" width="4.08984375" customWidth="1"/>
     <col min="20" max="20" width="16.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -41205,7 +43194,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:19" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>82</v>
       </c>
@@ -41249,7 +43238,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>83</v>
       </c>
@@ -41308,7 +43297,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>84</v>
       </c>
@@ -41349,7 +43338,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>58</v>
       </c>
@@ -41393,7 +43382,3193 @@
         <v>843</v>
       </c>
     </row>
-    <row r="310" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="310" spans="1:19" s="6" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A310" s="6">
+        <v>16</v>
+      </c>
+      <c r="B310" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C310" s="6">
+        <v>275</v>
+      </c>
+      <c r="D310" s="6">
+        <v>15.22</v>
+      </c>
+      <c r="E310" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="F310" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="G310" s="6">
+        <v>2</v>
+      </c>
+      <c r="H310" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I310" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="J310" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="K310" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="L310" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="M310" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="N310" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q310" s="6" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="311" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A311">
+        <v>16</v>
+      </c>
+      <c r="B311" t="s">
+        <v>447</v>
+      </c>
+      <c r="C311">
+        <v>275</v>
+      </c>
+      <c r="D311">
+        <v>15.22</v>
+      </c>
+      <c r="E311" t="s">
+        <v>531</v>
+      </c>
+      <c r="F311">
+        <v>4.3</v>
+      </c>
+      <c r="G311">
+        <v>1</v>
+      </c>
+      <c r="H311" t="s">
+        <v>39</v>
+      </c>
+      <c r="I311" t="s">
+        <v>449</v>
+      </c>
+      <c r="J311" t="s">
+        <v>449</v>
+      </c>
+      <c r="K311" t="s">
+        <v>449</v>
+      </c>
+      <c r="L311" t="s">
+        <v>449</v>
+      </c>
+      <c r="M311" t="s">
+        <v>449</v>
+      </c>
+      <c r="N311" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q311" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="312" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A312">
+        <v>18</v>
+      </c>
+      <c r="B312" t="s">
+        <v>445</v>
+      </c>
+      <c r="D312" t="s">
+        <v>603</v>
+      </c>
+      <c r="E312" t="s">
+        <v>502</v>
+      </c>
+      <c r="F312">
+        <v>2.8</v>
+      </c>
+      <c r="G312">
+        <v>1</v>
+      </c>
+      <c r="H312" t="s">
+        <v>39</v>
+      </c>
+      <c r="I312" t="s">
+        <v>449</v>
+      </c>
+      <c r="J312" t="s">
+        <v>449</v>
+      </c>
+      <c r="K312" t="s">
+        <v>449</v>
+      </c>
+      <c r="L312" t="s">
+        <v>449</v>
+      </c>
+      <c r="M312" t="s">
+        <v>449</v>
+      </c>
+      <c r="N312" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="313" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A313">
+        <v>18</v>
+      </c>
+      <c r="B313" t="s">
+        <v>445</v>
+      </c>
+      <c r="D313" t="s">
+        <v>603</v>
+      </c>
+      <c r="E313" t="s">
+        <v>502</v>
+      </c>
+      <c r="F313">
+        <v>3.2</v>
+      </c>
+      <c r="G313">
+        <v>1</v>
+      </c>
+      <c r="H313" t="s">
+        <v>39</v>
+      </c>
+      <c r="I313" t="s">
+        <v>449</v>
+      </c>
+      <c r="J313" t="s">
+        <v>449</v>
+      </c>
+      <c r="K313" t="s">
+        <v>450</v>
+      </c>
+      <c r="L313" t="s">
+        <v>450</v>
+      </c>
+      <c r="M313" t="s">
+        <v>449</v>
+      </c>
+      <c r="N313" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="314" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A314">
+        <v>18</v>
+      </c>
+      <c r="B314" t="s">
+        <v>445</v>
+      </c>
+      <c r="D314" t="s">
+        <v>603</v>
+      </c>
+      <c r="E314" t="s">
+        <v>502</v>
+      </c>
+      <c r="F314">
+        <v>3.4</v>
+      </c>
+      <c r="G314">
+        <v>1</v>
+      </c>
+      <c r="H314" t="s">
+        <v>39</v>
+      </c>
+      <c r="I314" t="s">
+        <v>449</v>
+      </c>
+      <c r="J314" t="s">
+        <v>449</v>
+      </c>
+      <c r="K314" t="s">
+        <v>449</v>
+      </c>
+      <c r="L314" t="s">
+        <v>449</v>
+      </c>
+      <c r="M314" t="s">
+        <v>449</v>
+      </c>
+      <c r="N314" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="315" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A315">
+        <v>18</v>
+      </c>
+      <c r="B315" t="s">
+        <v>445</v>
+      </c>
+      <c r="D315" t="s">
+        <v>603</v>
+      </c>
+      <c r="E315" t="s">
+        <v>502</v>
+      </c>
+      <c r="F315">
+        <v>3.6</v>
+      </c>
+      <c r="G315">
+        <v>1</v>
+      </c>
+      <c r="H315" t="s">
+        <v>39</v>
+      </c>
+      <c r="I315" t="s">
+        <v>449</v>
+      </c>
+      <c r="J315" t="s">
+        <v>449</v>
+      </c>
+      <c r="K315" t="s">
+        <v>449</v>
+      </c>
+      <c r="L315" t="s">
+        <v>449</v>
+      </c>
+      <c r="M315" t="s">
+        <v>449</v>
+      </c>
+      <c r="N315" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="316" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A316">
+        <v>18</v>
+      </c>
+      <c r="B316" t="s">
+        <v>445</v>
+      </c>
+      <c r="D316" t="s">
+        <v>603</v>
+      </c>
+      <c r="E316" t="s">
+        <v>502</v>
+      </c>
+      <c r="F316">
+        <v>3.7</v>
+      </c>
+      <c r="G316">
+        <v>1</v>
+      </c>
+      <c r="H316" t="s">
+        <v>189</v>
+      </c>
+      <c r="I316" t="s">
+        <v>449</v>
+      </c>
+      <c r="J316" t="s">
+        <v>449</v>
+      </c>
+      <c r="K316" t="s">
+        <v>449</v>
+      </c>
+      <c r="L316" t="s">
+        <v>449</v>
+      </c>
+      <c r="M316" t="s">
+        <v>449</v>
+      </c>
+      <c r="N316" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="317" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A317">
+        <v>18</v>
+      </c>
+      <c r="B317" t="s">
+        <v>448</v>
+      </c>
+      <c r="D317" t="s">
+        <v>603</v>
+      </c>
+      <c r="E317" t="s">
+        <v>502</v>
+      </c>
+      <c r="F317">
+        <v>2.5</v>
+      </c>
+      <c r="G317">
+        <v>1</v>
+      </c>
+      <c r="H317" t="s">
+        <v>39</v>
+      </c>
+      <c r="I317" t="s">
+        <v>449</v>
+      </c>
+      <c r="J317" t="s">
+        <v>449</v>
+      </c>
+      <c r="K317" t="s">
+        <v>449</v>
+      </c>
+      <c r="L317" t="s">
+        <v>449</v>
+      </c>
+      <c r="M317" t="s">
+        <v>449</v>
+      </c>
+      <c r="N317" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="318" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A318">
+        <v>18</v>
+      </c>
+      <c r="B318" t="s">
+        <v>448</v>
+      </c>
+      <c r="D318" t="s">
+        <v>603</v>
+      </c>
+      <c r="E318" t="s">
+        <v>502</v>
+      </c>
+      <c r="F318">
+        <v>4.8</v>
+      </c>
+      <c r="G318">
+        <v>1</v>
+      </c>
+      <c r="H318" t="s">
+        <v>189</v>
+      </c>
+      <c r="I318" t="s">
+        <v>449</v>
+      </c>
+      <c r="J318" t="s">
+        <v>449</v>
+      </c>
+      <c r="K318" t="s">
+        <v>449</v>
+      </c>
+      <c r="L318" t="s">
+        <v>449</v>
+      </c>
+      <c r="M318" t="s">
+        <v>449</v>
+      </c>
+      <c r="N318" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="319" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A319">
+        <v>18</v>
+      </c>
+      <c r="B319" t="s">
+        <v>448</v>
+      </c>
+      <c r="D319" t="s">
+        <v>603</v>
+      </c>
+      <c r="E319" t="s">
+        <v>502</v>
+      </c>
+      <c r="F319">
+        <v>2.7</v>
+      </c>
+      <c r="G319">
+        <v>1</v>
+      </c>
+      <c r="H319" t="s">
+        <v>39</v>
+      </c>
+      <c r="I319" t="s">
+        <v>449</v>
+      </c>
+      <c r="J319" t="s">
+        <v>449</v>
+      </c>
+      <c r="K319" t="s">
+        <v>449</v>
+      </c>
+      <c r="L319" t="s">
+        <v>449</v>
+      </c>
+      <c r="M319" t="s">
+        <v>449</v>
+      </c>
+      <c r="N319" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="320" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A320">
+        <v>18</v>
+      </c>
+      <c r="B320" t="s">
+        <v>446</v>
+      </c>
+      <c r="D320" t="s">
+        <v>603</v>
+      </c>
+      <c r="E320" t="s">
+        <v>502</v>
+      </c>
+      <c r="F320">
+        <v>4.5</v>
+      </c>
+      <c r="G320">
+        <v>1</v>
+      </c>
+      <c r="H320" t="s">
+        <v>39</v>
+      </c>
+      <c r="I320" t="s">
+        <v>449</v>
+      </c>
+      <c r="J320" t="s">
+        <v>449</v>
+      </c>
+      <c r="K320" t="s">
+        <v>449</v>
+      </c>
+      <c r="L320" t="s">
+        <v>449</v>
+      </c>
+      <c r="M320" t="s">
+        <v>449</v>
+      </c>
+      <c r="N320" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="321" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A321">
+        <v>18</v>
+      </c>
+      <c r="B321" t="s">
+        <v>446</v>
+      </c>
+      <c r="C321">
+        <v>305</v>
+      </c>
+      <c r="D321">
+        <v>7.62</v>
+      </c>
+      <c r="E321" t="s">
+        <v>502</v>
+      </c>
+      <c r="F321">
+        <v>4.5</v>
+      </c>
+      <c r="G321">
+        <v>5</v>
+      </c>
+      <c r="H321" t="s">
+        <v>39</v>
+      </c>
+      <c r="I321" t="s">
+        <v>449</v>
+      </c>
+      <c r="J321" t="s">
+        <v>450</v>
+      </c>
+      <c r="K321" t="s">
+        <v>450</v>
+      </c>
+      <c r="L321" t="s">
+        <v>449</v>
+      </c>
+      <c r="M321" t="s">
+        <v>449</v>
+      </c>
+      <c r="N321" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q321" t="s">
+        <v>894</v>
+      </c>
+      <c r="R321" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="322" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A322">
+        <v>18</v>
+      </c>
+      <c r="B322" t="s">
+        <v>446</v>
+      </c>
+      <c r="D322" t="s">
+        <v>603</v>
+      </c>
+      <c r="E322" t="s">
+        <v>502</v>
+      </c>
+      <c r="F322">
+        <v>5.7</v>
+      </c>
+      <c r="G322">
+        <v>4</v>
+      </c>
+      <c r="H322" t="s">
+        <v>39</v>
+      </c>
+      <c r="I322" t="s">
+        <v>449</v>
+      </c>
+      <c r="J322" t="s">
+        <v>450</v>
+      </c>
+      <c r="K322" t="s">
+        <v>449</v>
+      </c>
+      <c r="L322" t="s">
+        <v>450</v>
+      </c>
+      <c r="M322" t="s">
+        <v>449</v>
+      </c>
+      <c r="N322" t="s">
+        <v>449</v>
+      </c>
+      <c r="R322" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="323" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A323">
+        <v>18</v>
+      </c>
+      <c r="B323" t="s">
+        <v>446</v>
+      </c>
+      <c r="D323" t="s">
+        <v>603</v>
+      </c>
+      <c r="E323" t="s">
+        <v>502</v>
+      </c>
+      <c r="F323">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G323">
+        <v>1</v>
+      </c>
+      <c r="H323" t="s">
+        <v>39</v>
+      </c>
+      <c r="I323" t="s">
+        <v>449</v>
+      </c>
+      <c r="J323" t="s">
+        <v>449</v>
+      </c>
+      <c r="K323" t="s">
+        <v>449</v>
+      </c>
+      <c r="L323" t="s">
+        <v>449</v>
+      </c>
+      <c r="M323" t="s">
+        <v>449</v>
+      </c>
+      <c r="N323" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="324" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A324">
+        <v>18</v>
+      </c>
+      <c r="B324" t="s">
+        <v>446</v>
+      </c>
+      <c r="D324" t="s">
+        <v>603</v>
+      </c>
+      <c r="E324" t="s">
+        <v>502</v>
+      </c>
+      <c r="F324">
+        <v>4.2</v>
+      </c>
+      <c r="G324">
+        <v>1</v>
+      </c>
+      <c r="H324" t="s">
+        <v>39</v>
+      </c>
+      <c r="I324" t="s">
+        <v>449</v>
+      </c>
+      <c r="J324" t="s">
+        <v>449</v>
+      </c>
+      <c r="K324" t="s">
+        <v>449</v>
+      </c>
+      <c r="L324" t="s">
+        <v>449</v>
+      </c>
+      <c r="M324" t="s">
+        <v>449</v>
+      </c>
+      <c r="N324" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="325" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A325">
+        <v>18</v>
+      </c>
+      <c r="B325" t="s">
+        <v>446</v>
+      </c>
+      <c r="D325" t="s">
+        <v>603</v>
+      </c>
+      <c r="E325" t="s">
+        <v>502</v>
+      </c>
+      <c r="F325">
+        <v>3.7</v>
+      </c>
+      <c r="G325">
+        <v>1</v>
+      </c>
+      <c r="H325" t="s">
+        <v>39</v>
+      </c>
+      <c r="I325" t="s">
+        <v>449</v>
+      </c>
+      <c r="J325" t="s">
+        <v>449</v>
+      </c>
+      <c r="K325" t="s">
+        <v>449</v>
+      </c>
+      <c r="L325" t="s">
+        <v>449</v>
+      </c>
+      <c r="M325" t="s">
+        <v>449</v>
+      </c>
+      <c r="N325" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="326" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A326">
+        <v>18</v>
+      </c>
+      <c r="B326" t="s">
+        <v>446</v>
+      </c>
+      <c r="D326" t="s">
+        <v>603</v>
+      </c>
+      <c r="E326" t="s">
+        <v>502</v>
+      </c>
+      <c r="F326">
+        <v>3.4</v>
+      </c>
+      <c r="G326">
+        <v>1</v>
+      </c>
+      <c r="H326" t="s">
+        <v>39</v>
+      </c>
+      <c r="I326" t="s">
+        <v>449</v>
+      </c>
+      <c r="J326" t="s">
+        <v>449</v>
+      </c>
+      <c r="K326" t="s">
+        <v>449</v>
+      </c>
+      <c r="L326" t="s">
+        <v>449</v>
+      </c>
+      <c r="M326" t="s">
+        <v>449</v>
+      </c>
+      <c r="N326" t="s">
+        <v>449</v>
+      </c>
+      <c r="R326" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="327" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A327">
+        <v>18</v>
+      </c>
+      <c r="B327" t="s">
+        <v>446</v>
+      </c>
+      <c r="D327" t="s">
+        <v>603</v>
+      </c>
+      <c r="E327" t="s">
+        <v>502</v>
+      </c>
+      <c r="F327">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G327">
+        <v>1</v>
+      </c>
+      <c r="H327" t="s">
+        <v>39</v>
+      </c>
+      <c r="I327" t="s">
+        <v>449</v>
+      </c>
+      <c r="J327" t="s">
+        <v>449</v>
+      </c>
+      <c r="K327" t="s">
+        <v>449</v>
+      </c>
+      <c r="L327" t="s">
+        <v>449</v>
+      </c>
+      <c r="M327" t="s">
+        <v>449</v>
+      </c>
+      <c r="N327" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="328" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A328">
+        <v>18</v>
+      </c>
+      <c r="B328" t="s">
+        <v>446</v>
+      </c>
+      <c r="C328">
+        <v>355</v>
+      </c>
+      <c r="D328">
+        <v>8.11</v>
+      </c>
+      <c r="E328" t="s">
+        <v>502</v>
+      </c>
+      <c r="F328">
+        <v>3.8</v>
+      </c>
+      <c r="G328">
+        <v>2</v>
+      </c>
+      <c r="H328" t="s">
+        <v>39</v>
+      </c>
+      <c r="I328" t="s">
+        <v>449</v>
+      </c>
+      <c r="J328" t="s">
+        <v>449</v>
+      </c>
+      <c r="K328" t="s">
+        <v>450</v>
+      </c>
+      <c r="L328" t="s">
+        <v>450</v>
+      </c>
+      <c r="M328" t="s">
+        <v>449</v>
+      </c>
+      <c r="N328" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q328" t="s">
+        <v>898</v>
+      </c>
+      <c r="R328" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="329" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A329">
+        <v>30</v>
+      </c>
+      <c r="B329" t="s">
+        <v>452</v>
+      </c>
+      <c r="C329" t="s">
+        <v>486</v>
+      </c>
+      <c r="D329" t="s">
+        <v>486</v>
+      </c>
+      <c r="E329" t="s">
+        <v>486</v>
+      </c>
+      <c r="F329" t="s">
+        <v>486</v>
+      </c>
+      <c r="G329" t="s">
+        <v>486</v>
+      </c>
+      <c r="H329" t="s">
+        <v>486</v>
+      </c>
+      <c r="I329" t="s">
+        <v>486</v>
+      </c>
+      <c r="J329" t="s">
+        <v>486</v>
+      </c>
+      <c r="K329" t="s">
+        <v>486</v>
+      </c>
+      <c r="L329" t="s">
+        <v>486</v>
+      </c>
+      <c r="M329" t="s">
+        <v>486</v>
+      </c>
+      <c r="N329" t="s">
+        <v>486</v>
+      </c>
+      <c r="O329" t="s">
+        <v>486</v>
+      </c>
+      <c r="P329" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q329" t="s">
+        <v>486</v>
+      </c>
+      <c r="R329" t="s">
+        <v>486</v>
+      </c>
+      <c r="S329" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="330" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A330">
+        <v>29</v>
+      </c>
+      <c r="B330" t="s">
+        <v>452</v>
+      </c>
+      <c r="C330" t="s">
+        <v>486</v>
+      </c>
+      <c r="D330" t="s">
+        <v>486</v>
+      </c>
+      <c r="E330" t="s">
+        <v>486</v>
+      </c>
+      <c r="F330" t="s">
+        <v>486</v>
+      </c>
+      <c r="G330" t="s">
+        <v>486</v>
+      </c>
+      <c r="H330" t="s">
+        <v>486</v>
+      </c>
+      <c r="I330" t="s">
+        <v>486</v>
+      </c>
+      <c r="J330" t="s">
+        <v>486</v>
+      </c>
+      <c r="K330" t="s">
+        <v>486</v>
+      </c>
+      <c r="L330" t="s">
+        <v>486</v>
+      </c>
+      <c r="M330" t="s">
+        <v>486</v>
+      </c>
+      <c r="N330" t="s">
+        <v>486</v>
+      </c>
+      <c r="O330" t="s">
+        <v>486</v>
+      </c>
+      <c r="P330" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q330" t="s">
+        <v>486</v>
+      </c>
+      <c r="R330" t="s">
+        <v>486</v>
+      </c>
+      <c r="S330" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="331" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A331">
+        <v>28</v>
+      </c>
+      <c r="B331" t="s">
+        <v>452</v>
+      </c>
+      <c r="C331" t="s">
+        <v>486</v>
+      </c>
+      <c r="D331" t="s">
+        <v>486</v>
+      </c>
+      <c r="E331" t="s">
+        <v>486</v>
+      </c>
+      <c r="F331" t="s">
+        <v>486</v>
+      </c>
+      <c r="G331" t="s">
+        <v>486</v>
+      </c>
+      <c r="H331" t="s">
+        <v>486</v>
+      </c>
+      <c r="I331" t="s">
+        <v>486</v>
+      </c>
+      <c r="J331" t="s">
+        <v>486</v>
+      </c>
+      <c r="K331" t="s">
+        <v>486</v>
+      </c>
+      <c r="L331" t="s">
+        <v>486</v>
+      </c>
+      <c r="M331" t="s">
+        <v>486</v>
+      </c>
+      <c r="N331" t="s">
+        <v>486</v>
+      </c>
+      <c r="O331" t="s">
+        <v>486</v>
+      </c>
+      <c r="P331" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q331" t="s">
+        <v>486</v>
+      </c>
+      <c r="R331" t="s">
+        <v>486</v>
+      </c>
+      <c r="S331" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="332" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A332" s="6">
+        <v>72</v>
+      </c>
+      <c r="B332" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D332" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="E332" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="F332" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G332" s="6">
+        <v>5</v>
+      </c>
+      <c r="H332" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="I332" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="J332" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="K332" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="L332" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="M332" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="N332" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="333" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A333">
+        <v>72</v>
+      </c>
+      <c r="B333" t="s">
+        <v>445</v>
+      </c>
+      <c r="D333" t="s">
+        <v>603</v>
+      </c>
+      <c r="E333" t="s">
+        <v>502</v>
+      </c>
+      <c r="F333">
+        <v>5</v>
+      </c>
+      <c r="G333">
+        <v>1</v>
+      </c>
+      <c r="H333" t="s">
+        <v>189</v>
+      </c>
+      <c r="I333" t="s">
+        <v>449</v>
+      </c>
+      <c r="J333" t="s">
+        <v>449</v>
+      </c>
+      <c r="K333" t="s">
+        <v>450</v>
+      </c>
+      <c r="L333" t="s">
+        <v>449</v>
+      </c>
+      <c r="M333" t="s">
+        <v>449</v>
+      </c>
+      <c r="N333" t="s">
+        <v>449</v>
+      </c>
+      <c r="R333" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="334" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A334">
+        <v>72</v>
+      </c>
+      <c r="B334" t="s">
+        <v>445</v>
+      </c>
+      <c r="D334" t="s">
+        <v>603</v>
+      </c>
+      <c r="E334" t="s">
+        <v>502</v>
+      </c>
+      <c r="F334">
+        <v>3.5</v>
+      </c>
+      <c r="G334">
+        <v>5</v>
+      </c>
+      <c r="H334" t="s">
+        <v>189</v>
+      </c>
+      <c r="I334" t="s">
+        <v>449</v>
+      </c>
+      <c r="J334" t="s">
+        <v>450</v>
+      </c>
+      <c r="K334" t="s">
+        <v>450</v>
+      </c>
+      <c r="L334" t="s">
+        <v>450</v>
+      </c>
+      <c r="M334" t="s">
+        <v>450</v>
+      </c>
+      <c r="N334" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="335" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A335">
+        <v>72</v>
+      </c>
+      <c r="B335" t="s">
+        <v>445</v>
+      </c>
+      <c r="D335" t="s">
+        <v>603</v>
+      </c>
+      <c r="E335" t="s">
+        <v>502</v>
+      </c>
+      <c r="F335">
+        <v>5.5</v>
+      </c>
+      <c r="G335">
+        <v>1</v>
+      </c>
+      <c r="H335" t="s">
+        <v>189</v>
+      </c>
+      <c r="I335" t="s">
+        <v>449</v>
+      </c>
+      <c r="J335" t="s">
+        <v>450</v>
+      </c>
+      <c r="K335" t="s">
+        <v>450</v>
+      </c>
+      <c r="L335" t="s">
+        <v>450</v>
+      </c>
+      <c r="M335" t="s">
+        <v>449</v>
+      </c>
+      <c r="N335" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="336" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A336">
+        <v>72</v>
+      </c>
+      <c r="B336" t="s">
+        <v>445</v>
+      </c>
+      <c r="D336" t="s">
+        <v>603</v>
+      </c>
+      <c r="E336" t="s">
+        <v>502</v>
+      </c>
+      <c r="F336">
+        <v>5</v>
+      </c>
+      <c r="G336">
+        <v>1</v>
+      </c>
+      <c r="H336" t="s">
+        <v>189</v>
+      </c>
+      <c r="I336" t="s">
+        <v>449</v>
+      </c>
+      <c r="J336" t="s">
+        <v>449</v>
+      </c>
+      <c r="K336" t="s">
+        <v>450</v>
+      </c>
+      <c r="L336" t="s">
+        <v>450</v>
+      </c>
+      <c r="M336" t="s">
+        <v>449</v>
+      </c>
+      <c r="N336" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="337" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A337">
+        <v>72</v>
+      </c>
+      <c r="B337" t="s">
+        <v>445</v>
+      </c>
+      <c r="D337" t="s">
+        <v>603</v>
+      </c>
+      <c r="E337" t="s">
+        <v>502</v>
+      </c>
+      <c r="F337">
+        <v>8</v>
+      </c>
+      <c r="G337">
+        <v>1</v>
+      </c>
+      <c r="H337" t="s">
+        <v>189</v>
+      </c>
+      <c r="I337" t="s">
+        <v>449</v>
+      </c>
+      <c r="J337" t="s">
+        <v>449</v>
+      </c>
+      <c r="K337" t="s">
+        <v>450</v>
+      </c>
+      <c r="L337" t="s">
+        <v>450</v>
+      </c>
+      <c r="M337" t="s">
+        <v>449</v>
+      </c>
+      <c r="N337" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="338" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A338">
+        <v>72</v>
+      </c>
+      <c r="B338" t="s">
+        <v>445</v>
+      </c>
+      <c r="D338" t="s">
+        <v>603</v>
+      </c>
+      <c r="E338" t="s">
+        <v>502</v>
+      </c>
+      <c r="F338">
+        <v>7.7</v>
+      </c>
+      <c r="G338">
+        <v>1</v>
+      </c>
+      <c r="H338" t="s">
+        <v>98</v>
+      </c>
+      <c r="I338" t="s">
+        <v>449</v>
+      </c>
+      <c r="J338" t="s">
+        <v>449</v>
+      </c>
+      <c r="K338" t="s">
+        <v>450</v>
+      </c>
+      <c r="L338" t="s">
+        <v>449</v>
+      </c>
+      <c r="M338" t="s">
+        <v>449</v>
+      </c>
+      <c r="N338" t="s">
+        <v>449</v>
+      </c>
+      <c r="R338" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="339" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A339">
+        <v>72</v>
+      </c>
+      <c r="B339" t="s">
+        <v>445</v>
+      </c>
+      <c r="D339" t="s">
+        <v>603</v>
+      </c>
+      <c r="E339" t="s">
+        <v>502</v>
+      </c>
+      <c r="F339">
+        <v>3.7</v>
+      </c>
+      <c r="G339">
+        <v>5</v>
+      </c>
+      <c r="H339" t="s">
+        <v>189</v>
+      </c>
+      <c r="I339" t="s">
+        <v>449</v>
+      </c>
+      <c r="J339" t="s">
+        <v>450</v>
+      </c>
+      <c r="K339" t="s">
+        <v>450</v>
+      </c>
+      <c r="L339" t="s">
+        <v>450</v>
+      </c>
+      <c r="M339" t="s">
+        <v>450</v>
+      </c>
+      <c r="N339" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="340" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A340">
+        <v>72</v>
+      </c>
+      <c r="B340" t="s">
+        <v>445</v>
+      </c>
+      <c r="D340" t="s">
+        <v>603</v>
+      </c>
+      <c r="E340" t="s">
+        <v>502</v>
+      </c>
+      <c r="F340">
+        <v>3.4</v>
+      </c>
+      <c r="G340">
+        <v>1</v>
+      </c>
+      <c r="H340" t="s">
+        <v>189</v>
+      </c>
+      <c r="I340" t="s">
+        <v>449</v>
+      </c>
+      <c r="J340" t="s">
+        <v>449</v>
+      </c>
+      <c r="K340" t="s">
+        <v>449</v>
+      </c>
+      <c r="L340" t="s">
+        <v>450</v>
+      </c>
+      <c r="M340" t="s">
+        <v>450</v>
+      </c>
+      <c r="N340" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="341" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A341">
+        <v>72</v>
+      </c>
+      <c r="B341" t="s">
+        <v>445</v>
+      </c>
+      <c r="D341" t="s">
+        <v>603</v>
+      </c>
+      <c r="E341" t="s">
+        <v>502</v>
+      </c>
+      <c r="F341">
+        <v>3.8</v>
+      </c>
+      <c r="G341">
+        <v>1</v>
+      </c>
+      <c r="H341" t="s">
+        <v>189</v>
+      </c>
+      <c r="I341" t="s">
+        <v>449</v>
+      </c>
+      <c r="J341" t="s">
+        <v>449</v>
+      </c>
+      <c r="K341" t="s">
+        <v>449</v>
+      </c>
+      <c r="L341" t="s">
+        <v>449</v>
+      </c>
+      <c r="M341" t="s">
+        <v>449</v>
+      </c>
+      <c r="N341" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="342" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A342">
+        <v>72</v>
+      </c>
+      <c r="B342" t="s">
+        <v>445</v>
+      </c>
+      <c r="D342" t="s">
+        <v>603</v>
+      </c>
+      <c r="E342" t="s">
+        <v>502</v>
+      </c>
+      <c r="F342">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G342">
+        <v>1</v>
+      </c>
+      <c r="H342" t="s">
+        <v>98</v>
+      </c>
+      <c r="I342" t="s">
+        <v>449</v>
+      </c>
+      <c r="J342" t="s">
+        <v>449</v>
+      </c>
+      <c r="K342" t="s">
+        <v>450</v>
+      </c>
+      <c r="L342" t="s">
+        <v>450</v>
+      </c>
+      <c r="M342" t="s">
+        <v>449</v>
+      </c>
+      <c r="N342" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="343" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A343">
+        <v>72</v>
+      </c>
+      <c r="B343" t="s">
+        <v>447</v>
+      </c>
+      <c r="D343" t="s">
+        <v>603</v>
+      </c>
+      <c r="E343" t="s">
+        <v>502</v>
+      </c>
+      <c r="F343">
+        <v>8.6</v>
+      </c>
+      <c r="G343">
+        <v>2</v>
+      </c>
+      <c r="H343" t="s">
+        <v>98</v>
+      </c>
+      <c r="I343" t="s">
+        <v>449</v>
+      </c>
+      <c r="J343" t="s">
+        <v>449</v>
+      </c>
+      <c r="K343" t="s">
+        <v>450</v>
+      </c>
+      <c r="L343" t="s">
+        <v>450</v>
+      </c>
+      <c r="M343" t="s">
+        <v>450</v>
+      </c>
+      <c r="N343" t="s">
+        <v>449</v>
+      </c>
+      <c r="R343" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="344" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A344">
+        <v>72</v>
+      </c>
+      <c r="B344" t="s">
+        <v>447</v>
+      </c>
+      <c r="D344" t="s">
+        <v>603</v>
+      </c>
+      <c r="E344" t="s">
+        <v>502</v>
+      </c>
+      <c r="F344">
+        <v>5</v>
+      </c>
+      <c r="G344">
+        <v>2</v>
+      </c>
+      <c r="H344" t="s">
+        <v>189</v>
+      </c>
+      <c r="I344" t="s">
+        <v>449</v>
+      </c>
+      <c r="J344" t="s">
+        <v>449</v>
+      </c>
+      <c r="K344" t="s">
+        <v>450</v>
+      </c>
+      <c r="L344" t="s">
+        <v>450</v>
+      </c>
+      <c r="M344" t="s">
+        <v>449</v>
+      </c>
+      <c r="N344" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="345" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A345">
+        <v>72</v>
+      </c>
+      <c r="B345" t="s">
+        <v>447</v>
+      </c>
+      <c r="D345" t="s">
+        <v>603</v>
+      </c>
+      <c r="E345" t="s">
+        <v>502</v>
+      </c>
+      <c r="F345">
+        <v>9.9</v>
+      </c>
+      <c r="G345">
+        <v>1</v>
+      </c>
+      <c r="H345" t="s">
+        <v>98</v>
+      </c>
+      <c r="I345" t="s">
+        <v>449</v>
+      </c>
+      <c r="J345" t="s">
+        <v>449</v>
+      </c>
+      <c r="K345" t="s">
+        <v>450</v>
+      </c>
+      <c r="L345" t="s">
+        <v>450</v>
+      </c>
+      <c r="M345" t="s">
+        <v>449</v>
+      </c>
+      <c r="N345" t="s">
+        <v>449</v>
+      </c>
+      <c r="R345" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="346" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A346">
+        <v>72</v>
+      </c>
+      <c r="B346" t="s">
+        <v>447</v>
+      </c>
+      <c r="D346" t="s">
+        <v>603</v>
+      </c>
+      <c r="E346" t="s">
+        <v>502</v>
+      </c>
+      <c r="F346">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G346">
+        <v>2</v>
+      </c>
+      <c r="H346" t="s">
+        <v>39</v>
+      </c>
+      <c r="I346" t="s">
+        <v>449</v>
+      </c>
+      <c r="J346" t="s">
+        <v>449</v>
+      </c>
+      <c r="K346" t="s">
+        <v>450</v>
+      </c>
+      <c r="L346" t="s">
+        <v>450</v>
+      </c>
+      <c r="M346" t="s">
+        <v>450</v>
+      </c>
+      <c r="N346" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="347" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A347">
+        <v>72</v>
+      </c>
+      <c r="B347" t="s">
+        <v>447</v>
+      </c>
+      <c r="D347" t="s">
+        <v>603</v>
+      </c>
+      <c r="E347" t="s">
+        <v>502</v>
+      </c>
+      <c r="F347">
+        <v>4.8</v>
+      </c>
+      <c r="G347">
+        <v>1</v>
+      </c>
+      <c r="H347" t="s">
+        <v>189</v>
+      </c>
+      <c r="I347" t="s">
+        <v>449</v>
+      </c>
+      <c r="J347" t="s">
+        <v>449</v>
+      </c>
+      <c r="K347" t="s">
+        <v>450</v>
+      </c>
+      <c r="L347" t="s">
+        <v>450</v>
+      </c>
+      <c r="M347" t="s">
+        <v>449</v>
+      </c>
+      <c r="N347" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="348" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A348">
+        <v>72</v>
+      </c>
+      <c r="B348" t="s">
+        <v>447</v>
+      </c>
+      <c r="D348" t="s">
+        <v>603</v>
+      </c>
+      <c r="E348" t="s">
+        <v>502</v>
+      </c>
+      <c r="F348">
+        <v>9.5</v>
+      </c>
+      <c r="G348">
+        <v>2</v>
+      </c>
+      <c r="H348" t="s">
+        <v>189</v>
+      </c>
+      <c r="I348" t="s">
+        <v>449</v>
+      </c>
+      <c r="J348" t="s">
+        <v>449</v>
+      </c>
+      <c r="K348" t="s">
+        <v>450</v>
+      </c>
+      <c r="L348" t="s">
+        <v>450</v>
+      </c>
+      <c r="M348" t="s">
+        <v>449</v>
+      </c>
+      <c r="N348" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="349" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A349">
+        <v>72</v>
+      </c>
+      <c r="B349" t="s">
+        <v>447</v>
+      </c>
+      <c r="D349" t="s">
+        <v>603</v>
+      </c>
+      <c r="E349" t="s">
+        <v>502</v>
+      </c>
+      <c r="F349">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G349">
+        <v>2</v>
+      </c>
+      <c r="H349" t="s">
+        <v>189</v>
+      </c>
+      <c r="I349" t="s">
+        <v>449</v>
+      </c>
+      <c r="J349" t="s">
+        <v>449</v>
+      </c>
+      <c r="K349" t="s">
+        <v>449</v>
+      </c>
+      <c r="L349" t="s">
+        <v>450</v>
+      </c>
+      <c r="M349" t="s">
+        <v>449</v>
+      </c>
+      <c r="N349" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="350" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A350">
+        <v>72</v>
+      </c>
+      <c r="B350" t="s">
+        <v>447</v>
+      </c>
+      <c r="D350" t="s">
+        <v>603</v>
+      </c>
+      <c r="E350" t="s">
+        <v>502</v>
+      </c>
+      <c r="F350">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G350">
+        <v>1</v>
+      </c>
+      <c r="H350" t="s">
+        <v>189</v>
+      </c>
+      <c r="I350" t="s">
+        <v>449</v>
+      </c>
+      <c r="J350" t="s">
+        <v>449</v>
+      </c>
+      <c r="K350" t="s">
+        <v>450</v>
+      </c>
+      <c r="L350" t="s">
+        <v>450</v>
+      </c>
+      <c r="M350" t="s">
+        <v>449</v>
+      </c>
+      <c r="N350" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="351" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A351">
+        <v>72</v>
+      </c>
+      <c r="B351" t="s">
+        <v>447</v>
+      </c>
+      <c r="D351" t="s">
+        <v>603</v>
+      </c>
+      <c r="E351" t="s">
+        <v>502</v>
+      </c>
+      <c r="F351">
+        <v>3.5</v>
+      </c>
+      <c r="G351">
+        <v>1</v>
+      </c>
+      <c r="H351" t="s">
+        <v>39</v>
+      </c>
+      <c r="I351" t="s">
+        <v>449</v>
+      </c>
+      <c r="J351" t="s">
+        <v>449</v>
+      </c>
+      <c r="K351" t="s">
+        <v>449</v>
+      </c>
+      <c r="L351" t="s">
+        <v>449</v>
+      </c>
+      <c r="M351" t="s">
+        <v>449</v>
+      </c>
+      <c r="N351" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="352" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A352">
+        <v>72</v>
+      </c>
+      <c r="B352" t="s">
+        <v>448</v>
+      </c>
+      <c r="D352" t="s">
+        <v>603</v>
+      </c>
+      <c r="E352" t="s">
+        <v>502</v>
+      </c>
+      <c r="F352">
+        <v>6.1</v>
+      </c>
+      <c r="G352">
+        <v>5</v>
+      </c>
+      <c r="H352" t="s">
+        <v>39</v>
+      </c>
+      <c r="I352" t="s">
+        <v>449</v>
+      </c>
+      <c r="J352" t="s">
+        <v>450</v>
+      </c>
+      <c r="K352" t="s">
+        <v>450</v>
+      </c>
+      <c r="L352" t="s">
+        <v>449</v>
+      </c>
+      <c r="M352" t="s">
+        <v>449</v>
+      </c>
+      <c r="N352" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="353" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A353">
+        <v>72</v>
+      </c>
+      <c r="B353" t="s">
+        <v>448</v>
+      </c>
+      <c r="D353" t="s">
+        <v>603</v>
+      </c>
+      <c r="E353" t="s">
+        <v>502</v>
+      </c>
+      <c r="F353">
+        <v>6.8</v>
+      </c>
+      <c r="G353">
+        <v>1</v>
+      </c>
+      <c r="H353" t="s">
+        <v>189</v>
+      </c>
+      <c r="I353" t="s">
+        <v>449</v>
+      </c>
+      <c r="J353" t="s">
+        <v>449</v>
+      </c>
+      <c r="K353" t="s">
+        <v>450</v>
+      </c>
+      <c r="L353" t="s">
+        <v>450</v>
+      </c>
+      <c r="M353" t="s">
+        <v>449</v>
+      </c>
+      <c r="N353" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="354" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A354">
+        <v>72</v>
+      </c>
+      <c r="B354" t="s">
+        <v>447</v>
+      </c>
+      <c r="D354" t="s">
+        <v>603</v>
+      </c>
+      <c r="E354" t="s">
+        <v>502</v>
+      </c>
+      <c r="F354">
+        <v>5.2</v>
+      </c>
+      <c r="G354">
+        <v>1</v>
+      </c>
+      <c r="H354" t="s">
+        <v>189</v>
+      </c>
+      <c r="I354" t="s">
+        <v>449</v>
+      </c>
+      <c r="J354" t="s">
+        <v>449</v>
+      </c>
+      <c r="K354" t="s">
+        <v>450</v>
+      </c>
+      <c r="L354" t="s">
+        <v>450</v>
+      </c>
+      <c r="M354" t="s">
+        <v>449</v>
+      </c>
+      <c r="N354" t="s">
+        <v>449</v>
+      </c>
+      <c r="R354" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="355" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A355">
+        <v>72</v>
+      </c>
+      <c r="B355" t="s">
+        <v>447</v>
+      </c>
+      <c r="D355" t="s">
+        <v>603</v>
+      </c>
+      <c r="E355" t="s">
+        <v>502</v>
+      </c>
+      <c r="F355">
+        <v>9.5</v>
+      </c>
+      <c r="G355">
+        <v>1</v>
+      </c>
+      <c r="H355" t="s">
+        <v>189</v>
+      </c>
+      <c r="I355" t="s">
+        <v>449</v>
+      </c>
+      <c r="J355" t="s">
+        <v>449</v>
+      </c>
+      <c r="K355" t="s">
+        <v>450</v>
+      </c>
+      <c r="L355" t="s">
+        <v>450</v>
+      </c>
+      <c r="M355" t="s">
+        <v>449</v>
+      </c>
+      <c r="N355" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="356" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A356">
+        <v>72</v>
+      </c>
+      <c r="B356" t="s">
+        <v>447</v>
+      </c>
+      <c r="D356" t="s">
+        <v>603</v>
+      </c>
+      <c r="E356" t="s">
+        <v>502</v>
+      </c>
+      <c r="F356">
+        <v>7.4</v>
+      </c>
+      <c r="G356">
+        <v>1</v>
+      </c>
+      <c r="H356" t="s">
+        <v>189</v>
+      </c>
+      <c r="I356" t="s">
+        <v>449</v>
+      </c>
+      <c r="J356" t="s">
+        <v>449</v>
+      </c>
+      <c r="K356" t="s">
+        <v>449</v>
+      </c>
+      <c r="L356" t="s">
+        <v>449</v>
+      </c>
+      <c r="M356" t="s">
+        <v>449</v>
+      </c>
+      <c r="N356" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="357" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A357" s="6">
+        <v>72</v>
+      </c>
+      <c r="B357" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D357" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="E357" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="F357" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="G357" s="6">
+        <v>1</v>
+      </c>
+      <c r="H357" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="I357" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="J357" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="K357" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="L357" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="M357" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="N357" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="358" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A358">
+        <v>72</v>
+      </c>
+      <c r="B358" t="s">
+        <v>447</v>
+      </c>
+      <c r="D358" t="s">
+        <v>603</v>
+      </c>
+      <c r="E358" t="s">
+        <v>531</v>
+      </c>
+      <c r="F358">
+        <v>6.5</v>
+      </c>
+      <c r="G358">
+        <v>1</v>
+      </c>
+      <c r="H358" t="s">
+        <v>39</v>
+      </c>
+      <c r="I358" t="s">
+        <v>449</v>
+      </c>
+      <c r="J358" t="s">
+        <v>449</v>
+      </c>
+      <c r="K358" t="s">
+        <v>450</v>
+      </c>
+      <c r="L358" t="s">
+        <v>449</v>
+      </c>
+      <c r="M358" t="s">
+        <v>449</v>
+      </c>
+      <c r="N358" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="359" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A359">
+        <v>72</v>
+      </c>
+      <c r="B359" t="s">
+        <v>447</v>
+      </c>
+      <c r="D359" t="s">
+        <v>603</v>
+      </c>
+      <c r="E359" t="s">
+        <v>531</v>
+      </c>
+      <c r="F359">
+        <v>4</v>
+      </c>
+      <c r="G359">
+        <v>1</v>
+      </c>
+      <c r="H359" t="s">
+        <v>189</v>
+      </c>
+      <c r="I359" t="s">
+        <v>449</v>
+      </c>
+      <c r="J359" t="s">
+        <v>449</v>
+      </c>
+      <c r="K359" t="s">
+        <v>450</v>
+      </c>
+      <c r="L359" t="s">
+        <v>449</v>
+      </c>
+      <c r="M359" t="s">
+        <v>449</v>
+      </c>
+      <c r="N359" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="360" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A360">
+        <v>72</v>
+      </c>
+      <c r="B360" t="s">
+        <v>448</v>
+      </c>
+      <c r="D360" t="s">
+        <v>603</v>
+      </c>
+      <c r="E360" t="s">
+        <v>502</v>
+      </c>
+      <c r="F360">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G360">
+        <v>5</v>
+      </c>
+      <c r="H360" t="s">
+        <v>189</v>
+      </c>
+      <c r="I360" t="s">
+        <v>449</v>
+      </c>
+      <c r="J360" t="s">
+        <v>449</v>
+      </c>
+      <c r="K360" t="s">
+        <v>450</v>
+      </c>
+      <c r="L360" t="s">
+        <v>450</v>
+      </c>
+      <c r="M360" t="s">
+        <v>450</v>
+      </c>
+      <c r="N360" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="361" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A361">
+        <v>72</v>
+      </c>
+      <c r="B361" t="s">
+        <v>448</v>
+      </c>
+      <c r="D361" t="s">
+        <v>603</v>
+      </c>
+      <c r="E361" t="s">
+        <v>502</v>
+      </c>
+      <c r="F361">
+        <v>2.8</v>
+      </c>
+      <c r="G361">
+        <v>1</v>
+      </c>
+      <c r="H361" t="s">
+        <v>189</v>
+      </c>
+      <c r="I361" t="s">
+        <v>449</v>
+      </c>
+      <c r="J361" t="s">
+        <v>449</v>
+      </c>
+      <c r="K361" t="s">
+        <v>449</v>
+      </c>
+      <c r="L361" t="s">
+        <v>449</v>
+      </c>
+      <c r="M361" t="s">
+        <v>449</v>
+      </c>
+      <c r="N361" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="362" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A362">
+        <v>72</v>
+      </c>
+      <c r="B362" t="s">
+        <v>448</v>
+      </c>
+      <c r="D362" t="s">
+        <v>603</v>
+      </c>
+      <c r="E362" t="s">
+        <v>502</v>
+      </c>
+      <c r="F362">
+        <v>5.6</v>
+      </c>
+      <c r="G362">
+        <v>1</v>
+      </c>
+      <c r="H362" t="s">
+        <v>189</v>
+      </c>
+      <c r="I362" t="s">
+        <v>449</v>
+      </c>
+      <c r="J362" t="s">
+        <v>449</v>
+      </c>
+      <c r="K362" t="s">
+        <v>450</v>
+      </c>
+      <c r="L362" t="s">
+        <v>449</v>
+      </c>
+      <c r="M362" t="s">
+        <v>449</v>
+      </c>
+      <c r="N362" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="363" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A363">
+        <v>72</v>
+      </c>
+      <c r="B363" t="s">
+        <v>448</v>
+      </c>
+      <c r="D363" t="s">
+        <v>603</v>
+      </c>
+      <c r="E363" t="s">
+        <v>502</v>
+      </c>
+      <c r="F363">
+        <v>3.8</v>
+      </c>
+      <c r="G363">
+        <v>1</v>
+      </c>
+      <c r="H363" t="s">
+        <v>189</v>
+      </c>
+      <c r="I363" t="s">
+        <v>449</v>
+      </c>
+      <c r="J363" t="s">
+        <v>449</v>
+      </c>
+      <c r="K363" t="s">
+        <v>449</v>
+      </c>
+      <c r="L363" t="s">
+        <v>449</v>
+      </c>
+      <c r="M363" t="s">
+        <v>449</v>
+      </c>
+      <c r="N363" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="364" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A364">
+        <v>72</v>
+      </c>
+      <c r="B364" t="s">
+        <v>448</v>
+      </c>
+      <c r="D364" t="s">
+        <v>603</v>
+      </c>
+      <c r="E364" t="s">
+        <v>502</v>
+      </c>
+      <c r="F364">
+        <v>8.6</v>
+      </c>
+      <c r="G364">
+        <v>5</v>
+      </c>
+      <c r="H364" t="s">
+        <v>189</v>
+      </c>
+      <c r="I364" t="s">
+        <v>449</v>
+      </c>
+      <c r="J364" t="s">
+        <v>450</v>
+      </c>
+      <c r="K364" t="s">
+        <v>450</v>
+      </c>
+      <c r="L364" t="s">
+        <v>450</v>
+      </c>
+      <c r="M364" t="s">
+        <v>450</v>
+      </c>
+      <c r="N364" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="365" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A365">
+        <v>72</v>
+      </c>
+      <c r="B365" t="s">
+        <v>448</v>
+      </c>
+      <c r="D365" t="s">
+        <v>603</v>
+      </c>
+      <c r="E365" t="s">
+        <v>502</v>
+      </c>
+      <c r="F365">
+        <v>3.1</v>
+      </c>
+      <c r="G365">
+        <v>1</v>
+      </c>
+      <c r="H365" t="s">
+        <v>189</v>
+      </c>
+      <c r="I365" t="s">
+        <v>449</v>
+      </c>
+      <c r="J365" t="s">
+        <v>449</v>
+      </c>
+      <c r="K365" t="s">
+        <v>449</v>
+      </c>
+      <c r="L365" t="s">
+        <v>449</v>
+      </c>
+      <c r="M365" t="s">
+        <v>449</v>
+      </c>
+      <c r="N365" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="366" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A366">
+        <v>72</v>
+      </c>
+      <c r="B366" t="s">
+        <v>448</v>
+      </c>
+      <c r="D366" t="s">
+        <v>603</v>
+      </c>
+      <c r="E366" t="s">
+        <v>502</v>
+      </c>
+      <c r="F366">
+        <v>6.3</v>
+      </c>
+      <c r="G366">
+        <v>1</v>
+      </c>
+      <c r="H366" t="s">
+        <v>189</v>
+      </c>
+      <c r="I366" t="s">
+        <v>449</v>
+      </c>
+      <c r="J366" t="s">
+        <v>449</v>
+      </c>
+      <c r="K366" t="s">
+        <v>450</v>
+      </c>
+      <c r="L366" t="s">
+        <v>449</v>
+      </c>
+      <c r="M366" t="s">
+        <v>449</v>
+      </c>
+      <c r="N366" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="367" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A367">
+        <v>72</v>
+      </c>
+      <c r="B367" t="s">
+        <v>448</v>
+      </c>
+      <c r="D367" t="s">
+        <v>603</v>
+      </c>
+      <c r="E367" t="s">
+        <v>531</v>
+      </c>
+      <c r="F367">
+        <v>5.6</v>
+      </c>
+      <c r="G367">
+        <v>1</v>
+      </c>
+      <c r="H367" t="s">
+        <v>189</v>
+      </c>
+      <c r="I367" t="s">
+        <v>449</v>
+      </c>
+      <c r="J367" t="s">
+        <v>449</v>
+      </c>
+      <c r="K367" t="s">
+        <v>449</v>
+      </c>
+      <c r="L367" t="s">
+        <v>449</v>
+      </c>
+      <c r="M367" t="s">
+        <v>449</v>
+      </c>
+      <c r="N367" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="368" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A368">
+        <v>72</v>
+      </c>
+      <c r="B368" t="s">
+        <v>448</v>
+      </c>
+      <c r="D368" t="s">
+        <v>603</v>
+      </c>
+      <c r="E368" t="s">
+        <v>502</v>
+      </c>
+      <c r="F368">
+        <v>3.4</v>
+      </c>
+      <c r="G368">
+        <v>1</v>
+      </c>
+      <c r="H368" t="s">
+        <v>189</v>
+      </c>
+      <c r="I368" t="s">
+        <v>449</v>
+      </c>
+      <c r="J368" t="s">
+        <v>449</v>
+      </c>
+      <c r="K368" t="s">
+        <v>449</v>
+      </c>
+      <c r="L368" t="s">
+        <v>449</v>
+      </c>
+      <c r="M368" t="s">
+        <v>449</v>
+      </c>
+      <c r="N368" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="369" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A369">
+        <v>72</v>
+      </c>
+      <c r="B369" t="s">
+        <v>448</v>
+      </c>
+      <c r="D369" t="s">
+        <v>603</v>
+      </c>
+      <c r="E369" t="s">
+        <v>502</v>
+      </c>
+      <c r="F369">
+        <v>2.8</v>
+      </c>
+      <c r="G369">
+        <v>1</v>
+      </c>
+      <c r="H369" t="s">
+        <v>39</v>
+      </c>
+      <c r="I369" t="s">
+        <v>449</v>
+      </c>
+      <c r="J369" t="s">
+        <v>449</v>
+      </c>
+      <c r="K369" t="s">
+        <v>449</v>
+      </c>
+      <c r="L369" t="s">
+        <v>449</v>
+      </c>
+      <c r="M369" t="s">
+        <v>449</v>
+      </c>
+      <c r="N369" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="370" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A370">
+        <v>72</v>
+      </c>
+      <c r="B370" t="s">
+        <v>448</v>
+      </c>
+      <c r="D370" t="s">
+        <v>603</v>
+      </c>
+      <c r="E370" t="s">
+        <v>502</v>
+      </c>
+      <c r="F370">
+        <v>5.5</v>
+      </c>
+      <c r="G370">
+        <v>1</v>
+      </c>
+      <c r="H370" t="s">
+        <v>189</v>
+      </c>
+      <c r="I370" t="s">
+        <v>449</v>
+      </c>
+      <c r="J370" t="s">
+        <v>449</v>
+      </c>
+      <c r="K370" t="s">
+        <v>450</v>
+      </c>
+      <c r="L370" t="s">
+        <v>450</v>
+      </c>
+      <c r="M370" t="s">
+        <v>449</v>
+      </c>
+      <c r="N370" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="371" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A371">
+        <v>72</v>
+      </c>
+      <c r="B371" t="s">
+        <v>448</v>
+      </c>
+      <c r="D371" t="s">
+        <v>603</v>
+      </c>
+      <c r="E371" t="s">
+        <v>502</v>
+      </c>
+      <c r="F371">
+        <v>3.6</v>
+      </c>
+      <c r="G371">
+        <v>5</v>
+      </c>
+      <c r="H371" t="s">
+        <v>39</v>
+      </c>
+      <c r="I371" t="s">
+        <v>449</v>
+      </c>
+      <c r="J371" t="s">
+        <v>449</v>
+      </c>
+      <c r="K371" t="s">
+        <v>450</v>
+      </c>
+      <c r="L371" t="s">
+        <v>449</v>
+      </c>
+      <c r="M371" t="s">
+        <v>449</v>
+      </c>
+      <c r="N371" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="372" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A372">
+        <v>72</v>
+      </c>
+      <c r="B372" t="s">
+        <v>448</v>
+      </c>
+      <c r="D372" t="s">
+        <v>603</v>
+      </c>
+      <c r="E372" t="s">
+        <v>502</v>
+      </c>
+      <c r="F372">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G372">
+        <v>5</v>
+      </c>
+      <c r="H372" t="s">
+        <v>39</v>
+      </c>
+      <c r="I372" t="s">
+        <v>449</v>
+      </c>
+      <c r="J372" t="s">
+        <v>449</v>
+      </c>
+      <c r="K372" t="s">
+        <v>450</v>
+      </c>
+      <c r="L372" t="s">
+        <v>450</v>
+      </c>
+      <c r="M372" t="s">
+        <v>449</v>
+      </c>
+      <c r="N372" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="373" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A373">
+        <v>72</v>
+      </c>
+      <c r="B373" t="s">
+        <v>448</v>
+      </c>
+      <c r="D373" t="s">
+        <v>603</v>
+      </c>
+      <c r="E373" t="s">
+        <v>502</v>
+      </c>
+      <c r="F373">
+        <v>8.4</v>
+      </c>
+      <c r="G373">
+        <v>1</v>
+      </c>
+      <c r="H373" t="s">
+        <v>189</v>
+      </c>
+      <c r="I373" t="s">
+        <v>449</v>
+      </c>
+      <c r="J373" t="s">
+        <v>449</v>
+      </c>
+      <c r="K373" t="s">
+        <v>449</v>
+      </c>
+      <c r="L373" t="s">
+        <v>449</v>
+      </c>
+      <c r="M373" t="s">
+        <v>449</v>
+      </c>
+      <c r="N373" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="374" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A374">
+        <v>72</v>
+      </c>
+      <c r="B374" t="s">
+        <v>448</v>
+      </c>
+      <c r="D374" t="s">
+        <v>603</v>
+      </c>
+      <c r="E374" t="s">
+        <v>502</v>
+      </c>
+      <c r="F374">
+        <v>5.5</v>
+      </c>
+      <c r="G374">
+        <v>2</v>
+      </c>
+      <c r="H374" t="s">
+        <v>189</v>
+      </c>
+      <c r="I374" t="s">
+        <v>449</v>
+      </c>
+      <c r="J374" t="s">
+        <v>449</v>
+      </c>
+      <c r="K374" t="s">
+        <v>449</v>
+      </c>
+      <c r="L374" t="s">
+        <v>450</v>
+      </c>
+      <c r="M374" t="s">
+        <v>449</v>
+      </c>
+      <c r="N374" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="375" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A375">
+        <v>72</v>
+      </c>
+      <c r="B375" t="s">
+        <v>448</v>
+      </c>
+      <c r="D375" t="s">
+        <v>603</v>
+      </c>
+      <c r="E375" t="s">
+        <v>529</v>
+      </c>
+      <c r="F375">
+        <v>2.8</v>
+      </c>
+      <c r="G375">
+        <v>5</v>
+      </c>
+      <c r="H375" t="s">
+        <v>39</v>
+      </c>
+      <c r="I375" t="s">
+        <v>449</v>
+      </c>
+      <c r="J375" t="s">
+        <v>449</v>
+      </c>
+      <c r="K375" t="s">
+        <v>450</v>
+      </c>
+      <c r="L375" t="s">
+        <v>450</v>
+      </c>
+      <c r="M375" t="s">
+        <v>449</v>
+      </c>
+      <c r="N375" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="376" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A376">
+        <v>72</v>
+      </c>
+      <c r="B376" t="s">
+        <v>448</v>
+      </c>
+      <c r="D376" t="s">
+        <v>603</v>
+      </c>
+      <c r="E376" t="s">
+        <v>502</v>
+      </c>
+      <c r="F376">
+        <v>7.2</v>
+      </c>
+      <c r="G376">
+        <v>2</v>
+      </c>
+      <c r="H376" t="s">
+        <v>189</v>
+      </c>
+      <c r="I376" t="s">
+        <v>449</v>
+      </c>
+      <c r="J376" t="s">
+        <v>449</v>
+      </c>
+      <c r="K376" t="s">
+        <v>450</v>
+      </c>
+      <c r="L376" t="s">
+        <v>450</v>
+      </c>
+      <c r="M376" t="s">
+        <v>449</v>
+      </c>
+      <c r="N376" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="377" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A377">
+        <v>72</v>
+      </c>
+      <c r="B377" t="s">
+        <v>448</v>
+      </c>
+      <c r="D377" t="s">
+        <v>603</v>
+      </c>
+      <c r="E377" t="s">
+        <v>502</v>
+      </c>
+      <c r="F377">
+        <v>6.6</v>
+      </c>
+      <c r="G377">
+        <v>4</v>
+      </c>
+      <c r="H377" t="s">
+        <v>39</v>
+      </c>
+      <c r="I377" t="s">
+        <v>449</v>
+      </c>
+      <c r="J377" t="s">
+        <v>450</v>
+      </c>
+      <c r="K377" t="s">
+        <v>450</v>
+      </c>
+      <c r="L377" t="s">
+        <v>450</v>
+      </c>
+      <c r="M377" t="s">
+        <v>449</v>
+      </c>
+      <c r="N377" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="378" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A378">
+        <v>72</v>
+      </c>
+      <c r="B378" t="s">
+        <v>446</v>
+      </c>
+      <c r="D378" t="s">
+        <v>603</v>
+      </c>
+      <c r="E378" t="s">
+        <v>502</v>
+      </c>
+      <c r="F378">
+        <v>5.5</v>
+      </c>
+      <c r="G378">
+        <v>5</v>
+      </c>
+      <c r="H378" t="s">
+        <v>189</v>
+      </c>
+      <c r="I378" t="s">
+        <v>449</v>
+      </c>
+      <c r="J378" t="s">
+        <v>450</v>
+      </c>
+      <c r="K378" t="s">
+        <v>449</v>
+      </c>
+      <c r="L378" t="s">
+        <v>450</v>
+      </c>
+      <c r="M378" t="s">
+        <v>450</v>
+      </c>
+      <c r="N378" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="379" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A379">
+        <v>72</v>
+      </c>
+      <c r="B379" t="s">
+        <v>445</v>
+      </c>
+      <c r="D379" t="s">
+        <v>603</v>
+      </c>
+      <c r="E379" t="s">
+        <v>502</v>
+      </c>
+      <c r="F379">
+        <v>2.7</v>
+      </c>
+      <c r="G379">
+        <v>1</v>
+      </c>
+      <c r="H379" t="s">
+        <v>189</v>
+      </c>
+      <c r="I379" t="s">
+        <v>449</v>
+      </c>
+      <c r="J379" t="s">
+        <v>449</v>
+      </c>
+      <c r="K379" t="s">
+        <v>450</v>
+      </c>
+      <c r="L379" t="s">
+        <v>449</v>
+      </c>
+      <c r="M379" t="s">
+        <v>449</v>
+      </c>
+      <c r="N379" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="380" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A380">
+        <v>72</v>
+      </c>
+      <c r="B380" t="s">
+        <v>445</v>
+      </c>
+      <c r="D380" t="s">
+        <v>603</v>
+      </c>
+      <c r="E380" t="s">
+        <v>502</v>
+      </c>
+      <c r="F380">
+        <v>5.2</v>
+      </c>
+      <c r="G380">
+        <v>1</v>
+      </c>
+      <c r="H380" t="s">
+        <v>189</v>
+      </c>
+      <c r="I380" t="s">
+        <v>449</v>
+      </c>
+      <c r="J380" t="s">
+        <v>449</v>
+      </c>
+      <c r="K380" t="s">
+        <v>450</v>
+      </c>
+      <c r="L380" t="s">
+        <v>449</v>
+      </c>
+      <c r="M380" t="s">
+        <v>449</v>
+      </c>
+      <c r="N380" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="381" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A381" s="6">
+        <v>60</v>
+      </c>
+      <c r="B381" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D381" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="E381" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="F381" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="G381" s="6">
+        <v>1</v>
+      </c>
+      <c r="H381" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I381" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="J381" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="K381" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="L381" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="M381" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="N381" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="382" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A382">
+        <v>60</v>
+      </c>
+      <c r="B382" t="s">
+        <v>448</v>
+      </c>
+      <c r="D382" t="s">
+        <v>603</v>
+      </c>
+      <c r="E382" t="s">
+        <v>529</v>
+      </c>
+      <c r="F382">
+        <v>2.7</v>
+      </c>
+      <c r="G382">
+        <v>5</v>
+      </c>
+      <c r="H382" t="s">
+        <v>39</v>
+      </c>
+      <c r="I382" t="s">
+        <v>449</v>
+      </c>
+      <c r="J382" t="s">
+        <v>449</v>
+      </c>
+      <c r="K382" t="s">
+        <v>450</v>
+      </c>
+      <c r="L382" t="s">
+        <v>449</v>
+      </c>
+      <c r="M382" t="s">
+        <v>449</v>
+      </c>
+      <c r="N382" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="383" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A383">
+        <v>60</v>
+      </c>
+      <c r="B383" t="s">
+        <v>448</v>
+      </c>
+      <c r="D383" t="s">
+        <v>603</v>
+      </c>
+      <c r="E383" t="s">
+        <v>484</v>
+      </c>
+      <c r="F383">
+        <v>2.7</v>
+      </c>
+      <c r="G383">
+        <v>1</v>
+      </c>
+      <c r="H383" t="s">
+        <v>39</v>
+      </c>
+      <c r="I383" t="s">
+        <v>449</v>
+      </c>
+      <c r="J383" t="s">
+        <v>449</v>
+      </c>
+      <c r="K383" t="s">
+        <v>449</v>
+      </c>
+      <c r="L383" t="s">
+        <v>449</v>
+      </c>
+      <c r="M383" t="s">
+        <v>449</v>
+      </c>
+      <c r="N383" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="384" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A384">
+        <v>60</v>
+      </c>
+      <c r="B384" t="s">
+        <v>445</v>
+      </c>
+      <c r="C384">
+        <v>5</v>
+      </c>
+      <c r="D384" t="s">
+        <v>662</v>
+      </c>
+      <c r="E384" t="s">
+        <v>484</v>
+      </c>
+      <c r="F384">
+        <v>2.6</v>
+      </c>
+      <c r="G384">
+        <v>1</v>
+      </c>
+      <c r="H384" t="s">
+        <v>39</v>
+      </c>
+      <c r="I384" t="s">
+        <v>449</v>
+      </c>
+      <c r="J384" t="s">
+        <v>449</v>
+      </c>
+      <c r="K384" t="s">
+        <v>449</v>
+      </c>
+      <c r="L384" t="s">
+        <v>449</v>
+      </c>
+      <c r="M384" t="s">
+        <v>449</v>
+      </c>
+      <c r="N384" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q384" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="385" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Raw_data/EAB_Michigan_2024_raw_data_photos_removed.xlsx
+++ b/Raw_data/EAB_Michigan_2024_raw_data_photos_removed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/EAB_Michigan_2024_2025_github_folder/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1621" documentId="8_{E6A25E5A-660E-410D-80FD-02C42A3E01DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4289653-62CE-4E6D-9CA9-83D65F39277D}"/>
+  <xr:revisionPtr revIDLastSave="2736" documentId="8_{E6A25E5A-660E-410D-80FD-02C42A3E01DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D84DC401-039E-42EA-AC08-004AAD1474BC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8705" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9040" uniqueCount="1041">
   <si>
     <t>center_tree_number</t>
   </si>
@@ -2992,6 +2992,180 @@
   </si>
   <si>
     <t>From a 4-stem Tilia (25.2 cm is the smallest stem): go 288 degrees and ? Meters.</t>
+  </si>
+  <si>
+    <t>ferns - may apple - beech</t>
+  </si>
+  <si>
+    <t>ferns - spicebush</t>
+  </si>
+  <si>
+    <t>fallen leaves - CWD</t>
+  </si>
+  <si>
+    <t>muddy - CWD - spicebush</t>
+  </si>
+  <si>
+    <t>sparse grasses - CWD - some of ash seedlings have white freckles</t>
+  </si>
+  <si>
+    <t>grasses (abundant)</t>
+  </si>
+  <si>
+    <t>CWD - muddy - ash seedlings extremely dense</t>
+  </si>
+  <si>
+    <t>muddy - skunk cabbage - grasses</t>
+  </si>
+  <si>
+    <t>short grasses</t>
+  </si>
+  <si>
+    <t>tulip poplar - fallen leaves - CWD</t>
+  </si>
+  <si>
+    <t>fallen leaves - Prunus</t>
+  </si>
+  <si>
+    <t>Witch hazel - fallen leaves - CWD</t>
+  </si>
+  <si>
+    <t>fallen leaves - viburnum</t>
+  </si>
+  <si>
+    <t>fallen over</t>
+  </si>
+  <si>
+    <t>epicormic sprout large and dead</t>
+  </si>
+  <si>
+    <t>low dead branch</t>
+  </si>
+  <si>
+    <t>Ash number ? - 07_08_2009</t>
+  </si>
+  <si>
+    <t>American jumpseed - Arabidopsis thing</t>
+  </si>
+  <si>
+    <t>buckthorn - sedges - flooded</t>
+  </si>
+  <si>
+    <t>ferns - skunk cabbage - buckthorn</t>
+  </si>
+  <si>
+    <t>flooded - ferns - skunk cabbage - mosses</t>
+  </si>
+  <si>
+    <t>flooded - grasses</t>
+  </si>
+  <si>
+    <t>fallen leaves - witch hazel</t>
+  </si>
+  <si>
+    <t>viburnum</t>
+  </si>
+  <si>
+    <t>viburnum - hickory - ash leaf galls - dogwood seedlings</t>
+  </si>
+  <si>
+    <t>dogwood - viburnum - Desmodium - Sassafrass</t>
+  </si>
+  <si>
+    <t>may apple</t>
+  </si>
+  <si>
+    <t>Celastrus - Desmodium</t>
+  </si>
+  <si>
+    <t>short grasses - may apple</t>
+  </si>
+  <si>
+    <t>fallen leaves - short grasses</t>
+  </si>
+  <si>
+    <t>fallen leaves- short grasses</t>
+  </si>
+  <si>
+    <t>fallen leaves - herbicides maybe being used on invasives here</t>
+  </si>
+  <si>
+    <t>fallen leaves - short grasses - tall grasses</t>
+  </si>
+  <si>
+    <t>beech seedling - fallen leaves</t>
+  </si>
+  <si>
+    <t>tall grasses - fallen leaves</t>
+  </si>
+  <si>
+    <t>American jumpseed - fallen leaves</t>
+  </si>
+  <si>
+    <t>fallen leaves - galls on ash</t>
+  </si>
+  <si>
+    <t>one ash seedling with dying leaves</t>
+  </si>
+  <si>
+    <t>CWD - FWD - virginia creeper - bitternut hickory - potential deer browse</t>
+  </si>
+  <si>
+    <t>virginia creeper - currant or gooseberry</t>
+  </si>
+  <si>
+    <t>Rubus - short grasses - mud - cherry - American jumpseed</t>
+  </si>
+  <si>
+    <t>fallen leaves - FWD - Rubus</t>
+  </si>
+  <si>
+    <t>Rubus</t>
+  </si>
+  <si>
+    <t>Rubus - virginia creeper</t>
+  </si>
+  <si>
+    <t>Privet or honeysuckle (seed photo)</t>
+  </si>
+  <si>
+    <t>cherry</t>
+  </si>
+  <si>
+    <t>short grasses - virginia creeper - dogwood</t>
+  </si>
+  <si>
+    <t>short grasses - Rubus - may apple</t>
+  </si>
+  <si>
+    <t>poison ivy - Rubus - short grasses - CWD</t>
+  </si>
+  <si>
+    <t>virginia creeper - oak seedling - honeysuckle - American jumpseed</t>
+  </si>
+  <si>
+    <t>fine woody debris - Rubus</t>
+  </si>
+  <si>
+    <t>musclewood</t>
+  </si>
+  <si>
+    <t>CWD</t>
+  </si>
+  <si>
+    <t>bitternut hickory - Rubus - fallen leaves</t>
+  </si>
+  <si>
+    <t>may apple - fallen leaves - Celastrus</t>
+  </si>
+  <si>
+    <t>galls on ash - fallen leaves</t>
+  </si>
+  <si>
+    <t>CWD - fallen leaves - bittersweet</t>
+  </si>
+  <si>
+    <t>may apple - fallen leaves</t>
   </si>
 </sst>
 </file>
@@ -3108,27 +3282,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3146,16 +3300,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4143,9 +4287,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K74" sqref="K74"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9019,7 +9163,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M2:O1048576">
-    <cfRule type="duplicateValues" priority="4"/>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="n">
+      <formula>NOT(ISERROR(SEARCH("n",M2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="y">
+      <formula>NOT(ISERROR(SEARCH("y",M2)))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -9030,12 +9179,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="y">
-      <formula>NOT(ISERROR(SEARCH("y",M2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="n">
-      <formula>NOT(ISERROR(SEARCH("n",M2)))</formula>
-    </cfRule>
+    <cfRule type="duplicateValues" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -9044,11 +9188,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4294AC29-14D4-407D-99E4-B7615C9E66E2}">
-  <dimension ref="A1:N294"/>
+  <dimension ref="A1:N369"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F295" sqref="F295"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A354" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A370" sqref="A370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9063,7 +9207,7 @@
     <col min="15" max="15" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21580,7 +21724,3116 @@
         <v>916</v>
       </c>
     </row>
-    <row r="294" spans="1:14" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="294" spans="1:14" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="6">
+        <v>80</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C294" s="6">
+        <v>0</v>
+      </c>
+      <c r="D294" s="6">
+        <v>8</v>
+      </c>
+      <c r="E294" s="6">
+        <v>1</v>
+      </c>
+      <c r="F294" s="6">
+        <v>5</v>
+      </c>
+      <c r="G294" s="6">
+        <v>4</v>
+      </c>
+      <c r="H294" s="6">
+        <v>5</v>
+      </c>
+      <c r="I294" s="6">
+        <v>1</v>
+      </c>
+      <c r="J294" s="6">
+        <v>0</v>
+      </c>
+      <c r="K294" s="6">
+        <v>1</v>
+      </c>
+      <c r="L294" s="6">
+        <v>1</v>
+      </c>
+      <c r="N294" s="6" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A295">
+        <v>80</v>
+      </c>
+      <c r="B295" t="s">
+        <v>38</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+      <c r="D295">
+        <v>15.5</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295">
+        <v>4</v>
+      </c>
+      <c r="G295">
+        <v>5</v>
+      </c>
+      <c r="H295">
+        <v>0</v>
+      </c>
+      <c r="I295">
+        <v>1</v>
+      </c>
+      <c r="J295">
+        <v>1</v>
+      </c>
+      <c r="K295">
+        <v>2</v>
+      </c>
+      <c r="L295">
+        <v>1</v>
+      </c>
+      <c r="N295" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A296">
+        <v>80</v>
+      </c>
+      <c r="B296" t="s">
+        <v>39</v>
+      </c>
+      <c r="C296">
+        <v>0</v>
+      </c>
+      <c r="D296">
+        <v>25.5</v>
+      </c>
+      <c r="E296">
+        <v>2</v>
+      </c>
+      <c r="F296">
+        <v>4</v>
+      </c>
+      <c r="G296">
+        <v>8</v>
+      </c>
+      <c r="H296">
+        <v>4</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <v>4</v>
+      </c>
+      <c r="L296">
+        <v>1</v>
+      </c>
+      <c r="N296" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A297">
+        <v>80</v>
+      </c>
+      <c r="B297" t="s">
+        <v>40</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+      <c r="D297">
+        <v>8</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>2</v>
+      </c>
+      <c r="G297">
+        <v>5</v>
+      </c>
+      <c r="H297">
+        <v>3</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>2</v>
+      </c>
+      <c r="K297">
+        <v>2</v>
+      </c>
+      <c r="L297">
+        <v>1</v>
+      </c>
+      <c r="N297" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A298">
+        <v>81</v>
+      </c>
+      <c r="B298" t="s">
+        <v>36</v>
+      </c>
+      <c r="C298">
+        <v>0</v>
+      </c>
+      <c r="D298">
+        <v>15.5</v>
+      </c>
+      <c r="E298">
+        <v>4</v>
+      </c>
+      <c r="F298">
+        <v>4</v>
+      </c>
+      <c r="G298">
+        <v>7</v>
+      </c>
+      <c r="H298">
+        <v>1</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>0</v>
+      </c>
+      <c r="L298">
+        <v>0</v>
+      </c>
+      <c r="N298" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A299">
+        <v>81</v>
+      </c>
+      <c r="B299" t="s">
+        <v>38</v>
+      </c>
+      <c r="C299">
+        <v>0</v>
+      </c>
+      <c r="D299">
+        <v>8</v>
+      </c>
+      <c r="E299">
+        <v>2</v>
+      </c>
+      <c r="F299">
+        <v>5</v>
+      </c>
+      <c r="G299">
+        <v>1</v>
+      </c>
+      <c r="H299">
+        <v>1</v>
+      </c>
+      <c r="I299">
+        <v>1</v>
+      </c>
+      <c r="J299">
+        <v>4</v>
+      </c>
+      <c r="K299">
+        <v>2</v>
+      </c>
+      <c r="L299">
+        <v>1</v>
+      </c>
+      <c r="N299" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A300">
+        <v>81</v>
+      </c>
+      <c r="B300" t="s">
+        <v>39</v>
+      </c>
+      <c r="C300">
+        <v>0</v>
+      </c>
+      <c r="D300">
+        <v>8</v>
+      </c>
+      <c r="E300">
+        <v>4</v>
+      </c>
+      <c r="F300">
+        <v>1</v>
+      </c>
+      <c r="G300">
+        <v>5</v>
+      </c>
+      <c r="H300">
+        <v>2</v>
+      </c>
+      <c r="I300">
+        <v>1</v>
+      </c>
+      <c r="J300">
+        <v>2</v>
+      </c>
+      <c r="K300">
+        <v>1</v>
+      </c>
+      <c r="L300">
+        <v>0</v>
+      </c>
+      <c r="N300" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A301">
+        <v>81</v>
+      </c>
+      <c r="B301" t="s">
+        <v>40</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+      <c r="D301">
+        <v>0.5</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
+      </c>
+      <c r="G301">
+        <v>1</v>
+      </c>
+      <c r="H301">
+        <v>0</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
+        <v>0</v>
+      </c>
+      <c r="L301">
+        <v>0</v>
+      </c>
+      <c r="N301" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A302">
+        <v>79</v>
+      </c>
+      <c r="B302" t="s">
+        <v>36</v>
+      </c>
+      <c r="C302">
+        <v>0</v>
+      </c>
+      <c r="D302">
+        <v>75.5</v>
+      </c>
+      <c r="E302">
+        <v>6</v>
+      </c>
+      <c r="F302">
+        <v>14</v>
+      </c>
+      <c r="G302">
+        <v>3</v>
+      </c>
+      <c r="H302">
+        <v>3</v>
+      </c>
+      <c r="I302">
+        <v>11</v>
+      </c>
+      <c r="J302">
+        <v>7</v>
+      </c>
+      <c r="K302">
+        <v>5</v>
+      </c>
+      <c r="L302">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A303">
+        <v>79</v>
+      </c>
+      <c r="B303" t="s">
+        <v>38</v>
+      </c>
+      <c r="C303">
+        <v>0</v>
+      </c>
+      <c r="D303">
+        <v>85.5</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+      <c r="F303">
+        <v>2</v>
+      </c>
+      <c r="G303">
+        <v>3</v>
+      </c>
+      <c r="H303">
+        <v>3</v>
+      </c>
+      <c r="I303">
+        <v>4</v>
+      </c>
+      <c r="J303">
+        <v>12</v>
+      </c>
+      <c r="K303">
+        <v>17</v>
+      </c>
+      <c r="L303">
+        <v>9</v>
+      </c>
+      <c r="N303" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A304">
+        <v>79</v>
+      </c>
+      <c r="B304" t="s">
+        <v>39</v>
+      </c>
+      <c r="C304">
+        <v>0</v>
+      </c>
+      <c r="D304">
+        <v>0</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="F304">
+        <v>0</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+      <c r="H304">
+        <v>0</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304">
+        <v>0</v>
+      </c>
+      <c r="L304">
+        <v>0</v>
+      </c>
+      <c r="N304" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A305">
+        <v>79</v>
+      </c>
+      <c r="B305" t="s">
+        <v>40</v>
+      </c>
+      <c r="C305">
+        <v>0</v>
+      </c>
+      <c r="D305">
+        <v>45.5</v>
+      </c>
+      <c r="E305">
+        <v>1</v>
+      </c>
+      <c r="F305">
+        <v>2</v>
+      </c>
+      <c r="G305">
+        <v>1</v>
+      </c>
+      <c r="H305">
+        <v>3</v>
+      </c>
+      <c r="I305">
+        <v>6</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305">
+        <v>3</v>
+      </c>
+      <c r="L305">
+        <v>7</v>
+      </c>
+      <c r="N305" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A306">
+        <v>59</v>
+      </c>
+      <c r="B306" t="s">
+        <v>36</v>
+      </c>
+      <c r="C306">
+        <v>0</v>
+      </c>
+      <c r="D306">
+        <v>1</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="F306">
+        <v>0</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+      <c r="H306">
+        <v>0</v>
+      </c>
+      <c r="I306">
+        <v>0</v>
+      </c>
+      <c r="J306">
+        <v>1</v>
+      </c>
+      <c r="K306">
+        <v>0</v>
+      </c>
+      <c r="L306">
+        <v>0</v>
+      </c>
+      <c r="N306" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A307">
+        <v>59</v>
+      </c>
+      <c r="B307" t="s">
+        <v>38</v>
+      </c>
+      <c r="C307">
+        <v>0</v>
+      </c>
+      <c r="D307">
+        <v>1</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+      <c r="H307">
+        <v>1</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307">
+        <v>0</v>
+      </c>
+      <c r="L307">
+        <v>0</v>
+      </c>
+      <c r="N307" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A308">
+        <v>59</v>
+      </c>
+      <c r="B308" t="s">
+        <v>39</v>
+      </c>
+      <c r="C308">
+        <v>0</v>
+      </c>
+      <c r="D308">
+        <v>3.5</v>
+      </c>
+      <c r="E308">
+        <v>1</v>
+      </c>
+      <c r="F308">
+        <v>4</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+      <c r="H308">
+        <v>0</v>
+      </c>
+      <c r="I308">
+        <v>0</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="K308">
+        <v>2</v>
+      </c>
+      <c r="L308">
+        <v>0</v>
+      </c>
+      <c r="N308" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A309">
+        <v>59</v>
+      </c>
+      <c r="B309" t="s">
+        <v>40</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+      <c r="D309">
+        <v>3.5</v>
+      </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
+      <c r="G309">
+        <v>3</v>
+      </c>
+      <c r="H309">
+        <v>1</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="K309">
+        <v>0</v>
+      </c>
+      <c r="L309">
+        <v>0</v>
+      </c>
+      <c r="N309" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A310" s="6">
+        <v>20</v>
+      </c>
+      <c r="B310" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C310" s="6">
+        <v>0</v>
+      </c>
+      <c r="D310" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E310" s="6">
+        <v>0</v>
+      </c>
+      <c r="F310" s="6">
+        <v>0</v>
+      </c>
+      <c r="G310" s="6">
+        <v>1</v>
+      </c>
+      <c r="H310" s="6">
+        <v>0</v>
+      </c>
+      <c r="I310" s="6">
+        <v>0</v>
+      </c>
+      <c r="J310" s="6">
+        <v>0</v>
+      </c>
+      <c r="K310" s="6">
+        <v>0</v>
+      </c>
+      <c r="L310" s="6">
+        <v>0</v>
+      </c>
+      <c r="N310" s="6" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A311">
+        <v>20</v>
+      </c>
+      <c r="B311" t="s">
+        <v>38</v>
+      </c>
+      <c r="C311">
+        <v>0</v>
+      </c>
+      <c r="D311">
+        <v>1</v>
+      </c>
+      <c r="E311">
+        <v>0</v>
+      </c>
+      <c r="F311">
+        <v>0</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
+      </c>
+      <c r="H311">
+        <v>0</v>
+      </c>
+      <c r="I311">
+        <v>0</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="K311">
+        <v>0</v>
+      </c>
+      <c r="L311">
+        <v>1</v>
+      </c>
+      <c r="N311" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A312">
+        <v>20</v>
+      </c>
+      <c r="B312" t="s">
+        <v>39</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
+      <c r="D312">
+        <v>1</v>
+      </c>
+      <c r="E312">
+        <v>0</v>
+      </c>
+      <c r="F312">
+        <v>1</v>
+      </c>
+      <c r="G312">
+        <v>0</v>
+      </c>
+      <c r="H312">
+        <v>0</v>
+      </c>
+      <c r="I312">
+        <v>0</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="K312">
+        <v>0</v>
+      </c>
+      <c r="L312">
+        <v>0</v>
+      </c>
+      <c r="N312" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A313">
+        <v>20</v>
+      </c>
+      <c r="B313" t="s">
+        <v>40</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+      <c r="D313">
+        <v>0</v>
+      </c>
+      <c r="E313">
+        <v>0</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+      <c r="G313">
+        <v>0</v>
+      </c>
+      <c r="H313">
+        <v>0</v>
+      </c>
+      <c r="I313">
+        <v>0</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="K313">
+        <v>0</v>
+      </c>
+      <c r="L313">
+        <v>0</v>
+      </c>
+      <c r="N313" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A314">
+        <v>62</v>
+      </c>
+      <c r="B314" t="s">
+        <v>36</v>
+      </c>
+      <c r="C314">
+        <v>0</v>
+      </c>
+      <c r="D314">
+        <v>8</v>
+      </c>
+      <c r="E314">
+        <v>0</v>
+      </c>
+      <c r="F314">
+        <v>0</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
+      <c r="H314">
+        <v>0</v>
+      </c>
+      <c r="I314">
+        <v>0</v>
+      </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
+      <c r="K314">
+        <v>3</v>
+      </c>
+      <c r="L314">
+        <v>0</v>
+      </c>
+      <c r="N314" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A315">
+        <v>62</v>
+      </c>
+      <c r="B315" t="s">
+        <v>38</v>
+      </c>
+      <c r="C315">
+        <v>0</v>
+      </c>
+      <c r="D315">
+        <v>3.5</v>
+      </c>
+      <c r="E315">
+        <v>0</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+      <c r="H315">
+        <v>0</v>
+      </c>
+      <c r="I315">
+        <v>1</v>
+      </c>
+      <c r="J315">
+        <v>0</v>
+      </c>
+      <c r="K315">
+        <v>0</v>
+      </c>
+      <c r="L315">
+        <v>0</v>
+      </c>
+      <c r="N315" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A316">
+        <v>62</v>
+      </c>
+      <c r="B316" t="s">
+        <v>39</v>
+      </c>
+      <c r="C316">
+        <v>0</v>
+      </c>
+      <c r="D316">
+        <v>0</v>
+      </c>
+      <c r="E316">
+        <v>0</v>
+      </c>
+      <c r="F316">
+        <v>0</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+      <c r="H316">
+        <v>0</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316">
+        <v>0</v>
+      </c>
+      <c r="K316">
+        <v>0</v>
+      </c>
+      <c r="L316">
+        <v>0</v>
+      </c>
+      <c r="N316" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A317">
+        <v>62</v>
+      </c>
+      <c r="B317" t="s">
+        <v>40</v>
+      </c>
+      <c r="C317">
+        <v>0</v>
+      </c>
+      <c r="D317">
+        <v>0</v>
+      </c>
+      <c r="E317">
+        <v>0</v>
+      </c>
+      <c r="F317">
+        <v>0</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+      <c r="H317">
+        <v>0</v>
+      </c>
+      <c r="I317">
+        <v>0</v>
+      </c>
+      <c r="J317">
+        <v>0</v>
+      </c>
+      <c r="K317">
+        <v>0</v>
+      </c>
+      <c r="L317">
+        <v>0</v>
+      </c>
+      <c r="N317" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A318">
+        <v>101</v>
+      </c>
+      <c r="B318" t="s">
+        <v>36</v>
+      </c>
+      <c r="C318">
+        <v>0</v>
+      </c>
+      <c r="D318">
+        <v>1</v>
+      </c>
+      <c r="E318">
+        <v>0</v>
+      </c>
+      <c r="F318">
+        <v>0</v>
+      </c>
+      <c r="G318">
+        <v>1</v>
+      </c>
+      <c r="H318">
+        <v>1</v>
+      </c>
+      <c r="I318">
+        <v>0</v>
+      </c>
+      <c r="J318">
+        <v>0</v>
+      </c>
+      <c r="K318">
+        <v>0</v>
+      </c>
+      <c r="L318">
+        <v>0</v>
+      </c>
+      <c r="N318" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A319">
+        <v>101</v>
+      </c>
+      <c r="B319" t="s">
+        <v>38</v>
+      </c>
+      <c r="C319">
+        <v>0</v>
+      </c>
+      <c r="D319">
+        <v>15.5</v>
+      </c>
+      <c r="E319">
+        <v>1</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+      <c r="H319">
+        <v>1</v>
+      </c>
+      <c r="I319">
+        <v>0</v>
+      </c>
+      <c r="J319">
+        <v>1</v>
+      </c>
+      <c r="K319">
+        <v>4</v>
+      </c>
+      <c r="L319">
+        <v>0</v>
+      </c>
+      <c r="N319" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A320">
+        <v>101</v>
+      </c>
+      <c r="B320" t="s">
+        <v>39</v>
+      </c>
+      <c r="C320">
+        <v>0</v>
+      </c>
+      <c r="D320">
+        <v>65.5</v>
+      </c>
+      <c r="E320">
+        <v>2</v>
+      </c>
+      <c r="F320">
+        <v>2</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+      <c r="H320">
+        <v>3</v>
+      </c>
+      <c r="I320">
+        <v>3</v>
+      </c>
+      <c r="J320">
+        <v>5</v>
+      </c>
+      <c r="K320">
+        <v>4</v>
+      </c>
+      <c r="L320">
+        <v>3</v>
+      </c>
+      <c r="N320" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A321">
+        <v>101</v>
+      </c>
+      <c r="B321" t="s">
+        <v>40</v>
+      </c>
+      <c r="C321">
+        <v>0</v>
+      </c>
+      <c r="D321">
+        <v>25.5</v>
+      </c>
+      <c r="E321">
+        <v>1</v>
+      </c>
+      <c r="F321">
+        <v>0</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
+      <c r="H321">
+        <v>2</v>
+      </c>
+      <c r="I321">
+        <v>2</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
+      <c r="K321">
+        <v>2</v>
+      </c>
+      <c r="L321">
+        <v>0</v>
+      </c>
+      <c r="N321" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A322" s="6">
+        <v>14</v>
+      </c>
+      <c r="B322" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C322" s="6">
+        <v>0</v>
+      </c>
+      <c r="D322" s="6">
+        <v>15.5</v>
+      </c>
+      <c r="E322" s="6">
+        <v>3</v>
+      </c>
+      <c r="F322" s="6">
+        <v>0</v>
+      </c>
+      <c r="G322" s="6">
+        <v>1</v>
+      </c>
+      <c r="H322" s="6">
+        <v>0</v>
+      </c>
+      <c r="I322" s="6">
+        <v>2</v>
+      </c>
+      <c r="J322" s="6">
+        <v>2</v>
+      </c>
+      <c r="K322" s="6">
+        <v>0</v>
+      </c>
+      <c r="L322" s="6">
+        <v>1</v>
+      </c>
+      <c r="N322" s="6" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A323">
+        <v>14</v>
+      </c>
+      <c r="B323" t="s">
+        <v>38</v>
+      </c>
+      <c r="C323">
+        <v>0</v>
+      </c>
+      <c r="D323">
+        <v>25.5</v>
+      </c>
+      <c r="E323">
+        <v>1</v>
+      </c>
+      <c r="F323">
+        <v>4</v>
+      </c>
+      <c r="G323">
+        <v>1</v>
+      </c>
+      <c r="H323">
+        <v>0</v>
+      </c>
+      <c r="I323">
+        <v>1</v>
+      </c>
+      <c r="J323">
+        <v>3</v>
+      </c>
+      <c r="K323">
+        <v>3</v>
+      </c>
+      <c r="L323">
+        <v>2</v>
+      </c>
+      <c r="N323" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A324">
+        <v>14</v>
+      </c>
+      <c r="B324" t="s">
+        <v>39</v>
+      </c>
+      <c r="C324">
+        <v>0</v>
+      </c>
+      <c r="D324">
+        <v>8</v>
+      </c>
+      <c r="E324">
+        <v>1</v>
+      </c>
+      <c r="F324">
+        <v>2</v>
+      </c>
+      <c r="G324">
+        <v>2</v>
+      </c>
+      <c r="H324">
+        <v>2</v>
+      </c>
+      <c r="I324">
+        <v>0</v>
+      </c>
+      <c r="J324">
+        <v>0</v>
+      </c>
+      <c r="K324">
+        <v>1</v>
+      </c>
+      <c r="L324">
+        <v>1</v>
+      </c>
+      <c r="N324" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A325">
+        <v>14</v>
+      </c>
+      <c r="B325" t="s">
+        <v>40</v>
+      </c>
+      <c r="C325">
+        <v>0</v>
+      </c>
+      <c r="D325">
+        <v>35.5</v>
+      </c>
+      <c r="E325">
+        <v>5</v>
+      </c>
+      <c r="F325">
+        <v>5</v>
+      </c>
+      <c r="G325">
+        <v>0</v>
+      </c>
+      <c r="H325">
+        <v>1</v>
+      </c>
+      <c r="I325">
+        <v>4</v>
+      </c>
+      <c r="J325">
+        <v>2</v>
+      </c>
+      <c r="K325">
+        <v>2</v>
+      </c>
+      <c r="L325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A326">
+        <v>7</v>
+      </c>
+      <c r="B326" t="s">
+        <v>36</v>
+      </c>
+      <c r="C326">
+        <v>0</v>
+      </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+      <c r="E326">
+        <v>0</v>
+      </c>
+      <c r="F326">
+        <v>0</v>
+      </c>
+      <c r="G326">
+        <v>0</v>
+      </c>
+      <c r="H326">
+        <v>0</v>
+      </c>
+      <c r="I326">
+        <v>0</v>
+      </c>
+      <c r="J326">
+        <v>0</v>
+      </c>
+      <c r="K326">
+        <v>0</v>
+      </c>
+      <c r="L326">
+        <v>0</v>
+      </c>
+      <c r="N326" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A327">
+        <v>7</v>
+      </c>
+      <c r="B327" t="s">
+        <v>38</v>
+      </c>
+      <c r="C327">
+        <v>0</v>
+      </c>
+      <c r="D327">
+        <v>8</v>
+      </c>
+      <c r="E327">
+        <v>0</v>
+      </c>
+      <c r="F327">
+        <v>2</v>
+      </c>
+      <c r="G327">
+        <v>2</v>
+      </c>
+      <c r="H327">
+        <v>2</v>
+      </c>
+      <c r="I327">
+        <v>2</v>
+      </c>
+      <c r="J327">
+        <v>0</v>
+      </c>
+      <c r="K327">
+        <v>1</v>
+      </c>
+      <c r="L327">
+        <v>0</v>
+      </c>
+      <c r="N327" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A328">
+        <v>7</v>
+      </c>
+      <c r="B328" t="s">
+        <v>39</v>
+      </c>
+      <c r="C328">
+        <v>0</v>
+      </c>
+      <c r="D328">
+        <v>8</v>
+      </c>
+      <c r="E328">
+        <v>2</v>
+      </c>
+      <c r="F328">
+        <v>0</v>
+      </c>
+      <c r="G328">
+        <v>1</v>
+      </c>
+      <c r="H328">
+        <v>0</v>
+      </c>
+      <c r="I328">
+        <v>1</v>
+      </c>
+      <c r="J328">
+        <v>1</v>
+      </c>
+      <c r="K328">
+        <v>1</v>
+      </c>
+      <c r="L328">
+        <v>0</v>
+      </c>
+      <c r="N328" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A329">
+        <v>7</v>
+      </c>
+      <c r="B329" t="s">
+        <v>40</v>
+      </c>
+      <c r="C329">
+        <v>0</v>
+      </c>
+      <c r="D329">
+        <v>3.5</v>
+      </c>
+      <c r="E329">
+        <v>1</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
+      <c r="G329">
+        <v>0</v>
+      </c>
+      <c r="H329">
+        <v>1</v>
+      </c>
+      <c r="I329">
+        <v>0</v>
+      </c>
+      <c r="J329">
+        <v>0</v>
+      </c>
+      <c r="K329">
+        <v>0</v>
+      </c>
+      <c r="L329">
+        <v>0</v>
+      </c>
+      <c r="N329" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A330">
+        <v>9</v>
+      </c>
+      <c r="B330" t="s">
+        <v>36</v>
+      </c>
+      <c r="C330">
+        <v>0</v>
+      </c>
+      <c r="D330">
+        <v>3.5</v>
+      </c>
+      <c r="E330">
+        <v>0</v>
+      </c>
+      <c r="F330">
+        <v>0</v>
+      </c>
+      <c r="G330">
+        <v>0</v>
+      </c>
+      <c r="H330">
+        <v>0</v>
+      </c>
+      <c r="I330">
+        <v>0</v>
+      </c>
+      <c r="J330">
+        <v>0</v>
+      </c>
+      <c r="K330">
+        <v>1</v>
+      </c>
+      <c r="L330">
+        <v>1</v>
+      </c>
+      <c r="N330" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A331">
+        <v>9</v>
+      </c>
+      <c r="B331" t="s">
+        <v>38</v>
+      </c>
+      <c r="C331">
+        <v>0</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+      <c r="E331">
+        <v>0</v>
+      </c>
+      <c r="F331">
+        <v>0</v>
+      </c>
+      <c r="G331">
+        <v>0</v>
+      </c>
+      <c r="H331">
+        <v>0</v>
+      </c>
+      <c r="I331">
+        <v>0</v>
+      </c>
+      <c r="J331">
+        <v>0</v>
+      </c>
+      <c r="K331">
+        <v>0</v>
+      </c>
+      <c r="L331">
+        <v>0</v>
+      </c>
+      <c r="N331" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A332">
+        <v>9</v>
+      </c>
+      <c r="B332" t="s">
+        <v>39</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
+      </c>
+      <c r="D332">
+        <v>1</v>
+      </c>
+      <c r="E332">
+        <v>3</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+      <c r="G332">
+        <v>0</v>
+      </c>
+      <c r="H332">
+        <v>0</v>
+      </c>
+      <c r="I332">
+        <v>0</v>
+      </c>
+      <c r="J332">
+        <v>0</v>
+      </c>
+      <c r="K332">
+        <v>0</v>
+      </c>
+      <c r="L332">
+        <v>0</v>
+      </c>
+      <c r="N332" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A333">
+        <v>9</v>
+      </c>
+      <c r="B333" t="s">
+        <v>40</v>
+      </c>
+      <c r="C333">
+        <v>0</v>
+      </c>
+      <c r="D333">
+        <v>3.5</v>
+      </c>
+      <c r="E333">
+        <v>0</v>
+      </c>
+      <c r="F333">
+        <v>0</v>
+      </c>
+      <c r="G333">
+        <v>0</v>
+      </c>
+      <c r="H333">
+        <v>1</v>
+      </c>
+      <c r="I333">
+        <v>0</v>
+      </c>
+      <c r="J333">
+        <v>0</v>
+      </c>
+      <c r="K333">
+        <v>0</v>
+      </c>
+      <c r="L333">
+        <v>0</v>
+      </c>
+      <c r="N333" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A334">
+        <v>8</v>
+      </c>
+      <c r="B334" t="s">
+        <v>36</v>
+      </c>
+      <c r="C334">
+        <v>0</v>
+      </c>
+      <c r="D334">
+        <v>3.5</v>
+      </c>
+      <c r="E334">
+        <v>0</v>
+      </c>
+      <c r="F334">
+        <v>1</v>
+      </c>
+      <c r="G334">
+        <v>0</v>
+      </c>
+      <c r="H334">
+        <v>4</v>
+      </c>
+      <c r="I334">
+        <v>0</v>
+      </c>
+      <c r="J334">
+        <v>1</v>
+      </c>
+      <c r="K334">
+        <v>0</v>
+      </c>
+      <c r="L334">
+        <v>1</v>
+      </c>
+      <c r="N334" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A335">
+        <v>8</v>
+      </c>
+      <c r="B335" t="s">
+        <v>38</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
+      <c r="D335">
+        <v>0</v>
+      </c>
+      <c r="E335">
+        <v>0</v>
+      </c>
+      <c r="F335">
+        <v>0</v>
+      </c>
+      <c r="G335">
+        <v>0</v>
+      </c>
+      <c r="H335">
+        <v>0</v>
+      </c>
+      <c r="I335">
+        <v>0</v>
+      </c>
+      <c r="J335">
+        <v>0</v>
+      </c>
+      <c r="K335">
+        <v>0</v>
+      </c>
+      <c r="L335">
+        <v>0</v>
+      </c>
+      <c r="N335" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A336">
+        <v>8</v>
+      </c>
+      <c r="B336" t="s">
+        <v>39</v>
+      </c>
+      <c r="C336">
+        <v>0</v>
+      </c>
+      <c r="D336">
+        <v>0</v>
+      </c>
+      <c r="E336">
+        <v>0</v>
+      </c>
+      <c r="F336">
+        <v>0</v>
+      </c>
+      <c r="G336">
+        <v>0</v>
+      </c>
+      <c r="H336">
+        <v>0</v>
+      </c>
+      <c r="I336">
+        <v>0</v>
+      </c>
+      <c r="J336">
+        <v>0</v>
+      </c>
+      <c r="K336">
+        <v>0</v>
+      </c>
+      <c r="L336">
+        <v>0</v>
+      </c>
+      <c r="N336" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A337">
+        <v>8</v>
+      </c>
+      <c r="B337" t="s">
+        <v>40</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+      <c r="D337">
+        <v>3.5</v>
+      </c>
+      <c r="E337">
+        <v>0</v>
+      </c>
+      <c r="F337">
+        <v>0</v>
+      </c>
+      <c r="G337">
+        <v>0</v>
+      </c>
+      <c r="H337">
+        <v>0</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="J337">
+        <v>0</v>
+      </c>
+      <c r="K337">
+        <v>1</v>
+      </c>
+      <c r="L337">
+        <v>1</v>
+      </c>
+      <c r="N337" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A338">
+        <v>21</v>
+      </c>
+      <c r="B338" t="s">
+        <v>36</v>
+      </c>
+      <c r="C338">
+        <v>0</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338">
+        <v>0</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+      <c r="G338">
+        <v>0</v>
+      </c>
+      <c r="H338">
+        <v>0</v>
+      </c>
+      <c r="I338">
+        <v>0</v>
+      </c>
+      <c r="J338">
+        <v>0</v>
+      </c>
+      <c r="K338">
+        <v>0</v>
+      </c>
+      <c r="L338">
+        <v>0</v>
+      </c>
+      <c r="N338" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A339">
+        <v>21</v>
+      </c>
+      <c r="B339" t="s">
+        <v>38</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+      <c r="E339">
+        <v>0</v>
+      </c>
+      <c r="F339">
+        <v>0</v>
+      </c>
+      <c r="G339">
+        <v>0</v>
+      </c>
+      <c r="H339">
+        <v>0</v>
+      </c>
+      <c r="I339">
+        <v>0</v>
+      </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
+      <c r="K339">
+        <v>0</v>
+      </c>
+      <c r="L339">
+        <v>0</v>
+      </c>
+      <c r="N339" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A340">
+        <v>21</v>
+      </c>
+      <c r="B340" t="s">
+        <v>39</v>
+      </c>
+      <c r="C340">
+        <v>0</v>
+      </c>
+      <c r="D340">
+        <v>0</v>
+      </c>
+      <c r="E340">
+        <v>0</v>
+      </c>
+      <c r="F340">
+        <v>0</v>
+      </c>
+      <c r="G340">
+        <v>0</v>
+      </c>
+      <c r="H340">
+        <v>0</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+      <c r="K340">
+        <v>0</v>
+      </c>
+      <c r="L340">
+        <v>0</v>
+      </c>
+      <c r="N340" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A341">
+        <v>21</v>
+      </c>
+      <c r="B341" t="s">
+        <v>40</v>
+      </c>
+      <c r="C341">
+        <v>0</v>
+      </c>
+      <c r="D341">
+        <v>0</v>
+      </c>
+      <c r="E341">
+        <v>0</v>
+      </c>
+      <c r="F341">
+        <v>0</v>
+      </c>
+      <c r="G341">
+        <v>0</v>
+      </c>
+      <c r="H341">
+        <v>0</v>
+      </c>
+      <c r="I341">
+        <v>0</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="K341">
+        <v>0</v>
+      </c>
+      <c r="L341">
+        <v>0</v>
+      </c>
+      <c r="N341" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A342">
+        <v>19</v>
+      </c>
+      <c r="B342" t="s">
+        <v>36</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+      <c r="D342">
+        <v>1</v>
+      </c>
+      <c r="E342">
+        <v>0</v>
+      </c>
+      <c r="F342">
+        <v>0</v>
+      </c>
+      <c r="G342">
+        <v>1</v>
+      </c>
+      <c r="H342">
+        <v>0</v>
+      </c>
+      <c r="I342">
+        <v>0</v>
+      </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
+      <c r="K342">
+        <v>0</v>
+      </c>
+      <c r="L342">
+        <v>0</v>
+      </c>
+      <c r="N342" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A343">
+        <v>19</v>
+      </c>
+      <c r="B343" t="s">
+        <v>38</v>
+      </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
+      <c r="D343">
+        <v>1</v>
+      </c>
+      <c r="E343">
+        <v>0</v>
+      </c>
+      <c r="F343">
+        <v>0</v>
+      </c>
+      <c r="G343">
+        <v>0</v>
+      </c>
+      <c r="H343">
+        <v>0</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+      <c r="J343">
+        <v>2</v>
+      </c>
+      <c r="K343">
+        <v>0</v>
+      </c>
+      <c r="L343">
+        <v>0</v>
+      </c>
+      <c r="N343" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A344">
+        <v>19</v>
+      </c>
+      <c r="B344" t="s">
+        <v>39</v>
+      </c>
+      <c r="C344">
+        <v>0</v>
+      </c>
+      <c r="D344">
+        <v>0</v>
+      </c>
+      <c r="E344">
+        <v>0</v>
+      </c>
+      <c r="F344">
+        <v>0</v>
+      </c>
+      <c r="G344">
+        <v>0</v>
+      </c>
+      <c r="H344">
+        <v>0</v>
+      </c>
+      <c r="I344">
+        <v>0</v>
+      </c>
+      <c r="J344">
+        <v>0</v>
+      </c>
+      <c r="K344">
+        <v>0</v>
+      </c>
+      <c r="L344">
+        <v>0</v>
+      </c>
+      <c r="N344" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A345">
+        <v>19</v>
+      </c>
+      <c r="B345" t="s">
+        <v>40</v>
+      </c>
+      <c r="C345">
+        <v>0</v>
+      </c>
+      <c r="D345">
+        <v>8</v>
+      </c>
+      <c r="E345">
+        <v>2</v>
+      </c>
+      <c r="F345">
+        <v>1</v>
+      </c>
+      <c r="G345">
+        <v>5</v>
+      </c>
+      <c r="H345">
+        <v>0</v>
+      </c>
+      <c r="I345">
+        <v>0</v>
+      </c>
+      <c r="J345">
+        <v>0</v>
+      </c>
+      <c r="K345">
+        <v>1</v>
+      </c>
+      <c r="L345">
+        <v>2</v>
+      </c>
+      <c r="N345" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A346" s="6">
+        <v>10</v>
+      </c>
+      <c r="B346" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C346" s="6">
+        <v>0</v>
+      </c>
+      <c r="D346" s="6">
+        <v>8</v>
+      </c>
+      <c r="E346" s="6">
+        <v>0</v>
+      </c>
+      <c r="F346" s="6">
+        <v>0</v>
+      </c>
+      <c r="G346" s="6">
+        <v>0</v>
+      </c>
+      <c r="H346" s="6">
+        <v>0</v>
+      </c>
+      <c r="I346" s="6">
+        <v>0</v>
+      </c>
+      <c r="J346" s="6">
+        <v>2</v>
+      </c>
+      <c r="K346" s="6">
+        <v>1</v>
+      </c>
+      <c r="L346" s="6">
+        <v>0</v>
+      </c>
+      <c r="N346" s="6" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A347">
+        <v>10</v>
+      </c>
+      <c r="B347" t="s">
+        <v>38</v>
+      </c>
+      <c r="C347">
+        <v>0</v>
+      </c>
+      <c r="D347">
+        <v>15.5</v>
+      </c>
+      <c r="E347">
+        <v>0</v>
+      </c>
+      <c r="F347">
+        <v>0</v>
+      </c>
+      <c r="G347">
+        <v>0</v>
+      </c>
+      <c r="H347">
+        <v>0</v>
+      </c>
+      <c r="I347">
+        <v>1</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347">
+        <v>0</v>
+      </c>
+      <c r="L347">
+        <v>1</v>
+      </c>
+      <c r="N347" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A348">
+        <v>10</v>
+      </c>
+      <c r="B348" t="s">
+        <v>39</v>
+      </c>
+      <c r="C348">
+        <v>0</v>
+      </c>
+      <c r="D348">
+        <v>15.5</v>
+      </c>
+      <c r="E348">
+        <v>0</v>
+      </c>
+      <c r="F348">
+        <v>0</v>
+      </c>
+      <c r="G348">
+        <v>0</v>
+      </c>
+      <c r="H348">
+        <v>0</v>
+      </c>
+      <c r="I348">
+        <v>0</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+      <c r="K348">
+        <v>1</v>
+      </c>
+      <c r="L348">
+        <v>0</v>
+      </c>
+      <c r="N348" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A349">
+        <v>10</v>
+      </c>
+      <c r="B349" t="s">
+        <v>40</v>
+      </c>
+      <c r="C349">
+        <v>0</v>
+      </c>
+      <c r="D349">
+        <v>15.5</v>
+      </c>
+      <c r="E349">
+        <v>0</v>
+      </c>
+      <c r="F349">
+        <v>0</v>
+      </c>
+      <c r="G349">
+        <v>0</v>
+      </c>
+      <c r="H349">
+        <v>2</v>
+      </c>
+      <c r="I349">
+        <v>0</v>
+      </c>
+      <c r="J349">
+        <v>2</v>
+      </c>
+      <c r="K349">
+        <v>2</v>
+      </c>
+      <c r="L349">
+        <v>0</v>
+      </c>
+      <c r="N349" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A350">
+        <v>11</v>
+      </c>
+      <c r="B350" t="s">
+        <v>36</v>
+      </c>
+      <c r="C350">
+        <v>0</v>
+      </c>
+      <c r="D350">
+        <v>15.5</v>
+      </c>
+      <c r="E350">
+        <v>0</v>
+      </c>
+      <c r="F350">
+        <v>0</v>
+      </c>
+      <c r="G350">
+        <v>0</v>
+      </c>
+      <c r="H350">
+        <v>0</v>
+      </c>
+      <c r="I350">
+        <v>0</v>
+      </c>
+      <c r="J350">
+        <v>1</v>
+      </c>
+      <c r="K350">
+        <v>1</v>
+      </c>
+      <c r="L350">
+        <v>0</v>
+      </c>
+      <c r="N350" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A351">
+        <v>11</v>
+      </c>
+      <c r="B351" t="s">
+        <v>38</v>
+      </c>
+      <c r="C351">
+        <v>0</v>
+      </c>
+      <c r="D351">
+        <v>25.5</v>
+      </c>
+      <c r="E351">
+        <v>0</v>
+      </c>
+      <c r="F351">
+        <v>0</v>
+      </c>
+      <c r="G351">
+        <v>0</v>
+      </c>
+      <c r="H351">
+        <v>1</v>
+      </c>
+      <c r="I351">
+        <v>1</v>
+      </c>
+      <c r="J351">
+        <v>1</v>
+      </c>
+      <c r="K351">
+        <v>1</v>
+      </c>
+      <c r="L351">
+        <v>2</v>
+      </c>
+      <c r="N351" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A352">
+        <v>11</v>
+      </c>
+      <c r="B352" t="s">
+        <v>39</v>
+      </c>
+      <c r="C352">
+        <v>0</v>
+      </c>
+      <c r="D352">
+        <v>25.5</v>
+      </c>
+      <c r="E352">
+        <v>0</v>
+      </c>
+      <c r="F352">
+        <v>1</v>
+      </c>
+      <c r="G352">
+        <v>0</v>
+      </c>
+      <c r="H352">
+        <v>0</v>
+      </c>
+      <c r="I352">
+        <v>0</v>
+      </c>
+      <c r="J352">
+        <v>3</v>
+      </c>
+      <c r="K352">
+        <v>1</v>
+      </c>
+      <c r="L352">
+        <v>0</v>
+      </c>
+      <c r="N352" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A353">
+        <v>11</v>
+      </c>
+      <c r="B353" t="s">
+        <v>40</v>
+      </c>
+      <c r="C353">
+        <v>0</v>
+      </c>
+      <c r="D353">
+        <v>25.5</v>
+      </c>
+      <c r="E353">
+        <v>0</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+      <c r="G353">
+        <v>0</v>
+      </c>
+      <c r="H353">
+        <v>0</v>
+      </c>
+      <c r="I353">
+        <v>3</v>
+      </c>
+      <c r="J353">
+        <v>2</v>
+      </c>
+      <c r="K353">
+        <v>0</v>
+      </c>
+      <c r="L353">
+        <v>1</v>
+      </c>
+      <c r="N353" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A354">
+        <v>12</v>
+      </c>
+      <c r="B354" t="s">
+        <v>36</v>
+      </c>
+      <c r="C354">
+        <v>0</v>
+      </c>
+      <c r="D354">
+        <v>0</v>
+      </c>
+      <c r="E354">
+        <v>0</v>
+      </c>
+      <c r="F354">
+        <v>0</v>
+      </c>
+      <c r="G354">
+        <v>0</v>
+      </c>
+      <c r="H354">
+        <v>0</v>
+      </c>
+      <c r="I354">
+        <v>0</v>
+      </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
+      <c r="K354">
+        <v>0</v>
+      </c>
+      <c r="L354">
+        <v>0</v>
+      </c>
+      <c r="N354" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A355">
+        <v>12</v>
+      </c>
+      <c r="B355" t="s">
+        <v>38</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
+      <c r="D355">
+        <v>3.5</v>
+      </c>
+      <c r="E355">
+        <v>0</v>
+      </c>
+      <c r="F355">
+        <v>0</v>
+      </c>
+      <c r="G355">
+        <v>0</v>
+      </c>
+      <c r="H355">
+        <v>0</v>
+      </c>
+      <c r="I355">
+        <v>0</v>
+      </c>
+      <c r="J355">
+        <v>1</v>
+      </c>
+      <c r="K355">
+        <v>0</v>
+      </c>
+      <c r="L355">
+        <v>0</v>
+      </c>
+      <c r="N355" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A356">
+        <v>12</v>
+      </c>
+      <c r="B356" t="s">
+        <v>39</v>
+      </c>
+      <c r="C356">
+        <v>0</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+      <c r="E356">
+        <v>0</v>
+      </c>
+      <c r="F356">
+        <v>0</v>
+      </c>
+      <c r="G356">
+        <v>0</v>
+      </c>
+      <c r="H356">
+        <v>0</v>
+      </c>
+      <c r="I356">
+        <v>0</v>
+      </c>
+      <c r="J356">
+        <v>0</v>
+      </c>
+      <c r="K356">
+        <v>0</v>
+      </c>
+      <c r="L356">
+        <v>0</v>
+      </c>
+      <c r="N356" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A357">
+        <v>12</v>
+      </c>
+      <c r="B357" t="s">
+        <v>40</v>
+      </c>
+      <c r="C357">
+        <v>0</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+      <c r="E357">
+        <v>0</v>
+      </c>
+      <c r="F357">
+        <v>0</v>
+      </c>
+      <c r="G357">
+        <v>0</v>
+      </c>
+      <c r="H357">
+        <v>0</v>
+      </c>
+      <c r="I357">
+        <v>0</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="K357">
+        <v>0</v>
+      </c>
+      <c r="L357">
+        <v>0</v>
+      </c>
+      <c r="N357" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A358">
+        <v>5</v>
+      </c>
+      <c r="B358" t="s">
+        <v>36</v>
+      </c>
+      <c r="C358">
+        <v>0</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+      <c r="E358">
+        <v>0</v>
+      </c>
+      <c r="F358">
+        <v>0</v>
+      </c>
+      <c r="G358">
+        <v>0</v>
+      </c>
+      <c r="H358">
+        <v>0</v>
+      </c>
+      <c r="I358">
+        <v>0</v>
+      </c>
+      <c r="J358">
+        <v>0</v>
+      </c>
+      <c r="K358">
+        <v>0</v>
+      </c>
+      <c r="L358">
+        <v>0</v>
+      </c>
+      <c r="N358" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A359">
+        <v>5</v>
+      </c>
+      <c r="B359" t="s">
+        <v>38</v>
+      </c>
+      <c r="C359">
+        <v>0</v>
+      </c>
+      <c r="D359">
+        <v>3.5</v>
+      </c>
+      <c r="E359">
+        <v>0</v>
+      </c>
+      <c r="F359">
+        <v>0</v>
+      </c>
+      <c r="G359">
+        <v>0</v>
+      </c>
+      <c r="H359">
+        <v>0</v>
+      </c>
+      <c r="I359">
+        <v>1</v>
+      </c>
+      <c r="J359">
+        <v>0</v>
+      </c>
+      <c r="K359">
+        <v>0</v>
+      </c>
+      <c r="L359">
+        <v>0</v>
+      </c>
+      <c r="N359" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A360">
+        <v>5</v>
+      </c>
+      <c r="B360" t="s">
+        <v>39</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+      <c r="D360">
+        <v>3.5</v>
+      </c>
+      <c r="E360">
+        <v>0</v>
+      </c>
+      <c r="F360">
+        <v>0</v>
+      </c>
+      <c r="G360">
+        <v>0</v>
+      </c>
+      <c r="H360">
+        <v>0</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
+      <c r="K360">
+        <v>1</v>
+      </c>
+      <c r="L360">
+        <v>0</v>
+      </c>
+      <c r="N360" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A361">
+        <v>5</v>
+      </c>
+      <c r="B361" t="s">
+        <v>40</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+      <c r="E361">
+        <v>0</v>
+      </c>
+      <c r="F361">
+        <v>0</v>
+      </c>
+      <c r="G361">
+        <v>0</v>
+      </c>
+      <c r="H361">
+        <v>0</v>
+      </c>
+      <c r="I361">
+        <v>0</v>
+      </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
+      <c r="K361">
+        <v>0</v>
+      </c>
+      <c r="L361">
+        <v>0</v>
+      </c>
+      <c r="N361" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A362">
+        <v>15</v>
+      </c>
+      <c r="B362" t="s">
+        <v>36</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+      <c r="D362">
+        <v>8</v>
+      </c>
+      <c r="E362">
+        <v>0</v>
+      </c>
+      <c r="F362">
+        <v>0</v>
+      </c>
+      <c r="G362">
+        <v>0</v>
+      </c>
+      <c r="H362">
+        <v>0</v>
+      </c>
+      <c r="I362">
+        <v>1</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>0</v>
+      </c>
+      <c r="L362">
+        <v>0</v>
+      </c>
+      <c r="N362" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A363">
+        <v>15</v>
+      </c>
+      <c r="B363" t="s">
+        <v>38</v>
+      </c>
+      <c r="C363">
+        <v>0</v>
+      </c>
+      <c r="D363">
+        <v>3.5</v>
+      </c>
+      <c r="E363">
+        <v>2</v>
+      </c>
+      <c r="F363">
+        <v>0</v>
+      </c>
+      <c r="G363">
+        <v>0</v>
+      </c>
+      <c r="H363">
+        <v>1</v>
+      </c>
+      <c r="I363">
+        <v>1</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+      <c r="K363">
+        <v>1</v>
+      </c>
+      <c r="L363">
+        <v>0</v>
+      </c>
+      <c r="N363" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A364">
+        <v>15</v>
+      </c>
+      <c r="B364" t="s">
+        <v>39</v>
+      </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
+      <c r="D364">
+        <v>3.5</v>
+      </c>
+      <c r="E364">
+        <v>0</v>
+      </c>
+      <c r="F364">
+        <v>0</v>
+      </c>
+      <c r="G364">
+        <v>0</v>
+      </c>
+      <c r="H364">
+        <v>1</v>
+      </c>
+      <c r="I364">
+        <v>0</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+      <c r="K364">
+        <v>0</v>
+      </c>
+      <c r="L364">
+        <v>0</v>
+      </c>
+      <c r="N364" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A365">
+        <v>15</v>
+      </c>
+      <c r="B365" t="s">
+        <v>40</v>
+      </c>
+      <c r="C365">
+        <v>0</v>
+      </c>
+      <c r="D365">
+        <v>0</v>
+      </c>
+      <c r="E365">
+        <v>0</v>
+      </c>
+      <c r="F365">
+        <v>0</v>
+      </c>
+      <c r="G365">
+        <v>0</v>
+      </c>
+      <c r="H365">
+        <v>0</v>
+      </c>
+      <c r="I365">
+        <v>0</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+      <c r="K365">
+        <v>0</v>
+      </c>
+      <c r="L365">
+        <v>0</v>
+      </c>
+      <c r="N365" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A366">
+        <v>13</v>
+      </c>
+      <c r="B366" t="s">
+        <v>36</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+      <c r="D366">
+        <v>8</v>
+      </c>
+      <c r="E366">
+        <v>1</v>
+      </c>
+      <c r="F366">
+        <v>0</v>
+      </c>
+      <c r="G366">
+        <v>3</v>
+      </c>
+      <c r="H366">
+        <v>1</v>
+      </c>
+      <c r="I366">
+        <v>1</v>
+      </c>
+      <c r="J366">
+        <v>0</v>
+      </c>
+      <c r="K366">
+        <v>0</v>
+      </c>
+      <c r="L366">
+        <v>0</v>
+      </c>
+      <c r="N366" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A367">
+        <v>13</v>
+      </c>
+      <c r="B367" t="s">
+        <v>38</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
+      <c r="D367">
+        <v>8</v>
+      </c>
+      <c r="E367">
+        <v>2</v>
+      </c>
+      <c r="F367">
+        <v>1</v>
+      </c>
+      <c r="G367">
+        <v>4</v>
+      </c>
+      <c r="H367">
+        <v>0</v>
+      </c>
+      <c r="I367">
+        <v>1</v>
+      </c>
+      <c r="J367">
+        <v>2</v>
+      </c>
+      <c r="K367">
+        <v>0</v>
+      </c>
+      <c r="L367">
+        <v>0</v>
+      </c>
+      <c r="N367" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A368">
+        <v>13</v>
+      </c>
+      <c r="B368" t="s">
+        <v>39</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+      <c r="D368">
+        <v>3.5</v>
+      </c>
+      <c r="E368">
+        <v>1</v>
+      </c>
+      <c r="F368">
+        <v>0</v>
+      </c>
+      <c r="G368">
+        <v>1</v>
+      </c>
+      <c r="H368">
+        <v>1</v>
+      </c>
+      <c r="I368">
+        <v>1</v>
+      </c>
+      <c r="J368">
+        <v>0</v>
+      </c>
+      <c r="K368">
+        <v>0</v>
+      </c>
+      <c r="L368">
+        <v>1</v>
+      </c>
+      <c r="N368" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A369">
+        <v>13</v>
+      </c>
+      <c r="B369" t="s">
+        <v>40</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+      <c r="D369">
+        <v>3.5</v>
+      </c>
+      <c r="E369">
+        <v>1</v>
+      </c>
+      <c r="F369">
+        <v>0</v>
+      </c>
+      <c r="G369">
+        <v>1</v>
+      </c>
+      <c r="H369">
+        <v>1</v>
+      </c>
+      <c r="I369">
+        <v>2</v>
+      </c>
+      <c r="J369">
+        <v>0</v>
+      </c>
+      <c r="K369">
+        <v>0</v>
+      </c>
+      <c r="L369">
+        <v>0</v>
+      </c>
+      <c r="N369" t="s">
+        <v>1040</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21588,11 +24841,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BD0D19-2CF9-4B20-BFF9-137DFE963B6F}">
-  <dimension ref="A1:L293"/>
+  <dimension ref="A1:L305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D294" sqref="D294"/>
+      <pane ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A306" sqref="A306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30078,6 +33331,390 @@
         <v>13</v>
       </c>
     </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A294">
+        <v>80</v>
+      </c>
+      <c r="B294" t="s">
+        <v>443</v>
+      </c>
+      <c r="C294" t="s">
+        <v>450</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+      <c r="E294" t="s">
+        <v>483</v>
+      </c>
+      <c r="F294" t="s">
+        <v>483</v>
+      </c>
+      <c r="G294" t="s">
+        <v>483</v>
+      </c>
+      <c r="H294" t="s">
+        <v>483</v>
+      </c>
+      <c r="I294" t="s">
+        <v>483</v>
+      </c>
+      <c r="J294" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A295">
+        <v>80</v>
+      </c>
+      <c r="B295" t="s">
+        <v>445</v>
+      </c>
+      <c r="C295" t="s">
+        <v>481</v>
+      </c>
+      <c r="D295">
+        <v>1</v>
+      </c>
+      <c r="E295" t="s">
+        <v>447</v>
+      </c>
+      <c r="F295" t="s">
+        <v>447</v>
+      </c>
+      <c r="G295" t="s">
+        <v>447</v>
+      </c>
+      <c r="H295" t="s">
+        <v>447</v>
+      </c>
+      <c r="I295" t="s">
+        <v>447</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A296">
+        <v>80</v>
+      </c>
+      <c r="B296" t="s">
+        <v>446</v>
+      </c>
+      <c r="C296" t="s">
+        <v>450</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296" t="s">
+        <v>483</v>
+      </c>
+      <c r="F296" t="s">
+        <v>483</v>
+      </c>
+      <c r="G296" t="s">
+        <v>483</v>
+      </c>
+      <c r="H296" t="s">
+        <v>483</v>
+      </c>
+      <c r="I296" t="s">
+        <v>483</v>
+      </c>
+      <c r="J296" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A297">
+        <v>80</v>
+      </c>
+      <c r="B297" t="s">
+        <v>444</v>
+      </c>
+      <c r="C297" t="s">
+        <v>450</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="E297" t="s">
+        <v>483</v>
+      </c>
+      <c r="F297" t="s">
+        <v>483</v>
+      </c>
+      <c r="G297" t="s">
+        <v>483</v>
+      </c>
+      <c r="H297" t="s">
+        <v>483</v>
+      </c>
+      <c r="I297" t="s">
+        <v>483</v>
+      </c>
+      <c r="J297" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A298">
+        <v>81</v>
+      </c>
+      <c r="B298" t="s">
+        <v>443</v>
+      </c>
+      <c r="C298" t="s">
+        <v>450</v>
+      </c>
+      <c r="D298">
+        <v>0</v>
+      </c>
+      <c r="E298" t="s">
+        <v>483</v>
+      </c>
+      <c r="F298" t="s">
+        <v>483</v>
+      </c>
+      <c r="G298" t="s">
+        <v>483</v>
+      </c>
+      <c r="H298" t="s">
+        <v>483</v>
+      </c>
+      <c r="I298" t="s">
+        <v>483</v>
+      </c>
+      <c r="J298" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A299">
+        <v>81</v>
+      </c>
+      <c r="B299" t="s">
+        <v>445</v>
+      </c>
+      <c r="C299" t="s">
+        <v>450</v>
+      </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+      <c r="E299" t="s">
+        <v>483</v>
+      </c>
+      <c r="F299" t="s">
+        <v>483</v>
+      </c>
+      <c r="G299" t="s">
+        <v>483</v>
+      </c>
+      <c r="H299" t="s">
+        <v>483</v>
+      </c>
+      <c r="I299" t="s">
+        <v>483</v>
+      </c>
+      <c r="J299" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A300">
+        <v>81</v>
+      </c>
+      <c r="B300" t="s">
+        <v>446</v>
+      </c>
+      <c r="C300" t="s">
+        <v>450</v>
+      </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+      <c r="E300" t="s">
+        <v>483</v>
+      </c>
+      <c r="F300" t="s">
+        <v>483</v>
+      </c>
+      <c r="G300" t="s">
+        <v>483</v>
+      </c>
+      <c r="H300" t="s">
+        <v>483</v>
+      </c>
+      <c r="I300" t="s">
+        <v>483</v>
+      </c>
+      <c r="J300" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A301">
+        <v>81</v>
+      </c>
+      <c r="B301" t="s">
+        <v>444</v>
+      </c>
+      <c r="C301" t="s">
+        <v>450</v>
+      </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+      <c r="E301" t="s">
+        <v>483</v>
+      </c>
+      <c r="F301" t="s">
+        <v>483</v>
+      </c>
+      <c r="G301" t="s">
+        <v>483</v>
+      </c>
+      <c r="H301" t="s">
+        <v>483</v>
+      </c>
+      <c r="I301" t="s">
+        <v>483</v>
+      </c>
+      <c r="J301" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A302">
+        <v>79</v>
+      </c>
+      <c r="B302" t="s">
+        <v>443</v>
+      </c>
+      <c r="C302" t="s">
+        <v>481</v>
+      </c>
+      <c r="D302">
+        <v>5</v>
+      </c>
+      <c r="E302" t="s">
+        <v>447</v>
+      </c>
+      <c r="F302" t="s">
+        <v>447</v>
+      </c>
+      <c r="G302" t="s">
+        <v>447</v>
+      </c>
+      <c r="H302" t="s">
+        <v>447</v>
+      </c>
+      <c r="I302" t="s">
+        <v>447</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A303">
+        <v>79</v>
+      </c>
+      <c r="B303" t="s">
+        <v>445</v>
+      </c>
+      <c r="C303" t="s">
+        <v>481</v>
+      </c>
+      <c r="D303">
+        <v>3</v>
+      </c>
+      <c r="E303" t="s">
+        <v>447</v>
+      </c>
+      <c r="F303" t="s">
+        <v>447</v>
+      </c>
+      <c r="G303" t="s">
+        <v>447</v>
+      </c>
+      <c r="H303" t="s">
+        <v>447</v>
+      </c>
+      <c r="I303" t="s">
+        <v>447</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A304">
+        <v>79</v>
+      </c>
+      <c r="B304" t="s">
+        <v>446</v>
+      </c>
+      <c r="C304" t="s">
+        <v>481</v>
+      </c>
+      <c r="D304">
+        <v>4</v>
+      </c>
+      <c r="E304" t="s">
+        <v>447</v>
+      </c>
+      <c r="F304" t="s">
+        <v>447</v>
+      </c>
+      <c r="G304" t="s">
+        <v>447</v>
+      </c>
+      <c r="H304" t="s">
+        <v>447</v>
+      </c>
+      <c r="I304" t="s">
+        <v>447</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A305">
+        <v>79</v>
+      </c>
+      <c r="B305" t="s">
+        <v>444</v>
+      </c>
+      <c r="C305" t="s">
+        <v>481</v>
+      </c>
+      <c r="D305">
+        <v>2</v>
+      </c>
+      <c r="E305" t="s">
+        <v>447</v>
+      </c>
+      <c r="F305" t="s">
+        <v>447</v>
+      </c>
+      <c r="G305" t="s">
+        <v>447</v>
+      </c>
+      <c r="H305" t="s">
+        <v>447</v>
+      </c>
+      <c r="I305" t="s">
+        <v>447</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30085,11 +33722,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA95277-679F-4206-8ACD-7B30D3EACF40}">
-  <dimension ref="A1:S385"/>
+  <dimension ref="A1:S392"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A368" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M386" sqref="M386"/>
+      <pane ySplit="1" topLeftCell="A381" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q391" sqref="Q391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -47279,7 +50916,400 @@
         <v>896</v>
       </c>
     </row>
-    <row r="385" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="385" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A385" s="6">
+        <v>72</v>
+      </c>
+      <c r="B385" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C385" s="6">
+        <v>62</v>
+      </c>
+      <c r="D385" s="6">
+        <v>11.78</v>
+      </c>
+      <c r="E385" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="F385" s="6">
+        <v>11.4</v>
+      </c>
+      <c r="G385" s="6">
+        <v>2</v>
+      </c>
+      <c r="H385" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="I385" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="J385" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="K385" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="L385" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="M385" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="N385" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="R385" s="6" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="386" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A386">
+        <v>72</v>
+      </c>
+      <c r="B386" t="s">
+        <v>443</v>
+      </c>
+      <c r="C386">
+        <v>78</v>
+      </c>
+      <c r="D386">
+        <v>18.54</v>
+      </c>
+      <c r="E386" t="s">
+        <v>499</v>
+      </c>
+      <c r="F386">
+        <v>10.3</v>
+      </c>
+      <c r="G386">
+        <v>1</v>
+      </c>
+      <c r="H386" t="s">
+        <v>39</v>
+      </c>
+      <c r="I386" t="s">
+        <v>447</v>
+      </c>
+      <c r="J386" t="s">
+        <v>447</v>
+      </c>
+      <c r="K386" t="s">
+        <v>447</v>
+      </c>
+      <c r="L386" t="s">
+        <v>448</v>
+      </c>
+      <c r="M386" t="s">
+        <v>447</v>
+      </c>
+      <c r="N386" t="s">
+        <v>447</v>
+      </c>
+      <c r="R386" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="387" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A387">
+        <v>72</v>
+      </c>
+      <c r="B387" t="s">
+        <v>445</v>
+      </c>
+      <c r="C387">
+        <v>118</v>
+      </c>
+      <c r="D387">
+        <v>11.54</v>
+      </c>
+      <c r="E387" t="s">
+        <v>499</v>
+      </c>
+      <c r="F387">
+        <v>11.1</v>
+      </c>
+      <c r="G387">
+        <v>1</v>
+      </c>
+      <c r="H387" t="s">
+        <v>189</v>
+      </c>
+      <c r="I387" t="s">
+        <v>447</v>
+      </c>
+      <c r="J387" t="s">
+        <v>447</v>
+      </c>
+      <c r="K387" t="s">
+        <v>447</v>
+      </c>
+      <c r="L387" t="s">
+        <v>447</v>
+      </c>
+      <c r="M387" t="s">
+        <v>447</v>
+      </c>
+      <c r="N387" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="388" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A388">
+        <v>72</v>
+      </c>
+      <c r="B388" t="s">
+        <v>445</v>
+      </c>
+      <c r="C388">
+        <v>122</v>
+      </c>
+      <c r="D388">
+        <v>17.38</v>
+      </c>
+      <c r="E388" t="s">
+        <v>526</v>
+      </c>
+      <c r="F388">
+        <v>10.6</v>
+      </c>
+      <c r="G388">
+        <v>1</v>
+      </c>
+      <c r="H388" t="s">
+        <v>189</v>
+      </c>
+      <c r="I388" t="s">
+        <v>447</v>
+      </c>
+      <c r="J388" t="s">
+        <v>447</v>
+      </c>
+      <c r="K388" t="s">
+        <v>448</v>
+      </c>
+      <c r="L388" t="s">
+        <v>447</v>
+      </c>
+      <c r="M388" t="s">
+        <v>447</v>
+      </c>
+      <c r="N388" t="s">
+        <v>447</v>
+      </c>
+      <c r="R388" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="389" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A389">
+        <v>72</v>
+      </c>
+      <c r="B389" t="s">
+        <v>445</v>
+      </c>
+      <c r="C389">
+        <v>120</v>
+      </c>
+      <c r="D389">
+        <v>20.74</v>
+      </c>
+      <c r="E389" t="s">
+        <v>526</v>
+      </c>
+      <c r="F389">
+        <v>14.2</v>
+      </c>
+      <c r="G389">
+        <v>1</v>
+      </c>
+      <c r="H389" t="s">
+        <v>39</v>
+      </c>
+      <c r="I389" t="s">
+        <v>447</v>
+      </c>
+      <c r="J389" t="s">
+        <v>447</v>
+      </c>
+      <c r="K389" t="s">
+        <v>447</v>
+      </c>
+      <c r="L389" t="s">
+        <v>447</v>
+      </c>
+      <c r="M389" t="s">
+        <v>447</v>
+      </c>
+      <c r="N389" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="390" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A390">
+        <v>80</v>
+      </c>
+      <c r="B390" t="s">
+        <v>445</v>
+      </c>
+      <c r="C390">
+        <v>165</v>
+      </c>
+      <c r="D390">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="E390" t="s">
+        <v>481</v>
+      </c>
+      <c r="F390">
+        <v>3.8</v>
+      </c>
+      <c r="G390">
+        <v>1</v>
+      </c>
+      <c r="H390" t="s">
+        <v>39</v>
+      </c>
+      <c r="I390" t="s">
+        <v>447</v>
+      </c>
+      <c r="J390" t="s">
+        <v>447</v>
+      </c>
+      <c r="K390" t="s">
+        <v>447</v>
+      </c>
+      <c r="L390" t="s">
+        <v>447</v>
+      </c>
+      <c r="M390" t="s">
+        <v>447</v>
+      </c>
+      <c r="N390" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q390" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="391" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A391">
+        <v>79</v>
+      </c>
+      <c r="B391" t="s">
+        <v>450</v>
+      </c>
+      <c r="C391" t="s">
+        <v>483</v>
+      </c>
+      <c r="D391" t="s">
+        <v>483</v>
+      </c>
+      <c r="E391" t="s">
+        <v>483</v>
+      </c>
+      <c r="F391" t="s">
+        <v>483</v>
+      </c>
+      <c r="G391" t="s">
+        <v>483</v>
+      </c>
+      <c r="H391" t="s">
+        <v>483</v>
+      </c>
+      <c r="I391" t="s">
+        <v>483</v>
+      </c>
+      <c r="J391" t="s">
+        <v>483</v>
+      </c>
+      <c r="K391" t="s">
+        <v>483</v>
+      </c>
+      <c r="L391" t="s">
+        <v>483</v>
+      </c>
+      <c r="M391" t="s">
+        <v>483</v>
+      </c>
+      <c r="N391" t="s">
+        <v>483</v>
+      </c>
+      <c r="O391" t="s">
+        <v>483</v>
+      </c>
+      <c r="P391" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q391" t="s">
+        <v>483</v>
+      </c>
+      <c r="R391" t="s">
+        <v>483</v>
+      </c>
+      <c r="S391" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="392" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A392">
+        <v>81</v>
+      </c>
+      <c r="B392" t="s">
+        <v>450</v>
+      </c>
+      <c r="C392" t="s">
+        <v>483</v>
+      </c>
+      <c r="D392" t="s">
+        <v>483</v>
+      </c>
+      <c r="E392" t="s">
+        <v>483</v>
+      </c>
+      <c r="F392" t="s">
+        <v>483</v>
+      </c>
+      <c r="G392" t="s">
+        <v>483</v>
+      </c>
+      <c r="H392" t="s">
+        <v>483</v>
+      </c>
+      <c r="I392" t="s">
+        <v>483</v>
+      </c>
+      <c r="J392" t="s">
+        <v>483</v>
+      </c>
+      <c r="K392" t="s">
+        <v>483</v>
+      </c>
+      <c r="L392" t="s">
+        <v>483</v>
+      </c>
+      <c r="M392" t="s">
+        <v>483</v>
+      </c>
+      <c r="N392" t="s">
+        <v>483</v>
+      </c>
+      <c r="O392" t="s">
+        <v>483</v>
+      </c>
+      <c r="P392" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q392" t="s">
+        <v>483</v>
+      </c>
+      <c r="R392" t="s">
+        <v>483</v>
+      </c>
+      <c r="S392" t="s">
+        <v>483</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Raw_data/EAB_Michigan_2024_raw_data_photos_removed.xlsx
+++ b/Raw_data/EAB_Michigan_2024_raw_data_photos_removed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/EAB_Michigan_2024_2025_github_folder/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2736" documentId="8_{E6A25E5A-660E-410D-80FD-02C42A3E01DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D84DC401-039E-42EA-AC08-004AAD1474BC}"/>
+  <xr:revisionPtr revIDLastSave="3447" documentId="8_{E6A25E5A-660E-410D-80FD-02C42A3E01DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1E82D3D-16C0-48C2-BA17-90EB0A24E5FA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9040" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9923" uniqueCount="1069">
   <si>
     <t>center_tree_number</t>
   </si>
@@ -3166,6 +3166,90 @@
   </si>
   <si>
     <t>may apple - fallen leaves</t>
+  </si>
+  <si>
+    <t>approx 270</t>
+  </si>
+  <si>
+    <t>approx 100 m</t>
+  </si>
+  <si>
+    <t>fuzzy leaves and twigs (location is across the swamp)</t>
+  </si>
+  <si>
+    <t>fuzzy leaves - leaves smaller - likely a symptom of EAB</t>
+  </si>
+  <si>
+    <t>fuzzy leaves and twigs</t>
+  </si>
+  <si>
+    <t>Ash 1 - 08_06_2009</t>
+  </si>
+  <si>
+    <t>The top of the tree is gone</t>
+  </si>
+  <si>
+    <t>there is also a dead sapling (not counted)</t>
+  </si>
+  <si>
+    <t>FWD - brambles - bare ground</t>
+  </si>
+  <si>
+    <t>short grasses - bare ground - serviceberry (?)</t>
+  </si>
+  <si>
+    <t>fallen leaves - short grasses - FWD - dogwood</t>
+  </si>
+  <si>
+    <t>fallen leaves - CWD - poison ivy</t>
+  </si>
+  <si>
+    <t>grass hummocks</t>
+  </si>
+  <si>
+    <t>interesting shrubs (possibly Ilex) - flooded</t>
+  </si>
+  <si>
+    <t>flooded - short grasses - swamp white oak seedling</t>
+  </si>
+  <si>
+    <t>spicebush - muddy - skunk cabbage - flooded</t>
+  </si>
+  <si>
+    <t>beech</t>
+  </si>
+  <si>
+    <t>ferns - witchhazel</t>
+  </si>
+  <si>
+    <t>flooded - mud - hummocks</t>
+  </si>
+  <si>
+    <t>grass hummocks - flooded</t>
+  </si>
+  <si>
+    <t>flooded - fallen leaves - spicebush</t>
+  </si>
+  <si>
+    <t>flooded - skunk cabbage</t>
+  </si>
+  <si>
+    <t>flooded - spicebush - musclewood (?)</t>
+  </si>
+  <si>
+    <t>spicebush - fallen leaves</t>
+  </si>
+  <si>
+    <t>flooded - tall grasses</t>
+  </si>
+  <si>
+    <t>flooded - skunk cabbage - mud</t>
+  </si>
+  <si>
+    <t>ferns - short grasses - mud - skunk cabbage</t>
+  </si>
+  <si>
+    <t>mud - flooded - skunk cabbage</t>
   </si>
 </sst>
 </file>
@@ -9188,11 +9272,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4294AC29-14D4-407D-99E4-B7615C9E66E2}">
-  <dimension ref="A1:N369"/>
+  <dimension ref="A1:N393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A354" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A370" sqref="A370"/>
+      <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N394" sqref="N394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9207,7 +9291,7 @@
     <col min="15" max="15" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24832,6 +24916,990 @@
       </c>
       <c r="N369" t="s">
         <v>1040</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A370">
+        <v>91</v>
+      </c>
+      <c r="B370" t="s">
+        <v>36</v>
+      </c>
+      <c r="C370">
+        <v>0</v>
+      </c>
+      <c r="D370">
+        <v>3.5</v>
+      </c>
+      <c r="E370">
+        <v>0</v>
+      </c>
+      <c r="F370">
+        <v>0</v>
+      </c>
+      <c r="G370">
+        <v>1</v>
+      </c>
+      <c r="H370">
+        <v>0</v>
+      </c>
+      <c r="I370">
+        <v>0</v>
+      </c>
+      <c r="J370">
+        <v>0</v>
+      </c>
+      <c r="K370">
+        <v>1</v>
+      </c>
+      <c r="L370">
+        <v>0</v>
+      </c>
+      <c r="N370" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A371">
+        <v>91</v>
+      </c>
+      <c r="B371" t="s">
+        <v>38</v>
+      </c>
+      <c r="C371">
+        <v>0</v>
+      </c>
+      <c r="D371">
+        <v>8</v>
+      </c>
+      <c r="E371">
+        <v>0</v>
+      </c>
+      <c r="F371">
+        <v>0</v>
+      </c>
+      <c r="G371">
+        <v>0</v>
+      </c>
+      <c r="H371">
+        <v>0</v>
+      </c>
+      <c r="I371">
+        <v>1</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+      <c r="K371">
+        <v>0</v>
+      </c>
+      <c r="L371">
+        <v>1</v>
+      </c>
+      <c r="N371" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A372">
+        <v>91</v>
+      </c>
+      <c r="B372" t="s">
+        <v>39</v>
+      </c>
+      <c r="C372">
+        <v>0</v>
+      </c>
+      <c r="D372">
+        <v>15.5</v>
+      </c>
+      <c r="E372">
+        <v>1</v>
+      </c>
+      <c r="F372">
+        <v>0</v>
+      </c>
+      <c r="G372">
+        <v>0</v>
+      </c>
+      <c r="H372">
+        <v>3</v>
+      </c>
+      <c r="I372">
+        <v>1</v>
+      </c>
+      <c r="J372">
+        <v>2</v>
+      </c>
+      <c r="K372">
+        <v>1</v>
+      </c>
+      <c r="L372">
+        <v>0</v>
+      </c>
+      <c r="N372" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A373">
+        <v>91</v>
+      </c>
+      <c r="B373" t="s">
+        <v>40</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+      <c r="D373">
+        <v>8</v>
+      </c>
+      <c r="E373">
+        <v>0</v>
+      </c>
+      <c r="F373">
+        <v>0</v>
+      </c>
+      <c r="G373">
+        <v>0</v>
+      </c>
+      <c r="H373">
+        <v>0</v>
+      </c>
+      <c r="I373">
+        <v>0</v>
+      </c>
+      <c r="J373">
+        <v>0</v>
+      </c>
+      <c r="K373">
+        <v>0</v>
+      </c>
+      <c r="L373">
+        <v>1</v>
+      </c>
+      <c r="N373" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A374">
+        <v>22</v>
+      </c>
+      <c r="B374" t="s">
+        <v>36</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+      <c r="D374">
+        <v>3.5</v>
+      </c>
+      <c r="E374">
+        <v>0</v>
+      </c>
+      <c r="F374">
+        <v>0</v>
+      </c>
+      <c r="G374">
+        <v>0</v>
+      </c>
+      <c r="H374">
+        <v>0</v>
+      </c>
+      <c r="I374">
+        <v>1</v>
+      </c>
+      <c r="J374">
+        <v>0</v>
+      </c>
+      <c r="K374">
+        <v>0</v>
+      </c>
+      <c r="L374">
+        <v>0</v>
+      </c>
+      <c r="N374" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="375" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A375">
+        <v>22</v>
+      </c>
+      <c r="B375" t="s">
+        <v>38</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+      <c r="D375">
+        <v>0</v>
+      </c>
+      <c r="E375">
+        <v>0</v>
+      </c>
+      <c r="F375">
+        <v>0</v>
+      </c>
+      <c r="G375">
+        <v>0</v>
+      </c>
+      <c r="H375">
+        <v>0</v>
+      </c>
+      <c r="I375">
+        <v>0</v>
+      </c>
+      <c r="J375">
+        <v>0</v>
+      </c>
+      <c r="K375">
+        <v>0</v>
+      </c>
+      <c r="L375">
+        <v>0</v>
+      </c>
+      <c r="N375" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="376" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A376">
+        <v>22</v>
+      </c>
+      <c r="B376" t="s">
+        <v>39</v>
+      </c>
+      <c r="C376">
+        <v>0</v>
+      </c>
+      <c r="D376">
+        <v>15.5</v>
+      </c>
+      <c r="E376">
+        <v>0</v>
+      </c>
+      <c r="F376">
+        <v>0</v>
+      </c>
+      <c r="G376">
+        <v>0</v>
+      </c>
+      <c r="H376">
+        <v>0</v>
+      </c>
+      <c r="I376">
+        <v>1</v>
+      </c>
+      <c r="J376">
+        <v>0</v>
+      </c>
+      <c r="K376">
+        <v>0</v>
+      </c>
+      <c r="L376">
+        <v>0</v>
+      </c>
+      <c r="N376" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A377">
+        <v>22</v>
+      </c>
+      <c r="B377" t="s">
+        <v>40</v>
+      </c>
+      <c r="C377">
+        <v>0</v>
+      </c>
+      <c r="D377">
+        <v>0</v>
+      </c>
+      <c r="E377">
+        <v>0</v>
+      </c>
+      <c r="F377">
+        <v>0</v>
+      </c>
+      <c r="G377">
+        <v>0</v>
+      </c>
+      <c r="H377">
+        <v>0</v>
+      </c>
+      <c r="I377">
+        <v>0</v>
+      </c>
+      <c r="J377">
+        <v>0</v>
+      </c>
+      <c r="K377">
+        <v>0</v>
+      </c>
+      <c r="L377">
+        <v>0</v>
+      </c>
+      <c r="N377" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A378">
+        <v>17</v>
+      </c>
+      <c r="B378" t="s">
+        <v>36</v>
+      </c>
+      <c r="C378">
+        <v>0</v>
+      </c>
+      <c r="D378">
+        <v>3.5</v>
+      </c>
+      <c r="E378">
+        <v>0</v>
+      </c>
+      <c r="F378">
+        <v>0</v>
+      </c>
+      <c r="G378">
+        <v>0</v>
+      </c>
+      <c r="H378">
+        <v>0</v>
+      </c>
+      <c r="I378">
+        <v>1</v>
+      </c>
+      <c r="J378">
+        <v>1</v>
+      </c>
+      <c r="K378">
+        <v>0</v>
+      </c>
+      <c r="L378">
+        <v>0</v>
+      </c>
+      <c r="N378" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A379">
+        <v>17</v>
+      </c>
+      <c r="B379" t="s">
+        <v>38</v>
+      </c>
+      <c r="C379">
+        <v>0</v>
+      </c>
+      <c r="D379">
+        <v>0.5</v>
+      </c>
+      <c r="E379">
+        <v>0</v>
+      </c>
+      <c r="F379">
+        <v>0</v>
+      </c>
+      <c r="G379">
+        <v>0</v>
+      </c>
+      <c r="H379">
+        <v>1</v>
+      </c>
+      <c r="I379">
+        <v>0</v>
+      </c>
+      <c r="J379">
+        <v>0</v>
+      </c>
+      <c r="K379">
+        <v>0</v>
+      </c>
+      <c r="L379">
+        <v>0</v>
+      </c>
+      <c r="N379" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A380">
+        <v>17</v>
+      </c>
+      <c r="B380" t="s">
+        <v>39</v>
+      </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
+      <c r="D380">
+        <v>8</v>
+      </c>
+      <c r="E380">
+        <v>0</v>
+      </c>
+      <c r="F380">
+        <v>0</v>
+      </c>
+      <c r="G380">
+        <v>0</v>
+      </c>
+      <c r="H380">
+        <v>0</v>
+      </c>
+      <c r="I380">
+        <v>0</v>
+      </c>
+      <c r="J380">
+        <v>0</v>
+      </c>
+      <c r="K380">
+        <v>0</v>
+      </c>
+      <c r="L380">
+        <v>2</v>
+      </c>
+      <c r="N380" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A381">
+        <v>17</v>
+      </c>
+      <c r="B381" t="s">
+        <v>40</v>
+      </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
+      <c r="D381">
+        <v>0</v>
+      </c>
+      <c r="E381">
+        <v>0</v>
+      </c>
+      <c r="F381">
+        <v>0</v>
+      </c>
+      <c r="G381">
+        <v>0</v>
+      </c>
+      <c r="H381">
+        <v>0</v>
+      </c>
+      <c r="I381">
+        <v>0</v>
+      </c>
+      <c r="J381">
+        <v>0</v>
+      </c>
+      <c r="K381">
+        <v>0</v>
+      </c>
+      <c r="L381">
+        <v>0</v>
+      </c>
+      <c r="N381" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A382">
+        <v>64</v>
+      </c>
+      <c r="B382" t="s">
+        <v>36</v>
+      </c>
+      <c r="C382">
+        <v>0</v>
+      </c>
+      <c r="D382">
+        <v>3.5</v>
+      </c>
+      <c r="E382">
+        <v>0</v>
+      </c>
+      <c r="F382">
+        <v>0</v>
+      </c>
+      <c r="G382">
+        <v>0</v>
+      </c>
+      <c r="H382">
+        <v>0</v>
+      </c>
+      <c r="I382">
+        <v>0</v>
+      </c>
+      <c r="J382">
+        <v>0</v>
+      </c>
+      <c r="K382">
+        <v>1</v>
+      </c>
+      <c r="L382">
+        <v>0</v>
+      </c>
+      <c r="N382" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A383">
+        <v>64</v>
+      </c>
+      <c r="B383" t="s">
+        <v>38</v>
+      </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
+      <c r="D383">
+        <v>35.5</v>
+      </c>
+      <c r="E383">
+        <v>1</v>
+      </c>
+      <c r="F383">
+        <v>0</v>
+      </c>
+      <c r="G383">
+        <v>0</v>
+      </c>
+      <c r="H383">
+        <v>1</v>
+      </c>
+      <c r="I383">
+        <v>1</v>
+      </c>
+      <c r="J383">
+        <v>4</v>
+      </c>
+      <c r="K383">
+        <v>0</v>
+      </c>
+      <c r="L383">
+        <v>0</v>
+      </c>
+      <c r="N383" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A384">
+        <v>64</v>
+      </c>
+      <c r="B384" t="s">
+        <v>39</v>
+      </c>
+      <c r="C384">
+        <v>0</v>
+      </c>
+      <c r="D384">
+        <v>15.5</v>
+      </c>
+      <c r="E384">
+        <v>0</v>
+      </c>
+      <c r="F384">
+        <v>3</v>
+      </c>
+      <c r="G384">
+        <v>3</v>
+      </c>
+      <c r="H384">
+        <v>0</v>
+      </c>
+      <c r="I384">
+        <v>1</v>
+      </c>
+      <c r="J384">
+        <v>1</v>
+      </c>
+      <c r="K384">
+        <v>2</v>
+      </c>
+      <c r="L384">
+        <v>0</v>
+      </c>
+      <c r="N384" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A385">
+        <v>64</v>
+      </c>
+      <c r="B385" t="s">
+        <v>40</v>
+      </c>
+      <c r="C385">
+        <v>0</v>
+      </c>
+      <c r="D385">
+        <v>25.5</v>
+      </c>
+      <c r="E385">
+        <v>1</v>
+      </c>
+      <c r="F385">
+        <v>0</v>
+      </c>
+      <c r="G385">
+        <v>0</v>
+      </c>
+      <c r="H385">
+        <v>0</v>
+      </c>
+      <c r="I385">
+        <v>3</v>
+      </c>
+      <c r="J385">
+        <v>1</v>
+      </c>
+      <c r="K385">
+        <v>1</v>
+      </c>
+      <c r="L385">
+        <v>0</v>
+      </c>
+      <c r="N385" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A386">
+        <v>65</v>
+      </c>
+      <c r="B386" t="s">
+        <v>36</v>
+      </c>
+      <c r="C386">
+        <v>0</v>
+      </c>
+      <c r="D386">
+        <v>0.5</v>
+      </c>
+      <c r="E386">
+        <v>0</v>
+      </c>
+      <c r="F386">
+        <v>0</v>
+      </c>
+      <c r="G386">
+        <v>0</v>
+      </c>
+      <c r="H386">
+        <v>0</v>
+      </c>
+      <c r="I386">
+        <v>1</v>
+      </c>
+      <c r="J386">
+        <v>0</v>
+      </c>
+      <c r="K386">
+        <v>0</v>
+      </c>
+      <c r="L386">
+        <v>0</v>
+      </c>
+      <c r="N386" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A387">
+        <v>65</v>
+      </c>
+      <c r="B387" t="s">
+        <v>38</v>
+      </c>
+      <c r="C387">
+        <v>0</v>
+      </c>
+      <c r="D387">
+        <v>8</v>
+      </c>
+      <c r="E387">
+        <v>0</v>
+      </c>
+      <c r="F387">
+        <v>2</v>
+      </c>
+      <c r="G387">
+        <v>0</v>
+      </c>
+      <c r="H387">
+        <v>0</v>
+      </c>
+      <c r="I387">
+        <v>0</v>
+      </c>
+      <c r="J387">
+        <v>1</v>
+      </c>
+      <c r="K387">
+        <v>1</v>
+      </c>
+      <c r="L387">
+        <v>0</v>
+      </c>
+      <c r="N387" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A388">
+        <v>65</v>
+      </c>
+      <c r="B388" t="s">
+        <v>39</v>
+      </c>
+      <c r="C388">
+        <v>0</v>
+      </c>
+      <c r="D388">
+        <v>3.5</v>
+      </c>
+      <c r="E388">
+        <v>0</v>
+      </c>
+      <c r="F388">
+        <v>0</v>
+      </c>
+      <c r="G388">
+        <v>4</v>
+      </c>
+      <c r="H388">
+        <v>0</v>
+      </c>
+      <c r="I388">
+        <v>0</v>
+      </c>
+      <c r="J388">
+        <v>0</v>
+      </c>
+      <c r="K388">
+        <v>0</v>
+      </c>
+      <c r="L388">
+        <v>0</v>
+      </c>
+      <c r="N388" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A389">
+        <v>65</v>
+      </c>
+      <c r="B389" t="s">
+        <v>40</v>
+      </c>
+      <c r="C389">
+        <v>0</v>
+      </c>
+      <c r="D389">
+        <v>3.5</v>
+      </c>
+      <c r="E389">
+        <v>0</v>
+      </c>
+      <c r="F389">
+        <v>0</v>
+      </c>
+      <c r="G389">
+        <v>0</v>
+      </c>
+      <c r="H389">
+        <v>0</v>
+      </c>
+      <c r="I389">
+        <v>0</v>
+      </c>
+      <c r="J389">
+        <v>0</v>
+      </c>
+      <c r="K389">
+        <v>1</v>
+      </c>
+      <c r="L389">
+        <v>0</v>
+      </c>
+      <c r="N389" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A390">
+        <v>24</v>
+      </c>
+      <c r="B390" t="s">
+        <v>36</v>
+      </c>
+      <c r="C390">
+        <v>0</v>
+      </c>
+      <c r="D390">
+        <v>0</v>
+      </c>
+      <c r="E390">
+        <v>0</v>
+      </c>
+      <c r="F390">
+        <v>0</v>
+      </c>
+      <c r="G390">
+        <v>0</v>
+      </c>
+      <c r="H390">
+        <v>0</v>
+      </c>
+      <c r="I390">
+        <v>0</v>
+      </c>
+      <c r="J390">
+        <v>0</v>
+      </c>
+      <c r="K390">
+        <v>0</v>
+      </c>
+      <c r="L390">
+        <v>0</v>
+      </c>
+      <c r="N390" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A391">
+        <v>24</v>
+      </c>
+      <c r="B391" t="s">
+        <v>38</v>
+      </c>
+      <c r="C391">
+        <v>0</v>
+      </c>
+      <c r="D391">
+        <v>0</v>
+      </c>
+      <c r="E391">
+        <v>0</v>
+      </c>
+      <c r="F391">
+        <v>0</v>
+      </c>
+      <c r="G391">
+        <v>0</v>
+      </c>
+      <c r="H391">
+        <v>0</v>
+      </c>
+      <c r="I391">
+        <v>0</v>
+      </c>
+      <c r="J391">
+        <v>0</v>
+      </c>
+      <c r="K391">
+        <v>0</v>
+      </c>
+      <c r="L391">
+        <v>0</v>
+      </c>
+      <c r="N391" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A392">
+        <v>24</v>
+      </c>
+      <c r="B392" t="s">
+        <v>39</v>
+      </c>
+      <c r="C392">
+        <v>0</v>
+      </c>
+      <c r="D392">
+        <v>0</v>
+      </c>
+      <c r="E392">
+        <v>0</v>
+      </c>
+      <c r="F392">
+        <v>0</v>
+      </c>
+      <c r="G392">
+        <v>0</v>
+      </c>
+      <c r="H392">
+        <v>0</v>
+      </c>
+      <c r="I392">
+        <v>0</v>
+      </c>
+      <c r="J392">
+        <v>0</v>
+      </c>
+      <c r="K392">
+        <v>0</v>
+      </c>
+      <c r="L392">
+        <v>0</v>
+      </c>
+      <c r="N392" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="393" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A393">
+        <v>24</v>
+      </c>
+      <c r="B393" t="s">
+        <v>40</v>
+      </c>
+      <c r="C393">
+        <v>0</v>
+      </c>
+      <c r="D393">
+        <v>0</v>
+      </c>
+      <c r="E393">
+        <v>0</v>
+      </c>
+      <c r="F393">
+        <v>0</v>
+      </c>
+      <c r="G393">
+        <v>0</v>
+      </c>
+      <c r="H393">
+        <v>0</v>
+      </c>
+      <c r="I393">
+        <v>0</v>
+      </c>
+      <c r="J393">
+        <v>0</v>
+      </c>
+      <c r="K393">
+        <v>0</v>
+      </c>
+      <c r="L393">
+        <v>0</v>
+      </c>
+      <c r="N393" t="s">
+        <v>1068</v>
       </c>
     </row>
   </sheetData>
@@ -24841,11 +25909,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BD0D19-2CF9-4B20-BFF9-137DFE963B6F}">
-  <dimension ref="A1:L305"/>
+  <dimension ref="A1:L369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A306" sqref="A306"/>
+      <pane ySplit="1" topLeftCell="A363" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M363" sqref="M363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33715,6 +34783,2003 @@
         <v>0</v>
       </c>
     </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A306">
+        <v>13</v>
+      </c>
+      <c r="B306" t="s">
+        <v>443</v>
+      </c>
+      <c r="C306" t="s">
+        <v>450</v>
+      </c>
+      <c r="D306">
+        <v>0</v>
+      </c>
+      <c r="E306" t="s">
+        <v>483</v>
+      </c>
+      <c r="F306" t="s">
+        <v>483</v>
+      </c>
+      <c r="G306" t="s">
+        <v>483</v>
+      </c>
+      <c r="H306" t="s">
+        <v>483</v>
+      </c>
+      <c r="I306" t="s">
+        <v>483</v>
+      </c>
+      <c r="J306" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A307">
+        <v>13</v>
+      </c>
+      <c r="B307" t="s">
+        <v>445</v>
+      </c>
+      <c r="C307" t="s">
+        <v>450</v>
+      </c>
+      <c r="D307">
+        <v>0</v>
+      </c>
+      <c r="E307" t="s">
+        <v>483</v>
+      </c>
+      <c r="F307" t="s">
+        <v>483</v>
+      </c>
+      <c r="G307" t="s">
+        <v>483</v>
+      </c>
+      <c r="H307" t="s">
+        <v>483</v>
+      </c>
+      <c r="I307" t="s">
+        <v>483</v>
+      </c>
+      <c r="J307" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A308">
+        <v>13</v>
+      </c>
+      <c r="B308" t="s">
+        <v>446</v>
+      </c>
+      <c r="C308" t="s">
+        <v>450</v>
+      </c>
+      <c r="D308">
+        <v>0</v>
+      </c>
+      <c r="E308" t="s">
+        <v>483</v>
+      </c>
+      <c r="F308" t="s">
+        <v>483</v>
+      </c>
+      <c r="G308" t="s">
+        <v>483</v>
+      </c>
+      <c r="H308" t="s">
+        <v>483</v>
+      </c>
+      <c r="I308" t="s">
+        <v>483</v>
+      </c>
+      <c r="J308" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A309">
+        <v>13</v>
+      </c>
+      <c r="B309" t="s">
+        <v>444</v>
+      </c>
+      <c r="C309" t="s">
+        <v>450</v>
+      </c>
+      <c r="D309">
+        <v>0</v>
+      </c>
+      <c r="E309" t="s">
+        <v>483</v>
+      </c>
+      <c r="F309" t="s">
+        <v>483</v>
+      </c>
+      <c r="G309" t="s">
+        <v>483</v>
+      </c>
+      <c r="H309" t="s">
+        <v>483</v>
+      </c>
+      <c r="I309" t="s">
+        <v>483</v>
+      </c>
+      <c r="J309" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A310">
+        <v>14</v>
+      </c>
+      <c r="B310" t="s">
+        <v>443</v>
+      </c>
+      <c r="C310" t="s">
+        <v>450</v>
+      </c>
+      <c r="D310">
+        <v>0</v>
+      </c>
+      <c r="E310" t="s">
+        <v>483</v>
+      </c>
+      <c r="F310" t="s">
+        <v>483</v>
+      </c>
+      <c r="G310" t="s">
+        <v>483</v>
+      </c>
+      <c r="H310" t="s">
+        <v>483</v>
+      </c>
+      <c r="I310" t="s">
+        <v>483</v>
+      </c>
+      <c r="J310" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A311">
+        <v>14</v>
+      </c>
+      <c r="B311" t="s">
+        <v>445</v>
+      </c>
+      <c r="C311" t="s">
+        <v>450</v>
+      </c>
+      <c r="D311">
+        <v>0</v>
+      </c>
+      <c r="E311" t="s">
+        <v>483</v>
+      </c>
+      <c r="F311" t="s">
+        <v>483</v>
+      </c>
+      <c r="G311" t="s">
+        <v>483</v>
+      </c>
+      <c r="H311" t="s">
+        <v>483</v>
+      </c>
+      <c r="I311" t="s">
+        <v>483</v>
+      </c>
+      <c r="J311" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A312">
+        <v>14</v>
+      </c>
+      <c r="B312" t="s">
+        <v>446</v>
+      </c>
+      <c r="C312" t="s">
+        <v>450</v>
+      </c>
+      <c r="D312">
+        <v>0</v>
+      </c>
+      <c r="E312" t="s">
+        <v>483</v>
+      </c>
+      <c r="F312" t="s">
+        <v>483</v>
+      </c>
+      <c r="G312" t="s">
+        <v>483</v>
+      </c>
+      <c r="H312" t="s">
+        <v>483</v>
+      </c>
+      <c r="I312" t="s">
+        <v>483</v>
+      </c>
+      <c r="J312" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A313">
+        <v>14</v>
+      </c>
+      <c r="B313" t="s">
+        <v>444</v>
+      </c>
+      <c r="C313" t="s">
+        <v>450</v>
+      </c>
+      <c r="D313">
+        <v>0</v>
+      </c>
+      <c r="E313" t="s">
+        <v>483</v>
+      </c>
+      <c r="F313" t="s">
+        <v>483</v>
+      </c>
+      <c r="G313" t="s">
+        <v>483</v>
+      </c>
+      <c r="H313" t="s">
+        <v>483</v>
+      </c>
+      <c r="I313" t="s">
+        <v>483</v>
+      </c>
+      <c r="J313" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A314">
+        <v>7</v>
+      </c>
+      <c r="B314" t="s">
+        <v>443</v>
+      </c>
+      <c r="C314" t="s">
+        <v>450</v>
+      </c>
+      <c r="D314">
+        <v>0</v>
+      </c>
+      <c r="E314" t="s">
+        <v>483</v>
+      </c>
+      <c r="F314" t="s">
+        <v>483</v>
+      </c>
+      <c r="G314" t="s">
+        <v>483</v>
+      </c>
+      <c r="H314" t="s">
+        <v>483</v>
+      </c>
+      <c r="I314" t="s">
+        <v>483</v>
+      </c>
+      <c r="J314" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A315">
+        <v>7</v>
+      </c>
+      <c r="B315" t="s">
+        <v>445</v>
+      </c>
+      <c r="C315" t="s">
+        <v>450</v>
+      </c>
+      <c r="D315">
+        <v>0</v>
+      </c>
+      <c r="E315" t="s">
+        <v>483</v>
+      </c>
+      <c r="F315" t="s">
+        <v>483</v>
+      </c>
+      <c r="G315" t="s">
+        <v>483</v>
+      </c>
+      <c r="H315" t="s">
+        <v>483</v>
+      </c>
+      <c r="I315" t="s">
+        <v>483</v>
+      </c>
+      <c r="J315" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A316">
+        <v>7</v>
+      </c>
+      <c r="B316" t="s">
+        <v>446</v>
+      </c>
+      <c r="C316" t="s">
+        <v>450</v>
+      </c>
+      <c r="D316">
+        <v>0</v>
+      </c>
+      <c r="E316" t="s">
+        <v>483</v>
+      </c>
+      <c r="F316" t="s">
+        <v>483</v>
+      </c>
+      <c r="G316" t="s">
+        <v>483</v>
+      </c>
+      <c r="H316" t="s">
+        <v>483</v>
+      </c>
+      <c r="I316" t="s">
+        <v>483</v>
+      </c>
+      <c r="J316" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A317">
+        <v>7</v>
+      </c>
+      <c r="B317" t="s">
+        <v>444</v>
+      </c>
+      <c r="C317" t="s">
+        <v>450</v>
+      </c>
+      <c r="D317">
+        <v>0</v>
+      </c>
+      <c r="E317" t="s">
+        <v>483</v>
+      </c>
+      <c r="F317" t="s">
+        <v>483</v>
+      </c>
+      <c r="G317" t="s">
+        <v>483</v>
+      </c>
+      <c r="H317" t="s">
+        <v>483</v>
+      </c>
+      <c r="I317" t="s">
+        <v>483</v>
+      </c>
+      <c r="J317" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A318">
+        <v>9</v>
+      </c>
+      <c r="B318" t="s">
+        <v>443</v>
+      </c>
+      <c r="C318" t="s">
+        <v>450</v>
+      </c>
+      <c r="D318">
+        <v>0</v>
+      </c>
+      <c r="E318" t="s">
+        <v>483</v>
+      </c>
+      <c r="F318" t="s">
+        <v>483</v>
+      </c>
+      <c r="G318" t="s">
+        <v>483</v>
+      </c>
+      <c r="H318" t="s">
+        <v>483</v>
+      </c>
+      <c r="I318" t="s">
+        <v>483</v>
+      </c>
+      <c r="J318" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A319">
+        <v>9</v>
+      </c>
+      <c r="B319" t="s">
+        <v>445</v>
+      </c>
+      <c r="C319" t="s">
+        <v>450</v>
+      </c>
+      <c r="D319">
+        <v>0</v>
+      </c>
+      <c r="E319" t="s">
+        <v>483</v>
+      </c>
+      <c r="F319" t="s">
+        <v>483</v>
+      </c>
+      <c r="G319" t="s">
+        <v>483</v>
+      </c>
+      <c r="H319" t="s">
+        <v>483</v>
+      </c>
+      <c r="I319" t="s">
+        <v>483</v>
+      </c>
+      <c r="J319" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A320">
+        <v>9</v>
+      </c>
+      <c r="B320" t="s">
+        <v>446</v>
+      </c>
+      <c r="C320" t="s">
+        <v>450</v>
+      </c>
+      <c r="D320">
+        <v>0</v>
+      </c>
+      <c r="E320" t="s">
+        <v>483</v>
+      </c>
+      <c r="F320" t="s">
+        <v>483</v>
+      </c>
+      <c r="G320" t="s">
+        <v>483</v>
+      </c>
+      <c r="H320" t="s">
+        <v>483</v>
+      </c>
+      <c r="I320" t="s">
+        <v>483</v>
+      </c>
+      <c r="J320" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A321">
+        <v>9</v>
+      </c>
+      <c r="B321" t="s">
+        <v>444</v>
+      </c>
+      <c r="C321" t="s">
+        <v>450</v>
+      </c>
+      <c r="D321">
+        <v>0</v>
+      </c>
+      <c r="E321" t="s">
+        <v>483</v>
+      </c>
+      <c r="F321" t="s">
+        <v>483</v>
+      </c>
+      <c r="G321" t="s">
+        <v>483</v>
+      </c>
+      <c r="H321" t="s">
+        <v>483</v>
+      </c>
+      <c r="I321" t="s">
+        <v>483</v>
+      </c>
+      <c r="J321" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A322">
+        <v>8</v>
+      </c>
+      <c r="B322" t="s">
+        <v>443</v>
+      </c>
+      <c r="C322" t="s">
+        <v>450</v>
+      </c>
+      <c r="D322">
+        <v>0</v>
+      </c>
+      <c r="E322" t="s">
+        <v>483</v>
+      </c>
+      <c r="F322" t="s">
+        <v>483</v>
+      </c>
+      <c r="G322" t="s">
+        <v>483</v>
+      </c>
+      <c r="H322" t="s">
+        <v>483</v>
+      </c>
+      <c r="I322" t="s">
+        <v>483</v>
+      </c>
+      <c r="J322" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A323">
+        <v>8</v>
+      </c>
+      <c r="B323" t="s">
+        <v>445</v>
+      </c>
+      <c r="C323" t="s">
+        <v>450</v>
+      </c>
+      <c r="D323">
+        <v>0</v>
+      </c>
+      <c r="E323" t="s">
+        <v>483</v>
+      </c>
+      <c r="F323" t="s">
+        <v>483</v>
+      </c>
+      <c r="G323" t="s">
+        <v>483</v>
+      </c>
+      <c r="H323" t="s">
+        <v>483</v>
+      </c>
+      <c r="I323" t="s">
+        <v>483</v>
+      </c>
+      <c r="J323" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A324">
+        <v>8</v>
+      </c>
+      <c r="B324" t="s">
+        <v>446</v>
+      </c>
+      <c r="C324" t="s">
+        <v>450</v>
+      </c>
+      <c r="D324">
+        <v>0</v>
+      </c>
+      <c r="E324" t="s">
+        <v>483</v>
+      </c>
+      <c r="F324" t="s">
+        <v>483</v>
+      </c>
+      <c r="G324" t="s">
+        <v>483</v>
+      </c>
+      <c r="H324" t="s">
+        <v>483</v>
+      </c>
+      <c r="I324" t="s">
+        <v>483</v>
+      </c>
+      <c r="J324" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A325">
+        <v>8</v>
+      </c>
+      <c r="B325" t="s">
+        <v>444</v>
+      </c>
+      <c r="C325" t="s">
+        <v>450</v>
+      </c>
+      <c r="D325">
+        <v>0</v>
+      </c>
+      <c r="E325" t="s">
+        <v>483</v>
+      </c>
+      <c r="F325" t="s">
+        <v>483</v>
+      </c>
+      <c r="G325" t="s">
+        <v>483</v>
+      </c>
+      <c r="H325" t="s">
+        <v>483</v>
+      </c>
+      <c r="I325" t="s">
+        <v>483</v>
+      </c>
+      <c r="J325" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A326">
+        <v>21</v>
+      </c>
+      <c r="B326" t="s">
+        <v>443</v>
+      </c>
+      <c r="C326" t="s">
+        <v>450</v>
+      </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+      <c r="E326" t="s">
+        <v>483</v>
+      </c>
+      <c r="F326" t="s">
+        <v>483</v>
+      </c>
+      <c r="G326" t="s">
+        <v>483</v>
+      </c>
+      <c r="H326" t="s">
+        <v>483</v>
+      </c>
+      <c r="I326" t="s">
+        <v>483</v>
+      </c>
+      <c r="J326" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A327">
+        <v>21</v>
+      </c>
+      <c r="B327" t="s">
+        <v>445</v>
+      </c>
+      <c r="C327" t="s">
+        <v>450</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+      <c r="E327" t="s">
+        <v>483</v>
+      </c>
+      <c r="F327" t="s">
+        <v>483</v>
+      </c>
+      <c r="G327" t="s">
+        <v>483</v>
+      </c>
+      <c r="H327" t="s">
+        <v>483</v>
+      </c>
+      <c r="I327" t="s">
+        <v>483</v>
+      </c>
+      <c r="J327" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A328">
+        <v>21</v>
+      </c>
+      <c r="B328" t="s">
+        <v>446</v>
+      </c>
+      <c r="C328" t="s">
+        <v>450</v>
+      </c>
+      <c r="D328">
+        <v>0</v>
+      </c>
+      <c r="E328" t="s">
+        <v>483</v>
+      </c>
+      <c r="F328" t="s">
+        <v>483</v>
+      </c>
+      <c r="G328" t="s">
+        <v>483</v>
+      </c>
+      <c r="H328" t="s">
+        <v>483</v>
+      </c>
+      <c r="I328" t="s">
+        <v>483</v>
+      </c>
+      <c r="J328" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A329">
+        <v>21</v>
+      </c>
+      <c r="B329" t="s">
+        <v>444</v>
+      </c>
+      <c r="C329" t="s">
+        <v>450</v>
+      </c>
+      <c r="D329">
+        <v>0</v>
+      </c>
+      <c r="E329" t="s">
+        <v>483</v>
+      </c>
+      <c r="F329" t="s">
+        <v>483</v>
+      </c>
+      <c r="G329" t="s">
+        <v>483</v>
+      </c>
+      <c r="H329" t="s">
+        <v>483</v>
+      </c>
+      <c r="I329" t="s">
+        <v>483</v>
+      </c>
+      <c r="J329" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A330">
+        <v>19</v>
+      </c>
+      <c r="B330" t="s">
+        <v>443</v>
+      </c>
+      <c r="C330" t="s">
+        <v>450</v>
+      </c>
+      <c r="D330">
+        <v>0</v>
+      </c>
+      <c r="E330" t="s">
+        <v>483</v>
+      </c>
+      <c r="F330" t="s">
+        <v>483</v>
+      </c>
+      <c r="G330" t="s">
+        <v>483</v>
+      </c>
+      <c r="H330" t="s">
+        <v>483</v>
+      </c>
+      <c r="I330" t="s">
+        <v>483</v>
+      </c>
+      <c r="J330" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A331">
+        <v>19</v>
+      </c>
+      <c r="B331" t="s">
+        <v>445</v>
+      </c>
+      <c r="C331" t="s">
+        <v>450</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+      <c r="E331" t="s">
+        <v>483</v>
+      </c>
+      <c r="F331" t="s">
+        <v>483</v>
+      </c>
+      <c r="G331" t="s">
+        <v>483</v>
+      </c>
+      <c r="H331" t="s">
+        <v>483</v>
+      </c>
+      <c r="I331" t="s">
+        <v>483</v>
+      </c>
+      <c r="J331" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A332">
+        <v>19</v>
+      </c>
+      <c r="B332" t="s">
+        <v>446</v>
+      </c>
+      <c r="C332" t="s">
+        <v>450</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332" t="s">
+        <v>483</v>
+      </c>
+      <c r="F332" t="s">
+        <v>483</v>
+      </c>
+      <c r="G332" t="s">
+        <v>483</v>
+      </c>
+      <c r="H332" t="s">
+        <v>483</v>
+      </c>
+      <c r="I332" t="s">
+        <v>483</v>
+      </c>
+      <c r="J332" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A333">
+        <v>19</v>
+      </c>
+      <c r="B333" t="s">
+        <v>444</v>
+      </c>
+      <c r="C333" t="s">
+        <v>450</v>
+      </c>
+      <c r="D333">
+        <v>0</v>
+      </c>
+      <c r="E333" t="s">
+        <v>483</v>
+      </c>
+      <c r="F333" t="s">
+        <v>483</v>
+      </c>
+      <c r="G333" t="s">
+        <v>483</v>
+      </c>
+      <c r="H333" t="s">
+        <v>483</v>
+      </c>
+      <c r="I333" t="s">
+        <v>483</v>
+      </c>
+      <c r="J333" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A334">
+        <v>20</v>
+      </c>
+      <c r="B334" t="s">
+        <v>443</v>
+      </c>
+      <c r="C334" t="s">
+        <v>450</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+      <c r="E334" t="s">
+        <v>483</v>
+      </c>
+      <c r="F334" t="s">
+        <v>483</v>
+      </c>
+      <c r="G334" t="s">
+        <v>483</v>
+      </c>
+      <c r="H334" t="s">
+        <v>483</v>
+      </c>
+      <c r="I334" t="s">
+        <v>483</v>
+      </c>
+      <c r="J334" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A335">
+        <v>20</v>
+      </c>
+      <c r="B335" t="s">
+        <v>445</v>
+      </c>
+      <c r="C335" t="s">
+        <v>450</v>
+      </c>
+      <c r="D335">
+        <v>0</v>
+      </c>
+      <c r="E335" t="s">
+        <v>483</v>
+      </c>
+      <c r="F335" t="s">
+        <v>483</v>
+      </c>
+      <c r="G335" t="s">
+        <v>483</v>
+      </c>
+      <c r="H335" t="s">
+        <v>483</v>
+      </c>
+      <c r="I335" t="s">
+        <v>483</v>
+      </c>
+      <c r="J335" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A336">
+        <v>20</v>
+      </c>
+      <c r="B336" t="s">
+        <v>446</v>
+      </c>
+      <c r="C336" t="s">
+        <v>450</v>
+      </c>
+      <c r="D336">
+        <v>0</v>
+      </c>
+      <c r="E336" t="s">
+        <v>483</v>
+      </c>
+      <c r="F336" t="s">
+        <v>483</v>
+      </c>
+      <c r="G336" t="s">
+        <v>483</v>
+      </c>
+      <c r="H336" t="s">
+        <v>483</v>
+      </c>
+      <c r="I336" t="s">
+        <v>483</v>
+      </c>
+      <c r="J336" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A337">
+        <v>20</v>
+      </c>
+      <c r="B337" t="s">
+        <v>444</v>
+      </c>
+      <c r="C337" t="s">
+        <v>450</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+      <c r="E337" t="s">
+        <v>483</v>
+      </c>
+      <c r="F337" t="s">
+        <v>483</v>
+      </c>
+      <c r="G337" t="s">
+        <v>483</v>
+      </c>
+      <c r="H337" t="s">
+        <v>483</v>
+      </c>
+      <c r="I337" t="s">
+        <v>483</v>
+      </c>
+      <c r="J337" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A338">
+        <v>62</v>
+      </c>
+      <c r="B338" t="s">
+        <v>443</v>
+      </c>
+      <c r="C338" t="s">
+        <v>526</v>
+      </c>
+      <c r="D338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A339">
+        <v>62</v>
+      </c>
+      <c r="B339" t="s">
+        <v>445</v>
+      </c>
+      <c r="C339" t="s">
+        <v>450</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+      <c r="E339" t="s">
+        <v>483</v>
+      </c>
+      <c r="F339" t="s">
+        <v>483</v>
+      </c>
+      <c r="G339" t="s">
+        <v>483</v>
+      </c>
+      <c r="H339" t="s">
+        <v>483</v>
+      </c>
+      <c r="I339" t="s">
+        <v>483</v>
+      </c>
+      <c r="J339" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A340">
+        <v>62</v>
+      </c>
+      <c r="B340" t="s">
+        <v>446</v>
+      </c>
+      <c r="C340" t="s">
+        <v>526</v>
+      </c>
+      <c r="D340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A341">
+        <v>62</v>
+      </c>
+      <c r="B341" t="s">
+        <v>444</v>
+      </c>
+      <c r="C341" t="s">
+        <v>526</v>
+      </c>
+      <c r="D341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A342">
+        <v>59</v>
+      </c>
+      <c r="B342" t="s">
+        <v>443</v>
+      </c>
+      <c r="C342" t="s">
+        <v>450</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+      <c r="E342" t="s">
+        <v>483</v>
+      </c>
+      <c r="F342" t="s">
+        <v>483</v>
+      </c>
+      <c r="G342" t="s">
+        <v>483</v>
+      </c>
+      <c r="H342" t="s">
+        <v>483</v>
+      </c>
+      <c r="I342" t="s">
+        <v>483</v>
+      </c>
+      <c r="J342" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A343">
+        <v>59</v>
+      </c>
+      <c r="B343" t="s">
+        <v>445</v>
+      </c>
+      <c r="C343" t="s">
+        <v>450</v>
+      </c>
+      <c r="D343">
+        <v>0</v>
+      </c>
+      <c r="E343" t="s">
+        <v>483</v>
+      </c>
+      <c r="F343" t="s">
+        <v>483</v>
+      </c>
+      <c r="G343" t="s">
+        <v>483</v>
+      </c>
+      <c r="H343" t="s">
+        <v>483</v>
+      </c>
+      <c r="I343" t="s">
+        <v>483</v>
+      </c>
+      <c r="J343" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A344">
+        <v>59</v>
+      </c>
+      <c r="B344" t="s">
+        <v>446</v>
+      </c>
+      <c r="C344" t="s">
+        <v>450</v>
+      </c>
+      <c r="D344">
+        <v>0</v>
+      </c>
+      <c r="E344" t="s">
+        <v>483</v>
+      </c>
+      <c r="F344" t="s">
+        <v>483</v>
+      </c>
+      <c r="G344" t="s">
+        <v>483</v>
+      </c>
+      <c r="H344" t="s">
+        <v>483</v>
+      </c>
+      <c r="I344" t="s">
+        <v>483</v>
+      </c>
+      <c r="J344" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A345">
+        <v>59</v>
+      </c>
+      <c r="B345" t="s">
+        <v>444</v>
+      </c>
+      <c r="C345" t="s">
+        <v>450</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+      <c r="E345" t="s">
+        <v>483</v>
+      </c>
+      <c r="F345" t="s">
+        <v>483</v>
+      </c>
+      <c r="G345" t="s">
+        <v>483</v>
+      </c>
+      <c r="H345" t="s">
+        <v>483</v>
+      </c>
+      <c r="I345" t="s">
+        <v>483</v>
+      </c>
+      <c r="J345" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A346">
+        <v>101</v>
+      </c>
+      <c r="B346" t="s">
+        <v>443</v>
+      </c>
+      <c r="C346" t="s">
+        <v>450</v>
+      </c>
+      <c r="D346">
+        <v>0</v>
+      </c>
+      <c r="E346" t="s">
+        <v>483</v>
+      </c>
+      <c r="F346" t="s">
+        <v>483</v>
+      </c>
+      <c r="G346" t="s">
+        <v>483</v>
+      </c>
+      <c r="H346" t="s">
+        <v>483</v>
+      </c>
+      <c r="I346" t="s">
+        <v>483</v>
+      </c>
+      <c r="J346" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A347">
+        <v>101</v>
+      </c>
+      <c r="B347" t="s">
+        <v>445</v>
+      </c>
+      <c r="C347" t="s">
+        <v>481</v>
+      </c>
+      <c r="D347">
+        <v>2</v>
+      </c>
+      <c r="E347" t="s">
+        <v>447</v>
+      </c>
+      <c r="F347" t="s">
+        <v>447</v>
+      </c>
+      <c r="G347" t="s">
+        <v>447</v>
+      </c>
+      <c r="H347" t="s">
+        <v>447</v>
+      </c>
+      <c r="I347" t="s">
+        <v>447</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A348">
+        <v>101</v>
+      </c>
+      <c r="B348" t="s">
+        <v>446</v>
+      </c>
+      <c r="C348" t="s">
+        <v>481</v>
+      </c>
+      <c r="D348">
+        <v>1</v>
+      </c>
+      <c r="E348" t="s">
+        <v>447</v>
+      </c>
+      <c r="F348" t="s">
+        <v>447</v>
+      </c>
+      <c r="G348" t="s">
+        <v>447</v>
+      </c>
+      <c r="H348" t="s">
+        <v>447</v>
+      </c>
+      <c r="I348" t="s">
+        <v>447</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A349">
+        <v>101</v>
+      </c>
+      <c r="B349" t="s">
+        <v>444</v>
+      </c>
+      <c r="C349" t="s">
+        <v>450</v>
+      </c>
+      <c r="D349">
+        <v>0</v>
+      </c>
+      <c r="E349" t="s">
+        <v>483</v>
+      </c>
+      <c r="F349" t="s">
+        <v>483</v>
+      </c>
+      <c r="G349" t="s">
+        <v>483</v>
+      </c>
+      <c r="H349" t="s">
+        <v>483</v>
+      </c>
+      <c r="I349" t="s">
+        <v>483</v>
+      </c>
+      <c r="J349" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A350">
+        <v>10</v>
+      </c>
+      <c r="B350" t="s">
+        <v>443</v>
+      </c>
+      <c r="C350" t="s">
+        <v>481</v>
+      </c>
+      <c r="D350">
+        <v>1</v>
+      </c>
+      <c r="E350" t="s">
+        <v>447</v>
+      </c>
+      <c r="F350" t="s">
+        <v>447</v>
+      </c>
+      <c r="G350" t="s">
+        <v>447</v>
+      </c>
+      <c r="H350" t="s">
+        <v>447</v>
+      </c>
+      <c r="I350" t="s">
+        <v>447</v>
+      </c>
+      <c r="J350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A351">
+        <v>10</v>
+      </c>
+      <c r="B351" t="s">
+        <v>445</v>
+      </c>
+      <c r="C351" t="s">
+        <v>481</v>
+      </c>
+      <c r="D351">
+        <v>4</v>
+      </c>
+      <c r="E351" t="s">
+        <v>447</v>
+      </c>
+      <c r="F351" t="s">
+        <v>447</v>
+      </c>
+      <c r="G351" t="s">
+        <v>448</v>
+      </c>
+      <c r="H351" t="s">
+        <v>447</v>
+      </c>
+      <c r="I351" t="s">
+        <v>447</v>
+      </c>
+      <c r="J351">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A352">
+        <v>10</v>
+      </c>
+      <c r="B352" t="s">
+        <v>446</v>
+      </c>
+      <c r="C352" t="s">
+        <v>481</v>
+      </c>
+      <c r="D352">
+        <v>3</v>
+      </c>
+      <c r="E352" t="s">
+        <v>447</v>
+      </c>
+      <c r="F352" t="s">
+        <v>447</v>
+      </c>
+      <c r="G352" t="s">
+        <v>447</v>
+      </c>
+      <c r="H352" t="s">
+        <v>447</v>
+      </c>
+      <c r="I352" t="s">
+        <v>447</v>
+      </c>
+      <c r="J352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A353">
+        <v>10</v>
+      </c>
+      <c r="B353" t="s">
+        <v>444</v>
+      </c>
+      <c r="C353" t="s">
+        <v>450</v>
+      </c>
+      <c r="D353">
+        <v>0</v>
+      </c>
+      <c r="E353" t="s">
+        <v>483</v>
+      </c>
+      <c r="F353" t="s">
+        <v>483</v>
+      </c>
+      <c r="G353" t="s">
+        <v>483</v>
+      </c>
+      <c r="H353" t="s">
+        <v>483</v>
+      </c>
+      <c r="I353" t="s">
+        <v>483</v>
+      </c>
+      <c r="J353" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A354">
+        <v>11</v>
+      </c>
+      <c r="B354" t="s">
+        <v>443</v>
+      </c>
+      <c r="C354" t="s">
+        <v>481</v>
+      </c>
+      <c r="D354">
+        <v>2</v>
+      </c>
+      <c r="E354" t="s">
+        <v>447</v>
+      </c>
+      <c r="F354" t="s">
+        <v>447</v>
+      </c>
+      <c r="G354" t="s">
+        <v>448</v>
+      </c>
+      <c r="H354" t="s">
+        <v>447</v>
+      </c>
+      <c r="I354" t="s">
+        <v>447</v>
+      </c>
+      <c r="J354">
+        <v>50</v>
+      </c>
+      <c r="K354" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A355">
+        <v>11</v>
+      </c>
+      <c r="B355" t="s">
+        <v>445</v>
+      </c>
+      <c r="C355" t="s">
+        <v>481</v>
+      </c>
+      <c r="D355">
+        <v>1</v>
+      </c>
+      <c r="E355" t="s">
+        <v>447</v>
+      </c>
+      <c r="F355" t="s">
+        <v>447</v>
+      </c>
+      <c r="G355" t="s">
+        <v>448</v>
+      </c>
+      <c r="H355" t="s">
+        <v>447</v>
+      </c>
+      <c r="I355" t="s">
+        <v>447</v>
+      </c>
+      <c r="J355">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A356">
+        <v>11</v>
+      </c>
+      <c r="B356" t="s">
+        <v>446</v>
+      </c>
+      <c r="C356" t="s">
+        <v>481</v>
+      </c>
+      <c r="D356">
+        <v>3</v>
+      </c>
+      <c r="E356" t="s">
+        <v>447</v>
+      </c>
+      <c r="F356" t="s">
+        <v>447</v>
+      </c>
+      <c r="G356" t="s">
+        <v>447</v>
+      </c>
+      <c r="H356" t="s">
+        <v>447</v>
+      </c>
+      <c r="I356" t="s">
+        <v>447</v>
+      </c>
+      <c r="J356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A357">
+        <v>11</v>
+      </c>
+      <c r="B357" t="s">
+        <v>444</v>
+      </c>
+      <c r="C357" t="s">
+        <v>450</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+      <c r="E357" t="s">
+        <v>483</v>
+      </c>
+      <c r="F357" t="s">
+        <v>483</v>
+      </c>
+      <c r="G357" t="s">
+        <v>483</v>
+      </c>
+      <c r="H357" t="s">
+        <v>483</v>
+      </c>
+      <c r="I357" t="s">
+        <v>483</v>
+      </c>
+      <c r="J357" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A358">
+        <v>12</v>
+      </c>
+      <c r="B358" t="s">
+        <v>443</v>
+      </c>
+      <c r="C358" t="s">
+        <v>450</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+      <c r="E358" t="s">
+        <v>483</v>
+      </c>
+      <c r="F358" t="s">
+        <v>483</v>
+      </c>
+      <c r="G358" t="s">
+        <v>483</v>
+      </c>
+      <c r="H358" t="s">
+        <v>483</v>
+      </c>
+      <c r="I358" t="s">
+        <v>483</v>
+      </c>
+      <c r="J358" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A359">
+        <v>12</v>
+      </c>
+      <c r="B359" t="s">
+        <v>445</v>
+      </c>
+      <c r="C359" t="s">
+        <v>450</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+      <c r="E359" t="s">
+        <v>483</v>
+      </c>
+      <c r="F359" t="s">
+        <v>483</v>
+      </c>
+      <c r="G359" t="s">
+        <v>483</v>
+      </c>
+      <c r="H359" t="s">
+        <v>483</v>
+      </c>
+      <c r="I359" t="s">
+        <v>483</v>
+      </c>
+      <c r="J359" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A360">
+        <v>12</v>
+      </c>
+      <c r="B360" t="s">
+        <v>446</v>
+      </c>
+      <c r="C360" t="s">
+        <v>450</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+      <c r="E360" t="s">
+        <v>483</v>
+      </c>
+      <c r="F360" t="s">
+        <v>483</v>
+      </c>
+      <c r="G360" t="s">
+        <v>483</v>
+      </c>
+      <c r="H360" t="s">
+        <v>483</v>
+      </c>
+      <c r="I360" t="s">
+        <v>483</v>
+      </c>
+      <c r="J360" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A361">
+        <v>12</v>
+      </c>
+      <c r="B361" t="s">
+        <v>444</v>
+      </c>
+      <c r="C361" t="s">
+        <v>481</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
+      <c r="E361" t="s">
+        <v>447</v>
+      </c>
+      <c r="F361" t="s">
+        <v>447</v>
+      </c>
+      <c r="G361" t="s">
+        <v>448</v>
+      </c>
+      <c r="H361" t="s">
+        <v>447</v>
+      </c>
+      <c r="I361" t="s">
+        <v>447</v>
+      </c>
+      <c r="J361">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A362">
+        <v>5</v>
+      </c>
+      <c r="B362" t="s">
+        <v>443</v>
+      </c>
+      <c r="C362" t="s">
+        <v>450</v>
+      </c>
+      <c r="D362">
+        <v>0</v>
+      </c>
+      <c r="E362" t="s">
+        <v>483</v>
+      </c>
+      <c r="F362" t="s">
+        <v>483</v>
+      </c>
+      <c r="G362" t="s">
+        <v>483</v>
+      </c>
+      <c r="H362" t="s">
+        <v>483</v>
+      </c>
+      <c r="I362" t="s">
+        <v>483</v>
+      </c>
+      <c r="J362" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A363">
+        <v>5</v>
+      </c>
+      <c r="B363" t="s">
+        <v>445</v>
+      </c>
+      <c r="C363" t="s">
+        <v>450</v>
+      </c>
+      <c r="D363">
+        <v>0</v>
+      </c>
+      <c r="E363" t="s">
+        <v>483</v>
+      </c>
+      <c r="F363" t="s">
+        <v>483</v>
+      </c>
+      <c r="G363" t="s">
+        <v>483</v>
+      </c>
+      <c r="H363" t="s">
+        <v>483</v>
+      </c>
+      <c r="I363" t="s">
+        <v>483</v>
+      </c>
+      <c r="J363" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A364">
+        <v>5</v>
+      </c>
+      <c r="B364" t="s">
+        <v>446</v>
+      </c>
+      <c r="C364" t="s">
+        <v>450</v>
+      </c>
+      <c r="D364">
+        <v>0</v>
+      </c>
+      <c r="E364" t="s">
+        <v>483</v>
+      </c>
+      <c r="F364" t="s">
+        <v>483</v>
+      </c>
+      <c r="G364" t="s">
+        <v>483</v>
+      </c>
+      <c r="H364" t="s">
+        <v>483</v>
+      </c>
+      <c r="I364" t="s">
+        <v>483</v>
+      </c>
+      <c r="J364" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A365">
+        <v>5</v>
+      </c>
+      <c r="B365" t="s">
+        <v>444</v>
+      </c>
+      <c r="C365" t="s">
+        <v>481</v>
+      </c>
+      <c r="D365">
+        <v>2</v>
+      </c>
+      <c r="E365" t="s">
+        <v>447</v>
+      </c>
+      <c r="F365" t="s">
+        <v>447</v>
+      </c>
+      <c r="G365" t="s">
+        <v>447</v>
+      </c>
+      <c r="H365" t="s">
+        <v>447</v>
+      </c>
+      <c r="I365" t="s">
+        <v>447</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A366">
+        <v>15</v>
+      </c>
+      <c r="B366" t="s">
+        <v>443</v>
+      </c>
+      <c r="C366" t="s">
+        <v>450</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+      <c r="E366" t="s">
+        <v>483</v>
+      </c>
+      <c r="F366" t="s">
+        <v>483</v>
+      </c>
+      <c r="G366" t="s">
+        <v>483</v>
+      </c>
+      <c r="H366" t="s">
+        <v>483</v>
+      </c>
+      <c r="I366" t="s">
+        <v>483</v>
+      </c>
+      <c r="J366" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A367">
+        <v>15</v>
+      </c>
+      <c r="B367" t="s">
+        <v>445</v>
+      </c>
+      <c r="C367" t="s">
+        <v>450</v>
+      </c>
+      <c r="D367">
+        <v>0</v>
+      </c>
+      <c r="E367" t="s">
+        <v>483</v>
+      </c>
+      <c r="F367" t="s">
+        <v>483</v>
+      </c>
+      <c r="G367" t="s">
+        <v>483</v>
+      </c>
+      <c r="H367" t="s">
+        <v>483</v>
+      </c>
+      <c r="I367" t="s">
+        <v>483</v>
+      </c>
+      <c r="J367" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A368">
+        <v>15</v>
+      </c>
+      <c r="B368" t="s">
+        <v>446</v>
+      </c>
+      <c r="C368" t="s">
+        <v>450</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+      <c r="E368" t="s">
+        <v>483</v>
+      </c>
+      <c r="F368" t="s">
+        <v>483</v>
+      </c>
+      <c r="G368" t="s">
+        <v>483</v>
+      </c>
+      <c r="H368" t="s">
+        <v>483</v>
+      </c>
+      <c r="I368" t="s">
+        <v>483</v>
+      </c>
+      <c r="J368" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A369">
+        <v>15</v>
+      </c>
+      <c r="B369" t="s">
+        <v>444</v>
+      </c>
+      <c r="C369" t="s">
+        <v>450</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+      <c r="E369" t="s">
+        <v>483</v>
+      </c>
+      <c r="F369" t="s">
+        <v>483</v>
+      </c>
+      <c r="G369" t="s">
+        <v>483</v>
+      </c>
+      <c r="H369" t="s">
+        <v>483</v>
+      </c>
+      <c r="I369" t="s">
+        <v>483</v>
+      </c>
+      <c r="J369" t="s">
+        <v>483</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33722,11 +36787,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA95277-679F-4206-8ACD-7B30D3EACF40}">
-  <dimension ref="A1:S392"/>
+  <dimension ref="A1:S416"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A381" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q391" sqref="Q391"/>
+      <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q415" sqref="Q415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -51307,6 +54372,1248 @@
         <v>483</v>
       </c>
       <c r="S392" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="393" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A393">
+        <v>10</v>
+      </c>
+      <c r="B393" t="s">
+        <v>450</v>
+      </c>
+      <c r="C393" t="s">
+        <v>483</v>
+      </c>
+      <c r="D393" t="s">
+        <v>483</v>
+      </c>
+      <c r="E393" t="s">
+        <v>483</v>
+      </c>
+      <c r="F393" t="s">
+        <v>483</v>
+      </c>
+      <c r="G393" t="s">
+        <v>483</v>
+      </c>
+      <c r="H393" t="s">
+        <v>483</v>
+      </c>
+      <c r="I393" t="s">
+        <v>483</v>
+      </c>
+      <c r="J393" t="s">
+        <v>483</v>
+      </c>
+      <c r="K393" t="s">
+        <v>483</v>
+      </c>
+      <c r="L393" t="s">
+        <v>483</v>
+      </c>
+      <c r="M393" t="s">
+        <v>483</v>
+      </c>
+      <c r="N393" t="s">
+        <v>483</v>
+      </c>
+      <c r="O393" t="s">
+        <v>483</v>
+      </c>
+      <c r="P393" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q393" t="s">
+        <v>483</v>
+      </c>
+      <c r="R393" t="s">
+        <v>483</v>
+      </c>
+      <c r="S393" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="394" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A394">
+        <v>11</v>
+      </c>
+      <c r="B394" t="s">
+        <v>450</v>
+      </c>
+      <c r="C394" t="s">
+        <v>483</v>
+      </c>
+      <c r="D394" t="s">
+        <v>483</v>
+      </c>
+      <c r="E394" t="s">
+        <v>483</v>
+      </c>
+      <c r="F394" t="s">
+        <v>483</v>
+      </c>
+      <c r="G394" t="s">
+        <v>483</v>
+      </c>
+      <c r="H394" t="s">
+        <v>483</v>
+      </c>
+      <c r="I394" t="s">
+        <v>483</v>
+      </c>
+      <c r="J394" t="s">
+        <v>483</v>
+      </c>
+      <c r="K394" t="s">
+        <v>483</v>
+      </c>
+      <c r="L394" t="s">
+        <v>483</v>
+      </c>
+      <c r="M394" t="s">
+        <v>483</v>
+      </c>
+      <c r="N394" t="s">
+        <v>483</v>
+      </c>
+      <c r="O394" t="s">
+        <v>483</v>
+      </c>
+      <c r="P394" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q394" t="s">
+        <v>483</v>
+      </c>
+      <c r="R394" t="s">
+        <v>483</v>
+      </c>
+      <c r="S394" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="395" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A395">
+        <v>12</v>
+      </c>
+      <c r="B395" t="s">
+        <v>450</v>
+      </c>
+      <c r="C395" t="s">
+        <v>483</v>
+      </c>
+      <c r="D395" t="s">
+        <v>483</v>
+      </c>
+      <c r="E395" t="s">
+        <v>483</v>
+      </c>
+      <c r="F395" t="s">
+        <v>483</v>
+      </c>
+      <c r="G395" t="s">
+        <v>483</v>
+      </c>
+      <c r="H395" t="s">
+        <v>483</v>
+      </c>
+      <c r="I395" t="s">
+        <v>483</v>
+      </c>
+      <c r="J395" t="s">
+        <v>483</v>
+      </c>
+      <c r="K395" t="s">
+        <v>483</v>
+      </c>
+      <c r="L395" t="s">
+        <v>483</v>
+      </c>
+      <c r="M395" t="s">
+        <v>483</v>
+      </c>
+      <c r="N395" t="s">
+        <v>483</v>
+      </c>
+      <c r="O395" t="s">
+        <v>483</v>
+      </c>
+      <c r="P395" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q395" t="s">
+        <v>483</v>
+      </c>
+      <c r="R395" t="s">
+        <v>483</v>
+      </c>
+      <c r="S395" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="396" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A396">
+        <v>5</v>
+      </c>
+      <c r="B396" t="s">
+        <v>524</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D396" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E396" t="s">
+        <v>525</v>
+      </c>
+      <c r="F396">
+        <v>2.9</v>
+      </c>
+      <c r="G396">
+        <v>1</v>
+      </c>
+      <c r="H396" t="s">
+        <v>39</v>
+      </c>
+      <c r="I396" t="s">
+        <v>447</v>
+      </c>
+      <c r="J396" t="s">
+        <v>447</v>
+      </c>
+      <c r="K396" t="s">
+        <v>448</v>
+      </c>
+      <c r="L396" t="s">
+        <v>447</v>
+      </c>
+      <c r="M396" t="s">
+        <v>447</v>
+      </c>
+      <c r="N396" t="s">
+        <v>447</v>
+      </c>
+      <c r="R396" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="397" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A397">
+        <v>5</v>
+      </c>
+      <c r="B397" t="s">
+        <v>524</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D397" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E397" t="s">
+        <v>525</v>
+      </c>
+      <c r="F397">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G397">
+        <v>3</v>
+      </c>
+      <c r="H397" t="s">
+        <v>189</v>
+      </c>
+      <c r="I397" t="s">
+        <v>447</v>
+      </c>
+      <c r="J397" t="s">
+        <v>447</v>
+      </c>
+      <c r="K397" t="s">
+        <v>448</v>
+      </c>
+      <c r="L397" t="s">
+        <v>447</v>
+      </c>
+      <c r="M397" t="s">
+        <v>447</v>
+      </c>
+      <c r="N397" t="s">
+        <v>447</v>
+      </c>
+      <c r="R397" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="398" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A398">
+        <v>15</v>
+      </c>
+      <c r="B398" t="s">
+        <v>450</v>
+      </c>
+      <c r="C398" t="s">
+        <v>483</v>
+      </c>
+      <c r="D398" t="s">
+        <v>483</v>
+      </c>
+      <c r="E398" t="s">
+        <v>483</v>
+      </c>
+      <c r="F398" t="s">
+        <v>483</v>
+      </c>
+      <c r="G398" t="s">
+        <v>483</v>
+      </c>
+      <c r="H398" t="s">
+        <v>483</v>
+      </c>
+      <c r="I398" t="s">
+        <v>483</v>
+      </c>
+      <c r="J398" t="s">
+        <v>483</v>
+      </c>
+      <c r="K398" t="s">
+        <v>483</v>
+      </c>
+      <c r="L398" t="s">
+        <v>483</v>
+      </c>
+      <c r="M398" t="s">
+        <v>483</v>
+      </c>
+      <c r="N398" t="s">
+        <v>483</v>
+      </c>
+      <c r="O398" t="s">
+        <v>483</v>
+      </c>
+      <c r="P398" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q398" t="s">
+        <v>483</v>
+      </c>
+      <c r="R398" t="s">
+        <v>483</v>
+      </c>
+      <c r="S398" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="399" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A399">
+        <v>13</v>
+      </c>
+      <c r="B399" t="s">
+        <v>450</v>
+      </c>
+      <c r="C399" t="s">
+        <v>483</v>
+      </c>
+      <c r="D399" t="s">
+        <v>483</v>
+      </c>
+      <c r="E399" t="s">
+        <v>483</v>
+      </c>
+      <c r="F399" t="s">
+        <v>483</v>
+      </c>
+      <c r="G399" t="s">
+        <v>483</v>
+      </c>
+      <c r="H399" t="s">
+        <v>483</v>
+      </c>
+      <c r="I399" t="s">
+        <v>483</v>
+      </c>
+      <c r="J399" t="s">
+        <v>483</v>
+      </c>
+      <c r="K399" t="s">
+        <v>483</v>
+      </c>
+      <c r="L399" t="s">
+        <v>483</v>
+      </c>
+      <c r="M399" t="s">
+        <v>483</v>
+      </c>
+      <c r="N399" t="s">
+        <v>483</v>
+      </c>
+      <c r="O399" t="s">
+        <v>483</v>
+      </c>
+      <c r="P399" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q399" t="s">
+        <v>483</v>
+      </c>
+      <c r="R399" t="s">
+        <v>483</v>
+      </c>
+      <c r="S399" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="400" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A400">
+        <v>14</v>
+      </c>
+      <c r="B400" t="s">
+        <v>450</v>
+      </c>
+      <c r="C400" t="s">
+        <v>483</v>
+      </c>
+      <c r="D400" t="s">
+        <v>483</v>
+      </c>
+      <c r="E400" t="s">
+        <v>483</v>
+      </c>
+      <c r="F400" t="s">
+        <v>483</v>
+      </c>
+      <c r="G400" t="s">
+        <v>483</v>
+      </c>
+      <c r="H400" t="s">
+        <v>483</v>
+      </c>
+      <c r="I400" t="s">
+        <v>483</v>
+      </c>
+      <c r="J400" t="s">
+        <v>483</v>
+      </c>
+      <c r="K400" t="s">
+        <v>483</v>
+      </c>
+      <c r="L400" t="s">
+        <v>483</v>
+      </c>
+      <c r="M400" t="s">
+        <v>483</v>
+      </c>
+      <c r="N400" t="s">
+        <v>483</v>
+      </c>
+      <c r="O400" t="s">
+        <v>483</v>
+      </c>
+      <c r="P400" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q400" t="s">
+        <v>483</v>
+      </c>
+      <c r="R400" t="s">
+        <v>483</v>
+      </c>
+      <c r="S400" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="401" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A401">
+        <v>7</v>
+      </c>
+      <c r="B401" t="s">
+        <v>450</v>
+      </c>
+      <c r="C401" t="s">
+        <v>483</v>
+      </c>
+      <c r="D401" t="s">
+        <v>483</v>
+      </c>
+      <c r="E401" t="s">
+        <v>483</v>
+      </c>
+      <c r="F401" t="s">
+        <v>483</v>
+      </c>
+      <c r="G401" t="s">
+        <v>483</v>
+      </c>
+      <c r="H401" t="s">
+        <v>483</v>
+      </c>
+      <c r="I401" t="s">
+        <v>483</v>
+      </c>
+      <c r="J401" t="s">
+        <v>483</v>
+      </c>
+      <c r="K401" t="s">
+        <v>483</v>
+      </c>
+      <c r="L401" t="s">
+        <v>483</v>
+      </c>
+      <c r="M401" t="s">
+        <v>483</v>
+      </c>
+      <c r="N401" t="s">
+        <v>483</v>
+      </c>
+      <c r="O401" t="s">
+        <v>483</v>
+      </c>
+      <c r="P401" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q401" t="s">
+        <v>483</v>
+      </c>
+      <c r="R401" t="s">
+        <v>483</v>
+      </c>
+      <c r="S401" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="402" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A402">
+        <v>9</v>
+      </c>
+      <c r="B402" t="s">
+        <v>450</v>
+      </c>
+      <c r="C402" t="s">
+        <v>483</v>
+      </c>
+      <c r="D402" t="s">
+        <v>483</v>
+      </c>
+      <c r="E402" t="s">
+        <v>483</v>
+      </c>
+      <c r="F402" t="s">
+        <v>483</v>
+      </c>
+      <c r="G402" t="s">
+        <v>483</v>
+      </c>
+      <c r="H402" t="s">
+        <v>483</v>
+      </c>
+      <c r="I402" t="s">
+        <v>483</v>
+      </c>
+      <c r="J402" t="s">
+        <v>483</v>
+      </c>
+      <c r="K402" t="s">
+        <v>483</v>
+      </c>
+      <c r="L402" t="s">
+        <v>483</v>
+      </c>
+      <c r="M402" t="s">
+        <v>483</v>
+      </c>
+      <c r="N402" t="s">
+        <v>483</v>
+      </c>
+      <c r="O402" t="s">
+        <v>483</v>
+      </c>
+      <c r="P402" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q402" t="s">
+        <v>483</v>
+      </c>
+      <c r="R402" t="s">
+        <v>483</v>
+      </c>
+      <c r="S402" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="403" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A403">
+        <v>8</v>
+      </c>
+      <c r="B403" t="s">
+        <v>450</v>
+      </c>
+      <c r="C403" t="s">
+        <v>483</v>
+      </c>
+      <c r="D403" t="s">
+        <v>483</v>
+      </c>
+      <c r="E403" t="s">
+        <v>483</v>
+      </c>
+      <c r="F403" t="s">
+        <v>483</v>
+      </c>
+      <c r="G403" t="s">
+        <v>483</v>
+      </c>
+      <c r="H403" t="s">
+        <v>483</v>
+      </c>
+      <c r="I403" t="s">
+        <v>483</v>
+      </c>
+      <c r="J403" t="s">
+        <v>483</v>
+      </c>
+      <c r="K403" t="s">
+        <v>483</v>
+      </c>
+      <c r="L403" t="s">
+        <v>483</v>
+      </c>
+      <c r="M403" t="s">
+        <v>483</v>
+      </c>
+      <c r="N403" t="s">
+        <v>483</v>
+      </c>
+      <c r="O403" t="s">
+        <v>483</v>
+      </c>
+      <c r="P403" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q403" t="s">
+        <v>483</v>
+      </c>
+      <c r="R403" t="s">
+        <v>483</v>
+      </c>
+      <c r="S403" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="404" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A404">
+        <v>21</v>
+      </c>
+      <c r="B404" t="s">
+        <v>450</v>
+      </c>
+      <c r="C404" t="s">
+        <v>483</v>
+      </c>
+      <c r="D404" t="s">
+        <v>483</v>
+      </c>
+      <c r="E404" t="s">
+        <v>483</v>
+      </c>
+      <c r="F404" t="s">
+        <v>483</v>
+      </c>
+      <c r="G404" t="s">
+        <v>483</v>
+      </c>
+      <c r="H404" t="s">
+        <v>483</v>
+      </c>
+      <c r="I404" t="s">
+        <v>483</v>
+      </c>
+      <c r="J404" t="s">
+        <v>483</v>
+      </c>
+      <c r="K404" t="s">
+        <v>483</v>
+      </c>
+      <c r="L404" t="s">
+        <v>483</v>
+      </c>
+      <c r="M404" t="s">
+        <v>483</v>
+      </c>
+      <c r="N404" t="s">
+        <v>483</v>
+      </c>
+      <c r="O404" t="s">
+        <v>483</v>
+      </c>
+      <c r="P404" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q404" t="s">
+        <v>483</v>
+      </c>
+      <c r="R404" t="s">
+        <v>483</v>
+      </c>
+      <c r="S404" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="405" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A405">
+        <v>11</v>
+      </c>
+      <c r="B405" t="s">
+        <v>450</v>
+      </c>
+      <c r="C405" t="s">
+        <v>483</v>
+      </c>
+      <c r="D405" t="s">
+        <v>483</v>
+      </c>
+      <c r="E405" t="s">
+        <v>483</v>
+      </c>
+      <c r="F405" t="s">
+        <v>483</v>
+      </c>
+      <c r="G405" t="s">
+        <v>483</v>
+      </c>
+      <c r="H405" t="s">
+        <v>483</v>
+      </c>
+      <c r="I405" t="s">
+        <v>483</v>
+      </c>
+      <c r="J405" t="s">
+        <v>483</v>
+      </c>
+      <c r="K405" t="s">
+        <v>483</v>
+      </c>
+      <c r="L405" t="s">
+        <v>483</v>
+      </c>
+      <c r="M405" t="s">
+        <v>483</v>
+      </c>
+      <c r="N405" t="s">
+        <v>483</v>
+      </c>
+      <c r="O405" t="s">
+        <v>483</v>
+      </c>
+      <c r="P405" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q405" t="s">
+        <v>483</v>
+      </c>
+      <c r="R405" t="s">
+        <v>483</v>
+      </c>
+      <c r="S405" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="406" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A406">
+        <v>20</v>
+      </c>
+      <c r="B406" t="s">
+        <v>450</v>
+      </c>
+      <c r="C406" t="s">
+        <v>483</v>
+      </c>
+      <c r="D406" t="s">
+        <v>483</v>
+      </c>
+      <c r="E406" t="s">
+        <v>483</v>
+      </c>
+      <c r="F406" t="s">
+        <v>483</v>
+      </c>
+      <c r="G406" t="s">
+        <v>483</v>
+      </c>
+      <c r="H406" t="s">
+        <v>483</v>
+      </c>
+      <c r="I406" t="s">
+        <v>483</v>
+      </c>
+      <c r="J406" t="s">
+        <v>483</v>
+      </c>
+      <c r="K406" t="s">
+        <v>483</v>
+      </c>
+      <c r="L406" t="s">
+        <v>483</v>
+      </c>
+      <c r="M406" t="s">
+        <v>483</v>
+      </c>
+      <c r="N406" t="s">
+        <v>483</v>
+      </c>
+      <c r="O406" t="s">
+        <v>483</v>
+      </c>
+      <c r="P406" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q406" t="s">
+        <v>483</v>
+      </c>
+      <c r="R406" t="s">
+        <v>483</v>
+      </c>
+      <c r="S406" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="407" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A407">
+        <v>62</v>
+      </c>
+      <c r="B407" t="s">
+        <v>443</v>
+      </c>
+      <c r="D407" t="s">
+        <v>598</v>
+      </c>
+      <c r="E407" t="s">
+        <v>526</v>
+      </c>
+      <c r="F407">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G407">
+        <v>1</v>
+      </c>
+      <c r="H407" t="s">
+        <v>189</v>
+      </c>
+      <c r="I407" t="s">
+        <v>447</v>
+      </c>
+      <c r="J407" t="s">
+        <v>447</v>
+      </c>
+      <c r="K407" t="s">
+        <v>448</v>
+      </c>
+      <c r="L407" t="s">
+        <v>447</v>
+      </c>
+      <c r="M407" t="s">
+        <v>448</v>
+      </c>
+      <c r="N407" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="408" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A408">
+        <v>62</v>
+      </c>
+      <c r="B408" t="s">
+        <v>443</v>
+      </c>
+      <c r="D408" t="s">
+        <v>598</v>
+      </c>
+      <c r="E408" t="s">
+        <v>526</v>
+      </c>
+      <c r="F408">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G408">
+        <v>2</v>
+      </c>
+      <c r="H408" t="s">
+        <v>39</v>
+      </c>
+      <c r="I408" t="s">
+        <v>447</v>
+      </c>
+      <c r="J408" t="s">
+        <v>447</v>
+      </c>
+      <c r="K408" t="s">
+        <v>448</v>
+      </c>
+      <c r="L408" t="s">
+        <v>448</v>
+      </c>
+      <c r="M408" t="s">
+        <v>448</v>
+      </c>
+      <c r="N408" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="409" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A409">
+        <v>62</v>
+      </c>
+      <c r="B409" t="s">
+        <v>443</v>
+      </c>
+      <c r="D409" t="s">
+        <v>598</v>
+      </c>
+      <c r="E409" t="s">
+        <v>526</v>
+      </c>
+      <c r="F409">
+        <v>2.9</v>
+      </c>
+      <c r="G409">
+        <v>1</v>
+      </c>
+      <c r="H409" t="s">
+        <v>39</v>
+      </c>
+      <c r="I409" t="s">
+        <v>447</v>
+      </c>
+      <c r="J409" t="s">
+        <v>447</v>
+      </c>
+      <c r="K409" t="s">
+        <v>448</v>
+      </c>
+      <c r="L409" t="s">
+        <v>448</v>
+      </c>
+      <c r="M409" t="s">
+        <v>447</v>
+      </c>
+      <c r="N409" t="s">
+        <v>447</v>
+      </c>
+      <c r="R409" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="410" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A410">
+        <v>62</v>
+      </c>
+      <c r="B410" t="s">
+        <v>443</v>
+      </c>
+      <c r="D410" t="s">
+        <v>598</v>
+      </c>
+      <c r="E410" t="s">
+        <v>526</v>
+      </c>
+      <c r="F410">
+        <v>4.2</v>
+      </c>
+      <c r="G410">
+        <v>1</v>
+      </c>
+      <c r="H410" t="s">
+        <v>39</v>
+      </c>
+      <c r="I410" t="s">
+        <v>447</v>
+      </c>
+      <c r="J410" t="s">
+        <v>447</v>
+      </c>
+      <c r="K410" t="s">
+        <v>448</v>
+      </c>
+      <c r="L410" t="s">
+        <v>447</v>
+      </c>
+      <c r="M410" t="s">
+        <v>447</v>
+      </c>
+      <c r="N410" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="411" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A411">
+        <v>62</v>
+      </c>
+      <c r="B411" t="s">
+        <v>443</v>
+      </c>
+      <c r="D411" t="s">
+        <v>598</v>
+      </c>
+      <c r="E411" t="s">
+        <v>526</v>
+      </c>
+      <c r="F411">
+        <v>3.7</v>
+      </c>
+      <c r="G411">
+        <v>1</v>
+      </c>
+      <c r="H411" t="s">
+        <v>39</v>
+      </c>
+      <c r="I411" t="s">
+        <v>447</v>
+      </c>
+      <c r="J411" t="s">
+        <v>447</v>
+      </c>
+      <c r="K411" t="s">
+        <v>448</v>
+      </c>
+      <c r="L411" t="s">
+        <v>448</v>
+      </c>
+      <c r="M411" t="s">
+        <v>448</v>
+      </c>
+      <c r="N411" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="412" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A412">
+        <v>62</v>
+      </c>
+      <c r="B412" t="s">
+        <v>445</v>
+      </c>
+      <c r="D412" t="s">
+        <v>598</v>
+      </c>
+      <c r="E412" t="s">
+        <v>526</v>
+      </c>
+      <c r="F412">
+        <v>3.1</v>
+      </c>
+      <c r="G412">
+        <v>1</v>
+      </c>
+      <c r="H412" t="s">
+        <v>39</v>
+      </c>
+      <c r="I412" t="s">
+        <v>447</v>
+      </c>
+      <c r="J412" t="s">
+        <v>447</v>
+      </c>
+      <c r="K412" t="s">
+        <v>448</v>
+      </c>
+      <c r="L412" t="s">
+        <v>447</v>
+      </c>
+      <c r="M412" t="s">
+        <v>447</v>
+      </c>
+      <c r="N412" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="413" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A413">
+        <v>62</v>
+      </c>
+      <c r="B413" t="s">
+        <v>446</v>
+      </c>
+      <c r="D413" t="s">
+        <v>598</v>
+      </c>
+      <c r="E413" t="s">
+        <v>526</v>
+      </c>
+      <c r="F413">
+        <v>3.4</v>
+      </c>
+      <c r="G413">
+        <v>5</v>
+      </c>
+      <c r="H413" t="s">
+        <v>189</v>
+      </c>
+      <c r="I413" t="s">
+        <v>447</v>
+      </c>
+      <c r="J413" t="s">
+        <v>448</v>
+      </c>
+      <c r="K413" t="s">
+        <v>448</v>
+      </c>
+      <c r="L413" t="s">
+        <v>447</v>
+      </c>
+      <c r="M413" t="s">
+        <v>448</v>
+      </c>
+      <c r="N413" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="414" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A414">
+        <v>62</v>
+      </c>
+      <c r="B414" t="s">
+        <v>446</v>
+      </c>
+      <c r="D414" t="s">
+        <v>598</v>
+      </c>
+      <c r="E414" t="s">
+        <v>526</v>
+      </c>
+      <c r="F414">
+        <v>3.5</v>
+      </c>
+      <c r="G414">
+        <v>1</v>
+      </c>
+      <c r="H414" t="s">
+        <v>39</v>
+      </c>
+      <c r="I414" t="s">
+        <v>447</v>
+      </c>
+      <c r="J414" t="s">
+        <v>447</v>
+      </c>
+      <c r="K414" t="s">
+        <v>448</v>
+      </c>
+      <c r="L414" t="s">
+        <v>447</v>
+      </c>
+      <c r="M414" t="s">
+        <v>447</v>
+      </c>
+      <c r="N414" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="415" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A415">
+        <v>59</v>
+      </c>
+      <c r="B415" t="s">
+        <v>446</v>
+      </c>
+      <c r="C415">
+        <v>226</v>
+      </c>
+      <c r="D415">
+        <v>9.5</v>
+      </c>
+      <c r="E415" t="s">
+        <v>481</v>
+      </c>
+      <c r="F415">
+        <v>1.4</v>
+      </c>
+      <c r="G415">
+        <v>2</v>
+      </c>
+      <c r="H415" t="s">
+        <v>39</v>
+      </c>
+      <c r="I415" t="s">
+        <v>447</v>
+      </c>
+      <c r="J415" t="s">
+        <v>447</v>
+      </c>
+      <c r="K415" t="s">
+        <v>447</v>
+      </c>
+      <c r="L415" t="s">
+        <v>447</v>
+      </c>
+      <c r="M415" t="s">
+        <v>447</v>
+      </c>
+      <c r="N415" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q415" t="s">
+        <v>1046</v>
+      </c>
+      <c r="R415" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="416" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A416">
+        <v>101</v>
+      </c>
+      <c r="B416" t="s">
+        <v>450</v>
+      </c>
+      <c r="C416" t="s">
+        <v>483</v>
+      </c>
+      <c r="D416" t="s">
+        <v>483</v>
+      </c>
+      <c r="E416" t="s">
+        <v>483</v>
+      </c>
+      <c r="F416" t="s">
+        <v>483</v>
+      </c>
+      <c r="G416" t="s">
+        <v>483</v>
+      </c>
+      <c r="H416" t="s">
+        <v>483</v>
+      </c>
+      <c r="I416" t="s">
+        <v>483</v>
+      </c>
+      <c r="J416" t="s">
+        <v>483</v>
+      </c>
+      <c r="K416" t="s">
+        <v>483</v>
+      </c>
+      <c r="L416" t="s">
+        <v>483</v>
+      </c>
+      <c r="M416" t="s">
+        <v>483</v>
+      </c>
+      <c r="N416" t="s">
+        <v>483</v>
+      </c>
+      <c r="O416" t="s">
+        <v>483</v>
+      </c>
+      <c r="P416" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q416" t="s">
+        <v>483</v>
+      </c>
+      <c r="R416" t="s">
+        <v>483</v>
+      </c>
+      <c r="S416" t="s">
         <v>483</v>
       </c>
     </row>

--- a/Raw_data/EAB_Michigan_2024_raw_data_photos_removed.xlsx
+++ b/Raw_data/EAB_Michigan_2024_raw_data_photos_removed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/EAB_Michigan_2024_2025_github_folder/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4840" documentId="8_{E6A25E5A-660E-410D-80FD-02C42A3E01DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D646A44-9DAE-4A10-976F-21B82B517500}"/>
+  <xr:revisionPtr revIDLastSave="4845" documentId="8_{E6A25E5A-660E-410D-80FD-02C42A3E01DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{014101E1-735E-42CA-AD90-BBCCE04BC4F8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="4" r:id="rId1"/>
@@ -4541,7 +4541,7 @@
   </sheetPr>
   <dimension ref="A1:O114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L99" sqref="L99"/>
     </sheetView>
@@ -9461,9 +9461,9 @@
   </sheetPr>
   <dimension ref="A1:N397"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D385" sqref="D385"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M276" sqref="M276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18018,7 +18018,7 @@
         <v>2</v>
       </c>
       <c r="L202">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M202">
         <v>4.0599999999999996</v>
@@ -20338,7 +20338,7 @@
         <v>0</v>
       </c>
       <c r="K255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L255">
         <v>0</v>
@@ -21238,16 +21238,16 @@
         <v>0</v>
       </c>
       <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>0</v>
+      </c>
+      <c r="L276">
         <v>3</v>
-      </c>
-      <c r="J276">
-        <v>0</v>
-      </c>
-      <c r="K276">
-        <v>0</v>
-      </c>
-      <c r="L276">
-        <v>0</v>
       </c>
       <c r="M276">
         <v>4.0599999999999996</v>
@@ -26585,8 +26585,8 @@
   <dimension ref="A1:L397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A122" sqref="A122:K397"/>
+      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L265" sqref="L265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34172,7 +34172,7 @@
         <v>441</v>
       </c>
       <c r="J265">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="266" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">

--- a/Raw_data/EAB_Michigan_2024_raw_data_photos_removed.xlsx
+++ b/Raw_data/EAB_Michigan_2024_raw_data_photos_removed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/EAB_Michigan_2024_2025_github_folder/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4845" documentId="8_{E6A25E5A-660E-410D-80FD-02C42A3E01DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{014101E1-735E-42CA-AD90-BBCCE04BC4F8}"/>
+  <xr:revisionPtr revIDLastSave="4861" documentId="8_{E6A25E5A-660E-410D-80FD-02C42A3E01DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{440E94B0-66B6-4010-BB5D-182DF309964D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11317" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11320" uniqueCount="1109">
   <si>
     <t>center_tree_number</t>
   </si>
@@ -3222,9 +3222,6 @@
     <t>bitternut hickory</t>
   </si>
   <si>
-    <t>white or green</t>
-  </si>
-  <si>
     <t>black and green</t>
   </si>
   <si>
@@ -3370,6 +3367,9 @@
   </si>
   <si>
     <t>20.7 cm Tilia 1-stem: 2 of 3 stems are gone - also needs a tree tag</t>
+  </si>
+  <si>
+    <t>Epicormic sprouts are big</t>
   </si>
 </sst>
 </file>
@@ -3918,7 +3918,7 @@
         <v>499</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -4023,7 +4023,7 @@
         <v>447</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -4052,7 +4052,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -4096,7 +4096,7 @@
         <v>24</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -4112,7 +4112,7 @@
         <v>545</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -4125,7 +4125,7 @@
         <v>27</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -4159,7 +4159,7 @@
         <v>443</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -4167,7 +4167,7 @@
         <v>28</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="87" x14ac:dyDescent="0.35">
@@ -4221,7 +4221,7 @@
         <v>33</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -4229,7 +4229,7 @@
         <v>34</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -6527,7 +6527,7 @@
         <v>815</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="M45" t="s">
         <v>442</v>
@@ -8430,7 +8430,7 @@
       </c>
       <c r="J89" s="5"/>
       <c r="K89" s="5" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="L89" s="5" t="s">
         <v>799</v>
@@ -8662,7 +8662,7 @@
       </c>
       <c r="J95" s="5"/>
       <c r="L95" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="M95" t="s">
         <v>442</v>
@@ -8704,7 +8704,7 @@
       </c>
       <c r="J96" s="5"/>
       <c r="L96" s="5" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="M96" t="s">
         <v>442</v>
@@ -8746,7 +8746,7 @@
       </c>
       <c r="J97" s="5"/>
       <c r="L97" s="5" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="M97" t="s">
         <v>442</v>
@@ -8788,7 +8788,7 @@
       </c>
       <c r="J98" s="5"/>
       <c r="L98" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="M98" t="s">
         <v>442</v>
@@ -9316,10 +9316,10 @@
         <v>471</v>
       </c>
       <c r="J112" s="5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="L112" s="5" t="s">
         <v>1102</v>
-      </c>
-      <c r="L112" s="5" t="s">
-        <v>1103</v>
       </c>
       <c r="M112" t="s">
         <v>442</v>
@@ -9461,8 +9461,8 @@
   </sheetPr>
   <dimension ref="A1:N397"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M276" sqref="M276"/>
     </sheetView>
   </sheetViews>
@@ -26585,8 +26585,8 @@
   <dimension ref="A1:L397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L265" sqref="L265"/>
+      <pane ySplit="1" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A386" sqref="A386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37717,7 +37717,7 @@
         <v>437</v>
       </c>
       <c r="C378" t="s">
-        <v>1059</v>
+        <v>475</v>
       </c>
       <c r="D378">
         <v>1</v>
@@ -37749,7 +37749,7 @@
         <v>439</v>
       </c>
       <c r="C379" t="s">
-        <v>1059</v>
+        <v>475</v>
       </c>
       <c r="D379">
         <v>1</v>
@@ -37813,7 +37813,7 @@
         <v>438</v>
       </c>
       <c r="C381" t="s">
-        <v>1059</v>
+        <v>444</v>
       </c>
       <c r="D381">
         <v>0</v>
@@ -37909,7 +37909,7 @@
         <v>440</v>
       </c>
       <c r="C384" t="s">
-        <v>1060</v>
+        <v>754</v>
       </c>
       <c r="D384">
         <v>5</v>
@@ -37921,7 +37921,7 @@
         <v>441</v>
       </c>
       <c r="G384" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H384" t="s">
         <v>441</v>
@@ -37930,7 +37930,7 @@
         <v>441</v>
       </c>
       <c r="J384">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.35">
@@ -37941,7 +37941,7 @@
         <v>438</v>
       </c>
       <c r="C385" t="s">
-        <v>754</v>
+        <v>1059</v>
       </c>
       <c r="D385">
         <v>5</v>
@@ -37953,7 +37953,7 @@
         <v>441</v>
       </c>
       <c r="G385" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H385" t="s">
         <v>441</v>
@@ -37962,7 +37962,7 @@
         <v>441</v>
       </c>
       <c r="J385">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.35">
@@ -38362,9 +38362,9 @@
   </sheetPr>
   <dimension ref="A1:S476"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A462" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K474" sqref="K474"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A432" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F444" sqref="F444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -54373,7 +54373,7 @@
         <v>493</v>
       </c>
       <c r="F356">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="G356">
         <v>1</v>
@@ -54440,6 +54440,9 @@
       <c r="N357" s="6" t="s">
         <v>441</v>
       </c>
+      <c r="R357" s="6" t="s">
+        <v>874</v>
+      </c>
     </row>
     <row r="358" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A358">
@@ -54604,6 +54607,9 @@
       <c r="N361" t="s">
         <v>441</v>
       </c>
+      <c r="R361" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="362" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A362">
@@ -54892,7 +54898,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>72</v>
       </c>
@@ -54933,7 +54939,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>72</v>
       </c>
@@ -54974,7 +54980,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>72</v>
       </c>
@@ -55015,7 +55021,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>72</v>
       </c>
@@ -55056,7 +55062,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>72</v>
       </c>
@@ -55097,7 +55103,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>72</v>
       </c>
@@ -55138,7 +55144,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>72</v>
       </c>
@@ -55179,7 +55185,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>72</v>
       </c>
@@ -55220,7 +55226,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>72</v>
       </c>
@@ -55261,7 +55267,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>72</v>
       </c>
@@ -55301,8 +55307,11 @@
       <c r="N378" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R378" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="379" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>72</v>
       </c>
@@ -55343,7 +55352,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>72</v>
       </c>
@@ -55384,7 +55393,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="381" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A381" s="6">
         <v>60</v>
       </c>
@@ -55425,7 +55434,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>60</v>
       </c>
@@ -55466,7 +55475,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>60</v>
       </c>
@@ -55507,7 +55516,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>60</v>
       </c>
@@ -57010,7 +57019,7 @@
         <v>586</v>
       </c>
       <c r="E413" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F413">
         <v>3.4</v>
@@ -57234,10 +57243,10 @@
         <v>441</v>
       </c>
       <c r="Q417" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="R417" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="418" spans="1:19" x14ac:dyDescent="0.35">
@@ -57366,7 +57375,7 @@
         <v>441</v>
       </c>
       <c r="R420" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="421" spans="1:19" x14ac:dyDescent="0.35">
@@ -57451,7 +57460,7 @@
         <v>441</v>
       </c>
       <c r="R422" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="423" spans="1:19" x14ac:dyDescent="0.35">
@@ -57468,7 +57477,7 @@
         <v>493</v>
       </c>
       <c r="F423">
-        <v>6.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G423">
         <v>3</v>
@@ -57495,10 +57504,10 @@
         <v>441</v>
       </c>
       <c r="Q423" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="R423" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="424" spans="1:19" x14ac:dyDescent="0.35">
@@ -57627,10 +57636,10 @@
         <v>441</v>
       </c>
       <c r="Q426" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="R426" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="427" spans="1:19" x14ac:dyDescent="0.35">
@@ -57756,10 +57765,10 @@
         <v>441</v>
       </c>
       <c r="Q429" t="s">
+        <v>1067</v>
+      </c>
+      <c r="R429" t="s">
         <v>1068</v>
-      </c>
-      <c r="R429" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="430" spans="1:19" x14ac:dyDescent="0.35">
@@ -57862,7 +57871,7 @@
         <v>441</v>
       </c>
       <c r="R431" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="432" spans="1:19" x14ac:dyDescent="0.35">
@@ -57906,7 +57915,7 @@
         <v>441</v>
       </c>
       <c r="R432" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="433" spans="1:18" x14ac:dyDescent="0.35">
@@ -57953,7 +57962,7 @@
         <v>441</v>
       </c>
       <c r="Q433" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="434" spans="1:18" x14ac:dyDescent="0.35">
@@ -57997,7 +58006,7 @@
         <v>441</v>
       </c>
       <c r="Q434" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="435" spans="1:18" x14ac:dyDescent="0.35">
@@ -58082,7 +58091,7 @@
         <v>441</v>
       </c>
       <c r="R436" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="437" spans="1:18" x14ac:dyDescent="0.35">
@@ -58348,7 +58357,7 @@
         <v>493</v>
       </c>
       <c r="F443">
-        <v>4.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G443">
         <v>1</v>
@@ -59330,7 +59339,7 @@
         <v>441</v>
       </c>
       <c r="R466" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="467" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -59415,7 +59424,7 @@
         <v>441</v>
       </c>
       <c r="R468" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="469" spans="1:19" x14ac:dyDescent="0.35">
@@ -62198,7 +62207,7 @@
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -62218,10 +62227,10 @@
         <v>764</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
@@ -62230,7 +62239,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -62263,7 +62272,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -62283,10 +62292,10 @@
         <v>764</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -62295,7 +62304,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -62345,10 +62354,10 @@
         <v>764</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -62404,10 +62413,10 @@
         <v>764</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -62463,10 +62472,10 @@
         <v>764</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -62522,10 +62531,10 @@
         <v>764</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -62534,7 +62543,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -62584,10 +62593,10 @@
         <v>764</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -62596,7 +62605,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -62629,7 +62638,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -62649,10 +62658,10 @@
         <v>764</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H24" s="1">
         <v>1</v>
@@ -62691,7 +62700,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -62714,7 +62723,7 @@
         <v>905</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -62753,7 +62762,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -62776,7 +62785,7 @@
         <v>905</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
@@ -62815,7 +62824,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -62838,7 +62847,7 @@
         <v>964</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H33" s="1">
         <v>0</v>
@@ -62897,7 +62906,7 @@
         <v>964</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
@@ -63047,7 +63056,7 @@
         <v>804</v>
       </c>
       <c r="F44" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -63064,13 +63073,13 @@
         <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F45" t="s">
         <v>905</v>
       </c>
       <c r="G45" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -63216,7 +63225,7 @@
         <v>804</v>
       </c>
       <c r="F53" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -63233,13 +63242,13 @@
         <v>14</v>
       </c>
       <c r="E54" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F54" t="s">
         <v>905</v>
       </c>
       <c r="G54" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -63385,7 +63394,7 @@
         <v>804</v>
       </c>
       <c r="F62" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -63402,13 +63411,13 @@
         <v>15</v>
       </c>
       <c r="E63" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F63" t="s">
         <v>905</v>
       </c>
       <c r="G63" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
   </sheetData>
@@ -63610,7 +63619,7 @@
         <v>804</v>
       </c>
       <c r="F7" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G7" t="s">
         <v>442</v>
@@ -63633,7 +63642,7 @@
         <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F8" t="s">
         <v>905</v>
@@ -63688,16 +63697,16 @@
         <v>909</v>
       </c>
       <c r="F10" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G10" t="s">
+        <v>442</v>
+      </c>
+      <c r="H10" t="s">
+        <v>441</v>
+      </c>
+      <c r="I10" t="s">
         <v>1076</v>
-      </c>
-      <c r="G10" t="s">
-        <v>442</v>
-      </c>
-      <c r="H10" t="s">
-        <v>441</v>
-      </c>
-      <c r="I10" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -63847,7 +63856,7 @@
         <v>804</v>
       </c>
       <c r="F17" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G17" t="s">
         <v>442</v>
@@ -63870,7 +63879,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F18" t="s">
         <v>905</v>
@@ -63925,16 +63934,16 @@
         <v>909</v>
       </c>
       <c r="F20" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G20" t="s">
+        <v>442</v>
+      </c>
+      <c r="H20" t="s">
+        <v>441</v>
+      </c>
+      <c r="I20" t="s">
         <v>1076</v>
-      </c>
-      <c r="G20" t="s">
-        <v>442</v>
-      </c>
-      <c r="H20" t="s">
-        <v>441</v>
-      </c>
-      <c r="I20" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -64084,7 +64093,7 @@
         <v>804</v>
       </c>
       <c r="F27" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G27" t="s">
         <v>442</v>
@@ -64107,7 +64116,7 @@
         <v>103</v>
       </c>
       <c r="E28" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F28" t="s">
         <v>905</v>
@@ -64162,16 +64171,16 @@
         <v>909</v>
       </c>
       <c r="F30" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G30" t="s">
+        <v>442</v>
+      </c>
+      <c r="H30" t="s">
+        <v>441</v>
+      </c>
+      <c r="I30" t="s">
         <v>1076</v>
-      </c>
-      <c r="G30" t="s">
-        <v>442</v>
-      </c>
-      <c r="H30" t="s">
-        <v>441</v>
-      </c>
-      <c r="I30" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -64321,7 +64330,7 @@
         <v>804</v>
       </c>
       <c r="F37" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G37" t="s">
         <v>442</v>
@@ -64344,7 +64353,7 @@
         <v>104</v>
       </c>
       <c r="E38" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F38" t="s">
         <v>905</v>
@@ -64399,16 +64408,16 @@
         <v>909</v>
       </c>
       <c r="F40" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G40" t="s">
+        <v>442</v>
+      </c>
+      <c r="H40" t="s">
+        <v>441</v>
+      </c>
+      <c r="I40" t="s">
         <v>1076</v>
-      </c>
-      <c r="G40" t="s">
-        <v>442</v>
-      </c>
-      <c r="H40" t="s">
-        <v>441</v>
-      </c>
-      <c r="I40" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -64558,7 +64567,7 @@
         <v>804</v>
       </c>
       <c r="F47" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G47" t="s">
         <v>442</v>
@@ -64567,7 +64576,7 @@
         <v>441</v>
       </c>
       <c r="I47" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -64584,7 +64593,7 @@
         <v>105</v>
       </c>
       <c r="E48" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F48" t="s">
         <v>905</v>
@@ -64639,16 +64648,16 @@
         <v>909</v>
       </c>
       <c r="F50" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G50" t="s">
+        <v>442</v>
+      </c>
+      <c r="H50" t="s">
+        <v>441</v>
+      </c>
+      <c r="I50" t="s">
         <v>1076</v>
-      </c>
-      <c r="G50" t="s">
-        <v>442</v>
-      </c>
-      <c r="H50" t="s">
-        <v>441</v>
-      </c>
-      <c r="I50" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -64798,7 +64807,7 @@
         <v>804</v>
       </c>
       <c r="F57" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G57" t="s">
         <v>442</v>
@@ -64821,7 +64830,7 @@
         <v>106</v>
       </c>
       <c r="E58" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F58" t="s">
         <v>905</v>
@@ -64876,16 +64885,16 @@
         <v>909</v>
       </c>
       <c r="F60" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G60" t="s">
+        <v>442</v>
+      </c>
+      <c r="H60" t="s">
+        <v>441</v>
+      </c>
+      <c r="I60" t="s">
         <v>1076</v>
-      </c>
-      <c r="G60" t="s">
-        <v>442</v>
-      </c>
-      <c r="H60" t="s">
-        <v>441</v>
-      </c>
-      <c r="I60" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -65038,7 +65047,7 @@
         <v>804</v>
       </c>
       <c r="F67" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G67" t="s">
         <v>442</v>
@@ -65061,7 +65070,7 @@
         <v>107</v>
       </c>
       <c r="E68" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F68" t="s">
         <v>905</v>
@@ -65116,16 +65125,16 @@
         <v>909</v>
       </c>
       <c r="F70" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G70" t="s">
+        <v>442</v>
+      </c>
+      <c r="H70" t="s">
+        <v>441</v>
+      </c>
+      <c r="I70" t="s">
         <v>1076</v>
-      </c>
-      <c r="G70" t="s">
-        <v>442</v>
-      </c>
-      <c r="H70" t="s">
-        <v>441</v>
-      </c>
-      <c r="I70" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -65278,7 +65287,7 @@
         <v>804</v>
       </c>
       <c r="F77" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G77" t="s">
         <v>442</v>
@@ -65301,7 +65310,7 @@
         <v>108</v>
       </c>
       <c r="E78" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F78" t="s">
         <v>905</v>
@@ -65356,7 +65365,7 @@
         <v>909</v>
       </c>
       <c r="F80" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G80" t="s">
         <v>442</v>
@@ -65365,7 +65374,7 @@
         <v>441</v>
       </c>
       <c r="I80" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -65521,7 +65530,7 @@
         <v>804</v>
       </c>
       <c r="F87" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G87" t="s">
         <v>442</v>
@@ -65544,7 +65553,7 @@
         <v>109</v>
       </c>
       <c r="E88" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F88" t="s">
         <v>905</v>
@@ -65599,16 +65608,16 @@
         <v>909</v>
       </c>
       <c r="F90" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G90" t="s">
+        <v>442</v>
+      </c>
+      <c r="H90" t="s">
+        <v>441</v>
+      </c>
+      <c r="I90" t="s">
         <v>1076</v>
-      </c>
-      <c r="G90" t="s">
-        <v>442</v>
-      </c>
-      <c r="H90" t="s">
-        <v>441</v>
-      </c>
-      <c r="I90" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -65761,7 +65770,7 @@
         <v>804</v>
       </c>
       <c r="F97" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G97" t="s">
         <v>442</v>
@@ -65784,7 +65793,7 @@
         <v>110</v>
       </c>
       <c r="E98" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F98" t="s">
         <v>905</v>
@@ -65839,16 +65848,16 @@
         <v>909</v>
       </c>
       <c r="F100" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G100" t="s">
+        <v>442</v>
+      </c>
+      <c r="H100" t="s">
+        <v>441</v>
+      </c>
+      <c r="I100" t="s">
         <v>1076</v>
-      </c>
-      <c r="G100" t="s">
-        <v>442</v>
-      </c>
-      <c r="H100" t="s">
-        <v>441</v>
-      </c>
-      <c r="I100" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -65998,7 +66007,7 @@
         <v>804</v>
       </c>
       <c r="F107" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G107" t="s">
         <v>442</v>
@@ -66021,7 +66030,7 @@
         <v>111</v>
       </c>
       <c r="E108" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F108" t="s">
         <v>905</v>
@@ -66076,16 +66085,16 @@
         <v>909</v>
       </c>
       <c r="F110" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G110" t="s">
+        <v>442</v>
+      </c>
+      <c r="H110" t="s">
+        <v>441</v>
+      </c>
+      <c r="I110" t="s">
         <v>1076</v>
-      </c>
-      <c r="G110" t="s">
-        <v>442</v>
-      </c>
-      <c r="H110" t="s">
-        <v>441</v>
-      </c>
-      <c r="I110" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -66244,7 +66253,7 @@
         <v>804</v>
       </c>
       <c r="F117" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G117" t="s">
         <v>442</v>
@@ -66267,7 +66276,7 @@
         <v>112</v>
       </c>
       <c r="E118" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F118" t="s">
         <v>905</v>
@@ -66322,16 +66331,16 @@
         <v>909</v>
       </c>
       <c r="F120" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G120" t="s">
+        <v>442</v>
+      </c>
+      <c r="H120" t="s">
+        <v>441</v>
+      </c>
+      <c r="I120" t="s">
         <v>1076</v>
-      </c>
-      <c r="G120" t="s">
-        <v>442</v>
-      </c>
-      <c r="H120" t="s">
-        <v>441</v>
-      </c>
-      <c r="I120" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -66481,7 +66490,7 @@
         <v>804</v>
       </c>
       <c r="F127" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G127" t="s">
         <v>442</v>
@@ -66504,7 +66513,7 @@
         <v>113</v>
       </c>
       <c r="E128" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F128" t="s">
         <v>905</v>
@@ -66559,16 +66568,16 @@
         <v>909</v>
       </c>
       <c r="F130" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G130" t="s">
+        <v>442</v>
+      </c>
+      <c r="H130" t="s">
+        <v>441</v>
+      </c>
+      <c r="I130" t="s">
         <v>1076</v>
-      </c>
-      <c r="G130" t="s">
-        <v>442</v>
-      </c>
-      <c r="H130" t="s">
-        <v>441</v>
-      </c>
-      <c r="I130" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -66718,7 +66727,7 @@
         <v>804</v>
       </c>
       <c r="F137" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G137" t="s">
         <v>442</v>
@@ -66741,7 +66750,7 @@
         <v>114</v>
       </c>
       <c r="E138" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F138" t="s">
         <v>905</v>
@@ -66796,16 +66805,16 @@
         <v>909</v>
       </c>
       <c r="F140" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G140" t="s">
+        <v>442</v>
+      </c>
+      <c r="H140" t="s">
+        <v>441</v>
+      </c>
+      <c r="I140" t="s">
         <v>1076</v>
-      </c>
-      <c r="G140" t="s">
-        <v>442</v>
-      </c>
-      <c r="H140" t="s">
-        <v>441</v>
-      </c>
-      <c r="I140" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -66955,7 +66964,7 @@
         <v>804</v>
       </c>
       <c r="F147" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G147" t="s">
         <v>442</v>
@@ -66978,7 +66987,7 @@
         <v>115</v>
       </c>
       <c r="E148" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F148" t="s">
         <v>905</v>
@@ -67033,16 +67042,16 @@
         <v>909</v>
       </c>
       <c r="F150" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G150" t="s">
+        <v>442</v>
+      </c>
+      <c r="H150" t="s">
+        <v>441</v>
+      </c>
+      <c r="I150" t="s">
         <v>1076</v>
-      </c>
-      <c r="G150" t="s">
-        <v>442</v>
-      </c>
-      <c r="H150" t="s">
-        <v>441</v>
-      </c>
-      <c r="I150" t="s">
-        <v>1077</v>
       </c>
     </row>
   </sheetData>

--- a/Raw_data/EAB_Michigan_2024_raw_data_photos_removed.xlsx
+++ b/Raw_data/EAB_Michigan_2024_raw_data_photos_removed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/EAB_Michigan_2024_2025_github_folder/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4865" documentId="8_{E6A25E5A-660E-410D-80FD-02C42A3E01DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFA93ADF-72CB-4624-9CC4-D4683006F04F}"/>
+  <xr:revisionPtr revIDLastSave="4871" documentId="8_{E6A25E5A-660E-410D-80FD-02C42A3E01DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{546D87C8-C112-4BA4-8F29-52F3C8833C79}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4542,8 +4542,8 @@
   <dimension ref="A1:O114"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9462,8 +9462,8 @@
   <dimension ref="A1:N397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M276" sqref="M276"/>
+      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D343" sqref="D343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -26585,8 +26585,8 @@
   <dimension ref="A1:L397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A386" sqref="A386"/>
+      <pane ySplit="1" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A330" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -38363,8 +38363,8 @@
   <dimension ref="A1:S477"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E409" sqref="E409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40109,7 +40109,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="R31" t="s">
         <v>452</v>
@@ -40483,7 +40483,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="R38" t="s">
         <v>452</v>
@@ -40539,7 +40539,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="R39" t="s">
         <v>453</v>
@@ -40595,7 +40595,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="R40" t="s">
         <v>452</v>
@@ -56702,7 +56702,7 @@
     </row>
     <row r="406" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A406">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B406" t="s">
         <v>444</v>

--- a/Raw_data/EAB_Michigan_2024_raw_data_photos_removed.xlsx
+++ b/Raw_data/EAB_Michigan_2024_raw_data_photos_removed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/EAB_Michigan_2024_2025_github_folder/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4871" documentId="8_{E6A25E5A-660E-410D-80FD-02C42A3E01DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{546D87C8-C112-4BA4-8F29-52F3C8833C79}"/>
+  <xr:revisionPtr revIDLastSave="4877" documentId="8_{E6A25E5A-660E-410D-80FD-02C42A3E01DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71A6919D-5D46-4388-B683-A098E19B5CAD}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="4" r:id="rId1"/>
@@ -38363,8 +38363,8 @@
   <dimension ref="A1:S477"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E409" sqref="E409"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A73" sqref="A73:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Raw_data/EAB_Michigan_2024_raw_data_photos_removed.xlsx
+++ b/Raw_data/EAB_Michigan_2024_raw_data_photos_removed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/EAB_Michigan_2024_2025_github_folder/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4877" documentId="8_{E6A25E5A-660E-410D-80FD-02C42A3E01DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71A6919D-5D46-4388-B683-A098E19B5CAD}"/>
+  <xr:revisionPtr revIDLastSave="4916" documentId="8_{E6A25E5A-660E-410D-80FD-02C42A3E01DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21B0C0AC-565D-48D1-96D4-E8F3F1855096}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11338" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11376" uniqueCount="1110">
   <si>
     <t>center_tree_number</t>
   </si>
@@ -3370,6 +3370,9 @@
   </si>
   <si>
     <t>Epicormic sprouts are big</t>
+  </si>
+  <si>
+    <t>See row 75_south</t>
   </si>
 </sst>
 </file>
@@ -3821,7 +3824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D88F145-B9A5-4ED2-BA4E-B069605466DD}">
   <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
@@ -4541,9 +4544,9 @@
   </sheetPr>
   <dimension ref="A1:O114"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:O23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4771,8 +4774,15 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
+      <c r="M5" t="s">
+        <v>441</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
@@ -4847,6 +4857,15 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="L7" s="5"/>
+      <c r="M7" t="s">
+        <v>441</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
@@ -7132,6 +7151,15 @@
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="L59" s="5"/>
+      <c r="M59" t="s">
+        <v>441</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="O59" s="5" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="60" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
@@ -7735,12 +7763,25 @@
       <c r="H73" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="I73" s="5"/>
+      <c r="I73" s="5" t="s">
+        <v>695</v>
+      </c>
       <c r="J73" s="5"/>
       <c r="K73" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="L73" s="5"/>
+      <c r="L73" s="5" t="s">
+        <v>1109</v>
+      </c>
+      <c r="M73" t="s">
+        <v>442</v>
+      </c>
+      <c r="N73" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="O73" s="5" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="74" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
@@ -8560,6 +8601,15 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="L92" s="5"/>
+      <c r="M92" t="s">
+        <v>441</v>
+      </c>
+      <c r="N92" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="O92" s="5" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="93" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
@@ -8589,6 +8639,15 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="L93" s="5"/>
+      <c r="M93" t="s">
+        <v>441</v>
+      </c>
+      <c r="N93" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="O93" s="5" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="94" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
@@ -9005,6 +9064,15 @@
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="L103" s="5"/>
+      <c r="M103" t="s">
+        <v>441</v>
+      </c>
+      <c r="N103" t="s">
+        <v>441</v>
+      </c>
+      <c r="O103" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="104" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
@@ -9034,6 +9102,15 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="L104" s="5"/>
+      <c r="M104" t="s">
+        <v>441</v>
+      </c>
+      <c r="N104" t="s">
+        <v>441</v>
+      </c>
+      <c r="O104" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="105" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
@@ -9063,6 +9140,15 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="L105" s="5"/>
+      <c r="M105" t="s">
+        <v>441</v>
+      </c>
+      <c r="N105" t="s">
+        <v>441</v>
+      </c>
+      <c r="O105" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="106" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
@@ -9092,6 +9178,15 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="L106" s="5"/>
+      <c r="M106" t="s">
+        <v>441</v>
+      </c>
+      <c r="N106" t="s">
+        <v>441</v>
+      </c>
+      <c r="O106" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="107" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
@@ -9121,6 +9216,15 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="L107" s="5"/>
+      <c r="M107" t="s">
+        <v>441</v>
+      </c>
+      <c r="N107" t="s">
+        <v>441</v>
+      </c>
+      <c r="O107" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="108" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
@@ -9150,6 +9254,15 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="L108" s="5"/>
+      <c r="M108" t="s">
+        <v>441</v>
+      </c>
+      <c r="N108" t="s">
+        <v>441</v>
+      </c>
+      <c r="O108" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="109" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
@@ -38362,7 +38475,7 @@
   </sheetPr>
   <dimension ref="A1:S477"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A73" sqref="A73:XFD73"/>
     </sheetView>

--- a/Raw_data/EAB_Michigan_2024_raw_data_photos_removed.xlsx
+++ b/Raw_data/EAB_Michigan_2024_raw_data_photos_removed.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileSharing readOnlyRecommended="1"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/EAB_Michigan_2024_2025_github_folder/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4916" documentId="8_{E6A25E5A-660E-410D-80FD-02C42A3E01DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21B0C0AC-565D-48D1-96D4-E8F3F1855096}"/>
+  <xr:revisionPtr revIDLastSave="5288" documentId="8_{E6A25E5A-660E-410D-80FD-02C42A3E01DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01B87D4C-E533-4FE7-846B-7E63311E8329}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="4" r:id="rId1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11376" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11854" uniqueCount="1115">
   <si>
     <t>center_tree_number</t>
   </si>
@@ -3373,6 +3374,21 @@
   </si>
   <si>
     <t>See row 75_south</t>
+  </si>
+  <si>
+    <t>epicormic_sprouts_old_new</t>
+  </si>
+  <si>
+    <t>not_recorded</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I used the ash_trees_notes to make a variable for whether the tree had old or new epicormic sprouts. New epicormic sprouts can indicate that living EAB larvae are currently in the tree (I think, after speaking with Kathleen Knight). Basically this variable records whether the epicormic sprouts were green (meaning new) or woody (meaning old). Unfourtunately I didn't record this detail for very many trees. My general memory is that the majority of (small) trees had epicormic sprouts that were woody - that is, older than a year (I think). </t>
   </si>
 </sst>
 </file>
@@ -3496,7 +3512,19 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3553,10 +3581,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3822,10 +3846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D88F145-B9A5-4ED2-BA4E-B069605466DD}">
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4240,295 +4264,303 @@
         <v>445</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="1"/>
+    <row r="66" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1114</v>
+      </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="7" t="s">
         <v>550</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>0</v>
+        <v>456</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>592</v>
+        <v>459</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>458</v>
+        <v>592</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>18</v>
+        <v>458</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>480</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>553</v>
+        <v>465</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>554</v>
+        <v>469</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
+    <row r="83" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
         <v>476</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>30</v>
+        <v>462</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>510</v>
+        <v>30</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>463</v>
+        <v>510</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>20</v>
+        <v>464</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="1"/>
-    </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="7" t="s">
         <v>603</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="1" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>0</v>
+        <v>456</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>590</v>
+        <v>457</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="1"/>
-    </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="1"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="7" t="s">
         <v>604</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>0</v>
+        <v>456</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>590</v>
+        <v>457</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
         <v>591</v>
       </c>
     </row>
@@ -4544,9 +4576,9 @@
   </sheetPr>
   <dimension ref="A1:O114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I73" sqref="I73"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9533,21 +9565,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M1:O1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"n"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"n"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:O1048576">
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",M2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",M2)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -9575,8 +9607,8 @@
   <dimension ref="A1:N397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D343" sqref="D343"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -26698,8 +26730,8 @@
   <dimension ref="A1:L397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A330" sqref="A1:A1048576"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K241" sqref="K241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -38473,38 +38505,39 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S477"/>
+  <dimension ref="A1:T477"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A73" sqref="A73:XFD73"/>
+    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.90625" customWidth="1"/>
-    <col min="2" max="2" width="4.1796875" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="1" max="1" width="5.90625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1796875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15.6328125" customWidth="1"/>
-    <col min="6" max="6" width="5.453125" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="4.54296875" customWidth="1"/>
-    <col min="8" max="8" width="5.1796875" customWidth="1"/>
-    <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="5.1796875" customWidth="1"/>
-    <col min="11" max="11" width="7.08984375" customWidth="1"/>
+    <col min="8" max="8" width="5.1796875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="5" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="5.1796875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="7.08984375" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="7.54296875" customWidth="1"/>
     <col min="13" max="13" width="6.08984375" customWidth="1"/>
-    <col min="14" max="14" width="5.26953125" customWidth="1"/>
-    <col min="15" max="15" width="5.7265625" customWidth="1"/>
-    <col min="16" max="16" width="4.81640625" customWidth="1"/>
-    <col min="17" max="17" width="22.26953125" customWidth="1"/>
+    <col min="14" max="14" width="5.26953125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7265625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="4.81640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="22.26953125" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="29.26953125" customWidth="1"/>
-    <col min="19" max="19" width="4.08984375" customWidth="1"/>
-    <col min="20" max="20" width="16.90625" customWidth="1"/>
+    <col min="19" max="19" width="4.08984375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="12.08984375" customWidth="1"/>
+    <col min="21" max="21" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -38562,8 +38595,11 @@
       <c r="S1" s="1" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T1" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -38621,8 +38657,11 @@
       <c r="S2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T2" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -38671,8 +38710,11 @@
       <c r="Q3" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -38724,8 +38766,11 @@
       <c r="R4" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T4" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>94</v>
       </c>
@@ -38783,8 +38828,11 @@
       <c r="S5" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>97</v>
       </c>
@@ -38842,8 +38890,11 @@
       <c r="S6" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>98</v>
       </c>
@@ -38901,8 +38952,11 @@
       <c r="S7" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>99</v>
       </c>
@@ -38960,8 +39014,11 @@
       <c r="S8" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>95</v>
       </c>
@@ -39019,8 +39076,11 @@
       <c r="S9" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T9" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>49</v>
       </c>
@@ -39078,8 +39138,11 @@
       <c r="S10" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T10" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>50</v>
       </c>
@@ -39137,8 +39200,11 @@
       <c r="S11" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T11" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>96</v>
       </c>
@@ -39196,8 +39262,11 @@
       <c r="S12" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T12" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>53</v>
       </c>
@@ -39252,8 +39321,11 @@
       <c r="S13">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T13" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>53</v>
       </c>
@@ -39308,8 +39380,11 @@
       <c r="S14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T14" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>53</v>
       </c>
@@ -39364,8 +39439,11 @@
       <c r="S15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T15" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>53</v>
       </c>
@@ -39423,8 +39501,11 @@
       <c r="S16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T16" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>53</v>
       </c>
@@ -39482,8 +39563,11 @@
       <c r="S17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T17" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>53</v>
       </c>
@@ -39538,8 +39622,11 @@
       <c r="S18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T18" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>53</v>
       </c>
@@ -39591,8 +39678,11 @@
       <c r="S19">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T19" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>53</v>
       </c>
@@ -39641,8 +39731,11 @@
       <c r="Q20" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T20" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>53</v>
       </c>
@@ -39694,8 +39787,11 @@
       <c r="S21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T21" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>53</v>
       </c>
@@ -39750,8 +39846,11 @@
       <c r="S22">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T22" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>53</v>
       </c>
@@ -39800,8 +39899,11 @@
       <c r="Q23" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T23" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>53</v>
       </c>
@@ -39856,8 +39958,11 @@
       <c r="R24" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T24" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>53</v>
       </c>
@@ -39909,8 +40014,11 @@
       <c r="Q25" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T25" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>53</v>
       </c>
@@ -39962,8 +40070,11 @@
       <c r="Q26" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T26" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>53</v>
       </c>
@@ -40015,8 +40126,11 @@
       <c r="Q27" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T27" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>53</v>
       </c>
@@ -40068,8 +40182,11 @@
       <c r="Q28" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T28" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>53</v>
       </c>
@@ -40118,8 +40235,11 @@
       <c r="Q29" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T29" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>53</v>
       </c>
@@ -40171,8 +40291,11 @@
       <c r="Q30" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T30" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>53</v>
       </c>
@@ -40227,8 +40350,11 @@
       <c r="R31" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T31" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>53</v>
       </c>
@@ -40280,8 +40406,11 @@
       <c r="Q32" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T32" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>53</v>
       </c>
@@ -40333,8 +40462,11 @@
       <c r="Q33" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T33" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>53</v>
       </c>
@@ -40386,8 +40518,11 @@
       <c r="Q34" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T34" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>53</v>
       </c>
@@ -40439,8 +40574,11 @@
       <c r="Q35" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T35" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>53</v>
       </c>
@@ -40492,8 +40630,11 @@
       <c r="Q36" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T36" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>53</v>
       </c>
@@ -40545,8 +40686,11 @@
       <c r="Q37" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T37" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>53</v>
       </c>
@@ -40601,8 +40745,11 @@
       <c r="R38" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T38" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>53</v>
       </c>
@@ -40657,8 +40804,11 @@
       <c r="R39" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T39" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>53</v>
       </c>
@@ -40713,8 +40863,11 @@
       <c r="R40" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T40" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>53</v>
       </c>
@@ -40766,8 +40919,11 @@
       <c r="Q41" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T41" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>53</v>
       </c>
@@ -40819,8 +40975,11 @@
       <c r="Q42" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T42" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>53</v>
       </c>
@@ -40872,8 +41031,11 @@
       <c r="Q43" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T43" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>53</v>
       </c>
@@ -40925,8 +41087,11 @@
       <c r="Q44" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T44" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>53</v>
       </c>
@@ -40978,8 +41143,11 @@
       <c r="Q45" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T45" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>53</v>
       </c>
@@ -41031,8 +41199,11 @@
       <c r="Q46" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T46" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>53</v>
       </c>
@@ -41087,8 +41258,11 @@
       <c r="R47" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T47" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>53</v>
       </c>
@@ -41140,8 +41314,11 @@
       <c r="Q48" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T48" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>39</v>
       </c>
@@ -41190,8 +41367,11 @@
       <c r="Q49" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T49" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>39</v>
       </c>
@@ -41243,8 +41423,11 @@
       <c r="R50" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T50" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>39</v>
       </c>
@@ -41293,8 +41476,11 @@
       <c r="Q51" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T51" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>39</v>
       </c>
@@ -41346,8 +41532,11 @@
       <c r="R52" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T52" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>39</v>
       </c>
@@ -41399,8 +41588,11 @@
       <c r="R53" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T53" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>39</v>
       </c>
@@ -41449,8 +41641,11 @@
       <c r="Q54" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T54" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>39</v>
       </c>
@@ -41499,8 +41694,11 @@
       <c r="Q55" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T55" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>39</v>
       </c>
@@ -41549,8 +41747,11 @@
       <c r="Q56" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T56" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>39</v>
       </c>
@@ -41602,8 +41803,11 @@
       <c r="R57" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T57" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>39</v>
       </c>
@@ -41652,8 +41856,11 @@
       <c r="Q58" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T58" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>39</v>
       </c>
@@ -41702,8 +41909,11 @@
       <c r="Q59" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T59" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>39</v>
       </c>
@@ -41758,8 +41968,11 @@
       <c r="R60" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T60" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>39</v>
       </c>
@@ -41808,8 +42021,11 @@
       <c r="Q61" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T61" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>39</v>
       </c>
@@ -41858,8 +42074,11 @@
       <c r="Q62" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T62" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>39</v>
       </c>
@@ -41911,8 +42130,11 @@
       <c r="R63" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T63" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>39</v>
       </c>
@@ -41961,8 +42183,11 @@
       <c r="Q64" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T64" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>39</v>
       </c>
@@ -42011,8 +42236,11 @@
       <c r="Q65" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T65" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>39</v>
       </c>
@@ -42061,8 +42289,11 @@
       <c r="Q66" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T66" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>39</v>
       </c>
@@ -42114,8 +42345,11 @@
       <c r="R67" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T67" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>39</v>
       </c>
@@ -42164,8 +42398,11 @@
       <c r="Q68" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T68" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>39</v>
       </c>
@@ -42214,8 +42451,11 @@
       <c r="Q69" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T69" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>39</v>
       </c>
@@ -42264,8 +42504,11 @@
       <c r="Q70" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T70" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>39</v>
       </c>
@@ -42314,8 +42557,11 @@
       <c r="Q71" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T71" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>51</v>
       </c>
@@ -42370,8 +42616,11 @@
       <c r="S72" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T72" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>52</v>
       </c>
@@ -42420,8 +42669,11 @@
       <c r="Q73" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T73" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>54</v>
       </c>
@@ -42473,8 +42725,11 @@
       <c r="Q74" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T74" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>54</v>
       </c>
@@ -42487,8 +42742,11 @@
       <c r="Q75" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="T75" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="8">
         <v>39</v>
       </c>
@@ -42534,8 +42792,11 @@
       <c r="P76" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T76" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>39</v>
       </c>
@@ -42584,8 +42845,11 @@
       <c r="R77" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T77" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>39</v>
       </c>
@@ -42634,8 +42898,11 @@
       <c r="R78" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T78" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>39</v>
       </c>
@@ -42684,8 +42951,11 @@
       <c r="R79" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T79" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>39</v>
       </c>
@@ -42731,8 +43001,11 @@
       <c r="Q80" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T80" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>39</v>
       </c>
@@ -42778,8 +43051,11 @@
       <c r="P81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T81" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>39</v>
       </c>
@@ -42825,8 +43101,11 @@
       <c r="P82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T82" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>39</v>
       </c>
@@ -42875,8 +43154,11 @@
       <c r="R83" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T83" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>39</v>
       </c>
@@ -42928,8 +43210,11 @@
       <c r="R84" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T84" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>39</v>
       </c>
@@ -42975,8 +43260,11 @@
       <c r="P85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T85" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>39</v>
       </c>
@@ -43025,8 +43313,11 @@
       <c r="R86" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T86" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>39</v>
       </c>
@@ -43075,8 +43366,11 @@
       <c r="R87" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T87" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>39</v>
       </c>
@@ -43122,8 +43416,11 @@
       <c r="P88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T88" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>39</v>
       </c>
@@ -43172,8 +43469,11 @@
       <c r="R89" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T89" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>39</v>
       </c>
@@ -43219,8 +43519,11 @@
       <c r="P90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T90" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>39</v>
       </c>
@@ -43269,8 +43572,11 @@
       <c r="R91" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T91" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>39</v>
       </c>
@@ -43319,8 +43625,11 @@
       <c r="R92" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="T92" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="6">
         <v>38</v>
       </c>
@@ -43366,8 +43675,11 @@
       <c r="P93" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T93" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>38</v>
       </c>
@@ -43413,8 +43725,11 @@
       <c r="P94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T94" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>38</v>
       </c>
@@ -43460,8 +43775,11 @@
       <c r="P95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T95" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>38</v>
       </c>
@@ -43507,8 +43825,11 @@
       <c r="P96">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T96" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>38</v>
       </c>
@@ -43560,8 +43881,11 @@
       <c r="R97" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T97" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>38</v>
       </c>
@@ -43607,8 +43931,11 @@
       <c r="P98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T98" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>38</v>
       </c>
@@ -43654,8 +43981,11 @@
       <c r="P99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T99" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>38</v>
       </c>
@@ -43701,8 +44031,11 @@
       <c r="P100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T100" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>38</v>
       </c>
@@ -43748,8 +44081,11 @@
       <c r="P101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T101" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>38</v>
       </c>
@@ -43795,8 +44131,11 @@
       <c r="P102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T102" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>38</v>
       </c>
@@ -43842,8 +44181,11 @@
       <c r="P103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T103" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>38</v>
       </c>
@@ -43880,8 +44222,11 @@
       <c r="M104" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T104" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>38</v>
       </c>
@@ -43918,8 +44263,11 @@
       <c r="M105" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T105" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>38</v>
       </c>
@@ -43956,8 +44304,11 @@
       <c r="M106" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T106" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>38</v>
       </c>
@@ -43994,8 +44345,11 @@
       <c r="M107" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T107" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>38</v>
       </c>
@@ -44032,8 +44386,11 @@
       <c r="M108" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T108" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>38</v>
       </c>
@@ -44070,8 +44427,11 @@
       <c r="M109" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T109" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>38</v>
       </c>
@@ -44108,8 +44468,11 @@
       <c r="M110" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T110" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>38</v>
       </c>
@@ -44146,8 +44509,11 @@
       <c r="M111" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T111" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>38</v>
       </c>
@@ -44184,8 +44550,11 @@
       <c r="M112" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T112" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>38</v>
       </c>
@@ -44222,8 +44591,11 @@
       <c r="M113" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="114" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="T113" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="6">
         <v>38</v>
       </c>
@@ -44263,8 +44635,11 @@
       <c r="R114" s="6" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T114" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>38</v>
       </c>
@@ -44301,8 +44676,11 @@
       <c r="M115" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T115" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>38</v>
       </c>
@@ -44339,8 +44717,11 @@
       <c r="M116" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T116" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>38</v>
       </c>
@@ -44377,8 +44758,11 @@
       <c r="M117" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T117" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>38</v>
       </c>
@@ -44415,8 +44799,11 @@
       <c r="M118" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T118" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>38</v>
       </c>
@@ -44453,8 +44840,11 @@
       <c r="M119" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T119" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>38</v>
       </c>
@@ -44491,8 +44881,11 @@
       <c r="M120" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T120" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>38</v>
       </c>
@@ -44526,8 +44919,11 @@
       <c r="R121" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="122" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="T121" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>37</v>
       </c>
@@ -44564,8 +44960,11 @@
       <c r="M122" s="6" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T122" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>37</v>
       </c>
@@ -44602,8 +45001,11 @@
       <c r="M123" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T123" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>37</v>
       </c>
@@ -44640,8 +45042,11 @@
       <c r="M124" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T124" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>37</v>
       </c>
@@ -44678,8 +45083,11 @@
       <c r="M125" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T125" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>37</v>
       </c>
@@ -44716,8 +45124,11 @@
       <c r="M126" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T126" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>37</v>
       </c>
@@ -44754,8 +45165,11 @@
       <c r="M127" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T127" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>37</v>
       </c>
@@ -44795,8 +45209,11 @@
       <c r="R128" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T128" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>37</v>
       </c>
@@ -44833,8 +45250,11 @@
       <c r="M129" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T129" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>37</v>
       </c>
@@ -44871,8 +45291,11 @@
       <c r="M130" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T130" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>37</v>
       </c>
@@ -44909,8 +45332,11 @@
       <c r="M131" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T131" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>37</v>
       </c>
@@ -44947,8 +45373,11 @@
       <c r="M132" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T132" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>37</v>
       </c>
@@ -44985,8 +45414,11 @@
       <c r="M133" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T133" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>37</v>
       </c>
@@ -45023,8 +45455,11 @@
       <c r="M134" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T134" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>37</v>
       </c>
@@ -45061,8 +45496,11 @@
       <c r="M135" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T135" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>37</v>
       </c>
@@ -45099,8 +45537,11 @@
       <c r="M136" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T136" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>37</v>
       </c>
@@ -45137,8 +45578,11 @@
       <c r="M137" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T137" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>37</v>
       </c>
@@ -45175,8 +45619,11 @@
       <c r="M138" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T138" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>37</v>
       </c>
@@ -45216,8 +45663,11 @@
       <c r="R139" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T139" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>37</v>
       </c>
@@ -45254,8 +45704,11 @@
       <c r="M140" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T140" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>37</v>
       </c>
@@ -45292,8 +45745,11 @@
       <c r="M141" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T141" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>37</v>
       </c>
@@ -45330,8 +45786,11 @@
       <c r="M142" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T142" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>37</v>
       </c>
@@ -45368,8 +45827,11 @@
       <c r="M143" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T143" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>37</v>
       </c>
@@ -45406,8 +45868,11 @@
       <c r="M144" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="T144" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="6">
         <v>37</v>
       </c>
@@ -45444,8 +45909,11 @@
       <c r="M145" s="6" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="T145" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>37</v>
       </c>
@@ -45482,8 +45950,11 @@
       <c r="M146" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="T146" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>37</v>
       </c>
@@ -45520,8 +45991,11 @@
       <c r="M147" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="T147" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>37</v>
       </c>
@@ -45558,8 +46032,11 @@
       <c r="M148" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="T148" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>37</v>
       </c>
@@ -45596,8 +46073,11 @@
       <c r="M149" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="T149" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>37</v>
       </c>
@@ -45634,8 +46114,11 @@
       <c r="M150" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="T150" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>37</v>
       </c>
@@ -45672,8 +46155,11 @@
       <c r="M151" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="T151" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>37</v>
       </c>
@@ -45710,8 +46196,11 @@
       <c r="M152" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="T152" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>37</v>
       </c>
@@ -45751,8 +46240,11 @@
       <c r="M153" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="T153" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="6">
         <v>25</v>
       </c>
@@ -45789,8 +46281,11 @@
       <c r="M154" s="6" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="T154" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>25</v>
       </c>
@@ -45827,8 +46322,11 @@
       <c r="M155" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="T155" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>25</v>
       </c>
@@ -45865,8 +46363,11 @@
       <c r="M156" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="T156" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>25</v>
       </c>
@@ -45903,8 +46404,11 @@
       <c r="M157" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="T157" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>25</v>
       </c>
@@ -45941,8 +46445,11 @@
       <c r="M158" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="T158" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>25</v>
       </c>
@@ -45979,8 +46486,11 @@
       <c r="M159" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="T159" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>25</v>
       </c>
@@ -46017,8 +46527,11 @@
       <c r="M160" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T160" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>25</v>
       </c>
@@ -46055,8 +46568,11 @@
       <c r="M161" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T161" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>25</v>
       </c>
@@ -46096,8 +46612,11 @@
       <c r="R162" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T162" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>57</v>
       </c>
@@ -46155,8 +46674,11 @@
       <c r="S163" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="164" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="T163" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A164" s="6">
         <v>26</v>
       </c>
@@ -46214,8 +46736,11 @@
       <c r="S164" s="6" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T164" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>27</v>
       </c>
@@ -46273,8 +46798,11 @@
       <c r="S165" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T165" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>33</v>
       </c>
@@ -46311,8 +46839,11 @@
       <c r="M166" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T166" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>33</v>
       </c>
@@ -46349,8 +46880,11 @@
       <c r="M167" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T167" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>33</v>
       </c>
@@ -46387,8 +46921,11 @@
       <c r="M168" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T168" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>33</v>
       </c>
@@ -46425,8 +46962,11 @@
       <c r="M169" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T169" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>31</v>
       </c>
@@ -46484,8 +47024,11 @@
       <c r="S170" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T170" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>32</v>
       </c>
@@ -46543,8 +47086,11 @@
       <c r="S171" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T171" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>36</v>
       </c>
@@ -46602,8 +47148,11 @@
       <c r="S172" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T172" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>35</v>
       </c>
@@ -46661,8 +47210,11 @@
       <c r="S173" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T173" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>34</v>
       </c>
@@ -46720,8 +47272,11 @@
       <c r="S174" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T174" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>63</v>
       </c>
@@ -46761,8 +47316,11 @@
       <c r="Q175" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T175" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>63</v>
       </c>
@@ -46799,8 +47357,11 @@
       <c r="M176" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T176" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>63</v>
       </c>
@@ -46837,8 +47398,11 @@
       <c r="M177" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T177" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>63</v>
       </c>
@@ -46875,8 +47439,11 @@
       <c r="M178" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T178" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>63</v>
       </c>
@@ -46913,8 +47480,11 @@
       <c r="M179" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T179" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>63</v>
       </c>
@@ -46951,8 +47521,11 @@
       <c r="M180" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T180" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>63</v>
       </c>
@@ -46992,8 +47565,11 @@
       <c r="R181" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T181" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>63</v>
       </c>
@@ -47030,8 +47606,11 @@
       <c r="M182" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T182" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>63</v>
       </c>
@@ -47068,8 +47647,11 @@
       <c r="M183" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T183" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>63</v>
       </c>
@@ -47109,8 +47691,11 @@
       <c r="Q184" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T184" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>63</v>
       </c>
@@ -47150,8 +47735,11 @@
       <c r="N185" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T185" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>63</v>
       </c>
@@ -47188,8 +47776,11 @@
       <c r="M186" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T186" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>63</v>
       </c>
@@ -47226,8 +47817,11 @@
       <c r="M187" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="188" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="T187" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188" s="6">
         <v>63</v>
       </c>
@@ -47264,8 +47858,11 @@
       <c r="M188" s="6" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T188" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>63</v>
       </c>
@@ -47302,8 +47899,11 @@
       <c r="M189" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T189" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>63</v>
       </c>
@@ -47340,8 +47940,11 @@
       <c r="M190" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T190" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>63</v>
       </c>
@@ -47378,8 +47981,11 @@
       <c r="M191" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T191" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>63</v>
       </c>
@@ -47416,8 +48022,11 @@
       <c r="M192" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T192" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>63</v>
       </c>
@@ -47454,8 +48063,11 @@
       <c r="M193" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T193" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>63</v>
       </c>
@@ -47495,8 +48107,11 @@
       <c r="R194" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T194" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>63</v>
       </c>
@@ -47533,8 +48148,11 @@
       <c r="M195" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T195" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>63</v>
       </c>
@@ -47571,8 +48189,11 @@
       <c r="M196" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T196" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>63</v>
       </c>
@@ -47609,8 +48230,11 @@
       <c r="M197" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T197" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>63</v>
       </c>
@@ -47647,8 +48271,11 @@
       <c r="M198" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T198" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>63</v>
       </c>
@@ -47688,8 +48315,11 @@
       <c r="Q199" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T199" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>63</v>
       </c>
@@ -47726,8 +48356,11 @@
       <c r="M200" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T200" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>63</v>
       </c>
@@ -47764,8 +48397,11 @@
       <c r="M201" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T201" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>63</v>
       </c>
@@ -47802,8 +48438,11 @@
       <c r="M202" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T202" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>63</v>
       </c>
@@ -47840,8 +48479,11 @@
       <c r="M203" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T203" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>63</v>
       </c>
@@ -47878,8 +48520,11 @@
       <c r="M204" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T204" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>63</v>
       </c>
@@ -47916,8 +48561,11 @@
       <c r="M205" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T205" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>63</v>
       </c>
@@ -47954,8 +48602,11 @@
       <c r="M206" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T206" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>63</v>
       </c>
@@ -47992,8 +48643,11 @@
       <c r="M207" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T207" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>63</v>
       </c>
@@ -48030,8 +48684,11 @@
       <c r="M208" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="T208" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>63</v>
       </c>
@@ -48068,8 +48725,11 @@
       <c r="M209" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="T209" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>63</v>
       </c>
@@ -48109,8 +48769,11 @@
       <c r="N210" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="T210" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>63</v>
       </c>
@@ -48147,8 +48810,11 @@
       <c r="M211" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="T211" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A212" s="6">
         <v>63</v>
       </c>
@@ -48185,8 +48851,11 @@
       <c r="M212" s="6" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="T212" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>63</v>
       </c>
@@ -48223,8 +48892,11 @@
       <c r="M213" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="T213" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>63</v>
       </c>
@@ -48264,8 +48936,11 @@
       <c r="N214" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="T214" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>63</v>
       </c>
@@ -48302,8 +48977,11 @@
       <c r="M215" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="T215" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>63</v>
       </c>
@@ -48340,8 +49018,11 @@
       <c r="M216" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="T216" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>63</v>
       </c>
@@ -48378,8 +49059,11 @@
       <c r="M217" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="T217" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>63</v>
       </c>
@@ -48416,8 +49100,11 @@
       <c r="M218" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="T218" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>63</v>
       </c>
@@ -48454,8 +49141,11 @@
       <c r="M219" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="T219" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>63</v>
       </c>
@@ -48492,8 +49182,11 @@
       <c r="M220" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="T220" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>63</v>
       </c>
@@ -48533,8 +49226,11 @@
       <c r="N221" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="T221" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>63</v>
       </c>
@@ -48571,8 +49267,11 @@
       <c r="M222" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="T222" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>63</v>
       </c>
@@ -48609,8 +49308,11 @@
       <c r="M223" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="T223" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>63</v>
       </c>
@@ -48647,8 +49349,11 @@
       <c r="M224" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T224" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>63</v>
       </c>
@@ -48688,8 +49393,11 @@
       <c r="R225" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T225" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>63</v>
       </c>
@@ -48726,8 +49434,11 @@
       <c r="M226" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T226" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>63</v>
       </c>
@@ -48764,8 +49475,11 @@
       <c r="M227" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T227" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>63</v>
       </c>
@@ -48808,8 +49522,11 @@
       <c r="Q228" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T228" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>63</v>
       </c>
@@ -48849,8 +49566,11 @@
       <c r="N229" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T229" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>63</v>
       </c>
@@ -48887,8 +49607,11 @@
       <c r="M230" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T230" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>63</v>
       </c>
@@ -48925,8 +49648,11 @@
       <c r="M231" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T231" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>63</v>
       </c>
@@ -48963,8 +49689,11 @@
       <c r="M232" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T232" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>63</v>
       </c>
@@ -49004,8 +49733,11 @@
       <c r="N233" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T233" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>63</v>
       </c>
@@ -49042,8 +49774,11 @@
       <c r="M234" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T234" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>63</v>
       </c>
@@ -49080,8 +49815,11 @@
       <c r="M235" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T235" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>63</v>
       </c>
@@ -49118,8 +49856,11 @@
       <c r="M236" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T236" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>63</v>
       </c>
@@ -49162,8 +49903,11 @@
       <c r="Q237" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T237" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>56</v>
       </c>
@@ -49206,8 +49950,11 @@
       <c r="P238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="T238" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A239" s="13">
         <v>86</v>
       </c>
@@ -49265,8 +50012,11 @@
       <c r="S239" s="13" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T239" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>78</v>
       </c>
@@ -49306,8 +50056,11 @@
       <c r="N240" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="T240" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>78</v>
       </c>
@@ -49347,8 +50100,11 @@
       <c r="N241" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="T241" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>78</v>
       </c>
@@ -49388,8 +50144,11 @@
       <c r="N242" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="T242" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>78</v>
       </c>
@@ -49432,8 +50191,11 @@
       <c r="Q243" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="T243" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>78</v>
       </c>
@@ -49473,8 +50235,11 @@
       <c r="N244" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="T244" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>78</v>
       </c>
@@ -49514,8 +50279,11 @@
       <c r="N245" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="T245" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>78</v>
       </c>
@@ -49558,8 +50326,11 @@
       <c r="Q246" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="T246" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>78</v>
       </c>
@@ -49599,8 +50370,11 @@
       <c r="N247" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="T247" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="248" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>78</v>
       </c>
@@ -49640,8 +50414,11 @@
       <c r="N248" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="T248" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>78</v>
       </c>
@@ -49681,8 +50458,11 @@
       <c r="N249" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="T249" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>78</v>
       </c>
@@ -49722,8 +50502,11 @@
       <c r="N250" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="T250" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>78</v>
       </c>
@@ -49766,8 +50549,11 @@
       <c r="Q251" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="T251" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>78</v>
       </c>
@@ -49807,8 +50593,11 @@
       <c r="N252" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="T252" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>78</v>
       </c>
@@ -49848,8 +50637,11 @@
       <c r="N253" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="T253" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="254" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>78</v>
       </c>
@@ -49892,8 +50684,11 @@
       <c r="Q254" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="T254" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>76</v>
       </c>
@@ -49933,8 +50728,11 @@
       <c r="N255" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="T255" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="256" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>76</v>
       </c>
@@ -49974,8 +50772,11 @@
       <c r="N256" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T256" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="257" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>73</v>
       </c>
@@ -50033,8 +50834,11 @@
       <c r="S257" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T257" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>74</v>
       </c>
@@ -50092,8 +50896,11 @@
       <c r="S258" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T258" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="259" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>662</v>
       </c>
@@ -50133,8 +50940,11 @@
       <c r="Q259" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T259" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>662</v>
       </c>
@@ -50174,8 +50984,11 @@
       <c r="R260" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T260" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="261" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>662</v>
       </c>
@@ -50212,8 +51025,11 @@
       <c r="N261" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T261" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="262" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>662</v>
       </c>
@@ -50250,8 +51066,11 @@
       <c r="N262" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T262" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="263" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>663</v>
       </c>
@@ -50309,8 +51128,11 @@
       <c r="S263" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T263" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>77</v>
       </c>
@@ -50368,8 +51190,11 @@
       <c r="S264" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T264" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>109</v>
       </c>
@@ -50409,8 +51234,11 @@
       <c r="N265" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T265" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>109</v>
       </c>
@@ -50450,8 +51278,11 @@
       <c r="N266" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T266" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="267" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>100</v>
       </c>
@@ -50509,8 +51340,11 @@
       <c r="S267" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T267" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="268" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>112</v>
       </c>
@@ -50550,8 +51384,11 @@
       <c r="N268" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T268" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>113</v>
       </c>
@@ -50591,8 +51428,11 @@
       <c r="N269" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T269" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="270" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>113</v>
       </c>
@@ -50632,8 +51472,11 @@
       <c r="N270" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T270" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="271" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>113</v>
       </c>
@@ -50676,8 +51519,11 @@
       <c r="R271" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T271" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="272" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>114</v>
       </c>
@@ -50717,8 +51563,11 @@
       <c r="N272" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T272" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="273" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>114</v>
       </c>
@@ -50758,8 +51607,11 @@
       <c r="N273" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T273" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>114</v>
       </c>
@@ -50799,8 +51651,11 @@
       <c r="N274" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T274" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>110</v>
       </c>
@@ -50858,8 +51713,11 @@
       <c r="S275" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T275" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="276" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>111</v>
       </c>
@@ -50899,8 +51757,11 @@
       <c r="N276" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T276" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="277" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>69</v>
       </c>
@@ -50958,8 +51819,11 @@
       <c r="S277" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T277" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="278" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>68</v>
       </c>
@@ -51017,8 +51881,11 @@
       <c r="S278" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T278" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="279" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>70</v>
       </c>
@@ -51064,8 +51931,11 @@
       <c r="R279" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T279" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="280" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>70</v>
       </c>
@@ -51111,8 +51981,11 @@
       <c r="Q280" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T280" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>70</v>
       </c>
@@ -51158,8 +52031,11 @@
       <c r="Q281" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T281" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="282" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>71</v>
       </c>
@@ -51199,8 +52075,11 @@
       <c r="N282" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T282" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="283" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>71</v>
       </c>
@@ -51240,8 +52119,11 @@
       <c r="N283" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T283" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="284" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>71</v>
       </c>
@@ -51281,8 +52163,11 @@
       <c r="N284" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T284" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="285" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>71</v>
       </c>
@@ -51325,8 +52210,11 @@
       <c r="N285" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T285" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>71</v>
       </c>
@@ -51366,8 +52254,11 @@
       <c r="N286" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T286" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>71</v>
       </c>
@@ -51407,8 +52298,11 @@
       <c r="N287" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T287" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>71</v>
       </c>
@@ -51448,8 +52342,11 @@
       <c r="R288" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T288" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="289" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>71</v>
       </c>
@@ -51495,8 +52392,11 @@
       <c r="R289" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T289" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>71</v>
       </c>
@@ -51542,8 +52442,11 @@
       <c r="R290" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T290" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="291" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>67</v>
       </c>
@@ -51601,8 +52504,11 @@
       <c r="S291" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T291" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="292" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>55</v>
       </c>
@@ -51660,8 +52566,11 @@
       <c r="S292" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="293" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="T292" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="293" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A293" s="6">
         <v>40</v>
       </c>
@@ -51719,8 +52628,11 @@
       <c r="S293" s="6" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T293" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="294" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>44</v>
       </c>
@@ -51760,8 +52672,11 @@
       <c r="N294" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T294" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="295" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>43</v>
       </c>
@@ -51819,8 +52734,11 @@
       <c r="S295" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T295" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="296" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>45</v>
       </c>
@@ -51878,8 +52796,11 @@
       <c r="S296" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T296" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="297" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>41</v>
       </c>
@@ -51937,8 +52858,11 @@
       <c r="S297" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T297" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="298" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>42</v>
       </c>
@@ -51984,8 +52908,11 @@
       <c r="R298" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="299" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="T298" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="299" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A299" s="11">
         <v>85</v>
       </c>
@@ -52001,8 +52928,11 @@
       <c r="Q299" s="11" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T299" s="11" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="300" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>85</v>
       </c>
@@ -52042,8 +52972,11 @@
       <c r="N300" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T300" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="301" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>87</v>
       </c>
@@ -52086,8 +53019,11 @@
       <c r="Q301" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T301" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="302" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>87</v>
       </c>
@@ -52130,8 +53066,11 @@
       <c r="N302" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T302" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="303" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>87</v>
       </c>
@@ -52174,8 +53113,11 @@
       <c r="Q303" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T303" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="304" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>88</v>
       </c>
@@ -52233,8 +53175,11 @@
       <c r="S304" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T304" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="305" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>89</v>
       </c>
@@ -52292,8 +53237,11 @@
       <c r="S305" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T305" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="306" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>90</v>
       </c>
@@ -52351,8 +53299,11 @@
       <c r="S306" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="307" spans="1:19" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T306" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="307" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>82</v>
       </c>
@@ -52395,8 +53346,11 @@
       <c r="R307" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="308" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T307" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="308" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>83</v>
       </c>
@@ -52454,8 +53408,11 @@
       <c r="S308" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="309" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T308" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="309" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>84</v>
       </c>
@@ -52495,8 +53452,11 @@
       <c r="N309" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="310" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T309" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="310" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>58</v>
       </c>
@@ -52539,8 +53499,11 @@
       <c r="R310" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="311" spans="1:19" s="6" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T310" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="311" spans="1:20" s="6" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="6">
         <v>16</v>
       </c>
@@ -52586,8 +53549,11 @@
       <c r="Q311" s="6" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T311" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="312" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>16</v>
       </c>
@@ -52633,8 +53599,11 @@
       <c r="Q312" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T312" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="313" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>18</v>
       </c>
@@ -52674,8 +53643,11 @@
       <c r="N313" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T313" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="314" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>18</v>
       </c>
@@ -52715,8 +53687,11 @@
       <c r="N314" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T314" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="315" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>18</v>
       </c>
@@ -52756,8 +53731,11 @@
       <c r="N315" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T315" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="316" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>18</v>
       </c>
@@ -52797,8 +53775,11 @@
       <c r="N316" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T316" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="317" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>18</v>
       </c>
@@ -52838,8 +53819,11 @@
       <c r="N317" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T317" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="318" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>18</v>
       </c>
@@ -52879,8 +53863,11 @@
       <c r="N318" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T318" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="319" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>18</v>
       </c>
@@ -52920,8 +53907,11 @@
       <c r="N319" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T319" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="320" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>18</v>
       </c>
@@ -52961,8 +53951,11 @@
       <c r="N320" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T320" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="321" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>18</v>
       </c>
@@ -53002,8 +53995,11 @@
       <c r="N321" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T321" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="322" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>18</v>
       </c>
@@ -53052,8 +54048,11 @@
       <c r="R322" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T322" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="323" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>18</v>
       </c>
@@ -53096,8 +54095,11 @@
       <c r="R323" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T323" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="324" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>18</v>
       </c>
@@ -53137,8 +54139,11 @@
       <c r="N324" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T324" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="325" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>18</v>
       </c>
@@ -53178,8 +54183,11 @@
       <c r="N325" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T325" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="326" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>18</v>
       </c>
@@ -53219,8 +54227,11 @@
       <c r="N326" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T326" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="327" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>18</v>
       </c>
@@ -53263,8 +54274,11 @@
       <c r="R327" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T327" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="328" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>18</v>
       </c>
@@ -53304,8 +54318,11 @@
       <c r="N328" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T328" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="329" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>18</v>
       </c>
@@ -53354,8 +54371,11 @@
       <c r="R329" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T329" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="330" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>30</v>
       </c>
@@ -53413,8 +54433,11 @@
       <c r="S330" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T330" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="331" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>29</v>
       </c>
@@ -53472,8 +54495,11 @@
       <c r="S331" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T331" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="332" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>28</v>
       </c>
@@ -53531,8 +54557,11 @@
       <c r="S332" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="333" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="T332" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="333" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A333" s="6">
         <v>72</v>
       </c>
@@ -53572,8 +54601,11 @@
       <c r="N333" s="6" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T333" s="6" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="334" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>72</v>
       </c>
@@ -53616,8 +54648,11 @@
       <c r="R334" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T334" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="335" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>72</v>
       </c>
@@ -53657,8 +54692,11 @@
       <c r="N335" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T335" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="336" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>72</v>
       </c>
@@ -53698,8 +54736,11 @@
       <c r="N336" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T336" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="337" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>72</v>
       </c>
@@ -53739,8 +54780,11 @@
       <c r="N337" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T337" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="338" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>72</v>
       </c>
@@ -53780,8 +54824,11 @@
       <c r="N338" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T338" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="339" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>72</v>
       </c>
@@ -53824,8 +54871,11 @@
       <c r="R339" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T339" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="340" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>72</v>
       </c>
@@ -53865,8 +54915,11 @@
       <c r="N340" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T340" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="341" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>72</v>
       </c>
@@ -53906,8 +54959,11 @@
       <c r="N341" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T341" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="342" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>72</v>
       </c>
@@ -53948,7 +55004,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>72</v>
       </c>
@@ -53988,8 +55044,11 @@
       <c r="N343" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T343" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="344" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>72</v>
       </c>
@@ -54032,8 +55091,11 @@
       <c r="R344" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T344" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="345" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>72</v>
       </c>
@@ -54073,8 +55135,11 @@
       <c r="N345" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T345" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="346" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>72</v>
       </c>
@@ -54117,8 +55182,11 @@
       <c r="R346" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T346" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="347" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>72</v>
       </c>
@@ -54158,8 +55226,11 @@
       <c r="N347" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T347" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="348" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>72</v>
       </c>
@@ -54199,8 +55270,11 @@
       <c r="N348" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T348" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="349" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>72</v>
       </c>
@@ -54240,8 +55314,11 @@
       <c r="N349" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T349" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="350" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>72</v>
       </c>
@@ -54281,8 +55358,11 @@
       <c r="N350" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T350" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="351" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>72</v>
       </c>
@@ -54322,8 +55402,11 @@
       <c r="N351" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T351" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="352" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>72</v>
       </c>
@@ -54363,8 +55446,11 @@
       <c r="N352" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T352" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="353" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>72</v>
       </c>
@@ -54404,8 +55490,11 @@
       <c r="N353" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T353" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="354" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>72</v>
       </c>
@@ -54445,8 +55534,11 @@
       <c r="N354" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T354" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="355" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>72</v>
       </c>
@@ -54489,8 +55581,11 @@
       <c r="R355" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T355" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="356" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>72</v>
       </c>
@@ -54530,8 +55625,11 @@
       <c r="N356" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T356" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="357" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>72</v>
       </c>
@@ -54571,8 +55669,11 @@
       <c r="N357" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="358" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="T357" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="358" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A358" s="6">
         <v>72</v>
       </c>
@@ -54615,8 +55716,11 @@
       <c r="R358" s="6" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T358" s="6" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="359" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>72</v>
       </c>
@@ -54656,8 +55760,11 @@
       <c r="N359" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T359" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="360" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>72</v>
       </c>
@@ -54697,8 +55804,11 @@
       <c r="N360" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T360" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="361" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>72</v>
       </c>
@@ -54738,8 +55848,11 @@
       <c r="N361" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T361" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="362" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>72</v>
       </c>
@@ -54782,8 +55895,11 @@
       <c r="R362" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T362" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="363" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>72</v>
       </c>
@@ -54823,8 +55939,11 @@
       <c r="N363" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T363" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="364" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>72</v>
       </c>
@@ -54864,8 +55983,11 @@
       <c r="N364" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T364" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="365" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>72</v>
       </c>
@@ -54905,8 +56027,11 @@
       <c r="N365" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T365" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="366" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>72</v>
       </c>
@@ -54946,8 +56071,11 @@
       <c r="N366" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T366" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="367" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>72</v>
       </c>
@@ -54987,8 +56115,11 @@
       <c r="N367" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T367" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="368" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>72</v>
       </c>
@@ -55028,8 +56159,11 @@
       <c r="N368" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T368" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="369" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>72</v>
       </c>
@@ -55069,8 +56203,11 @@
       <c r="N369" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T369" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="370" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>72</v>
       </c>
@@ -55110,8 +56247,11 @@
       <c r="N370" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T370" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="371" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>72</v>
       </c>
@@ -55151,8 +56291,11 @@
       <c r="N371" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T371" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="372" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>72</v>
       </c>
@@ -55192,8 +56335,11 @@
       <c r="N372" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T372" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="373" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>72</v>
       </c>
@@ -55233,8 +56379,11 @@
       <c r="N373" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T373" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="374" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>72</v>
       </c>
@@ -55274,8 +56423,11 @@
       <c r="N374" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T374" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="375" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>72</v>
       </c>
@@ -55315,8 +56467,11 @@
       <c r="N375" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T375" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="376" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>72</v>
       </c>
@@ -55356,8 +56511,11 @@
       <c r="N376" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T376" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="377" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>72</v>
       </c>
@@ -55397,8 +56555,11 @@
       <c r="N377" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T377" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="378" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>72</v>
       </c>
@@ -55438,8 +56599,11 @@
       <c r="N378" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T378" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="379" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>72</v>
       </c>
@@ -55482,8 +56646,11 @@
       <c r="R379" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T379" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="380" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>72</v>
       </c>
@@ -55523,8 +56690,11 @@
       <c r="N380" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T380" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="381" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>72</v>
       </c>
@@ -55564,8 +56734,11 @@
       <c r="N381" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="382" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="T381" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="382" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A382" s="6">
         <v>60</v>
       </c>
@@ -55605,8 +56778,11 @@
       <c r="N382" s="6" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T382" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="383" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>60</v>
       </c>
@@ -55646,8 +56822,11 @@
       <c r="N383" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T383" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="384" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>60</v>
       </c>
@@ -55687,8 +56866,11 @@
       <c r="N384" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T384" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="385" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>60</v>
       </c>
@@ -55734,8 +56916,11 @@
       <c r="Q385" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="386" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="T385" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="386" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A386" s="6">
         <v>72</v>
       </c>
@@ -55781,8 +56966,11 @@
       <c r="R386" s="6" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T386" s="6" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="387" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>72</v>
       </c>
@@ -55828,8 +57016,11 @@
       <c r="R387" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T387" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="388" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>72</v>
       </c>
@@ -55872,8 +57063,11 @@
       <c r="N388" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T388" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="389" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>72</v>
       </c>
@@ -55919,8 +57113,11 @@
       <c r="R389" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T389" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="390" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>72</v>
       </c>
@@ -55963,8 +57160,11 @@
       <c r="N390" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T390" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="391" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>80</v>
       </c>
@@ -56010,8 +57210,11 @@
       <c r="Q391" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T391" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="392" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>79</v>
       </c>
@@ -56069,8 +57272,11 @@
       <c r="S392" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T392" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="393" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>81</v>
       </c>
@@ -56128,8 +57334,11 @@
       <c r="S393" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T393" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="394" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>10</v>
       </c>
@@ -56187,8 +57396,11 @@
       <c r="S394" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T394" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="395" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>11</v>
       </c>
@@ -56246,8 +57458,11 @@
       <c r="S395" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T395" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="396" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>12</v>
       </c>
@@ -56305,8 +57520,11 @@
       <c r="S396" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T396" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="397" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>5</v>
       </c>
@@ -56352,8 +57570,11 @@
       <c r="R397" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T397" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="398" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>5</v>
       </c>
@@ -56399,8 +57620,11 @@
       <c r="R398" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T398" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="399" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>15</v>
       </c>
@@ -56458,8 +57682,11 @@
       <c r="S399" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T399" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="400" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>13</v>
       </c>
@@ -56517,8 +57744,11 @@
       <c r="S400" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T400" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="401" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>14</v>
       </c>
@@ -56576,8 +57806,11 @@
       <c r="S401" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T401" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="402" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>7</v>
       </c>
@@ -56635,8 +57868,11 @@
       <c r="S402" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T402" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="403" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>9</v>
       </c>
@@ -56694,8 +57930,11 @@
       <c r="S403" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T403" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="404" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>8</v>
       </c>
@@ -56753,8 +57992,11 @@
       <c r="S404" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T404" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="405" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>21</v>
       </c>
@@ -56812,8 +58054,11 @@
       <c r="S405" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T405" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="406" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>19</v>
       </c>
@@ -56871,8 +58116,11 @@
       <c r="S406" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T406" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="407" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>20</v>
       </c>
@@ -56930,8 +58178,11 @@
       <c r="S407" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T407" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="408" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>62</v>
       </c>
@@ -56971,8 +58222,11 @@
       <c r="N408" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T408" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="409" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>62</v>
       </c>
@@ -57012,8 +58266,11 @@
       <c r="N409" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T409" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="410" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>62</v>
       </c>
@@ -57056,8 +58313,11 @@
       <c r="R410" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T410" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="411" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>62</v>
       </c>
@@ -57097,8 +58357,11 @@
       <c r="N411" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T411" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="412" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>62</v>
       </c>
@@ -57138,8 +58401,11 @@
       <c r="N412" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T412" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="413" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>62</v>
       </c>
@@ -57179,8 +58445,11 @@
       <c r="N413" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T413" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="414" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>62</v>
       </c>
@@ -57220,8 +58489,11 @@
       <c r="N414" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T414" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="415" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>62</v>
       </c>
@@ -57261,8 +58533,11 @@
       <c r="N415" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T415" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="416" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>59</v>
       </c>
@@ -57311,8 +58586,11 @@
       <c r="R416" t="s">
         <v>1034</v>
       </c>
-    </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T416" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="417" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>101</v>
       </c>
@@ -57370,8 +58648,11 @@
       <c r="S417" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="418" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="T417" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="418" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A418" s="6">
         <v>22</v>
       </c>
@@ -57420,8 +58701,11 @@
       <c r="R418" s="6" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T418" s="6" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="419" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>22</v>
       </c>
@@ -57464,8 +58748,11 @@
       <c r="R419" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T419" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="420" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>22</v>
       </c>
@@ -57505,8 +58792,11 @@
       <c r="N420" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T420" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="421" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>22</v>
       </c>
@@ -57549,8 +58839,11 @@
       <c r="R421" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T421" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="422" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>22</v>
       </c>
@@ -57590,8 +58883,11 @@
       <c r="N422" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T422" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="423" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>22</v>
       </c>
@@ -57634,8 +58930,11 @@
       <c r="R423" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T423" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="424" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>22</v>
       </c>
@@ -57681,8 +58980,11 @@
       <c r="R424" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T424" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="425" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>22</v>
       </c>
@@ -57722,8 +59024,11 @@
       <c r="N425" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T425" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="426" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>22</v>
       </c>
@@ -57763,8 +59068,11 @@
       <c r="N426" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T426" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="427" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>22</v>
       </c>
@@ -57813,8 +59121,11 @@
       <c r="R427" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T427" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="428" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>22</v>
       </c>
@@ -57854,8 +59165,11 @@
       <c r="N428" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T428" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="429" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>22</v>
       </c>
@@ -57895,8 +59209,11 @@
       <c r="N429" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T429" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="430" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>22</v>
       </c>
@@ -57942,8 +59259,11 @@
       <c r="R430" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T430" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="431" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>17</v>
       </c>
@@ -58001,8 +59321,11 @@
       <c r="S431" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T431" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="432" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>64</v>
       </c>
@@ -58045,8 +59368,11 @@
       <c r="R432" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="433" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T432" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="433" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>64</v>
       </c>
@@ -58089,8 +59415,11 @@
       <c r="R433" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="434" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T433" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="434" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>65</v>
       </c>
@@ -58136,8 +59465,11 @@
       <c r="Q434" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="435" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T434" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="435" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>65</v>
       </c>
@@ -58180,8 +59512,11 @@
       <c r="Q435" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="436" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T435" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="436" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>65</v>
       </c>
@@ -58221,8 +59556,11 @@
       <c r="N436" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="437" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T436" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="437" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>65</v>
       </c>
@@ -58265,8 +59603,11 @@
       <c r="R437" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="438" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T437" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="438" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>65</v>
       </c>
@@ -58306,8 +59647,11 @@
       <c r="N438" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="439" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T438" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="439" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>65</v>
       </c>
@@ -58347,8 +59691,11 @@
       <c r="N439" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="440" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T439" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="440" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>65</v>
       </c>
@@ -58391,8 +59738,11 @@
       <c r="R440" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="441" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T440" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="441" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>65</v>
       </c>
@@ -58432,8 +59782,11 @@
       <c r="N441" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="442" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T441" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="442" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>24</v>
       </c>
@@ -58473,8 +59826,11 @@
       <c r="N442" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="443" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="T442" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="443" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A443" s="6">
         <v>24</v>
       </c>
@@ -58514,8 +59870,11 @@
       <c r="N443" s="6" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="444" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T443" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="444" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>24</v>
       </c>
@@ -58555,8 +59914,11 @@
       <c r="N444" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="445" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T444" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="445" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>24</v>
       </c>
@@ -58596,8 +59958,11 @@
       <c r="N445" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="446" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T445" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="446" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>24</v>
       </c>
@@ -58637,8 +60002,11 @@
       <c r="N446" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="447" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T446" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="447" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>24</v>
       </c>
@@ -58681,8 +60049,11 @@
       <c r="R447" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="448" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T447" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="448" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>24</v>
       </c>
@@ -58722,8 +60093,11 @@
       <c r="N448" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="449" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T448" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="449" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>24</v>
       </c>
@@ -58763,8 +60137,11 @@
       <c r="N449" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="450" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T449" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="450" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>24</v>
       </c>
@@ -58807,8 +60184,11 @@
       <c r="R450" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="451" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T450" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="451" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>24</v>
       </c>
@@ -58848,8 +60228,11 @@
       <c r="N451" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="452" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T451" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="452" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>24</v>
       </c>
@@ -58889,8 +60272,11 @@
       <c r="N452" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="453" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T452" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="453" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>24</v>
       </c>
@@ -58930,8 +60316,11 @@
       <c r="N453" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="454" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T453" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="454" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>24</v>
       </c>
@@ -58974,8 +60363,11 @@
       <c r="R454" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="455" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T454" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="455" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>24</v>
       </c>
@@ -59018,8 +60410,11 @@
       <c r="R455" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="456" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T455" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="456" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>24</v>
       </c>
@@ -59059,8 +60454,11 @@
       <c r="N456" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="457" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T456" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="457" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>24</v>
       </c>
@@ -59100,8 +60498,11 @@
       <c r="N457" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="458" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T457" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="458" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>24</v>
       </c>
@@ -59141,8 +60542,11 @@
       <c r="N458" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="459" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T458" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="459" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>24</v>
       </c>
@@ -59182,8 +60586,11 @@
       <c r="N459" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="460" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T459" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="460" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>24</v>
       </c>
@@ -59223,8 +60630,11 @@
       <c r="N460" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="461" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T460" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="461" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>24</v>
       </c>
@@ -59264,8 +60674,11 @@
       <c r="N461" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="462" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T461" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="462" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>24</v>
       </c>
@@ -59305,8 +60718,11 @@
       <c r="N462" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="463" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T462" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="463" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>24</v>
       </c>
@@ -59346,8 +60762,11 @@
       <c r="N463" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="464" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T463" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="464" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>24</v>
       </c>
@@ -59387,8 +60806,11 @@
       <c r="N464" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T464" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="465" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>24</v>
       </c>
@@ -59428,8 +60850,11 @@
       <c r="N465" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T465" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="466" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>24</v>
       </c>
@@ -59469,8 +60894,11 @@
       <c r="N466" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T466" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="467" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>24</v>
       </c>
@@ -59513,8 +60941,11 @@
       <c r="R467" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="468" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="T467" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="468" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A468" s="6">
         <v>24</v>
       </c>
@@ -59554,8 +60985,11 @@
       <c r="N468" s="6" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T468" s="6" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="469" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>24</v>
       </c>
@@ -59598,8 +61032,11 @@
       <c r="R469" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T469" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="470" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>24</v>
       </c>
@@ -59639,8 +61076,11 @@
       <c r="N470" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T470" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="471" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>24</v>
       </c>
@@ -59680,8 +61120,11 @@
       <c r="N471" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T471" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="472" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>24</v>
       </c>
@@ -59721,8 +61164,11 @@
       <c r="N472" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T472" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="473" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>24</v>
       </c>
@@ -59762,8 +61208,11 @@
       <c r="N473" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T473" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="474" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>24</v>
       </c>
@@ -59803,8 +61252,11 @@
       <c r="N474" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T474" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="475" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>24</v>
       </c>
@@ -59844,8 +61296,11 @@
       <c r="N475" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T475" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="476" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>24</v>
       </c>
@@ -59885,8 +61340,11 @@
       <c r="N476" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T476" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="477" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>102</v>
       </c>
@@ -59944,9 +61402,17 @@
       <c r="S477" t="s">
         <v>477</v>
       </c>
+      <c r="T477" t="s">
+        <v>477</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="54" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Raw_data/EAB_Michigan_2024_raw_data_photos_removed.xlsx
+++ b/Raw_data/EAB_Michigan_2024_raw_data_photos_removed.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/EAB_Michigan_2024_2025_github_folder/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5288" documentId="8_{E6A25E5A-660E-410D-80FD-02C42A3E01DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01B87D4C-E533-4FE7-846B-7E63311E8329}"/>
+  <xr:revisionPtr revIDLastSave="5291" documentId="8_{E6A25E5A-660E-410D-80FD-02C42A3E01DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE98A1F4-D8F4-4A6C-A8F9-7B0691E38A7F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="4" r:id="rId1"/>
@@ -3512,18 +3512,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -3848,7 +3843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D88F145-B9A5-4ED2-BA4E-B069605466DD}">
   <dimension ref="A1:B119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+    <sheetView topLeftCell="A108" workbookViewId="0">
       <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
@@ -9565,21 +9560,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M1:O1048576">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"n"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"n"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:O1048576">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",M2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",M2)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -38507,32 +38502,32 @@
   </sheetPr>
   <dimension ref="A1:T477"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.90625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="4.1796875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="6" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.90625" customWidth="1"/>
+    <col min="2" max="2" width="4.1796875" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="15.6328125" customWidth="1"/>
-    <col min="6" max="6" width="5.453125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" customWidth="1"/>
     <col min="7" max="7" width="4.54296875" customWidth="1"/>
-    <col min="8" max="8" width="5.1796875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="5" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="5.1796875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7.08984375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1796875" customWidth="1"/>
+    <col min="9" max="9" width="5" customWidth="1"/>
+    <col min="10" max="10" width="5.1796875" customWidth="1"/>
+    <col min="11" max="11" width="7.08984375" customWidth="1"/>
     <col min="12" max="12" width="7.54296875" customWidth="1"/>
     <col min="13" max="13" width="6.08984375" customWidth="1"/>
-    <col min="14" max="14" width="5.26953125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="5.7265625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="4.81640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="22.26953125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="5.26953125" customWidth="1"/>
+    <col min="15" max="15" width="5.7265625" customWidth="1"/>
+    <col min="16" max="16" width="4.81640625" customWidth="1"/>
+    <col min="17" max="17" width="22.26953125" customWidth="1"/>
     <col min="18" max="18" width="29.26953125" customWidth="1"/>
-    <col min="19" max="19" width="4.08984375" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="4.08984375" customWidth="1"/>
     <col min="20" max="20" width="12.08984375" customWidth="1"/>
     <col min="21" max="21" width="21.1796875" customWidth="1"/>
   </cols>

--- a/Raw_data/EAB_Michigan_2024_raw_data_photos_removed.xlsx
+++ b/Raw_data/EAB_Michigan_2024_raw_data_photos_removed.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/EAB_Michigan_2024_2025_github_folder/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5499" documentId="8_{E6A25E5A-660E-410D-80FD-02C42A3E01DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7C9BA54-1A9F-49BB-9E89-5E82C75B72BF}"/>
+  <xr:revisionPtr revIDLastSave="5508" documentId="8_{E6A25E5A-660E-410D-80FD-02C42A3E01DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FFD9704-F160-4BD2-8BCC-B242DA4C2CED}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12052" uniqueCount="1117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12056" uniqueCount="1119">
   <si>
     <t>center_tree_number</t>
   </si>
@@ -3395,6 +3395,12 @@
   </si>
   <si>
     <t>green_white_pumpkin_ash_present_y_n</t>
+  </si>
+  <si>
+    <t>yes or no question: were black ash seedlings found?</t>
+  </si>
+  <si>
+    <t>yes or no question: were green, white, or pumpkin ash seedlings found?</t>
   </si>
 </sst>
 </file>
@@ -3847,10 +3853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D88F145-B9A5-4ED2-BA4E-B069605466DD}">
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4057,7 +4063,7 @@
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>544</v>
       </c>
@@ -4065,17 +4071,17 @@
         <v>543</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
@@ -4083,485 +4089,505 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+    <row r="41" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+    <row r="42" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+    <row r="45" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A46" s="7" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>1098</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>546</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
+    <row r="57" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>548</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
+    <row r="65" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
+    <row r="66" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
+    <row r="68" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="7" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="7" t="s">
         <v>550</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>551</v>
+        <v>456</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>18</v>
+        <v>592</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>465</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>553</v>
+        <v>480</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>554</v>
+        <v>468</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>476</v>
+        <v>460</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>549</v>
+        <v>476</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>510</v>
+        <v>462</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>463</v>
+        <v>30</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>464</v>
+        <v>510</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>20</v>
+        <v>463</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>35</v>
+        <v>464</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
+    <row r="96" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
+    <row r="97" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="7" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="7" t="s">
         <v>603</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>590</v>
+        <v>458</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>605</v>
+        <v>457</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="1"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="7" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="7" t="s">
         <v>604</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>590</v>
+        <v>458</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>606</v>
+        <v>457</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>607</v>
+        <v>590</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
         <v>591</v>
       </c>
     </row>
@@ -26731,8 +26757,8 @@
   <dimension ref="A1:N397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D403" sqref="D403"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27692,7 +27718,7 @@
         <v>441</v>
       </c>
       <c r="L57">
-        <v>0.3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">

--- a/Raw_data/EAB_Michigan_2024_raw_data_photos_removed.xlsx
+++ b/Raw_data/EAB_Michigan_2024_raw_data_photos_removed.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/EAB_Michigan_2024_2025_github_folder/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5508" documentId="8_{E6A25E5A-660E-410D-80FD-02C42A3E01DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FFD9704-F160-4BD2-8BCC-B242DA4C2CED}"/>
+  <xr:revisionPtr revIDLastSave="6781" documentId="8_{E6A25E5A-660E-410D-80FD-02C42A3E01DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3ED7A29-EFB9-4B3A-90EB-239FFEF15436}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="4" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="trap locations 2024" sheetId="6" r:id="rId6"/>
     <sheet name="EAB trap collection 2024" sheetId="8" r:id="rId7"/>
     <sheet name="yellow pan trap collection 2024" sheetId="9" r:id="rId8"/>
+    <sheet name="Yellow pan trap counts 2024" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12056" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12735" uniqueCount="1150">
   <si>
     <t>center_tree_number</t>
   </si>
@@ -3401,6 +3402,99 @@
   </si>
   <si>
     <t>yes or no question: were green, white, or pumpkin ash seedlings found?</t>
+  </si>
+  <si>
+    <t>Chrysidoidea</t>
+  </si>
+  <si>
+    <t>Formicidae</t>
+  </si>
+  <si>
+    <t>Vespoidea_except_Formicidae</t>
+  </si>
+  <si>
+    <t>Pompilloidea</t>
+  </si>
+  <si>
+    <t>Apoidea</t>
+  </si>
+  <si>
+    <t>Ichneumonoidea_Ichneumonidae</t>
+  </si>
+  <si>
+    <t>Ichneumonoidea_Braconidae</t>
+  </si>
+  <si>
+    <t>Cynipoidea</t>
+  </si>
+  <si>
+    <t>Proctotrupoidea</t>
+  </si>
+  <si>
+    <t>Platygastroidea</t>
+  </si>
+  <si>
+    <t>Ceraphronoidea</t>
+  </si>
+  <si>
+    <t>Chalcidoidea_Mymaridae</t>
+  </si>
+  <si>
+    <t>Chalcidoidea_Encyrtidae</t>
+  </si>
+  <si>
+    <t>Chalcidoidea_other</t>
+  </si>
+  <si>
+    <t>Total_Hymenoptera</t>
+  </si>
+  <si>
+    <t>Hymenoptera_unknown</t>
+  </si>
+  <si>
+    <t>Total_arthropods_except_Hymenoptera</t>
+  </si>
+  <si>
+    <t>Diptera</t>
+  </si>
+  <si>
+    <t>Hemiptera</t>
+  </si>
+  <si>
+    <t>Lepidoptera</t>
+  </si>
+  <si>
+    <t>Coleoptera</t>
+  </si>
+  <si>
+    <t>Other_arthropods</t>
+  </si>
+  <si>
+    <t>Symphyta</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Completed_sorting_y_n</t>
+  </si>
+  <si>
+    <t>Possible Spathius agrili</t>
+  </si>
+  <si>
+    <t>Total_Chalcidoidea</t>
+  </si>
+  <si>
+    <t>Unknown Hymenoptera is possibly Aulacidae</t>
+  </si>
+  <si>
+    <t>Possible Tetrastichus planipennisi</t>
+  </si>
+  <si>
+    <t>Found possibly a native Oobius</t>
+  </si>
+  <si>
+    <t>Possible Spathius agrili or galinae AND possible Oobius agrili</t>
   </si>
 </sst>
 </file>
@@ -3437,7 +3531,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3480,6 +3574,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3493,7 +3593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3520,6 +3620,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -26756,7 +26857,7 @@
   </sheetPr>
   <dimension ref="A1:N397"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M59" sqref="M59"/>
     </sheetView>
@@ -62046,8 +62147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8119E6BF-C4C5-438C-90A2-4DB239ACB6A8}">
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -63310,80 +63411,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="17" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="6">
         <v>53</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <v>101</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="6">
         <v>162</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="6">
         <v>42</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="6">
         <v>40.656999999999996</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="6">
         <v>-83</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="6">
         <v>-29.094000000000001</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="6">
         <v>5</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="6">
         <v>3.2</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="6">
         <v>3</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="R17" t="s">
-        <v>477</v>
-      </c>
-      <c r="U17" t="s">
-        <v>441</v>
-      </c>
-      <c r="V17" t="s">
-        <v>441</v>
-      </c>
-      <c r="W17" t="s">
-        <v>442</v>
-      </c>
-      <c r="X17" t="s">
-        <v>442</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>442</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="s">
+      <c r="R17" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y17" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="6" t="s">
         <v>516</v>
       </c>
     </row>
@@ -63600,74 +63701,74 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="21" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="6">
         <v>53</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="6">
         <v>105</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="6">
         <v>42</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="6">
         <v>40.655000000000001</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="6">
         <v>-83</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="6">
         <v>-29.113</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="6">
         <v>5</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="6">
         <v>3.1</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="6">
         <v>3</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="Q21" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="R21" t="s">
-        <v>477</v>
-      </c>
-      <c r="U21" t="s">
-        <v>442</v>
-      </c>
-      <c r="V21" t="s">
-        <v>441</v>
-      </c>
-      <c r="W21" t="s">
-        <v>442</v>
-      </c>
-      <c r="X21" t="s">
-        <v>442</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>442</v>
-      </c>
-      <c r="Z21">
-        <v>1</v>
-      </c>
-      <c r="AA21">
+      <c r="R21" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="U21" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="V21" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="W21" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="X21" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y21" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="Z21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="6">
         <v>0</v>
       </c>
     </row>
@@ -64026,216 +64127,216 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="27" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="6">
         <v>53</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="6">
         <v>111</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="6">
         <v>42</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="6">
         <v>40.665999999999997</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="6">
         <v>-83</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="6">
         <v>-29.111999999999998</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N27" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="6">
         <v>4</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="Q27" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="R27" t="s">
-        <v>477</v>
-      </c>
-      <c r="U27" t="s">
-        <v>441</v>
-      </c>
-      <c r="V27" t="s">
-        <v>441</v>
-      </c>
-      <c r="W27" t="s">
-        <v>442</v>
-      </c>
-      <c r="X27" t="s">
-        <v>442</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>442</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="R27" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="U27" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="V27" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="W27" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="X27" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y27" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="Z27" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="6">
         <v>53</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="6">
         <v>112</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="6">
         <v>42</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="6">
         <v>40.667999999999999</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="6">
         <v>-83</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="6">
         <v>-29.114999999999998</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="6">
         <v>5</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N28" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="6">
         <v>6.7</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="6">
         <v>3</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="Q28" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="R28" t="s">
-        <v>477</v>
-      </c>
-      <c r="U28" t="s">
-        <v>441</v>
-      </c>
-      <c r="V28" t="s">
-        <v>441</v>
-      </c>
-      <c r="W28" t="s">
-        <v>442</v>
-      </c>
-      <c r="X28" t="s">
-        <v>442</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>441</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="R28" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="U28" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="V28" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="W28" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="X28" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y28" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="Z28" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="6">
         <v>53</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="6">
         <v>113</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="6">
         <v>42</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="6">
         <v>40.659999999999997</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="6">
         <v>-83</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="6">
         <v>-29.120999999999999</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="6">
         <v>5</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N29" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="6">
         <v>9.6</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="6">
         <v>2</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="Q29" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="R29" t="s">
-        <v>477</v>
-      </c>
-      <c r="U29" t="s">
-        <v>441</v>
-      </c>
-      <c r="V29" t="s">
-        <v>441</v>
-      </c>
-      <c r="W29" t="s">
-        <v>441</v>
-      </c>
-      <c r="X29" t="s">
-        <v>441</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>441</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
+      <c r="R29" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="U29" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="V29" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="W29" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="X29" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y29" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="Z29" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="6">
         <v>0</v>
       </c>
     </row>
@@ -64310,74 +64411,74 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    <row r="31" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="6">
         <v>53</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="6">
         <v>115</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="6">
         <v>42</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="6">
         <v>40.661000000000001</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="6">
         <v>-83</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="6">
         <v>-29.111999999999998</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="6">
         <v>5</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="6">
         <v>9.1</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="6">
         <v>4</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="Q31" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="R31" t="s">
-        <v>477</v>
-      </c>
-      <c r="U31" t="s">
-        <v>441</v>
-      </c>
-      <c r="V31" t="s">
-        <v>442</v>
-      </c>
-      <c r="W31" t="s">
-        <v>442</v>
-      </c>
-      <c r="X31" t="s">
-        <v>442</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>442</v>
-      </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AA31">
+      <c r="R31" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="U31" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="V31" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="W31" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="X31" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y31" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="Z31" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="6">
         <v>0</v>
       </c>
     </row>
@@ -64391,7 +64492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A0D07C-6179-4BF4-B897-92EFF7A18ED6}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A45" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -65692,8 +65793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2DF5E6-41F3-45D0-9FF1-99E9480E4095}">
   <dimension ref="A1:I150"/>
   <sheetViews>
-    <sheetView topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="G151" sqref="G151"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -69320,4 +69421,6311 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1355A8E9-7FA3-45C2-9B00-12AFB3AD361D}">
+  <dimension ref="A1:AC136"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="Q40" sqref="Q40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="3" max="4" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" customWidth="1"/>
+    <col min="9" max="9" width="9.7265625" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" customWidth="1"/>
+    <col min="13" max="13" width="12.1796875" customWidth="1"/>
+    <col min="17" max="17" width="12.08984375" customWidth="1"/>
+    <col min="20" max="20" width="9.7265625" customWidth="1"/>
+    <col min="22" max="22" width="9.453125" customWidth="1"/>
+    <col min="23" max="23" width="15.7265625" customWidth="1"/>
+    <col min="25" max="25" width="9.453125" customWidth="1"/>
+    <col min="26" max="27" width="11.90625" customWidth="1"/>
+    <col min="28" max="28" width="10.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A2" s="14">
+        <v>101</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="D2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>477</v>
+      </c>
+      <c r="J2" t="s">
+        <v>477</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>477</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>477</v>
+      </c>
+      <c r="S2" t="s">
+        <v>477</v>
+      </c>
+      <c r="T2" t="s">
+        <v>477</v>
+      </c>
+      <c r="U2" t="s">
+        <v>477</v>
+      </c>
+      <c r="V2">
+        <v>9</v>
+      </c>
+      <c r="W2">
+        <v>19</v>
+      </c>
+      <c r="X2" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A3" s="14">
+        <v>102</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="D3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>477</v>
+      </c>
+      <c r="J3" t="s">
+        <v>477</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>477</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>477</v>
+      </c>
+      <c r="S3" t="s">
+        <v>477</v>
+      </c>
+      <c r="T3" t="s">
+        <v>477</v>
+      </c>
+      <c r="U3" t="s">
+        <v>477</v>
+      </c>
+      <c r="V3">
+        <v>9</v>
+      </c>
+      <c r="W3">
+        <v>15</v>
+      </c>
+      <c r="X3" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A4" s="14">
+        <v>103</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="D4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>477</v>
+      </c>
+      <c r="J4" t="s">
+        <v>477</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>477</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>477</v>
+      </c>
+      <c r="S4" t="s">
+        <v>477</v>
+      </c>
+      <c r="T4" t="s">
+        <v>477</v>
+      </c>
+      <c r="U4" t="s">
+        <v>477</v>
+      </c>
+      <c r="V4">
+        <v>5</v>
+      </c>
+      <c r="W4">
+        <v>15</v>
+      </c>
+      <c r="X4" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A5" s="14">
+        <v>104</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="D5" t="s">
+        <v>441</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>477</v>
+      </c>
+      <c r="J5" t="s">
+        <v>477</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>477</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>477</v>
+      </c>
+      <c r="S5" t="s">
+        <v>477</v>
+      </c>
+      <c r="T5" t="s">
+        <v>477</v>
+      </c>
+      <c r="U5" t="s">
+        <v>477</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>20</v>
+      </c>
+      <c r="X5" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A6" s="14">
+        <v>105</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="D6" t="s">
+        <v>441</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J6" t="s">
+        <v>477</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>477</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>477</v>
+      </c>
+      <c r="S6" t="s">
+        <v>477</v>
+      </c>
+      <c r="T6" t="s">
+        <v>477</v>
+      </c>
+      <c r="U6" t="s">
+        <v>477</v>
+      </c>
+      <c r="V6">
+        <v>13</v>
+      </c>
+      <c r="W6">
+        <v>13</v>
+      </c>
+      <c r="X6" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A7" s="14">
+        <v>106</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="D7" t="s">
+        <v>441</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>477</v>
+      </c>
+      <c r="J7" t="s">
+        <v>477</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>477</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>477</v>
+      </c>
+      <c r="S7" t="s">
+        <v>477</v>
+      </c>
+      <c r="T7" t="s">
+        <v>477</v>
+      </c>
+      <c r="U7" t="s">
+        <v>477</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A8" s="14">
+        <v>107</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="D8" t="s">
+        <v>441</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>477</v>
+      </c>
+      <c r="J8" t="s">
+        <v>477</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>477</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>477</v>
+      </c>
+      <c r="S8" t="s">
+        <v>477</v>
+      </c>
+      <c r="T8" t="s">
+        <v>477</v>
+      </c>
+      <c r="U8" t="s">
+        <v>477</v>
+      </c>
+      <c r="V8">
+        <v>4</v>
+      </c>
+      <c r="W8">
+        <v>6</v>
+      </c>
+      <c r="X8" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9" s="14">
+        <v>108</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="D9" t="s">
+        <v>441</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>477</v>
+      </c>
+      <c r="J9" t="s">
+        <v>477</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>477</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>477</v>
+      </c>
+      <c r="S9" t="s">
+        <v>477</v>
+      </c>
+      <c r="T9" t="s">
+        <v>477</v>
+      </c>
+      <c r="U9" t="s">
+        <v>477</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A10" s="14">
+        <v>109</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="D10" t="s">
+        <v>441</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>477</v>
+      </c>
+      <c r="J10" t="s">
+        <v>477</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>477</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>477</v>
+      </c>
+      <c r="S10" t="s">
+        <v>477</v>
+      </c>
+      <c r="T10" t="s">
+        <v>477</v>
+      </c>
+      <c r="U10" t="s">
+        <v>477</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A11" s="14">
+        <v>110</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="D11" t="s">
+        <v>441</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>477</v>
+      </c>
+      <c r="J11" t="s">
+        <v>477</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>477</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>477</v>
+      </c>
+      <c r="S11" t="s">
+        <v>477</v>
+      </c>
+      <c r="T11" t="s">
+        <v>477</v>
+      </c>
+      <c r="U11" t="s">
+        <v>477</v>
+      </c>
+      <c r="V11">
+        <v>3</v>
+      </c>
+      <c r="W11">
+        <v>2</v>
+      </c>
+      <c r="X11" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A12" s="14">
+        <v>111</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="D12" t="s">
+        <v>441</v>
+      </c>
+      <c r="E12">
+        <v>23</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>477</v>
+      </c>
+      <c r="J12" t="s">
+        <v>477</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>477</v>
+      </c>
+      <c r="O12">
+        <v>9</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>477</v>
+      </c>
+      <c r="S12" t="s">
+        <v>477</v>
+      </c>
+      <c r="T12" t="s">
+        <v>477</v>
+      </c>
+      <c r="U12" t="s">
+        <v>477</v>
+      </c>
+      <c r="V12">
+        <v>9</v>
+      </c>
+      <c r="W12">
+        <v>30</v>
+      </c>
+      <c r="X12" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A13" s="14">
+        <v>112</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="D13" t="s">
+        <v>441</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>477</v>
+      </c>
+      <c r="J13" t="s">
+        <v>477</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>477</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
+        <v>477</v>
+      </c>
+      <c r="S13" t="s">
+        <v>477</v>
+      </c>
+      <c r="T13" t="s">
+        <v>477</v>
+      </c>
+      <c r="U13" t="s">
+        <v>477</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>2</v>
+      </c>
+      <c r="X13" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A14" s="14">
+        <v>113</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="D14" t="s">
+        <v>441</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>477</v>
+      </c>
+      <c r="J14" t="s">
+        <v>477</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>477</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>477</v>
+      </c>
+      <c r="S14" t="s">
+        <v>477</v>
+      </c>
+      <c r="T14" t="s">
+        <v>477</v>
+      </c>
+      <c r="U14" t="s">
+        <v>477</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>16</v>
+      </c>
+      <c r="X14" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A15" s="14">
+        <v>114</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="D15" t="s">
+        <v>441</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>477</v>
+      </c>
+      <c r="J15" t="s">
+        <v>477</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>477</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
+        <v>477</v>
+      </c>
+      <c r="S15" t="s">
+        <v>477</v>
+      </c>
+      <c r="T15" t="s">
+        <v>477</v>
+      </c>
+      <c r="U15" t="s">
+        <v>477</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>15</v>
+      </c>
+      <c r="X15" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A16" s="14">
+        <v>115</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="D16" t="s">
+        <v>441</v>
+      </c>
+      <c r="E16">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>477</v>
+      </c>
+      <c r="J16" t="s">
+        <v>477</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>477</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>477</v>
+      </c>
+      <c r="S16" t="s">
+        <v>477</v>
+      </c>
+      <c r="T16" t="s">
+        <v>477</v>
+      </c>
+      <c r="U16" t="s">
+        <v>477</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>13</v>
+      </c>
+      <c r="X16" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>477</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>101</v>
+      </c>
+      <c r="B17" t="s">
+        <v>559</v>
+      </c>
+      <c r="C17" t="s">
+        <v>610</v>
+      </c>
+      <c r="D17" t="s">
+        <v>441</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>477</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>477</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s">
+        <v>477</v>
+      </c>
+      <c r="S17" t="s">
+        <v>477</v>
+      </c>
+      <c r="T17" t="s">
+        <v>477</v>
+      </c>
+      <c r="U17" t="s">
+        <v>477</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>31</v>
+      </c>
+      <c r="X17">
+        <v>19</v>
+      </c>
+      <c r="Y17">
+        <v>4</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>5</v>
+      </c>
+      <c r="AB17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>559</v>
+      </c>
+      <c r="C18" t="s">
+        <v>610</v>
+      </c>
+      <c r="D18" t="s">
+        <v>441</v>
+      </c>
+      <c r="E18">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>477</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>477</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s">
+        <v>477</v>
+      </c>
+      <c r="S18" t="s">
+        <v>477</v>
+      </c>
+      <c r="T18" t="s">
+        <v>477</v>
+      </c>
+      <c r="U18" t="s">
+        <v>477</v>
+      </c>
+      <c r="V18">
+        <v>2</v>
+      </c>
+      <c r="W18">
+        <v>28</v>
+      </c>
+      <c r="X18">
+        <v>11</v>
+      </c>
+      <c r="Y18">
+        <v>10</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>4</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s">
+        <v>559</v>
+      </c>
+      <c r="C19" t="s">
+        <v>610</v>
+      </c>
+      <c r="D19" t="s">
+        <v>441</v>
+      </c>
+      <c r="E19">
+        <v>24</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>477</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>477</v>
+      </c>
+      <c r="O19">
+        <v>6</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s">
+        <v>477</v>
+      </c>
+      <c r="S19" t="s">
+        <v>477</v>
+      </c>
+      <c r="T19" t="s">
+        <v>477</v>
+      </c>
+      <c r="U19" t="s">
+        <v>477</v>
+      </c>
+      <c r="V19">
+        <v>11</v>
+      </c>
+      <c r="W19">
+        <v>24</v>
+      </c>
+      <c r="X19">
+        <v>10</v>
+      </c>
+      <c r="Y19">
+        <v>8</v>
+      </c>
+      <c r="Z19">
+        <v>3</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
+        <v>559</v>
+      </c>
+      <c r="C20" t="s">
+        <v>610</v>
+      </c>
+      <c r="D20" t="s">
+        <v>441</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>477</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>477</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20" t="s">
+        <v>477</v>
+      </c>
+      <c r="S20" t="s">
+        <v>477</v>
+      </c>
+      <c r="T20" t="s">
+        <v>477</v>
+      </c>
+      <c r="U20" t="s">
+        <v>477</v>
+      </c>
+      <c r="V20">
+        <v>17</v>
+      </c>
+      <c r="W20">
+        <v>43</v>
+      </c>
+      <c r="X20">
+        <v>14</v>
+      </c>
+      <c r="Y20">
+        <v>18</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>8</v>
+      </c>
+      <c r="AB20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
+        <v>559</v>
+      </c>
+      <c r="C21" t="s">
+        <v>610</v>
+      </c>
+      <c r="D21" t="s">
+        <v>441</v>
+      </c>
+      <c r="E21">
+        <v>32</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>477</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>477</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>15</v>
+      </c>
+      <c r="R21" t="s">
+        <v>477</v>
+      </c>
+      <c r="S21" t="s">
+        <v>477</v>
+      </c>
+      <c r="T21" t="s">
+        <v>477</v>
+      </c>
+      <c r="U21" t="s">
+        <v>477</v>
+      </c>
+      <c r="V21">
+        <v>6</v>
+      </c>
+      <c r="W21">
+        <v>29</v>
+      </c>
+      <c r="X21">
+        <v>15</v>
+      </c>
+      <c r="Y21">
+        <v>7</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>4</v>
+      </c>
+      <c r="AB21">
+        <v>2</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s">
+        <v>559</v>
+      </c>
+      <c r="C22" t="s">
+        <v>610</v>
+      </c>
+      <c r="D22" t="s">
+        <v>441</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>477</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>477</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22" t="s">
+        <v>477</v>
+      </c>
+      <c r="S22" t="s">
+        <v>477</v>
+      </c>
+      <c r="T22" t="s">
+        <v>477</v>
+      </c>
+      <c r="U22" t="s">
+        <v>477</v>
+      </c>
+      <c r="V22">
+        <v>5</v>
+      </c>
+      <c r="W22">
+        <v>10</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>5</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>3</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>107</v>
+      </c>
+      <c r="B23" t="s">
+        <v>559</v>
+      </c>
+      <c r="C23" t="s">
+        <v>610</v>
+      </c>
+      <c r="D23" t="s">
+        <v>441</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>477</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>477</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>2</v>
+      </c>
+      <c r="R23" t="s">
+        <v>477</v>
+      </c>
+      <c r="S23" t="s">
+        <v>477</v>
+      </c>
+      <c r="T23" t="s">
+        <v>477</v>
+      </c>
+      <c r="U23" t="s">
+        <v>477</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>17</v>
+      </c>
+      <c r="X23">
+        <v>6</v>
+      </c>
+      <c r="Y23">
+        <v>6</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>5</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>108</v>
+      </c>
+      <c r="B24" t="s">
+        <v>559</v>
+      </c>
+      <c r="C24" t="s">
+        <v>610</v>
+      </c>
+      <c r="D24" t="s">
+        <v>441</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>477</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>477</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24" t="s">
+        <v>477</v>
+      </c>
+      <c r="S24" t="s">
+        <v>477</v>
+      </c>
+      <c r="T24" t="s">
+        <v>477</v>
+      </c>
+      <c r="U24" t="s">
+        <v>477</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>11</v>
+      </c>
+      <c r="X24">
+        <v>4</v>
+      </c>
+      <c r="Y24">
+        <v>3</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>3</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
+        <v>559</v>
+      </c>
+      <c r="C25" t="s">
+        <v>610</v>
+      </c>
+      <c r="D25" t="s">
+        <v>441</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>477</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>477</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25" t="s">
+        <v>477</v>
+      </c>
+      <c r="S25" t="s">
+        <v>477</v>
+      </c>
+      <c r="T25" t="s">
+        <v>477</v>
+      </c>
+      <c r="U25" t="s">
+        <v>477</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>110</v>
+      </c>
+      <c r="B26" t="s">
+        <v>559</v>
+      </c>
+      <c r="C26" t="s">
+        <v>610</v>
+      </c>
+      <c r="D26" t="s">
+        <v>441</v>
+      </c>
+      <c r="E26">
+        <v>11</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>477</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>477</v>
+      </c>
+      <c r="O26">
+        <v>4</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26" t="s">
+        <v>477</v>
+      </c>
+      <c r="S26" t="s">
+        <v>477</v>
+      </c>
+      <c r="T26" t="s">
+        <v>477</v>
+      </c>
+      <c r="U26" t="s">
+        <v>477</v>
+      </c>
+      <c r="V26">
+        <v>4</v>
+      </c>
+      <c r="W26">
+        <v>25</v>
+      </c>
+      <c r="X26">
+        <v>14</v>
+      </c>
+      <c r="Y26">
+        <v>3</v>
+      </c>
+      <c r="Z26">
+        <v>2</v>
+      </c>
+      <c r="AA26">
+        <v>7</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>111</v>
+      </c>
+      <c r="B27" t="s">
+        <v>559</v>
+      </c>
+      <c r="C27" t="s">
+        <v>610</v>
+      </c>
+      <c r="D27" t="s">
+        <v>441</v>
+      </c>
+      <c r="E27">
+        <v>26</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>477</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>477</v>
+      </c>
+      <c r="O27">
+        <v>4</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+      <c r="R27" t="s">
+        <v>477</v>
+      </c>
+      <c r="S27" t="s">
+        <v>477</v>
+      </c>
+      <c r="T27" t="s">
+        <v>477</v>
+      </c>
+      <c r="U27" t="s">
+        <v>477</v>
+      </c>
+      <c r="V27">
+        <v>13</v>
+      </c>
+      <c r="W27">
+        <v>24</v>
+      </c>
+      <c r="X27">
+        <v>4</v>
+      </c>
+      <c r="Y27">
+        <v>7</v>
+      </c>
+      <c r="Z27">
+        <v>2</v>
+      </c>
+      <c r="AA27">
+        <v>12</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>112</v>
+      </c>
+      <c r="B28" t="s">
+        <v>559</v>
+      </c>
+      <c r="C28" t="s">
+        <v>610</v>
+      </c>
+      <c r="D28" t="s">
+        <v>441</v>
+      </c>
+      <c r="E28">
+        <v>73</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>477</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>4</v>
+      </c>
+      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>477</v>
+      </c>
+      <c r="O28">
+        <v>2</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>7</v>
+      </c>
+      <c r="R28" t="s">
+        <v>477</v>
+      </c>
+      <c r="S28" t="s">
+        <v>477</v>
+      </c>
+      <c r="T28" t="s">
+        <v>477</v>
+      </c>
+      <c r="U28" t="s">
+        <v>477</v>
+      </c>
+      <c r="V28">
+        <v>51</v>
+      </c>
+      <c r="W28">
+        <v>62</v>
+      </c>
+      <c r="X28">
+        <v>24</v>
+      </c>
+      <c r="Y28">
+        <v>20</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <v>16</v>
+      </c>
+      <c r="AB28">
+        <v>1</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>113</v>
+      </c>
+      <c r="B29" t="s">
+        <v>559</v>
+      </c>
+      <c r="C29" t="s">
+        <v>610</v>
+      </c>
+      <c r="D29" t="s">
+        <v>441</v>
+      </c>
+      <c r="E29">
+        <v>12</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>477</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>477</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29" t="s">
+        <v>477</v>
+      </c>
+      <c r="S29" t="s">
+        <v>477</v>
+      </c>
+      <c r="T29" t="s">
+        <v>477</v>
+      </c>
+      <c r="U29" t="s">
+        <v>477</v>
+      </c>
+      <c r="V29">
+        <v>8</v>
+      </c>
+      <c r="W29">
+        <v>23</v>
+      </c>
+      <c r="X29">
+        <v>6</v>
+      </c>
+      <c r="Y29">
+        <v>5</v>
+      </c>
+      <c r="Z29">
+        <v>4</v>
+      </c>
+      <c r="AA29">
+        <v>8</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
+        <v>559</v>
+      </c>
+      <c r="C30" t="s">
+        <v>610</v>
+      </c>
+      <c r="D30" t="s">
+        <v>441</v>
+      </c>
+      <c r="E30">
+        <v>16</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>477</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>477</v>
+      </c>
+      <c r="O30">
+        <v>2</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>4</v>
+      </c>
+      <c r="R30" t="s">
+        <v>477</v>
+      </c>
+      <c r="S30" t="s">
+        <v>477</v>
+      </c>
+      <c r="T30" t="s">
+        <v>477</v>
+      </c>
+      <c r="U30" t="s">
+        <v>477</v>
+      </c>
+      <c r="V30">
+        <v>5</v>
+      </c>
+      <c r="W30">
+        <v>34</v>
+      </c>
+      <c r="X30">
+        <v>13</v>
+      </c>
+      <c r="Y30">
+        <v>16</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>5</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>115</v>
+      </c>
+      <c r="B31" t="s">
+        <v>559</v>
+      </c>
+      <c r="C31" t="s">
+        <v>610</v>
+      </c>
+      <c r="D31" t="s">
+        <v>441</v>
+      </c>
+      <c r="E31">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>477</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
+        <v>477</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>4</v>
+      </c>
+      <c r="R31" t="s">
+        <v>477</v>
+      </c>
+      <c r="S31" t="s">
+        <v>477</v>
+      </c>
+      <c r="T31" t="s">
+        <v>477</v>
+      </c>
+      <c r="U31" t="s">
+        <v>477</v>
+      </c>
+      <c r="V31">
+        <v>6</v>
+      </c>
+      <c r="W31">
+        <v>18</v>
+      </c>
+      <c r="X31">
+        <v>8</v>
+      </c>
+      <c r="Y31">
+        <v>6</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>2</v>
+      </c>
+      <c r="AB31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A32" s="14">
+        <v>101</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="D32" t="s">
+        <v>441</v>
+      </c>
+      <c r="E32" s="9">
+        <f>F32+G32+H32+I32+K32+L32+M32+O32+P32+Q32+V32</f>
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>477</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>477</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="9">
+        <f>R32+S32+T32</f>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32" t="s">
+        <v>477</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32" s="9">
+        <f>X32+Y32+Z32+AA32+AB32</f>
+        <v>7</v>
+      </c>
+      <c r="X32">
+        <v>2</v>
+      </c>
+      <c r="Y32">
+        <v>2</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>2</v>
+      </c>
+      <c r="AB32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A33" s="14">
+        <v>102</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="D33" t="s">
+        <v>441</v>
+      </c>
+      <c r="E33" s="9">
+        <f>F33+G33+H33+I33+K33+L33+M33+O33+P33+Q33+V33</f>
+        <v>24</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>477</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>477</v>
+      </c>
+      <c r="O33">
+        <v>3</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="9">
+        <f t="shared" ref="Q33:Q61" si="0">R33+S33+T33</f>
+        <v>3</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33" t="s">
+        <v>477</v>
+      </c>
+      <c r="V33">
+        <v>8</v>
+      </c>
+      <c r="W33" s="9">
+        <f>X33+Y33+Z33+AA33+AB33</f>
+        <v>27</v>
+      </c>
+      <c r="X33">
+        <v>8</v>
+      </c>
+      <c r="Y33">
+        <v>11</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>6</v>
+      </c>
+      <c r="AB33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A34" s="14">
+        <v>103</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="D34" t="s">
+        <v>441</v>
+      </c>
+      <c r="E34" s="9">
+        <f t="shared" ref="E34:E46" si="1">F34+G34+H34+I34+K34+L34+M34+O34+P34+Q34+V34</f>
+        <v>12</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>477</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>477</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34" t="s">
+        <v>477</v>
+      </c>
+      <c r="V34">
+        <v>7</v>
+      </c>
+      <c r="W34" s="9">
+        <f t="shared" ref="W34:W61" si="2">X34+Y34+Z34+AA34+AB34</f>
+        <v>30</v>
+      </c>
+      <c r="X34">
+        <v>14</v>
+      </c>
+      <c r="Y34">
+        <v>9</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>7</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A35" s="14">
+        <v>104</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="D35" t="s">
+        <v>441</v>
+      </c>
+      <c r="E35" s="9">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>477</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>4</v>
+      </c>
+      <c r="M35">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>477</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35" t="s">
+        <v>477</v>
+      </c>
+      <c r="V35">
+        <v>8</v>
+      </c>
+      <c r="W35" s="9">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="X35">
+        <v>13</v>
+      </c>
+      <c r="Y35">
+        <v>11</v>
+      </c>
+      <c r="Z35">
+        <v>2</v>
+      </c>
+      <c r="AA35">
+        <v>17</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A36" s="14">
+        <v>105</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="D36" t="s">
+        <v>441</v>
+      </c>
+      <c r="E36" s="9">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>477</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>477</v>
+      </c>
+      <c r="O36">
+        <v>4</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>2</v>
+      </c>
+      <c r="T36">
+        <v>2</v>
+      </c>
+      <c r="U36" t="s">
+        <v>477</v>
+      </c>
+      <c r="V36">
+        <v>10</v>
+      </c>
+      <c r="W36" s="9">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="X36">
+        <v>16</v>
+      </c>
+      <c r="Y36">
+        <v>9</v>
+      </c>
+      <c r="Z36">
+        <v>3</v>
+      </c>
+      <c r="AA36">
+        <v>4</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A37" s="14">
+        <v>106</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="D37" t="s">
+        <v>441</v>
+      </c>
+      <c r="E37" s="9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>477</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
+        <v>477</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37" t="s">
+        <v>477</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37" s="9">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="X37">
+        <v>7</v>
+      </c>
+      <c r="Y37">
+        <v>11</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>3</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A38" s="14">
+        <v>107</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="D38" t="s">
+        <v>441</v>
+      </c>
+      <c r="E38" s="9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>477</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38" t="s">
+        <v>477</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38" t="s">
+        <v>477</v>
+      </c>
+      <c r="V38">
+        <v>4</v>
+      </c>
+      <c r="W38" s="9">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="X38">
+        <v>4</v>
+      </c>
+      <c r="Y38">
+        <v>3</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>2</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A39" s="14">
+        <v>108</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="D39" t="s">
+        <v>441</v>
+      </c>
+      <c r="E39" s="9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>477</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>477</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39" t="s">
+        <v>477</v>
+      </c>
+      <c r="V39">
+        <v>3</v>
+      </c>
+      <c r="W39" s="9">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="X39">
+        <v>7</v>
+      </c>
+      <c r="Y39">
+        <v>19</v>
+      </c>
+      <c r="Z39">
+        <v>2</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A40" s="14">
+        <v>109</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="D40" t="s">
+        <v>441</v>
+      </c>
+      <c r="E40" s="9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>477</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
+        <v>477</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R40">
+        <v>2</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40" t="s">
+        <v>477</v>
+      </c>
+      <c r="V40">
+        <v>2</v>
+      </c>
+      <c r="W40" s="9">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="X40">
+        <v>6</v>
+      </c>
+      <c r="Y40">
+        <v>7</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A41" s="14">
+        <v>110</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="D41" t="s">
+        <v>441</v>
+      </c>
+      <c r="E41" s="9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>477</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>477</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41" t="s">
+        <v>477</v>
+      </c>
+      <c r="V41">
+        <v>5</v>
+      </c>
+      <c r="W41" s="9">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="X41">
+        <v>6</v>
+      </c>
+      <c r="Y41">
+        <v>13</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>3</v>
+      </c>
+      <c r="AB41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A42" s="14">
+        <v>111</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="D42" t="s">
+        <v>441</v>
+      </c>
+      <c r="E42" s="9">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>477</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>3</v>
+      </c>
+      <c r="M42">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>477</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R42">
+        <v>2</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>2</v>
+      </c>
+      <c r="U42" t="s">
+        <v>477</v>
+      </c>
+      <c r="V42">
+        <v>8</v>
+      </c>
+      <c r="W42" s="9">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="X42">
+        <v>20</v>
+      </c>
+      <c r="Y42">
+        <v>20</v>
+      </c>
+      <c r="Z42">
+        <v>1</v>
+      </c>
+      <c r="AA42">
+        <v>4</v>
+      </c>
+      <c r="AB42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A43" s="14">
+        <v>112</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="D43" t="s">
+        <v>441</v>
+      </c>
+      <c r="E43" s="9">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>477</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>4</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>477</v>
+      </c>
+      <c r="O43">
+        <v>2</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43" t="s">
+        <v>477</v>
+      </c>
+      <c r="V43">
+        <v>13</v>
+      </c>
+      <c r="W43" s="9">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="X43">
+        <v>30</v>
+      </c>
+      <c r="Y43">
+        <v>22</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>20</v>
+      </c>
+      <c r="AB43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A44" s="14">
+        <v>113</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="D44" t="s">
+        <v>441</v>
+      </c>
+      <c r="E44" s="9">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>477</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>6</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
+        <v>477</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R44">
+        <v>3</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44" t="s">
+        <v>477</v>
+      </c>
+      <c r="V44">
+        <v>31</v>
+      </c>
+      <c r="W44" s="9">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="X44">
+        <v>16</v>
+      </c>
+      <c r="Y44">
+        <v>17</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>12</v>
+      </c>
+      <c r="AB44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A45" s="14">
+        <v>114</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="D45" t="s">
+        <v>441</v>
+      </c>
+      <c r="E45" s="9">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45" t="s">
+        <v>477</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>477</v>
+      </c>
+      <c r="O45">
+        <v>2</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45" t="s">
+        <v>477</v>
+      </c>
+      <c r="V45">
+        <v>7</v>
+      </c>
+      <c r="W45" s="9">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="X45">
+        <v>5</v>
+      </c>
+      <c r="Y45">
+        <v>10</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>4</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A46" s="14">
+        <v>115</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="D46" t="s">
+        <v>441</v>
+      </c>
+      <c r="E46" s="9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>477</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>477</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R46">
+        <v>2</v>
+      </c>
+      <c r="S46">
+        <v>1</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46" t="s">
+        <v>477</v>
+      </c>
+      <c r="V46">
+        <v>2</v>
+      </c>
+      <c r="W46" s="9">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="X46">
+        <v>10</v>
+      </c>
+      <c r="Y46">
+        <v>8</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>101</v>
+      </c>
+      <c r="B47" t="s">
+        <v>723</v>
+      </c>
+      <c r="C47" t="s">
+        <v>685</v>
+      </c>
+      <c r="D47" t="s">
+        <v>442</v>
+      </c>
+      <c r="E47" s="13">
+        <f>F47+G47+H47+I47+J47+K47+L47+M47+N47+O47+P47+Q47+U47+V47</f>
+        <v>7</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>2</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="X47">
+        <v>2</v>
+      </c>
+      <c r="Y47">
+        <v>1</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>102</v>
+      </c>
+      <c r="B48" t="s">
+        <v>723</v>
+      </c>
+      <c r="C48" t="s">
+        <v>685</v>
+      </c>
+      <c r="D48" t="s">
+        <v>442</v>
+      </c>
+      <c r="E48" s="13">
+        <f t="shared" ref="E48:E61" si="3">F48+G48+H48+I48+J48+K48+L48+M48+N48+O48+P48+Q48+U48+V48</f>
+        <v>22</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>7</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <v>1</v>
+      </c>
+      <c r="T48">
+        <v>2</v>
+      </c>
+      <c r="U48">
+        <v>4</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="X48">
+        <v>4</v>
+      </c>
+      <c r="Y48">
+        <v>3</v>
+      </c>
+      <c r="Z48">
+        <v>1</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>103</v>
+      </c>
+      <c r="B49" t="s">
+        <v>723</v>
+      </c>
+      <c r="C49" t="s">
+        <v>685</v>
+      </c>
+      <c r="D49" t="s">
+        <v>442</v>
+      </c>
+      <c r="E49" s="13">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>6</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>3</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>2</v>
+      </c>
+      <c r="T49">
+        <v>4</v>
+      </c>
+      <c r="U49">
+        <v>10</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49" s="9">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="X49">
+        <v>19</v>
+      </c>
+      <c r="Y49">
+        <v>6</v>
+      </c>
+      <c r="Z49">
+        <v>1</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>104</v>
+      </c>
+      <c r="B50" t="s">
+        <v>723</v>
+      </c>
+      <c r="C50" t="s">
+        <v>685</v>
+      </c>
+      <c r="D50" t="s">
+        <v>442</v>
+      </c>
+      <c r="E50" s="13">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>2</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="R50">
+        <v>5</v>
+      </c>
+      <c r="S50">
+        <v>1</v>
+      </c>
+      <c r="T50">
+        <v>3</v>
+      </c>
+      <c r="U50">
+        <v>4</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50" s="9">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="X50">
+        <v>31</v>
+      </c>
+      <c r="Y50">
+        <v>25</v>
+      </c>
+      <c r="Z50">
+        <v>2</v>
+      </c>
+      <c r="AA50">
+        <v>3</v>
+      </c>
+      <c r="AB50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>105</v>
+      </c>
+      <c r="B51" t="s">
+        <v>723</v>
+      </c>
+      <c r="C51" t="s">
+        <v>685</v>
+      </c>
+      <c r="D51" t="s">
+        <v>442</v>
+      </c>
+      <c r="E51" s="13">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>4</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>3</v>
+      </c>
+      <c r="Q51" s="9">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="R51">
+        <v>7</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>6</v>
+      </c>
+      <c r="U51">
+        <v>4</v>
+      </c>
+      <c r="V51">
+        <v>1</v>
+      </c>
+      <c r="W51" s="9">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="X51">
+        <v>16</v>
+      </c>
+      <c r="Y51">
+        <v>11</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>106</v>
+      </c>
+      <c r="B52" t="s">
+        <v>723</v>
+      </c>
+      <c r="C52" t="s">
+        <v>685</v>
+      </c>
+      <c r="D52" t="s">
+        <v>442</v>
+      </c>
+      <c r="E52" s="13">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R52">
+        <v>2</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <v>3</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52" s="9">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="X52">
+        <v>3</v>
+      </c>
+      <c r="Y52">
+        <v>8</v>
+      </c>
+      <c r="Z52">
+        <v>2</v>
+      </c>
+      <c r="AA52">
+        <v>2</v>
+      </c>
+      <c r="AB52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
+        <v>723</v>
+      </c>
+      <c r="C53" t="s">
+        <v>685</v>
+      </c>
+      <c r="D53" t="s">
+        <v>442</v>
+      </c>
+      <c r="E53" s="13">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>2</v>
+      </c>
+      <c r="U53">
+        <v>7</v>
+      </c>
+      <c r="V53">
+        <v>2</v>
+      </c>
+      <c r="W53" s="9">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="X53">
+        <v>16</v>
+      </c>
+      <c r="Y53">
+        <v>25</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>2</v>
+      </c>
+      <c r="AB53">
+        <v>1</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>723</v>
+      </c>
+      <c r="C54" t="s">
+        <v>685</v>
+      </c>
+      <c r="D54" t="s">
+        <v>442</v>
+      </c>
+      <c r="E54" s="13">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>2</v>
+      </c>
+      <c r="P54">
+        <v>2</v>
+      </c>
+      <c r="Q54" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>3</v>
+      </c>
+      <c r="V54">
+        <v>1</v>
+      </c>
+      <c r="W54" s="9">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="X54">
+        <v>14</v>
+      </c>
+      <c r="Y54">
+        <v>14</v>
+      </c>
+      <c r="Z54">
+        <v>1</v>
+      </c>
+      <c r="AA54">
+        <v>4</v>
+      </c>
+      <c r="AB54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>109</v>
+      </c>
+      <c r="B55" t="s">
+        <v>723</v>
+      </c>
+      <c r="C55" t="s">
+        <v>685</v>
+      </c>
+      <c r="D55" t="s">
+        <v>442</v>
+      </c>
+      <c r="E55" s="13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55" s="9">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="X55">
+        <v>4</v>
+      </c>
+      <c r="Y55">
+        <v>3</v>
+      </c>
+      <c r="Z55">
+        <v>1</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>723</v>
+      </c>
+      <c r="C56" t="s">
+        <v>685</v>
+      </c>
+      <c r="D56" t="s">
+        <v>442</v>
+      </c>
+      <c r="E56" s="13">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>2</v>
+      </c>
+      <c r="Q56" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R56">
+        <v>3</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>1</v>
+      </c>
+      <c r="V56">
+        <v>1</v>
+      </c>
+      <c r="W56" s="9">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="X56">
+        <v>4</v>
+      </c>
+      <c r="Y56">
+        <v>5</v>
+      </c>
+      <c r="Z56">
+        <v>2</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>111</v>
+      </c>
+      <c r="B57" t="s">
+        <v>723</v>
+      </c>
+      <c r="C57" t="s">
+        <v>685</v>
+      </c>
+      <c r="D57" t="s">
+        <v>442</v>
+      </c>
+      <c r="E57" s="13">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>2</v>
+      </c>
+      <c r="U57">
+        <v>4</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57" s="9">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="X57">
+        <v>7</v>
+      </c>
+      <c r="Y57">
+        <v>3</v>
+      </c>
+      <c r="Z57">
+        <v>1</v>
+      </c>
+      <c r="AA57">
+        <v>1</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>112</v>
+      </c>
+      <c r="B58" t="s">
+        <v>723</v>
+      </c>
+      <c r="C58" t="s">
+        <v>685</v>
+      </c>
+      <c r="D58" t="s">
+        <v>442</v>
+      </c>
+      <c r="E58" s="13">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>4</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="R58">
+        <v>3</v>
+      </c>
+      <c r="S58">
+        <v>1</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58">
+        <v>10</v>
+      </c>
+      <c r="V58">
+        <v>1</v>
+      </c>
+      <c r="W58" s="9">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="X58">
+        <v>4</v>
+      </c>
+      <c r="Y58">
+        <v>11</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>2</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>113</v>
+      </c>
+      <c r="B59" t="s">
+        <v>723</v>
+      </c>
+      <c r="C59" t="s">
+        <v>685</v>
+      </c>
+      <c r="D59" t="s">
+        <v>442</v>
+      </c>
+      <c r="E59" s="13">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>2</v>
+      </c>
+      <c r="Q59" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R59">
+        <v>3</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59">
+        <v>11</v>
+      </c>
+      <c r="V59">
+        <v>1</v>
+      </c>
+      <c r="W59" s="9">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="X59">
+        <v>12</v>
+      </c>
+      <c r="Y59">
+        <v>1</v>
+      </c>
+      <c r="Z59">
+        <v>1</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>114</v>
+      </c>
+      <c r="B60" t="s">
+        <v>723</v>
+      </c>
+      <c r="C60" t="s">
+        <v>685</v>
+      </c>
+      <c r="D60" t="s">
+        <v>442</v>
+      </c>
+      <c r="E60" s="13">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>3</v>
+      </c>
+      <c r="P60">
+        <v>2</v>
+      </c>
+      <c r="Q60" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60">
+        <v>9</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60" s="9">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="X60">
+        <v>7</v>
+      </c>
+      <c r="Y60">
+        <v>6</v>
+      </c>
+      <c r="Z60">
+        <v>2</v>
+      </c>
+      <c r="AA60">
+        <v>1</v>
+      </c>
+      <c r="AB60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>115</v>
+      </c>
+      <c r="B61" t="s">
+        <v>723</v>
+      </c>
+      <c r="C61" t="s">
+        <v>685</v>
+      </c>
+      <c r="D61" t="s">
+        <v>442</v>
+      </c>
+      <c r="E61" s="13">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>2</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>2</v>
+      </c>
+      <c r="Q61" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>4</v>
+      </c>
+      <c r="V61">
+        <v>1</v>
+      </c>
+      <c r="W61" s="9">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="X61">
+        <v>8</v>
+      </c>
+      <c r="Y61">
+        <v>18</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A62" s="14">
+        <v>101</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A63" s="14">
+        <v>102</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A64" s="14">
+        <v>103</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="14">
+        <v>104</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="14">
+        <v>105</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="14">
+        <v>106</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="14">
+        <v>107</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="14">
+        <v>108</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="14">
+        <v>109</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="14">
+        <v>110</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="14">
+        <v>111</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="14">
+        <v>112</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="14">
+        <v>113</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="14">
+        <v>114</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="14">
+        <v>115</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>101</v>
+      </c>
+      <c r="B77" t="s">
+        <v>804</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>102</v>
+      </c>
+      <c r="B78" t="s">
+        <v>804</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>103</v>
+      </c>
+      <c r="B79" t="s">
+        <v>804</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>104</v>
+      </c>
+      <c r="B80" t="s">
+        <v>804</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>105</v>
+      </c>
+      <c r="B81" t="s">
+        <v>804</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>106</v>
+      </c>
+      <c r="B82" t="s">
+        <v>804</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>107</v>
+      </c>
+      <c r="B83" t="s">
+        <v>804</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>108</v>
+      </c>
+      <c r="B84" t="s">
+        <v>804</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>109</v>
+      </c>
+      <c r="B85" t="s">
+        <v>804</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>110</v>
+      </c>
+      <c r="B86" t="s">
+        <v>804</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>111</v>
+      </c>
+      <c r="B87" t="s">
+        <v>804</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>112</v>
+      </c>
+      <c r="B88" t="s">
+        <v>804</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>113</v>
+      </c>
+      <c r="B89" t="s">
+        <v>804</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>114</v>
+      </c>
+      <c r="B90" t="s">
+        <v>804</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>115</v>
+      </c>
+      <c r="B91" t="s">
+        <v>804</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="14">
+        <v>101</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="14">
+        <v>102</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="14">
+        <v>103</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="14">
+        <v>104</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="14">
+        <v>105</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="14">
+        <v>106</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="14">
+        <v>107</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="14">
+        <v>108</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="14">
+        <v>109</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="14">
+        <v>110</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="14">
+        <v>111</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="14">
+        <v>112</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="14">
+        <v>113</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="14">
+        <v>114</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="14">
+        <v>115</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>101</v>
+      </c>
+      <c r="B107" t="s">
+        <v>905</v>
+      </c>
+      <c r="C107" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>102</v>
+      </c>
+      <c r="B108" t="s">
+        <v>905</v>
+      </c>
+      <c r="C108" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>103</v>
+      </c>
+      <c r="B109" t="s">
+        <v>905</v>
+      </c>
+      <c r="C109" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>104</v>
+      </c>
+      <c r="B110" t="s">
+        <v>905</v>
+      </c>
+      <c r="C110" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>105</v>
+      </c>
+      <c r="B111" t="s">
+        <v>905</v>
+      </c>
+      <c r="C111" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>106</v>
+      </c>
+      <c r="B112" t="s">
+        <v>905</v>
+      </c>
+      <c r="C112" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>107</v>
+      </c>
+      <c r="B113" t="s">
+        <v>905</v>
+      </c>
+      <c r="C113" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>108</v>
+      </c>
+      <c r="B114" t="s">
+        <v>905</v>
+      </c>
+      <c r="C114" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>109</v>
+      </c>
+      <c r="B115" t="s">
+        <v>905</v>
+      </c>
+      <c r="C115" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>110</v>
+      </c>
+      <c r="B116" t="s">
+        <v>905</v>
+      </c>
+      <c r="C116" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>111</v>
+      </c>
+      <c r="B117" t="s">
+        <v>905</v>
+      </c>
+      <c r="C117" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>112</v>
+      </c>
+      <c r="B118" t="s">
+        <v>905</v>
+      </c>
+      <c r="C118" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>113</v>
+      </c>
+      <c r="B119" t="s">
+        <v>905</v>
+      </c>
+      <c r="C119" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>114</v>
+      </c>
+      <c r="B120" t="s">
+        <v>905</v>
+      </c>
+      <c r="C120" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>115</v>
+      </c>
+      <c r="B121" t="s">
+        <v>905</v>
+      </c>
+      <c r="C121" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A122" s="14">
+        <v>101</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="W122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A123" s="14">
+        <v>102</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="W123">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A124" s="14">
+        <v>103</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E124">
+        <v>5</v>
+      </c>
+      <c r="W124">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A125" s="14">
+        <v>104</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E125">
+        <v>8</v>
+      </c>
+      <c r="W125">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A126" s="14">
+        <v>105</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E126">
+        <v>4</v>
+      </c>
+      <c r="W126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A127" s="14">
+        <v>106</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E127">
+        <v>3</v>
+      </c>
+      <c r="W127">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A128" s="14">
+        <v>107</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E128">
+        <v>3</v>
+      </c>
+      <c r="W128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A129" s="14">
+        <v>108</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="W129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A130" s="14">
+        <v>109</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="C130" s="14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
+      </c>
+      <c r="W130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A131" s="14">
+        <v>110</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="C131" s="14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E131">
+        <v>2</v>
+      </c>
+      <c r="W131">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A132" s="14">
+        <v>111</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="C132" s="14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E132">
+        <v>7</v>
+      </c>
+      <c r="W132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A133" s="14">
+        <v>112</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+      <c r="W133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A134" s="14">
+        <v>113</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="C134" s="14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="W134">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A135" s="14">
+        <v>114</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="C135" s="14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="W135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A136" s="14">
+        <v>115</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="C136" s="14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E136">
+        <v>4</v>
+      </c>
+      <c r="W136">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C150">
+    <sortCondition ref="B2:B150"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Raw_data/EAB_Michigan_2024_raw_data_photos_removed.xlsx
+++ b/Raw_data/EAB_Michigan_2024_raw_data_photos_removed.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/EAB_Michigan_2024_2025_github_folder/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6781" documentId="8_{E6A25E5A-660E-410D-80FD-02C42A3E01DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3ED7A29-EFB9-4B3A-90EB-239FFEF15436}"/>
+  <xr:revisionPtr revIDLastSave="6782" documentId="8_{E6A25E5A-660E-410D-80FD-02C42A3E01DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1922CAA1-02E8-4E40-A712-1DB0FB82D583}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="4" r:id="rId1"/>
@@ -4704,20 +4704,20 @@
   </sheetPr>
   <dimension ref="A1:O114"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N113" sqref="A113:N113"/>
+      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="3.90625" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="12" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="7.90625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.08984375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="29.08984375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.453125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="7.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.08984375" customWidth="1"/>
+    <col min="7" max="7" width="29.08984375" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" customWidth="1"/>
     <col min="10" max="10" width="27.6328125" customWidth="1"/>
     <col min="11" max="11" width="39.54296875" style="1" customWidth="1"/>
     <col min="12" max="12" width="33.453125" customWidth="1"/>
@@ -62147,7 +62147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8119E6BF-C4C5-438C-90A2-4DB239ACB6A8}">
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>

--- a/Raw_data/EAB_Michigan_2024_raw_data_photos_removed.xlsx
+++ b/Raw_data/EAB_Michigan_2024_raw_data_photos_removed.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/EAB_Michigan_2024_2025_github_folder/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{81CA749C-CDAC-43F8-B952-603FF177FEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C67C0FE-200C-4935-ADCA-746554150183}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="8_{81CA749C-CDAC-43F8-B952-603FF177FEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34DCE2BF-3428-4786-B12F-49DC39DB9588}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12735" uniqueCount="1150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12782" uniqueCount="1168">
   <si>
     <t>center_tree_number</t>
   </si>
@@ -3495,6 +3495,60 @@
   </si>
   <si>
     <t>had samaras hanging from it on subsequent visits - EAB trap 6 is in this tree - there are two stems - 11.5 cm living healthy - and 6.4 cm DBH dead with many signs and symptoms on the dead one</t>
+  </si>
+  <si>
+    <t>Yellow pan trap counts 2024</t>
+  </si>
+  <si>
+    <t>Whether the Hymenoptera was completely (or almost completely) sorted to superfamily</t>
+  </si>
+  <si>
+    <t>sawflies</t>
+  </si>
+  <si>
+    <t>Predominately Dryinidae - pincer wasps</t>
+  </si>
+  <si>
+    <t>ants</t>
+  </si>
+  <si>
+    <t>Very rarely found, for example a hornet</t>
+  </si>
+  <si>
+    <t>spider wasps</t>
+  </si>
+  <si>
+    <t>bees, sphecids, crabronids, etc. (I sometimes had trouble distinguishing it from Vespoidea)</t>
+  </si>
+  <si>
+    <t>gall wasps, etc.</t>
+  </si>
+  <si>
+    <t>Entirely Diapriidae except for one Proctotrupidae individual</t>
+  </si>
+  <si>
+    <t>Ceraphronidae and Megaspilidae</t>
+  </si>
+  <si>
+    <t>Some intervals I just counted the total number of chalcidoids</t>
+  </si>
+  <si>
+    <t>Fairyflies</t>
+  </si>
+  <si>
+    <t>Other chalcidoids, not including Mymaridae or Encyrtidae</t>
+  </si>
+  <si>
+    <t>Platygastridae and Scelionidae</t>
+  </si>
+  <si>
+    <t>Flies - some tiny flies were missed</t>
+  </si>
+  <si>
+    <t>Includes a ton of small hemipterans which may be whiteflies (some of these were undoubtedly missed). Also includes leafhoppers, treehoppers, aphids, and many other hemipterans</t>
+  </si>
+  <si>
+    <t>Not including the previous categories. The following were not counted: thrips, mites, small larvae. Includes spiders, Mecoptera, Trichoptera, Psocodea, Neuroptera, Blattodea, millipedes, isopods, Archaeognatha, etc.</t>
   </si>
 </sst>
 </file>
@@ -3954,10 +4008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D88F145-B9A5-4ED2-BA4E-B069605466DD}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D152"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4690,6 +4744,207 @@
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>590</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="4" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
+        <v>1141</v>
       </c>
     </row>
   </sheetData>
@@ -64492,7 +64747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A0D07C-6179-4BF4-B897-92EFF7A18ED6}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A44" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
@@ -65937,7 +66192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2DF5E6-41F3-45D0-9FF1-99E9480E4095}">
   <dimension ref="A1:I150"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
@@ -69571,11 +69826,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1355A8E9-7FA3-45C2-9B00-12AFB3AD361D}">
   <dimension ref="A1:AC136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="Q47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q40" sqref="Q40"/>
+      <selection pane="bottomRight" activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Raw_data/EAB_Michigan_2024_raw_data_photos_removed.xlsx
+++ b/Raw_data/EAB_Michigan_2024_raw_data_photos_removed.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/EAB_Michigan_2024_2025_github_folder/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2151" documentId="8_{81CA749C-CDAC-43F8-B952-603FF177FEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1646F5D3-340E-4383-BB66-19D74D3F9C48}"/>
+  <xr:revisionPtr revIDLastSave="2161" documentId="8_{81CA749C-CDAC-43F8-B952-603FF177FEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EE81AD9-BCEF-47A9-86FB-98C20FE7C57A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="4" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="ash trees 2024" sheetId="3" r:id="rId5"/>
     <sheet name="trap locations 2024" sheetId="6" r:id="rId6"/>
     <sheet name="EAB trap collection 2024" sheetId="8" r:id="rId7"/>
-    <sheet name="yellow pan trap collection 2024" sheetId="9" r:id="rId8"/>
-    <sheet name="Yellow pan trap counts 2024" sheetId="11" r:id="rId9"/>
+    <sheet name="Yellow pan trap counts 2024" sheetId="11" r:id="rId8"/>
+    <sheet name="yellow pan trap collection 2024" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12874" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12858" uniqueCount="1233">
   <si>
     <t>center_tree_number</t>
   </si>
@@ -3641,9 +3641,6 @@
     <t>Spathius_galinae</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>large numbers of phorid flies</t>
   </si>
   <si>
@@ -3731,18 +3728,12 @@
     <t>Bug and fairyfly placed into the same vial</t>
   </si>
   <si>
-    <t>S galine and O agrili confirmed by T Petrice</t>
-  </si>
-  <si>
     <t>Lookalike of Tetrastichus planipennisi - looked at by T Petrice</t>
   </si>
   <si>
     <t>I put the bumblebee into the non Hymenoptera vial</t>
   </si>
   <si>
-    <t>Totals</t>
-  </si>
-  <si>
     <t>Possible Tetrastichus planipennisi - not verified by T Petrice</t>
   </si>
   <si>
@@ -3750,6 +3741,9 @@
   </si>
   <si>
     <t>A miniscule Scelionidae</t>
+  </si>
+  <si>
+    <t>S galinae and O agrili confirmed by T Petrice</t>
   </si>
 </sst>
 </file>
@@ -67378,3648 +67372,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2DF5E6-41F3-45D0-9FF1-99E9480E4095}">
-  <dimension ref="A1:I150"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1355A8E9-7FA3-45C2-9B00-12AFB3AD361D}">
+  <dimension ref="A1:AU136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G112" sqref="G112"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="11.08984375" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="B2" s="9">
-        <v>53</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="D2" s="9">
-        <v>101</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>487</v>
-      </c>
-      <c r="B3">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>512</v>
-      </c>
-      <c r="D3">
-        <v>101</v>
-      </c>
-      <c r="E3" t="s">
-        <v>559</v>
-      </c>
-      <c r="F3" t="s">
-        <v>609</v>
-      </c>
-      <c r="G3" t="s">
-        <v>442</v>
-      </c>
-      <c r="H3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>487</v>
-      </c>
-      <c r="B4">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D4">
-        <v>101</v>
-      </c>
-      <c r="E4" t="s">
-        <v>609</v>
-      </c>
-      <c r="F4" t="s">
-        <v>722</v>
-      </c>
-      <c r="G4" t="s">
-        <v>442</v>
-      </c>
-      <c r="H4" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>487</v>
-      </c>
-      <c r="B5">
-        <v>53</v>
-      </c>
-      <c r="C5" t="s">
-        <v>512</v>
-      </c>
-      <c r="D5">
-        <v>101</v>
-      </c>
-      <c r="E5" t="s">
-        <v>722</v>
-      </c>
-      <c r="F5" t="s">
-        <v>684</v>
-      </c>
-      <c r="G5" t="s">
-        <v>442</v>
-      </c>
-      <c r="H5" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>487</v>
-      </c>
-      <c r="B6">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>512</v>
-      </c>
-      <c r="D6">
-        <v>101</v>
-      </c>
-      <c r="E6" t="s">
-        <v>684</v>
-      </c>
-      <c r="F6" t="s">
-        <v>803</v>
-      </c>
-      <c r="G6" t="s">
-        <v>442</v>
-      </c>
-      <c r="H6" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>487</v>
-      </c>
-      <c r="B7">
-        <v>53</v>
-      </c>
-      <c r="C7" t="s">
-        <v>512</v>
-      </c>
-      <c r="D7">
-        <v>101</v>
-      </c>
-      <c r="E7" t="s">
-        <v>803</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G7" t="s">
-        <v>442</v>
-      </c>
-      <c r="H7" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>487</v>
-      </c>
-      <c r="B8">
-        <v>53</v>
-      </c>
-      <c r="C8" t="s">
-        <v>512</v>
-      </c>
-      <c r="D8">
-        <v>101</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F8" t="s">
-        <v>904</v>
-      </c>
-      <c r="G8" t="s">
-        <v>442</v>
-      </c>
-      <c r="H8" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>487</v>
-      </c>
-      <c r="B9">
-        <v>53</v>
-      </c>
-      <c r="C9" t="s">
-        <v>512</v>
-      </c>
-      <c r="D9">
-        <v>101</v>
-      </c>
-      <c r="E9" t="s">
-        <v>904</v>
-      </c>
-      <c r="F9" t="s">
-        <v>908</v>
-      </c>
-      <c r="G9" t="s">
-        <v>442</v>
-      </c>
-      <c r="H9" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>487</v>
-      </c>
-      <c r="B10">
-        <v>53</v>
-      </c>
-      <c r="C10" t="s">
-        <v>512</v>
-      </c>
-      <c r="D10">
-        <v>101</v>
-      </c>
-      <c r="E10" t="s">
-        <v>908</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G10" t="s">
-        <v>442</v>
-      </c>
-      <c r="H10" t="s">
-        <v>441</v>
-      </c>
-      <c r="I10" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="B12" s="9">
-        <v>53</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="D12" s="9">
-        <v>102</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>487</v>
-      </c>
-      <c r="B13">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
-        <v>512</v>
-      </c>
-      <c r="D13">
-        <v>102</v>
-      </c>
-      <c r="E13" t="s">
-        <v>559</v>
-      </c>
-      <c r="F13" t="s">
-        <v>609</v>
-      </c>
-      <c r="G13" t="s">
-        <v>442</v>
-      </c>
-      <c r="H13" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>487</v>
-      </c>
-      <c r="B14">
-        <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>512</v>
-      </c>
-      <c r="D14">
-        <v>102</v>
-      </c>
-      <c r="E14" t="s">
-        <v>609</v>
-      </c>
-      <c r="F14" t="s">
-        <v>722</v>
-      </c>
-      <c r="G14" t="s">
-        <v>442</v>
-      </c>
-      <c r="H14" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>487</v>
-      </c>
-      <c r="B15">
-        <v>53</v>
-      </c>
-      <c r="C15" t="s">
-        <v>512</v>
-      </c>
-      <c r="D15">
-        <v>102</v>
-      </c>
-      <c r="E15" t="s">
-        <v>722</v>
-      </c>
-      <c r="F15" t="s">
-        <v>684</v>
-      </c>
-      <c r="G15" t="s">
-        <v>442</v>
-      </c>
-      <c r="H15" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>487</v>
-      </c>
-      <c r="B16">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>512</v>
-      </c>
-      <c r="D16">
-        <v>102</v>
-      </c>
-      <c r="E16" t="s">
-        <v>684</v>
-      </c>
-      <c r="F16" t="s">
-        <v>803</v>
-      </c>
-      <c r="G16" t="s">
-        <v>442</v>
-      </c>
-      <c r="H16" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>487</v>
-      </c>
-      <c r="B17">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>512</v>
-      </c>
-      <c r="D17">
-        <v>102</v>
-      </c>
-      <c r="E17" t="s">
-        <v>803</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G17" t="s">
-        <v>442</v>
-      </c>
-      <c r="H17" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>487</v>
-      </c>
-      <c r="B18">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>512</v>
-      </c>
-      <c r="D18">
-        <v>102</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F18" t="s">
-        <v>904</v>
-      </c>
-      <c r="G18" t="s">
-        <v>442</v>
-      </c>
-      <c r="H18" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>487</v>
-      </c>
-      <c r="B19">
-        <v>53</v>
-      </c>
-      <c r="C19" t="s">
-        <v>512</v>
-      </c>
-      <c r="D19">
-        <v>102</v>
-      </c>
-      <c r="E19" t="s">
-        <v>904</v>
-      </c>
-      <c r="F19" t="s">
-        <v>908</v>
-      </c>
-      <c r="G19" t="s">
-        <v>442</v>
-      </c>
-      <c r="H19" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>487</v>
-      </c>
-      <c r="B20">
-        <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>512</v>
-      </c>
-      <c r="D20">
-        <v>102</v>
-      </c>
-      <c r="E20" t="s">
-        <v>908</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G20" t="s">
-        <v>442</v>
-      </c>
-      <c r="H20" t="s">
-        <v>441</v>
-      </c>
-      <c r="I20" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="B22" s="9">
-        <v>53</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="D22" s="9">
-        <v>103</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>487</v>
-      </c>
-      <c r="B23">
-        <v>53</v>
-      </c>
-      <c r="C23" t="s">
-        <v>512</v>
-      </c>
-      <c r="D23">
-        <v>103</v>
-      </c>
-      <c r="E23" t="s">
-        <v>559</v>
-      </c>
-      <c r="F23" t="s">
-        <v>609</v>
-      </c>
-      <c r="G23" t="s">
-        <v>442</v>
-      </c>
-      <c r="H23" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>487</v>
-      </c>
-      <c r="B24">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
-        <v>512</v>
-      </c>
-      <c r="D24">
-        <v>103</v>
-      </c>
-      <c r="E24" t="s">
-        <v>609</v>
-      </c>
-      <c r="F24" t="s">
-        <v>722</v>
-      </c>
-      <c r="G24" t="s">
-        <v>442</v>
-      </c>
-      <c r="H24" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>487</v>
-      </c>
-      <c r="B25">
-        <v>53</v>
-      </c>
-      <c r="C25" t="s">
-        <v>512</v>
-      </c>
-      <c r="D25">
-        <v>103</v>
-      </c>
-      <c r="E25" t="s">
-        <v>722</v>
-      </c>
-      <c r="F25" t="s">
-        <v>684</v>
-      </c>
-      <c r="G25" t="s">
-        <v>442</v>
-      </c>
-      <c r="H25" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>487</v>
-      </c>
-      <c r="B26">
-        <v>53</v>
-      </c>
-      <c r="C26" t="s">
-        <v>512</v>
-      </c>
-      <c r="D26">
-        <v>103</v>
-      </c>
-      <c r="E26" t="s">
-        <v>684</v>
-      </c>
-      <c r="F26" t="s">
-        <v>803</v>
-      </c>
-      <c r="G26" t="s">
-        <v>442</v>
-      </c>
-      <c r="H26" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>487</v>
-      </c>
-      <c r="B27">
-        <v>53</v>
-      </c>
-      <c r="C27" t="s">
-        <v>512</v>
-      </c>
-      <c r="D27">
-        <v>103</v>
-      </c>
-      <c r="E27" t="s">
-        <v>803</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G27" t="s">
-        <v>442</v>
-      </c>
-      <c r="H27" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>487</v>
-      </c>
-      <c r="B28">
-        <v>53</v>
-      </c>
-      <c r="C28" t="s">
-        <v>512</v>
-      </c>
-      <c r="D28">
-        <v>103</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F28" t="s">
-        <v>904</v>
-      </c>
-      <c r="G28" t="s">
-        <v>442</v>
-      </c>
-      <c r="H28" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B29">
-        <v>53</v>
-      </c>
-      <c r="C29" t="s">
-        <v>512</v>
-      </c>
-      <c r="D29">
-        <v>103</v>
-      </c>
-      <c r="E29" t="s">
-        <v>904</v>
-      </c>
-      <c r="F29" t="s">
-        <v>908</v>
-      </c>
-      <c r="G29" t="s">
-        <v>442</v>
-      </c>
-      <c r="H29" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>487</v>
-      </c>
-      <c r="B30">
-        <v>53</v>
-      </c>
-      <c r="C30" t="s">
-        <v>512</v>
-      </c>
-      <c r="D30">
-        <v>103</v>
-      </c>
-      <c r="E30" t="s">
-        <v>908</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G30" t="s">
-        <v>442</v>
-      </c>
-      <c r="H30" t="s">
-        <v>441</v>
-      </c>
-      <c r="I30" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="B32" s="9">
-        <v>53</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="D32" s="9">
-        <v>104</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>487</v>
-      </c>
-      <c r="B33">
-        <v>53</v>
-      </c>
-      <c r="C33" t="s">
-        <v>512</v>
-      </c>
-      <c r="D33">
-        <v>104</v>
-      </c>
-      <c r="E33" t="s">
-        <v>559</v>
-      </c>
-      <c r="F33" t="s">
-        <v>609</v>
-      </c>
-      <c r="G33" t="s">
-        <v>442</v>
-      </c>
-      <c r="H33" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>487</v>
-      </c>
-      <c r="B34">
-        <v>53</v>
-      </c>
-      <c r="C34" t="s">
-        <v>512</v>
-      </c>
-      <c r="D34">
-        <v>104</v>
-      </c>
-      <c r="E34" t="s">
-        <v>609</v>
-      </c>
-      <c r="F34" t="s">
-        <v>722</v>
-      </c>
-      <c r="G34" t="s">
-        <v>442</v>
-      </c>
-      <c r="H34" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>487</v>
-      </c>
-      <c r="B35">
-        <v>53</v>
-      </c>
-      <c r="C35" t="s">
-        <v>512</v>
-      </c>
-      <c r="D35">
-        <v>104</v>
-      </c>
-      <c r="E35" t="s">
-        <v>722</v>
-      </c>
-      <c r="F35" t="s">
-        <v>684</v>
-      </c>
-      <c r="G35" t="s">
-        <v>442</v>
-      </c>
-      <c r="H35" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>487</v>
-      </c>
-      <c r="B36">
-        <v>53</v>
-      </c>
-      <c r="C36" t="s">
-        <v>512</v>
-      </c>
-      <c r="D36">
-        <v>104</v>
-      </c>
-      <c r="E36" t="s">
-        <v>684</v>
-      </c>
-      <c r="F36" t="s">
-        <v>803</v>
-      </c>
-      <c r="G36" t="s">
-        <v>442</v>
-      </c>
-      <c r="H36" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>487</v>
-      </c>
-      <c r="B37">
-        <v>53</v>
-      </c>
-      <c r="C37" t="s">
-        <v>512</v>
-      </c>
-      <c r="D37">
-        <v>104</v>
-      </c>
-      <c r="E37" t="s">
-        <v>803</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G37" t="s">
-        <v>442</v>
-      </c>
-      <c r="H37" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>487</v>
-      </c>
-      <c r="B38">
-        <v>53</v>
-      </c>
-      <c r="C38" t="s">
-        <v>512</v>
-      </c>
-      <c r="D38">
-        <v>104</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F38" t="s">
-        <v>904</v>
-      </c>
-      <c r="G38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H38" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>487</v>
-      </c>
-      <c r="B39">
-        <v>53</v>
-      </c>
-      <c r="C39" t="s">
-        <v>512</v>
-      </c>
-      <c r="D39">
-        <v>104</v>
-      </c>
-      <c r="E39" t="s">
-        <v>904</v>
-      </c>
-      <c r="F39" t="s">
-        <v>908</v>
-      </c>
-      <c r="G39" t="s">
-        <v>442</v>
-      </c>
-      <c r="H39" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>487</v>
-      </c>
-      <c r="B40">
-        <v>53</v>
-      </c>
-      <c r="C40" t="s">
-        <v>512</v>
-      </c>
-      <c r="D40">
-        <v>104</v>
-      </c>
-      <c r="E40" t="s">
-        <v>908</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G40" t="s">
-        <v>442</v>
-      </c>
-      <c r="H40" t="s">
-        <v>441</v>
-      </c>
-      <c r="I40" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="B42" s="9">
-        <v>53</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="D42" s="9">
-        <v>105</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>487</v>
-      </c>
-      <c r="B43">
-        <v>53</v>
-      </c>
-      <c r="C43" t="s">
-        <v>512</v>
-      </c>
-      <c r="D43">
-        <v>105</v>
-      </c>
-      <c r="E43" t="s">
-        <v>559</v>
-      </c>
-      <c r="F43" t="s">
-        <v>609</v>
-      </c>
-      <c r="G43" t="s">
-        <v>442</v>
-      </c>
-      <c r="H43" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>487</v>
-      </c>
-      <c r="B44">
-        <v>53</v>
-      </c>
-      <c r="C44" t="s">
-        <v>512</v>
-      </c>
-      <c r="D44">
-        <v>105</v>
-      </c>
-      <c r="E44" t="s">
-        <v>609</v>
-      </c>
-      <c r="F44" t="s">
-        <v>722</v>
-      </c>
-      <c r="G44" t="s">
-        <v>442</v>
-      </c>
-      <c r="H44" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>487</v>
-      </c>
-      <c r="B45">
-        <v>53</v>
-      </c>
-      <c r="C45" t="s">
-        <v>512</v>
-      </c>
-      <c r="D45">
-        <v>105</v>
-      </c>
-      <c r="E45" t="s">
-        <v>722</v>
-      </c>
-      <c r="F45" t="s">
-        <v>684</v>
-      </c>
-      <c r="G45" t="s">
-        <v>442</v>
-      </c>
-      <c r="H45" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>487</v>
-      </c>
-      <c r="B46">
-        <v>53</v>
-      </c>
-      <c r="C46" t="s">
-        <v>512</v>
-      </c>
-      <c r="D46">
-        <v>105</v>
-      </c>
-      <c r="E46" t="s">
-        <v>684</v>
-      </c>
-      <c r="F46" t="s">
-        <v>803</v>
-      </c>
-      <c r="G46" t="s">
-        <v>442</v>
-      </c>
-      <c r="H46" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>487</v>
-      </c>
-      <c r="B47">
-        <v>53</v>
-      </c>
-      <c r="C47" t="s">
-        <v>512</v>
-      </c>
-      <c r="D47">
-        <v>105</v>
-      </c>
-      <c r="E47" t="s">
-        <v>803</v>
-      </c>
-      <c r="F47" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G47" t="s">
-        <v>442</v>
-      </c>
-      <c r="H47" t="s">
-        <v>441</v>
-      </c>
-      <c r="I47" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>487</v>
-      </c>
-      <c r="B48">
-        <v>53</v>
-      </c>
-      <c r="C48" t="s">
-        <v>512</v>
-      </c>
-      <c r="D48">
-        <v>105</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F48" t="s">
-        <v>904</v>
-      </c>
-      <c r="G48" t="s">
-        <v>442</v>
-      </c>
-      <c r="H48" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>487</v>
-      </c>
-      <c r="B49">
-        <v>53</v>
-      </c>
-      <c r="C49" t="s">
-        <v>512</v>
-      </c>
-      <c r="D49">
-        <v>105</v>
-      </c>
-      <c r="E49" t="s">
-        <v>904</v>
-      </c>
-      <c r="F49" t="s">
-        <v>908</v>
-      </c>
-      <c r="G49" t="s">
-        <v>442</v>
-      </c>
-      <c r="H49" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>487</v>
-      </c>
-      <c r="B50">
-        <v>53</v>
-      </c>
-      <c r="C50" t="s">
-        <v>512</v>
-      </c>
-      <c r="D50">
-        <v>105</v>
-      </c>
-      <c r="E50" t="s">
-        <v>908</v>
-      </c>
-      <c r="F50" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G50" t="s">
-        <v>442</v>
-      </c>
-      <c r="H50" t="s">
-        <v>441</v>
-      </c>
-      <c r="I50" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="B52" s="9">
-        <v>53</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="D52" s="9">
-        <v>106</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>487</v>
-      </c>
-      <c r="B53">
-        <v>53</v>
-      </c>
-      <c r="C53" t="s">
-        <v>512</v>
-      </c>
-      <c r="D53">
-        <v>106</v>
-      </c>
-      <c r="E53" t="s">
-        <v>559</v>
-      </c>
-      <c r="F53" t="s">
-        <v>609</v>
-      </c>
-      <c r="G53" t="s">
-        <v>442</v>
-      </c>
-      <c r="H53" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>487</v>
-      </c>
-      <c r="B54">
-        <v>53</v>
-      </c>
-      <c r="C54" t="s">
-        <v>512</v>
-      </c>
-      <c r="D54">
-        <v>106</v>
-      </c>
-      <c r="E54" t="s">
-        <v>609</v>
-      </c>
-      <c r="F54" t="s">
-        <v>722</v>
-      </c>
-      <c r="G54" t="s">
-        <v>442</v>
-      </c>
-      <c r="H54" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>487</v>
-      </c>
-      <c r="B55">
-        <v>53</v>
-      </c>
-      <c r="C55" t="s">
-        <v>512</v>
-      </c>
-      <c r="D55">
-        <v>106</v>
-      </c>
-      <c r="E55" t="s">
-        <v>722</v>
-      </c>
-      <c r="F55" t="s">
-        <v>684</v>
-      </c>
-      <c r="G55" t="s">
-        <v>442</v>
-      </c>
-      <c r="H55" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>487</v>
-      </c>
-      <c r="B56">
-        <v>53</v>
-      </c>
-      <c r="C56" t="s">
-        <v>512</v>
-      </c>
-      <c r="D56">
-        <v>106</v>
-      </c>
-      <c r="E56" t="s">
-        <v>684</v>
-      </c>
-      <c r="F56" t="s">
-        <v>803</v>
-      </c>
-      <c r="G56" t="s">
-        <v>442</v>
-      </c>
-      <c r="H56" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>487</v>
-      </c>
-      <c r="B57">
-        <v>53</v>
-      </c>
-      <c r="C57" t="s">
-        <v>512</v>
-      </c>
-      <c r="D57">
-        <v>106</v>
-      </c>
-      <c r="E57" t="s">
-        <v>803</v>
-      </c>
-      <c r="F57" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G57" t="s">
-        <v>442</v>
-      </c>
-      <c r="H57" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>487</v>
-      </c>
-      <c r="B58">
-        <v>53</v>
-      </c>
-      <c r="C58" t="s">
-        <v>512</v>
-      </c>
-      <c r="D58">
-        <v>106</v>
-      </c>
-      <c r="E58" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F58" t="s">
-        <v>904</v>
-      </c>
-      <c r="G58" t="s">
-        <v>442</v>
-      </c>
-      <c r="H58" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>487</v>
-      </c>
-      <c r="B59">
-        <v>53</v>
-      </c>
-      <c r="C59" t="s">
-        <v>512</v>
-      </c>
-      <c r="D59">
-        <v>106</v>
-      </c>
-      <c r="E59" t="s">
-        <v>904</v>
-      </c>
-      <c r="F59" t="s">
-        <v>908</v>
-      </c>
-      <c r="G59" t="s">
-        <v>442</v>
-      </c>
-      <c r="H59" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>487</v>
-      </c>
-      <c r="B60">
-        <v>53</v>
-      </c>
-      <c r="C60" t="s">
-        <v>512</v>
-      </c>
-      <c r="D60">
-        <v>106</v>
-      </c>
-      <c r="E60" t="s">
-        <v>908</v>
-      </c>
-      <c r="F60" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G60" t="s">
-        <v>442</v>
-      </c>
-      <c r="H60" t="s">
-        <v>441</v>
-      </c>
-      <c r="I60" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="B62" s="9">
-        <v>53</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="D62" s="9">
-        <v>107</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="I62" s="9" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>487</v>
-      </c>
-      <c r="B63">
-        <v>53</v>
-      </c>
-      <c r="C63" t="s">
-        <v>512</v>
-      </c>
-      <c r="D63">
-        <v>107</v>
-      </c>
-      <c r="E63" t="s">
-        <v>559</v>
-      </c>
-      <c r="F63" t="s">
-        <v>609</v>
-      </c>
-      <c r="G63" t="s">
-        <v>442</v>
-      </c>
-      <c r="H63" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>487</v>
-      </c>
-      <c r="B64">
-        <v>53</v>
-      </c>
-      <c r="C64" t="s">
-        <v>512</v>
-      </c>
-      <c r="D64">
-        <v>107</v>
-      </c>
-      <c r="E64" t="s">
-        <v>609</v>
-      </c>
-      <c r="F64" t="s">
-        <v>722</v>
-      </c>
-      <c r="G64" t="s">
-        <v>442</v>
-      </c>
-      <c r="H64" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>487</v>
-      </c>
-      <c r="B65">
-        <v>53</v>
-      </c>
-      <c r="C65" t="s">
-        <v>512</v>
-      </c>
-      <c r="D65">
-        <v>107</v>
-      </c>
-      <c r="E65" t="s">
-        <v>722</v>
-      </c>
-      <c r="F65" t="s">
-        <v>684</v>
-      </c>
-      <c r="G65" t="s">
-        <v>442</v>
-      </c>
-      <c r="H65" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>487</v>
-      </c>
-      <c r="B66">
-        <v>53</v>
-      </c>
-      <c r="C66" t="s">
-        <v>512</v>
-      </c>
-      <c r="D66">
-        <v>107</v>
-      </c>
-      <c r="E66" t="s">
-        <v>684</v>
-      </c>
-      <c r="F66" t="s">
-        <v>803</v>
-      </c>
-      <c r="G66" t="s">
-        <v>442</v>
-      </c>
-      <c r="H66" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>487</v>
-      </c>
-      <c r="B67">
-        <v>53</v>
-      </c>
-      <c r="C67" t="s">
-        <v>512</v>
-      </c>
-      <c r="D67">
-        <v>107</v>
-      </c>
-      <c r="E67" t="s">
-        <v>803</v>
-      </c>
-      <c r="F67" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G67" t="s">
-        <v>442</v>
-      </c>
-      <c r="H67" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>487</v>
-      </c>
-      <c r="B68">
-        <v>53</v>
-      </c>
-      <c r="C68" t="s">
-        <v>512</v>
-      </c>
-      <c r="D68">
-        <v>107</v>
-      </c>
-      <c r="E68" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F68" t="s">
-        <v>904</v>
-      </c>
-      <c r="G68" t="s">
-        <v>442</v>
-      </c>
-      <c r="H68" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>487</v>
-      </c>
-      <c r="B69">
-        <v>53</v>
-      </c>
-      <c r="C69" t="s">
-        <v>512</v>
-      </c>
-      <c r="D69">
-        <v>107</v>
-      </c>
-      <c r="E69" t="s">
-        <v>904</v>
-      </c>
-      <c r="F69" t="s">
-        <v>908</v>
-      </c>
-      <c r="G69" t="s">
-        <v>442</v>
-      </c>
-      <c r="H69" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>487</v>
-      </c>
-      <c r="B70">
-        <v>53</v>
-      </c>
-      <c r="C70" t="s">
-        <v>512</v>
-      </c>
-      <c r="D70">
-        <v>107</v>
-      </c>
-      <c r="E70" t="s">
-        <v>908</v>
-      </c>
-      <c r="F70" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G70" t="s">
-        <v>442</v>
-      </c>
-      <c r="H70" t="s">
-        <v>441</v>
-      </c>
-      <c r="I70" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="B72" s="9">
-        <v>53</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="D72" s="9">
-        <v>108</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="I72" s="9" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>487</v>
-      </c>
-      <c r="B73">
-        <v>53</v>
-      </c>
-      <c r="C73" t="s">
-        <v>512</v>
-      </c>
-      <c r="D73">
-        <v>108</v>
-      </c>
-      <c r="E73" t="s">
-        <v>559</v>
-      </c>
-      <c r="F73" t="s">
-        <v>609</v>
-      </c>
-      <c r="G73" t="s">
-        <v>442</v>
-      </c>
-      <c r="H73" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>487</v>
-      </c>
-      <c r="B74">
-        <v>53</v>
-      </c>
-      <c r="C74" t="s">
-        <v>512</v>
-      </c>
-      <c r="D74">
-        <v>108</v>
-      </c>
-      <c r="E74" t="s">
-        <v>609</v>
-      </c>
-      <c r="F74" t="s">
-        <v>722</v>
-      </c>
-      <c r="G74" t="s">
-        <v>442</v>
-      </c>
-      <c r="H74" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>487</v>
-      </c>
-      <c r="B75">
-        <v>53</v>
-      </c>
-      <c r="C75" t="s">
-        <v>512</v>
-      </c>
-      <c r="D75">
-        <v>108</v>
-      </c>
-      <c r="E75" t="s">
-        <v>722</v>
-      </c>
-      <c r="F75" t="s">
-        <v>684</v>
-      </c>
-      <c r="G75" t="s">
-        <v>442</v>
-      </c>
-      <c r="H75" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>487</v>
-      </c>
-      <c r="B76">
-        <v>53</v>
-      </c>
-      <c r="C76" t="s">
-        <v>512</v>
-      </c>
-      <c r="D76">
-        <v>108</v>
-      </c>
-      <c r="E76" t="s">
-        <v>684</v>
-      </c>
-      <c r="F76" t="s">
-        <v>803</v>
-      </c>
-      <c r="G76" t="s">
-        <v>442</v>
-      </c>
-      <c r="H76" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>487</v>
-      </c>
-      <c r="B77">
-        <v>53</v>
-      </c>
-      <c r="C77" t="s">
-        <v>512</v>
-      </c>
-      <c r="D77">
-        <v>108</v>
-      </c>
-      <c r="E77" t="s">
-        <v>803</v>
-      </c>
-      <c r="F77" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G77" t="s">
-        <v>442</v>
-      </c>
-      <c r="H77" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>487</v>
-      </c>
-      <c r="B78">
-        <v>53</v>
-      </c>
-      <c r="C78" t="s">
-        <v>512</v>
-      </c>
-      <c r="D78">
-        <v>108</v>
-      </c>
-      <c r="E78" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F78" t="s">
-        <v>904</v>
-      </c>
-      <c r="G78" t="s">
-        <v>442</v>
-      </c>
-      <c r="H78" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>487</v>
-      </c>
-      <c r="B79">
-        <v>53</v>
-      </c>
-      <c r="C79" t="s">
-        <v>512</v>
-      </c>
-      <c r="D79">
-        <v>108</v>
-      </c>
-      <c r="E79" t="s">
-        <v>904</v>
-      </c>
-      <c r="F79" t="s">
-        <v>908</v>
-      </c>
-      <c r="G79" t="s">
-        <v>442</v>
-      </c>
-      <c r="H79" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>487</v>
-      </c>
-      <c r="B80">
-        <v>53</v>
-      </c>
-      <c r="C80" t="s">
-        <v>512</v>
-      </c>
-      <c r="D80">
-        <v>108</v>
-      </c>
-      <c r="E80" t="s">
-        <v>908</v>
-      </c>
-      <c r="F80" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G80" t="s">
-        <v>442</v>
-      </c>
-      <c r="H80" t="s">
-        <v>441</v>
-      </c>
-      <c r="I80" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="B82" s="9">
-        <v>53</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="D82" s="9">
-        <v>109</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="I82" s="9" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>487</v>
-      </c>
-      <c r="B83">
-        <v>53</v>
-      </c>
-      <c r="C83" t="s">
-        <v>512</v>
-      </c>
-      <c r="D83">
-        <v>109</v>
-      </c>
-      <c r="E83" t="s">
-        <v>559</v>
-      </c>
-      <c r="F83" t="s">
-        <v>609</v>
-      </c>
-      <c r="G83" t="s">
-        <v>442</v>
-      </c>
-      <c r="H83" t="s">
-        <v>441</v>
-      </c>
-      <c r="I83" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>487</v>
-      </c>
-      <c r="B84">
-        <v>53</v>
-      </c>
-      <c r="C84" t="s">
-        <v>512</v>
-      </c>
-      <c r="D84">
-        <v>109</v>
-      </c>
-      <c r="E84" t="s">
-        <v>609</v>
-      </c>
-      <c r="F84" t="s">
-        <v>722</v>
-      </c>
-      <c r="G84" t="s">
-        <v>442</v>
-      </c>
-      <c r="H84" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>487</v>
-      </c>
-      <c r="B85">
-        <v>53</v>
-      </c>
-      <c r="C85" t="s">
-        <v>512</v>
-      </c>
-      <c r="D85">
-        <v>109</v>
-      </c>
-      <c r="E85" t="s">
-        <v>722</v>
-      </c>
-      <c r="F85" t="s">
-        <v>684</v>
-      </c>
-      <c r="G85" t="s">
-        <v>442</v>
-      </c>
-      <c r="H85" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>487</v>
-      </c>
-      <c r="B86">
-        <v>53</v>
-      </c>
-      <c r="C86" t="s">
-        <v>512</v>
-      </c>
-      <c r="D86">
-        <v>109</v>
-      </c>
-      <c r="E86" t="s">
-        <v>684</v>
-      </c>
-      <c r="F86" t="s">
-        <v>803</v>
-      </c>
-      <c r="G86" t="s">
-        <v>442</v>
-      </c>
-      <c r="H86" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>487</v>
-      </c>
-      <c r="B87">
-        <v>53</v>
-      </c>
-      <c r="C87" t="s">
-        <v>512</v>
-      </c>
-      <c r="D87">
-        <v>109</v>
-      </c>
-      <c r="E87" t="s">
-        <v>803</v>
-      </c>
-      <c r="F87" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G87" t="s">
-        <v>442</v>
-      </c>
-      <c r="H87" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>487</v>
-      </c>
-      <c r="B88">
-        <v>53</v>
-      </c>
-      <c r="C88" t="s">
-        <v>512</v>
-      </c>
-      <c r="D88">
-        <v>109</v>
-      </c>
-      <c r="E88" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F88" t="s">
-        <v>904</v>
-      </c>
-      <c r="G88" t="s">
-        <v>442</v>
-      </c>
-      <c r="H88" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>487</v>
-      </c>
-      <c r="B89">
-        <v>53</v>
-      </c>
-      <c r="C89" t="s">
-        <v>512</v>
-      </c>
-      <c r="D89">
-        <v>109</v>
-      </c>
-      <c r="E89" t="s">
-        <v>904</v>
-      </c>
-      <c r="F89" t="s">
-        <v>908</v>
-      </c>
-      <c r="G89" t="s">
-        <v>442</v>
-      </c>
-      <c r="H89" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>487</v>
-      </c>
-      <c r="B90">
-        <v>53</v>
-      </c>
-      <c r="C90" t="s">
-        <v>512</v>
-      </c>
-      <c r="D90">
-        <v>109</v>
-      </c>
-      <c r="E90" t="s">
-        <v>908</v>
-      </c>
-      <c r="F90" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G90" t="s">
-        <v>442</v>
-      </c>
-      <c r="H90" t="s">
-        <v>441</v>
-      </c>
-      <c r="I90" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="B92" s="9">
-        <v>53</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="D92" s="9">
-        <v>110</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="I92" s="9" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>487</v>
-      </c>
-      <c r="B93">
-        <v>53</v>
-      </c>
-      <c r="C93" t="s">
-        <v>512</v>
-      </c>
-      <c r="D93">
-        <v>110</v>
-      </c>
-      <c r="E93" t="s">
-        <v>559</v>
-      </c>
-      <c r="F93" t="s">
-        <v>609</v>
-      </c>
-      <c r="G93" t="s">
-        <v>442</v>
-      </c>
-      <c r="H93" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>487</v>
-      </c>
-      <c r="B94">
-        <v>53</v>
-      </c>
-      <c r="C94" t="s">
-        <v>512</v>
-      </c>
-      <c r="D94">
-        <v>110</v>
-      </c>
-      <c r="E94" t="s">
-        <v>609</v>
-      </c>
-      <c r="F94" t="s">
-        <v>722</v>
-      </c>
-      <c r="G94" t="s">
-        <v>442</v>
-      </c>
-      <c r="H94" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>487</v>
-      </c>
-      <c r="B95">
-        <v>53</v>
-      </c>
-      <c r="C95" t="s">
-        <v>512</v>
-      </c>
-      <c r="D95">
-        <v>110</v>
-      </c>
-      <c r="E95" t="s">
-        <v>722</v>
-      </c>
-      <c r="F95" t="s">
-        <v>684</v>
-      </c>
-      <c r="G95" t="s">
-        <v>442</v>
-      </c>
-      <c r="H95" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>487</v>
-      </c>
-      <c r="B96">
-        <v>53</v>
-      </c>
-      <c r="C96" t="s">
-        <v>512</v>
-      </c>
-      <c r="D96">
-        <v>110</v>
-      </c>
-      <c r="E96" t="s">
-        <v>684</v>
-      </c>
-      <c r="F96" t="s">
-        <v>803</v>
-      </c>
-      <c r="G96" t="s">
-        <v>442</v>
-      </c>
-      <c r="H96" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>487</v>
-      </c>
-      <c r="B97">
-        <v>53</v>
-      </c>
-      <c r="C97" t="s">
-        <v>512</v>
-      </c>
-      <c r="D97">
-        <v>110</v>
-      </c>
-      <c r="E97" t="s">
-        <v>803</v>
-      </c>
-      <c r="F97" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G97" t="s">
-        <v>442</v>
-      </c>
-      <c r="H97" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>487</v>
-      </c>
-      <c r="B98">
-        <v>53</v>
-      </c>
-      <c r="C98" t="s">
-        <v>512</v>
-      </c>
-      <c r="D98">
-        <v>110</v>
-      </c>
-      <c r="E98" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F98" t="s">
-        <v>904</v>
-      </c>
-      <c r="G98" t="s">
-        <v>442</v>
-      </c>
-      <c r="H98" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>487</v>
-      </c>
-      <c r="B99">
-        <v>53</v>
-      </c>
-      <c r="C99" t="s">
-        <v>512</v>
-      </c>
-      <c r="D99">
-        <v>110</v>
-      </c>
-      <c r="E99" t="s">
-        <v>904</v>
-      </c>
-      <c r="F99" t="s">
-        <v>908</v>
-      </c>
-      <c r="G99" t="s">
-        <v>442</v>
-      </c>
-      <c r="H99" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>487</v>
-      </c>
-      <c r="B100">
-        <v>53</v>
-      </c>
-      <c r="C100" t="s">
-        <v>512</v>
-      </c>
-      <c r="D100">
-        <v>110</v>
-      </c>
-      <c r="E100" t="s">
-        <v>908</v>
-      </c>
-      <c r="F100" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G100" t="s">
-        <v>442</v>
-      </c>
-      <c r="H100" t="s">
-        <v>441</v>
-      </c>
-      <c r="I100" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="B102" s="9">
-        <v>53</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="D102" s="9">
-        <v>111</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="G102" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="H102" s="9" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>487</v>
-      </c>
-      <c r="B103">
-        <v>53</v>
-      </c>
-      <c r="C103" t="s">
-        <v>512</v>
-      </c>
-      <c r="D103">
-        <v>111</v>
-      </c>
-      <c r="E103" t="s">
-        <v>559</v>
-      </c>
-      <c r="F103" t="s">
-        <v>609</v>
-      </c>
-      <c r="G103" t="s">
-        <v>442</v>
-      </c>
-      <c r="H103" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>487</v>
-      </c>
-      <c r="B104">
-        <v>53</v>
-      </c>
-      <c r="C104" t="s">
-        <v>512</v>
-      </c>
-      <c r="D104">
-        <v>111</v>
-      </c>
-      <c r="E104" t="s">
-        <v>609</v>
-      </c>
-      <c r="F104" t="s">
-        <v>722</v>
-      </c>
-      <c r="G104" t="s">
-        <v>442</v>
-      </c>
-      <c r="H104" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>487</v>
-      </c>
-      <c r="B105">
-        <v>53</v>
-      </c>
-      <c r="C105" t="s">
-        <v>512</v>
-      </c>
-      <c r="D105">
-        <v>111</v>
-      </c>
-      <c r="E105" t="s">
-        <v>722</v>
-      </c>
-      <c r="F105" t="s">
-        <v>684</v>
-      </c>
-      <c r="G105" t="s">
-        <v>442</v>
-      </c>
-      <c r="H105" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>487</v>
-      </c>
-      <c r="B106">
-        <v>53</v>
-      </c>
-      <c r="C106" t="s">
-        <v>512</v>
-      </c>
-      <c r="D106">
-        <v>111</v>
-      </c>
-      <c r="E106" t="s">
-        <v>684</v>
-      </c>
-      <c r="F106" t="s">
-        <v>803</v>
-      </c>
-      <c r="G106" t="s">
-        <v>442</v>
-      </c>
-      <c r="H106" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>487</v>
-      </c>
-      <c r="B107">
-        <v>53</v>
-      </c>
-      <c r="C107" t="s">
-        <v>512</v>
-      </c>
-      <c r="D107">
-        <v>111</v>
-      </c>
-      <c r="E107" t="s">
-        <v>803</v>
-      </c>
-      <c r="F107" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G107" t="s">
-        <v>442</v>
-      </c>
-      <c r="H107" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>487</v>
-      </c>
-      <c r="B108">
-        <v>53</v>
-      </c>
-      <c r="C108" t="s">
-        <v>512</v>
-      </c>
-      <c r="D108">
-        <v>111</v>
-      </c>
-      <c r="E108" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F108" t="s">
-        <v>904</v>
-      </c>
-      <c r="G108" t="s">
-        <v>442</v>
-      </c>
-      <c r="H108" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>487</v>
-      </c>
-      <c r="B109">
-        <v>53</v>
-      </c>
-      <c r="C109" t="s">
-        <v>512</v>
-      </c>
-      <c r="D109">
-        <v>111</v>
-      </c>
-      <c r="E109" t="s">
-        <v>904</v>
-      </c>
-      <c r="F109" t="s">
-        <v>908</v>
-      </c>
-      <c r="G109" t="s">
-        <v>442</v>
-      </c>
-      <c r="H109" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>487</v>
-      </c>
-      <c r="B110">
-        <v>53</v>
-      </c>
-      <c r="C110" t="s">
-        <v>512</v>
-      </c>
-      <c r="D110">
-        <v>111</v>
-      </c>
-      <c r="E110" t="s">
-        <v>908</v>
-      </c>
-      <c r="F110" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G110" t="s">
-        <v>442</v>
-      </c>
-      <c r="H110" t="s">
-        <v>441</v>
-      </c>
-      <c r="I110" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="B112" s="9">
-        <v>53</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="D112" s="9">
-        <v>112</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="F112" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="G112" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="H112" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="I112" s="9" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>487</v>
-      </c>
-      <c r="B113">
-        <v>53</v>
-      </c>
-      <c r="C113" t="s">
-        <v>512</v>
-      </c>
-      <c r="D113">
-        <v>112</v>
-      </c>
-      <c r="E113" t="s">
-        <v>559</v>
-      </c>
-      <c r="F113" t="s">
-        <v>609</v>
-      </c>
-      <c r="G113" t="s">
-        <v>442</v>
-      </c>
-      <c r="H113" t="s">
-        <v>441</v>
-      </c>
-      <c r="I113" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>487</v>
-      </c>
-      <c r="B114">
-        <v>53</v>
-      </c>
-      <c r="C114" t="s">
-        <v>512</v>
-      </c>
-      <c r="D114">
-        <v>112</v>
-      </c>
-      <c r="E114" t="s">
-        <v>609</v>
-      </c>
-      <c r="F114" t="s">
-        <v>722</v>
-      </c>
-      <c r="G114" t="s">
-        <v>442</v>
-      </c>
-      <c r="H114" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>487</v>
-      </c>
-      <c r="B115">
-        <v>53</v>
-      </c>
-      <c r="C115" t="s">
-        <v>512</v>
-      </c>
-      <c r="D115">
-        <v>112</v>
-      </c>
-      <c r="E115" t="s">
-        <v>722</v>
-      </c>
-      <c r="F115" t="s">
-        <v>684</v>
-      </c>
-      <c r="G115" t="s">
-        <v>442</v>
-      </c>
-      <c r="H115" t="s">
-        <v>441</v>
-      </c>
-      <c r="I115" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>487</v>
-      </c>
-      <c r="B116">
-        <v>53</v>
-      </c>
-      <c r="C116" t="s">
-        <v>512</v>
-      </c>
-      <c r="D116">
-        <v>112</v>
-      </c>
-      <c r="E116" t="s">
-        <v>684</v>
-      </c>
-      <c r="F116" t="s">
-        <v>803</v>
-      </c>
-      <c r="G116" t="s">
-        <v>442</v>
-      </c>
-      <c r="H116" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>487</v>
-      </c>
-      <c r="B117">
-        <v>53</v>
-      </c>
-      <c r="C117" t="s">
-        <v>512</v>
-      </c>
-      <c r="D117">
-        <v>112</v>
-      </c>
-      <c r="E117" t="s">
-        <v>803</v>
-      </c>
-      <c r="F117" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G117" t="s">
-        <v>442</v>
-      </c>
-      <c r="H117" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>487</v>
-      </c>
-      <c r="B118">
-        <v>53</v>
-      </c>
-      <c r="C118" t="s">
-        <v>512</v>
-      </c>
-      <c r="D118">
-        <v>112</v>
-      </c>
-      <c r="E118" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F118" t="s">
-        <v>904</v>
-      </c>
-      <c r="G118" t="s">
-        <v>442</v>
-      </c>
-      <c r="H118" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>487</v>
-      </c>
-      <c r="B119">
-        <v>53</v>
-      </c>
-      <c r="C119" t="s">
-        <v>512</v>
-      </c>
-      <c r="D119">
-        <v>112</v>
-      </c>
-      <c r="E119" t="s">
-        <v>904</v>
-      </c>
-      <c r="F119" t="s">
-        <v>908</v>
-      </c>
-      <c r="G119" t="s">
-        <v>442</v>
-      </c>
-      <c r="H119" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>487</v>
-      </c>
-      <c r="B120">
-        <v>53</v>
-      </c>
-      <c r="C120" t="s">
-        <v>512</v>
-      </c>
-      <c r="D120">
-        <v>112</v>
-      </c>
-      <c r="E120" t="s">
-        <v>908</v>
-      </c>
-      <c r="F120" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G120" t="s">
-        <v>442</v>
-      </c>
-      <c r="H120" t="s">
-        <v>441</v>
-      </c>
-      <c r="I120" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="B122" s="9">
-        <v>53</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="D122" s="9">
-        <v>113</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="F122" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="G122" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="H122" s="9" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>487</v>
-      </c>
-      <c r="B123">
-        <v>53</v>
-      </c>
-      <c r="C123" t="s">
-        <v>512</v>
-      </c>
-      <c r="D123">
-        <v>113</v>
-      </c>
-      <c r="E123" t="s">
-        <v>559</v>
-      </c>
-      <c r="F123" t="s">
-        <v>609</v>
-      </c>
-      <c r="G123" t="s">
-        <v>442</v>
-      </c>
-      <c r="H123" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>487</v>
-      </c>
-      <c r="B124">
-        <v>53</v>
-      </c>
-      <c r="C124" t="s">
-        <v>512</v>
-      </c>
-      <c r="D124">
-        <v>113</v>
-      </c>
-      <c r="E124" t="s">
-        <v>609</v>
-      </c>
-      <c r="F124" t="s">
-        <v>722</v>
-      </c>
-      <c r="G124" t="s">
-        <v>442</v>
-      </c>
-      <c r="H124" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>487</v>
-      </c>
-      <c r="B125">
-        <v>53</v>
-      </c>
-      <c r="C125" t="s">
-        <v>512</v>
-      </c>
-      <c r="D125">
-        <v>113</v>
-      </c>
-      <c r="E125" t="s">
-        <v>722</v>
-      </c>
-      <c r="F125" t="s">
-        <v>684</v>
-      </c>
-      <c r="G125" t="s">
-        <v>442</v>
-      </c>
-      <c r="H125" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>487</v>
-      </c>
-      <c r="B126">
-        <v>53</v>
-      </c>
-      <c r="C126" t="s">
-        <v>512</v>
-      </c>
-      <c r="D126">
-        <v>113</v>
-      </c>
-      <c r="E126" t="s">
-        <v>684</v>
-      </c>
-      <c r="F126" t="s">
-        <v>803</v>
-      </c>
-      <c r="G126" t="s">
-        <v>442</v>
-      </c>
-      <c r="H126" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>487</v>
-      </c>
-      <c r="B127">
-        <v>53</v>
-      </c>
-      <c r="C127" t="s">
-        <v>512</v>
-      </c>
-      <c r="D127">
-        <v>113</v>
-      </c>
-      <c r="E127" t="s">
-        <v>803</v>
-      </c>
-      <c r="F127" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G127" t="s">
-        <v>442</v>
-      </c>
-      <c r="H127" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>487</v>
-      </c>
-      <c r="B128">
-        <v>53</v>
-      </c>
-      <c r="C128" t="s">
-        <v>512</v>
-      </c>
-      <c r="D128">
-        <v>113</v>
-      </c>
-      <c r="E128" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F128" t="s">
-        <v>904</v>
-      </c>
-      <c r="G128" t="s">
-        <v>442</v>
-      </c>
-      <c r="H128" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>487</v>
-      </c>
-      <c r="B129">
-        <v>53</v>
-      </c>
-      <c r="C129" t="s">
-        <v>512</v>
-      </c>
-      <c r="D129">
-        <v>113</v>
-      </c>
-      <c r="E129" t="s">
-        <v>904</v>
-      </c>
-      <c r="F129" t="s">
-        <v>908</v>
-      </c>
-      <c r="G129" t="s">
-        <v>442</v>
-      </c>
-      <c r="H129" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>487</v>
-      </c>
-      <c r="B130">
-        <v>53</v>
-      </c>
-      <c r="C130" t="s">
-        <v>512</v>
-      </c>
-      <c r="D130">
-        <v>113</v>
-      </c>
-      <c r="E130" t="s">
-        <v>908</v>
-      </c>
-      <c r="F130" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G130" t="s">
-        <v>442</v>
-      </c>
-      <c r="H130" t="s">
-        <v>441</v>
-      </c>
-      <c r="I130" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="B132" s="9">
-        <v>53</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="D132" s="9">
-        <v>114</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="F132" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="G132" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="H132" s="9" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>487</v>
-      </c>
-      <c r="B133">
-        <v>53</v>
-      </c>
-      <c r="C133" t="s">
-        <v>512</v>
-      </c>
-      <c r="D133">
-        <v>114</v>
-      </c>
-      <c r="E133" t="s">
-        <v>559</v>
-      </c>
-      <c r="F133" t="s">
-        <v>609</v>
-      </c>
-      <c r="G133" t="s">
-        <v>442</v>
-      </c>
-      <c r="H133" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>487</v>
-      </c>
-      <c r="B134">
-        <v>53</v>
-      </c>
-      <c r="C134" t="s">
-        <v>512</v>
-      </c>
-      <c r="D134">
-        <v>114</v>
-      </c>
-      <c r="E134" t="s">
-        <v>609</v>
-      </c>
-      <c r="F134" t="s">
-        <v>722</v>
-      </c>
-      <c r="G134" t="s">
-        <v>442</v>
-      </c>
-      <c r="H134" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>487</v>
-      </c>
-      <c r="B135">
-        <v>53</v>
-      </c>
-      <c r="C135" t="s">
-        <v>512</v>
-      </c>
-      <c r="D135">
-        <v>114</v>
-      </c>
-      <c r="E135" t="s">
-        <v>722</v>
-      </c>
-      <c r="F135" t="s">
-        <v>684</v>
-      </c>
-      <c r="G135" t="s">
-        <v>442</v>
-      </c>
-      <c r="H135" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>487</v>
-      </c>
-      <c r="B136">
-        <v>53</v>
-      </c>
-      <c r="C136" t="s">
-        <v>512</v>
-      </c>
-      <c r="D136">
-        <v>114</v>
-      </c>
-      <c r="E136" t="s">
-        <v>684</v>
-      </c>
-      <c r="F136" t="s">
-        <v>803</v>
-      </c>
-      <c r="G136" t="s">
-        <v>442</v>
-      </c>
-      <c r="H136" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>487</v>
-      </c>
-      <c r="B137">
-        <v>53</v>
-      </c>
-      <c r="C137" t="s">
-        <v>512</v>
-      </c>
-      <c r="D137">
-        <v>114</v>
-      </c>
-      <c r="E137" t="s">
-        <v>803</v>
-      </c>
-      <c r="F137" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G137" t="s">
-        <v>442</v>
-      </c>
-      <c r="H137" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>487</v>
-      </c>
-      <c r="B138">
-        <v>53</v>
-      </c>
-      <c r="C138" t="s">
-        <v>512</v>
-      </c>
-      <c r="D138">
-        <v>114</v>
-      </c>
-      <c r="E138" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F138" t="s">
-        <v>904</v>
-      </c>
-      <c r="G138" t="s">
-        <v>442</v>
-      </c>
-      <c r="H138" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>487</v>
-      </c>
-      <c r="B139">
-        <v>53</v>
-      </c>
-      <c r="C139" t="s">
-        <v>512</v>
-      </c>
-      <c r="D139">
-        <v>114</v>
-      </c>
-      <c r="E139" t="s">
-        <v>904</v>
-      </c>
-      <c r="F139" t="s">
-        <v>908</v>
-      </c>
-      <c r="G139" t="s">
-        <v>442</v>
-      </c>
-      <c r="H139" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>487</v>
-      </c>
-      <c r="B140">
-        <v>53</v>
-      </c>
-      <c r="C140" t="s">
-        <v>512</v>
-      </c>
-      <c r="D140">
-        <v>114</v>
-      </c>
-      <c r="E140" t="s">
-        <v>908</v>
-      </c>
-      <c r="F140" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G140" t="s">
-        <v>442</v>
-      </c>
-      <c r="H140" t="s">
-        <v>441</v>
-      </c>
-      <c r="I140" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="B142" s="9">
-        <v>53</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="D142" s="9">
-        <v>115</v>
-      </c>
-      <c r="E142" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="F142" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="G142" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="H142" s="9" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>487</v>
-      </c>
-      <c r="B143">
-        <v>53</v>
-      </c>
-      <c r="C143" t="s">
-        <v>512</v>
-      </c>
-      <c r="D143">
-        <v>115</v>
-      </c>
-      <c r="E143" t="s">
-        <v>559</v>
-      </c>
-      <c r="F143" t="s">
-        <v>609</v>
-      </c>
-      <c r="G143" t="s">
-        <v>442</v>
-      </c>
-      <c r="H143" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>487</v>
-      </c>
-      <c r="B144">
-        <v>53</v>
-      </c>
-      <c r="C144" t="s">
-        <v>512</v>
-      </c>
-      <c r="D144">
-        <v>115</v>
-      </c>
-      <c r="E144" t="s">
-        <v>609</v>
-      </c>
-      <c r="F144" t="s">
-        <v>722</v>
-      </c>
-      <c r="G144" t="s">
-        <v>442</v>
-      </c>
-      <c r="H144" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>487</v>
-      </c>
-      <c r="B145">
-        <v>53</v>
-      </c>
-      <c r="C145" t="s">
-        <v>512</v>
-      </c>
-      <c r="D145">
-        <v>115</v>
-      </c>
-      <c r="E145" t="s">
-        <v>722</v>
-      </c>
-      <c r="F145" t="s">
-        <v>684</v>
-      </c>
-      <c r="G145" t="s">
-        <v>442</v>
-      </c>
-      <c r="H145" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>487</v>
-      </c>
-      <c r="B146">
-        <v>53</v>
-      </c>
-      <c r="C146" t="s">
-        <v>512</v>
-      </c>
-      <c r="D146">
-        <v>115</v>
-      </c>
-      <c r="E146" t="s">
-        <v>684</v>
-      </c>
-      <c r="F146" t="s">
-        <v>803</v>
-      </c>
-      <c r="G146" t="s">
-        <v>442</v>
-      </c>
-      <c r="H146" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>487</v>
-      </c>
-      <c r="B147">
-        <v>53</v>
-      </c>
-      <c r="C147" t="s">
-        <v>512</v>
-      </c>
-      <c r="D147">
-        <v>115</v>
-      </c>
-      <c r="E147" t="s">
-        <v>803</v>
-      </c>
-      <c r="F147" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G147" t="s">
-        <v>442</v>
-      </c>
-      <c r="H147" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>487</v>
-      </c>
-      <c r="B148">
-        <v>53</v>
-      </c>
-      <c r="C148" t="s">
-        <v>512</v>
-      </c>
-      <c r="D148">
-        <v>115</v>
-      </c>
-      <c r="E148" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F148" t="s">
-        <v>904</v>
-      </c>
-      <c r="G148" t="s">
-        <v>442</v>
-      </c>
-      <c r="H148" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>487</v>
-      </c>
-      <c r="B149">
-        <v>53</v>
-      </c>
-      <c r="C149" t="s">
-        <v>512</v>
-      </c>
-      <c r="D149">
-        <v>115</v>
-      </c>
-      <c r="E149" t="s">
-        <v>904</v>
-      </c>
-      <c r="F149" t="s">
-        <v>908</v>
-      </c>
-      <c r="G149" t="s">
-        <v>442</v>
-      </c>
-      <c r="H149" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>487</v>
-      </c>
-      <c r="B150">
-        <v>53</v>
-      </c>
-      <c r="C150" t="s">
-        <v>512</v>
-      </c>
-      <c r="D150">
-        <v>115</v>
-      </c>
-      <c r="E150" t="s">
-        <v>908</v>
-      </c>
-      <c r="F150" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G150" t="s">
-        <v>442</v>
-      </c>
-      <c r="H150" t="s">
-        <v>441</v>
-      </c>
-      <c r="I150" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1355A8E9-7FA3-45C2-9B00-12AFB3AD361D}">
-  <dimension ref="A1:AU137"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C110" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F140" sqref="F140"/>
+      <selection pane="bottomRight" activeCell="AJ135" sqref="AJ135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -71047,7 +67407,7 @@
     <col min="32" max="32" width="51.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>458</v>
       </c>
@@ -71067,7 +67427,7 @@
         <v>1139</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1118</v>
@@ -71094,7 +67454,7 @@
         <v>1124</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>1127</v>
@@ -71144,51 +67504,21 @@
       <c r="AF1" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>1198</v>
-      </c>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
@@ -71222,7 +67552,7 @@
         <v>19</v>
       </c>
       <c r="AF2" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.35">
@@ -71257,7 +67587,7 @@
         <v>15</v>
       </c>
       <c r="AF3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.35">
@@ -71324,7 +67654,7 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.35">
@@ -71391,7 +67721,7 @@
         <v>477</v>
       </c>
       <c r="AF7" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.35">
@@ -71426,7 +67756,7 @@
         <v>6</v>
       </c>
       <c r="AF8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.35">
@@ -71461,7 +67791,7 @@
         <v>1</v>
       </c>
       <c r="AF9" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.35">
@@ -71496,7 +67826,7 @@
         <v>477</v>
       </c>
       <c r="AF10" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.35">
@@ -71531,7 +67861,7 @@
         <v>2</v>
       </c>
       <c r="AF11" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.35">
@@ -71598,7 +67928,7 @@
         <v>2</v>
       </c>
       <c r="AF13" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.35">
@@ -71633,7 +67963,7 @@
         <v>16</v>
       </c>
       <c r="AF14" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.35">
@@ -71668,7 +67998,7 @@
         <v>15</v>
       </c>
       <c r="AF15" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.35">
@@ -71703,7 +68033,7 @@
         <v>13</v>
       </c>
       <c r="AF16" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.35">
@@ -72181,7 +68511,7 @@
         <v>2</v>
       </c>
       <c r="AF21" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.35">
@@ -72567,7 +68897,7 @@
         <v>0</v>
       </c>
       <c r="AF25" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.35">
@@ -72855,7 +69185,7 @@
         <v>1</v>
       </c>
       <c r="AF28" t="s">
-        <v>1228</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.35">
@@ -75299,7 +71629,7 @@
         <v>1</v>
       </c>
       <c r="AF53" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.35">
@@ -75596,7 +71926,7 @@
         <v>2</v>
       </c>
       <c r="AF56" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.35">
@@ -76285,7 +72615,7 @@
         <v>1</v>
       </c>
       <c r="AF63" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.35">
@@ -76778,7 +73108,7 @@
         <v>3</v>
       </c>
       <c r="AF68" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.35">
@@ -77271,7 +73601,7 @@
         <v>4</v>
       </c>
       <c r="AF73" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.35">
@@ -77568,7 +73898,7 @@
         <v>9</v>
       </c>
       <c r="AF76" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.35">
@@ -77669,7 +73999,7 @@
         <v>0</v>
       </c>
       <c r="AF77" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.35">
@@ -77966,7 +74296,7 @@
         <v>4</v>
       </c>
       <c r="AF80" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.35">
@@ -78067,7 +74397,7 @@
         <v>2</v>
       </c>
       <c r="AF81" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.35">
@@ -78462,7 +74792,7 @@
         <v>0</v>
       </c>
       <c r="AF85" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.35">
@@ -78759,7 +75089,7 @@
         <v>0</v>
       </c>
       <c r="AF88" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.35">
@@ -79644,7 +75974,7 @@
         <v>1</v>
       </c>
       <c r="AF97" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.35">
@@ -79843,7 +76173,7 @@
         <v>1</v>
       </c>
       <c r="AF99" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.35">
@@ -79944,7 +76274,7 @@
         <v>1</v>
       </c>
       <c r="AF100" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="101" spans="1:32" x14ac:dyDescent="0.35">
@@ -80045,7 +76375,7 @@
         <v>5</v>
       </c>
       <c r="AF101" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.35">
@@ -80244,7 +76574,7 @@
         <v>3</v>
       </c>
       <c r="AF103" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="104" spans="1:32" x14ac:dyDescent="0.35">
@@ -80541,7 +76871,7 @@
         <v>3</v>
       </c>
       <c r="AF106" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="107" spans="1:32" x14ac:dyDescent="0.35">
@@ -80936,7 +77266,7 @@
         <v>1</v>
       </c>
       <c r="AF110" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="111" spans="1:32" x14ac:dyDescent="0.35">
@@ -81527,7 +77857,7 @@
         <v>1</v>
       </c>
       <c r="AF116" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="117" spans="1:32" x14ac:dyDescent="0.35">
@@ -81628,7 +77958,7 @@
         <v>1</v>
       </c>
       <c r="AF117" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="118" spans="1:32" x14ac:dyDescent="0.35">
@@ -82247,7 +78577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A129" s="14">
         <v>108</v>
       </c>
@@ -82279,7 +78609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A130" s="14">
         <v>109</v>
       </c>
@@ -82311,7 +78641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A131" s="14">
         <v>110</v>
       </c>
@@ -82343,7 +78673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A132" s="14">
         <v>111</v>
       </c>
@@ -82375,7 +78705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A133" s="14">
         <v>112</v>
       </c>
@@ -82407,7 +78737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A134" s="14">
         <v>113</v>
       </c>
@@ -82439,7 +78769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A135" s="14">
         <v>114</v>
       </c>
@@ -82471,7 +78801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A136" s="14">
         <v>115</v>
       </c>
@@ -82501,119 +78831,6 @@
       </c>
       <c r="Z136">
         <v>10</v>
-      </c>
-    </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>1231</v>
-      </c>
-      <c r="E137">
-        <f>SUM(E2:E136)</f>
-        <v>1537</v>
-      </c>
-      <c r="F137">
-        <f t="shared" ref="F137:AE137" si="4">SUM(F2:F136)</f>
-        <v>36</v>
-      </c>
-      <c r="G137">
-        <f t="shared" si="4"/>
-        <v>92</v>
-      </c>
-      <c r="H137">
-        <f t="shared" si="4"/>
-        <v>67</v>
-      </c>
-      <c r="I137">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J137">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="K137">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="L137">
-        <f t="shared" si="4"/>
-        <v>187</v>
-      </c>
-      <c r="M137">
-        <f t="shared" si="4"/>
-        <v>66</v>
-      </c>
-      <c r="N137">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O137">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="P137">
-        <f t="shared" si="4"/>
-        <v>98</v>
-      </c>
-      <c r="Q137">
-        <f t="shared" si="4"/>
-        <v>67</v>
-      </c>
-      <c r="R137">
-        <f t="shared" si="4"/>
-        <v>204</v>
-      </c>
-      <c r="S137">
-        <f t="shared" si="4"/>
-        <v>61</v>
-      </c>
-      <c r="T137">
-        <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="U137">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="V137">
-        <f t="shared" si="4"/>
-        <v>62</v>
-      </c>
-      <c r="W137">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="X137">
-        <f t="shared" si="4"/>
-        <v>214</v>
-      </c>
-      <c r="Y137">
-        <f t="shared" si="4"/>
-        <v>435</v>
-      </c>
-      <c r="Z137">
-        <f t="shared" si="4"/>
-        <v>2995</v>
-      </c>
-      <c r="AA137">
-        <f t="shared" si="4"/>
-        <v>1074</v>
-      </c>
-      <c r="AB137">
-        <f t="shared" si="4"/>
-        <v>1163</v>
-      </c>
-      <c r="AC137">
-        <f t="shared" si="4"/>
-        <v>77</v>
-      </c>
-      <c r="AD137">
-        <f t="shared" si="4"/>
-        <v>277</v>
-      </c>
-      <c r="AE137">
-        <f t="shared" si="4"/>
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -82622,4 +78839,3638 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2DF5E6-41F3-45D0-9FF1-99E9480E4095}">
+  <dimension ref="A1:I150"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G112" sqref="G112"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="11.08984375" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B2" s="9">
+        <v>53</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="D2" s="9">
+        <v>101</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D3">
+        <v>101</v>
+      </c>
+      <c r="E3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F3" t="s">
+        <v>609</v>
+      </c>
+      <c r="G3" t="s">
+        <v>442</v>
+      </c>
+      <c r="H3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D4">
+        <v>101</v>
+      </c>
+      <c r="E4" t="s">
+        <v>609</v>
+      </c>
+      <c r="F4" t="s">
+        <v>722</v>
+      </c>
+      <c r="G4" t="s">
+        <v>442</v>
+      </c>
+      <c r="H4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B5">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>512</v>
+      </c>
+      <c r="D5">
+        <v>101</v>
+      </c>
+      <c r="E5" t="s">
+        <v>722</v>
+      </c>
+      <c r="F5" t="s">
+        <v>684</v>
+      </c>
+      <c r="G5" t="s">
+        <v>442</v>
+      </c>
+      <c r="H5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>487</v>
+      </c>
+      <c r="B6">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>512</v>
+      </c>
+      <c r="D6">
+        <v>101</v>
+      </c>
+      <c r="E6" t="s">
+        <v>684</v>
+      </c>
+      <c r="F6" t="s">
+        <v>803</v>
+      </c>
+      <c r="G6" t="s">
+        <v>442</v>
+      </c>
+      <c r="H6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>487</v>
+      </c>
+      <c r="B7">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>512</v>
+      </c>
+      <c r="D7">
+        <v>101</v>
+      </c>
+      <c r="E7" t="s">
+        <v>803</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B8">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>512</v>
+      </c>
+      <c r="D8">
+        <v>101</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F8" t="s">
+        <v>904</v>
+      </c>
+      <c r="G8" t="s">
+        <v>442</v>
+      </c>
+      <c r="H8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B9">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>512</v>
+      </c>
+      <c r="D9">
+        <v>101</v>
+      </c>
+      <c r="E9" t="s">
+        <v>904</v>
+      </c>
+      <c r="F9" t="s">
+        <v>908</v>
+      </c>
+      <c r="G9" t="s">
+        <v>442</v>
+      </c>
+      <c r="H9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>487</v>
+      </c>
+      <c r="B10">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>512</v>
+      </c>
+      <c r="D10">
+        <v>101</v>
+      </c>
+      <c r="E10" t="s">
+        <v>908</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G10" t="s">
+        <v>442</v>
+      </c>
+      <c r="H10" t="s">
+        <v>441</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B12" s="9">
+        <v>53</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="D12" s="9">
+        <v>102</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>487</v>
+      </c>
+      <c r="B13">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>512</v>
+      </c>
+      <c r="D13">
+        <v>102</v>
+      </c>
+      <c r="E13" t="s">
+        <v>559</v>
+      </c>
+      <c r="F13" t="s">
+        <v>609</v>
+      </c>
+      <c r="G13" t="s">
+        <v>442</v>
+      </c>
+      <c r="H13" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>487</v>
+      </c>
+      <c r="B14">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>512</v>
+      </c>
+      <c r="D14">
+        <v>102</v>
+      </c>
+      <c r="E14" t="s">
+        <v>609</v>
+      </c>
+      <c r="F14" t="s">
+        <v>722</v>
+      </c>
+      <c r="G14" t="s">
+        <v>442</v>
+      </c>
+      <c r="H14" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>487</v>
+      </c>
+      <c r="B15">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>512</v>
+      </c>
+      <c r="D15">
+        <v>102</v>
+      </c>
+      <c r="E15" t="s">
+        <v>722</v>
+      </c>
+      <c r="F15" t="s">
+        <v>684</v>
+      </c>
+      <c r="G15" t="s">
+        <v>442</v>
+      </c>
+      <c r="H15" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>487</v>
+      </c>
+      <c r="B16">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>512</v>
+      </c>
+      <c r="D16">
+        <v>102</v>
+      </c>
+      <c r="E16" t="s">
+        <v>684</v>
+      </c>
+      <c r="F16" t="s">
+        <v>803</v>
+      </c>
+      <c r="G16" t="s">
+        <v>442</v>
+      </c>
+      <c r="H16" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>487</v>
+      </c>
+      <c r="B17">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>512</v>
+      </c>
+      <c r="D17">
+        <v>102</v>
+      </c>
+      <c r="E17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G17" t="s">
+        <v>442</v>
+      </c>
+      <c r="H17" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>487</v>
+      </c>
+      <c r="B18">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>512</v>
+      </c>
+      <c r="D18">
+        <v>102</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F18" t="s">
+        <v>904</v>
+      </c>
+      <c r="G18" t="s">
+        <v>442</v>
+      </c>
+      <c r="H18" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>487</v>
+      </c>
+      <c r="B19">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>512</v>
+      </c>
+      <c r="D19">
+        <v>102</v>
+      </c>
+      <c r="E19" t="s">
+        <v>904</v>
+      </c>
+      <c r="F19" t="s">
+        <v>908</v>
+      </c>
+      <c r="G19" t="s">
+        <v>442</v>
+      </c>
+      <c r="H19" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B20">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>512</v>
+      </c>
+      <c r="D20">
+        <v>102</v>
+      </c>
+      <c r="E20" t="s">
+        <v>908</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G20" t="s">
+        <v>442</v>
+      </c>
+      <c r="H20" t="s">
+        <v>441</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B22" s="9">
+        <v>53</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="D22" s="9">
+        <v>103</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>487</v>
+      </c>
+      <c r="B23">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>512</v>
+      </c>
+      <c r="D23">
+        <v>103</v>
+      </c>
+      <c r="E23" t="s">
+        <v>559</v>
+      </c>
+      <c r="F23" t="s">
+        <v>609</v>
+      </c>
+      <c r="G23" t="s">
+        <v>442</v>
+      </c>
+      <c r="H23" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>487</v>
+      </c>
+      <c r="B24">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D24">
+        <v>103</v>
+      </c>
+      <c r="E24" t="s">
+        <v>609</v>
+      </c>
+      <c r="F24" t="s">
+        <v>722</v>
+      </c>
+      <c r="G24" t="s">
+        <v>442</v>
+      </c>
+      <c r="H24" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>487</v>
+      </c>
+      <c r="B25">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>512</v>
+      </c>
+      <c r="D25">
+        <v>103</v>
+      </c>
+      <c r="E25" t="s">
+        <v>722</v>
+      </c>
+      <c r="F25" t="s">
+        <v>684</v>
+      </c>
+      <c r="G25" t="s">
+        <v>442</v>
+      </c>
+      <c r="H25" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>487</v>
+      </c>
+      <c r="B26">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>512</v>
+      </c>
+      <c r="D26">
+        <v>103</v>
+      </c>
+      <c r="E26" t="s">
+        <v>684</v>
+      </c>
+      <c r="F26" t="s">
+        <v>803</v>
+      </c>
+      <c r="G26" t="s">
+        <v>442</v>
+      </c>
+      <c r="H26" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>487</v>
+      </c>
+      <c r="B27">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>512</v>
+      </c>
+      <c r="D27">
+        <v>103</v>
+      </c>
+      <c r="E27" t="s">
+        <v>803</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G27" t="s">
+        <v>442</v>
+      </c>
+      <c r="H27" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>487</v>
+      </c>
+      <c r="B28">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>512</v>
+      </c>
+      <c r="D28">
+        <v>103</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F28" t="s">
+        <v>904</v>
+      </c>
+      <c r="G28" t="s">
+        <v>442</v>
+      </c>
+      <c r="H28" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B29">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>512</v>
+      </c>
+      <c r="D29">
+        <v>103</v>
+      </c>
+      <c r="E29" t="s">
+        <v>904</v>
+      </c>
+      <c r="F29" t="s">
+        <v>908</v>
+      </c>
+      <c r="G29" t="s">
+        <v>442</v>
+      </c>
+      <c r="H29" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B30">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>512</v>
+      </c>
+      <c r="D30">
+        <v>103</v>
+      </c>
+      <c r="E30" t="s">
+        <v>908</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G30" t="s">
+        <v>442</v>
+      </c>
+      <c r="H30" t="s">
+        <v>441</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B32" s="9">
+        <v>53</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="D32" s="9">
+        <v>104</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>487</v>
+      </c>
+      <c r="B33">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s">
+        <v>512</v>
+      </c>
+      <c r="D33">
+        <v>104</v>
+      </c>
+      <c r="E33" t="s">
+        <v>559</v>
+      </c>
+      <c r="F33" t="s">
+        <v>609</v>
+      </c>
+      <c r="G33" t="s">
+        <v>442</v>
+      </c>
+      <c r="H33" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>487</v>
+      </c>
+      <c r="B34">
+        <v>53</v>
+      </c>
+      <c r="C34" t="s">
+        <v>512</v>
+      </c>
+      <c r="D34">
+        <v>104</v>
+      </c>
+      <c r="E34" t="s">
+        <v>609</v>
+      </c>
+      <c r="F34" t="s">
+        <v>722</v>
+      </c>
+      <c r="G34" t="s">
+        <v>442</v>
+      </c>
+      <c r="H34" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>487</v>
+      </c>
+      <c r="B35">
+        <v>53</v>
+      </c>
+      <c r="C35" t="s">
+        <v>512</v>
+      </c>
+      <c r="D35">
+        <v>104</v>
+      </c>
+      <c r="E35" t="s">
+        <v>722</v>
+      </c>
+      <c r="F35" t="s">
+        <v>684</v>
+      </c>
+      <c r="G35" t="s">
+        <v>442</v>
+      </c>
+      <c r="H35" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>487</v>
+      </c>
+      <c r="B36">
+        <v>53</v>
+      </c>
+      <c r="C36" t="s">
+        <v>512</v>
+      </c>
+      <c r="D36">
+        <v>104</v>
+      </c>
+      <c r="E36" t="s">
+        <v>684</v>
+      </c>
+      <c r="F36" t="s">
+        <v>803</v>
+      </c>
+      <c r="G36" t="s">
+        <v>442</v>
+      </c>
+      <c r="H36" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>487</v>
+      </c>
+      <c r="B37">
+        <v>53</v>
+      </c>
+      <c r="C37" t="s">
+        <v>512</v>
+      </c>
+      <c r="D37">
+        <v>104</v>
+      </c>
+      <c r="E37" t="s">
+        <v>803</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G37" t="s">
+        <v>442</v>
+      </c>
+      <c r="H37" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>487</v>
+      </c>
+      <c r="B38">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>512</v>
+      </c>
+      <c r="D38">
+        <v>104</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F38" t="s">
+        <v>904</v>
+      </c>
+      <c r="G38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H38" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>487</v>
+      </c>
+      <c r="B39">
+        <v>53</v>
+      </c>
+      <c r="C39" t="s">
+        <v>512</v>
+      </c>
+      <c r="D39">
+        <v>104</v>
+      </c>
+      <c r="E39" t="s">
+        <v>904</v>
+      </c>
+      <c r="F39" t="s">
+        <v>908</v>
+      </c>
+      <c r="G39" t="s">
+        <v>442</v>
+      </c>
+      <c r="H39" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>487</v>
+      </c>
+      <c r="B40">
+        <v>53</v>
+      </c>
+      <c r="C40" t="s">
+        <v>512</v>
+      </c>
+      <c r="D40">
+        <v>104</v>
+      </c>
+      <c r="E40" t="s">
+        <v>908</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G40" t="s">
+        <v>442</v>
+      </c>
+      <c r="H40" t="s">
+        <v>441</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B42" s="9">
+        <v>53</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="D42" s="9">
+        <v>105</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>487</v>
+      </c>
+      <c r="B43">
+        <v>53</v>
+      </c>
+      <c r="C43" t="s">
+        <v>512</v>
+      </c>
+      <c r="D43">
+        <v>105</v>
+      </c>
+      <c r="E43" t="s">
+        <v>559</v>
+      </c>
+      <c r="F43" t="s">
+        <v>609</v>
+      </c>
+      <c r="G43" t="s">
+        <v>442</v>
+      </c>
+      <c r="H43" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>487</v>
+      </c>
+      <c r="B44">
+        <v>53</v>
+      </c>
+      <c r="C44" t="s">
+        <v>512</v>
+      </c>
+      <c r="D44">
+        <v>105</v>
+      </c>
+      <c r="E44" t="s">
+        <v>609</v>
+      </c>
+      <c r="F44" t="s">
+        <v>722</v>
+      </c>
+      <c r="G44" t="s">
+        <v>442</v>
+      </c>
+      <c r="H44" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>487</v>
+      </c>
+      <c r="B45">
+        <v>53</v>
+      </c>
+      <c r="C45" t="s">
+        <v>512</v>
+      </c>
+      <c r="D45">
+        <v>105</v>
+      </c>
+      <c r="E45" t="s">
+        <v>722</v>
+      </c>
+      <c r="F45" t="s">
+        <v>684</v>
+      </c>
+      <c r="G45" t="s">
+        <v>442</v>
+      </c>
+      <c r="H45" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>487</v>
+      </c>
+      <c r="B46">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>512</v>
+      </c>
+      <c r="D46">
+        <v>105</v>
+      </c>
+      <c r="E46" t="s">
+        <v>684</v>
+      </c>
+      <c r="F46" t="s">
+        <v>803</v>
+      </c>
+      <c r="G46" t="s">
+        <v>442</v>
+      </c>
+      <c r="H46" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>487</v>
+      </c>
+      <c r="B47">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>512</v>
+      </c>
+      <c r="D47">
+        <v>105</v>
+      </c>
+      <c r="E47" t="s">
+        <v>803</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G47" t="s">
+        <v>442</v>
+      </c>
+      <c r="H47" t="s">
+        <v>441</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>487</v>
+      </c>
+      <c r="B48">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s">
+        <v>512</v>
+      </c>
+      <c r="D48">
+        <v>105</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F48" t="s">
+        <v>904</v>
+      </c>
+      <c r="G48" t="s">
+        <v>442</v>
+      </c>
+      <c r="H48" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>487</v>
+      </c>
+      <c r="B49">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
+        <v>512</v>
+      </c>
+      <c r="D49">
+        <v>105</v>
+      </c>
+      <c r="E49" t="s">
+        <v>904</v>
+      </c>
+      <c r="F49" t="s">
+        <v>908</v>
+      </c>
+      <c r="G49" t="s">
+        <v>442</v>
+      </c>
+      <c r="H49" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>487</v>
+      </c>
+      <c r="B50">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>512</v>
+      </c>
+      <c r="D50">
+        <v>105</v>
+      </c>
+      <c r="E50" t="s">
+        <v>908</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G50" t="s">
+        <v>442</v>
+      </c>
+      <c r="H50" t="s">
+        <v>441</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B52" s="9">
+        <v>53</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="D52" s="9">
+        <v>106</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>487</v>
+      </c>
+      <c r="B53">
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
+        <v>512</v>
+      </c>
+      <c r="D53">
+        <v>106</v>
+      </c>
+      <c r="E53" t="s">
+        <v>559</v>
+      </c>
+      <c r="F53" t="s">
+        <v>609</v>
+      </c>
+      <c r="G53" t="s">
+        <v>442</v>
+      </c>
+      <c r="H53" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>487</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>512</v>
+      </c>
+      <c r="D54">
+        <v>106</v>
+      </c>
+      <c r="E54" t="s">
+        <v>609</v>
+      </c>
+      <c r="F54" t="s">
+        <v>722</v>
+      </c>
+      <c r="G54" t="s">
+        <v>442</v>
+      </c>
+      <c r="H54" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>487</v>
+      </c>
+      <c r="B55">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
+        <v>512</v>
+      </c>
+      <c r="D55">
+        <v>106</v>
+      </c>
+      <c r="E55" t="s">
+        <v>722</v>
+      </c>
+      <c r="F55" t="s">
+        <v>684</v>
+      </c>
+      <c r="G55" t="s">
+        <v>442</v>
+      </c>
+      <c r="H55" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>487</v>
+      </c>
+      <c r="B56">
+        <v>53</v>
+      </c>
+      <c r="C56" t="s">
+        <v>512</v>
+      </c>
+      <c r="D56">
+        <v>106</v>
+      </c>
+      <c r="E56" t="s">
+        <v>684</v>
+      </c>
+      <c r="F56" t="s">
+        <v>803</v>
+      </c>
+      <c r="G56" t="s">
+        <v>442</v>
+      </c>
+      <c r="H56" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>487</v>
+      </c>
+      <c r="B57">
+        <v>53</v>
+      </c>
+      <c r="C57" t="s">
+        <v>512</v>
+      </c>
+      <c r="D57">
+        <v>106</v>
+      </c>
+      <c r="E57" t="s">
+        <v>803</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G57" t="s">
+        <v>442</v>
+      </c>
+      <c r="H57" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>487</v>
+      </c>
+      <c r="B58">
+        <v>53</v>
+      </c>
+      <c r="C58" t="s">
+        <v>512</v>
+      </c>
+      <c r="D58">
+        <v>106</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F58" t="s">
+        <v>904</v>
+      </c>
+      <c r="G58" t="s">
+        <v>442</v>
+      </c>
+      <c r="H58" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>487</v>
+      </c>
+      <c r="B59">
+        <v>53</v>
+      </c>
+      <c r="C59" t="s">
+        <v>512</v>
+      </c>
+      <c r="D59">
+        <v>106</v>
+      </c>
+      <c r="E59" t="s">
+        <v>904</v>
+      </c>
+      <c r="F59" t="s">
+        <v>908</v>
+      </c>
+      <c r="G59" t="s">
+        <v>442</v>
+      </c>
+      <c r="H59" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>487</v>
+      </c>
+      <c r="B60">
+        <v>53</v>
+      </c>
+      <c r="C60" t="s">
+        <v>512</v>
+      </c>
+      <c r="D60">
+        <v>106</v>
+      </c>
+      <c r="E60" t="s">
+        <v>908</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G60" t="s">
+        <v>442</v>
+      </c>
+      <c r="H60" t="s">
+        <v>441</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B62" s="9">
+        <v>53</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="D62" s="9">
+        <v>107</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>487</v>
+      </c>
+      <c r="B63">
+        <v>53</v>
+      </c>
+      <c r="C63" t="s">
+        <v>512</v>
+      </c>
+      <c r="D63">
+        <v>107</v>
+      </c>
+      <c r="E63" t="s">
+        <v>559</v>
+      </c>
+      <c r="F63" t="s">
+        <v>609</v>
+      </c>
+      <c r="G63" t="s">
+        <v>442</v>
+      </c>
+      <c r="H63" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>487</v>
+      </c>
+      <c r="B64">
+        <v>53</v>
+      </c>
+      <c r="C64" t="s">
+        <v>512</v>
+      </c>
+      <c r="D64">
+        <v>107</v>
+      </c>
+      <c r="E64" t="s">
+        <v>609</v>
+      </c>
+      <c r="F64" t="s">
+        <v>722</v>
+      </c>
+      <c r="G64" t="s">
+        <v>442</v>
+      </c>
+      <c r="H64" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>487</v>
+      </c>
+      <c r="B65">
+        <v>53</v>
+      </c>
+      <c r="C65" t="s">
+        <v>512</v>
+      </c>
+      <c r="D65">
+        <v>107</v>
+      </c>
+      <c r="E65" t="s">
+        <v>722</v>
+      </c>
+      <c r="F65" t="s">
+        <v>684</v>
+      </c>
+      <c r="G65" t="s">
+        <v>442</v>
+      </c>
+      <c r="H65" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>487</v>
+      </c>
+      <c r="B66">
+        <v>53</v>
+      </c>
+      <c r="C66" t="s">
+        <v>512</v>
+      </c>
+      <c r="D66">
+        <v>107</v>
+      </c>
+      <c r="E66" t="s">
+        <v>684</v>
+      </c>
+      <c r="F66" t="s">
+        <v>803</v>
+      </c>
+      <c r="G66" t="s">
+        <v>442</v>
+      </c>
+      <c r="H66" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>487</v>
+      </c>
+      <c r="B67">
+        <v>53</v>
+      </c>
+      <c r="C67" t="s">
+        <v>512</v>
+      </c>
+      <c r="D67">
+        <v>107</v>
+      </c>
+      <c r="E67" t="s">
+        <v>803</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G67" t="s">
+        <v>442</v>
+      </c>
+      <c r="H67" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>487</v>
+      </c>
+      <c r="B68">
+        <v>53</v>
+      </c>
+      <c r="C68" t="s">
+        <v>512</v>
+      </c>
+      <c r="D68">
+        <v>107</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F68" t="s">
+        <v>904</v>
+      </c>
+      <c r="G68" t="s">
+        <v>442</v>
+      </c>
+      <c r="H68" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>487</v>
+      </c>
+      <c r="B69">
+        <v>53</v>
+      </c>
+      <c r="C69" t="s">
+        <v>512</v>
+      </c>
+      <c r="D69">
+        <v>107</v>
+      </c>
+      <c r="E69" t="s">
+        <v>904</v>
+      </c>
+      <c r="F69" t="s">
+        <v>908</v>
+      </c>
+      <c r="G69" t="s">
+        <v>442</v>
+      </c>
+      <c r="H69" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>487</v>
+      </c>
+      <c r="B70">
+        <v>53</v>
+      </c>
+      <c r="C70" t="s">
+        <v>512</v>
+      </c>
+      <c r="D70">
+        <v>107</v>
+      </c>
+      <c r="E70" t="s">
+        <v>908</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G70" t="s">
+        <v>442</v>
+      </c>
+      <c r="H70" t="s">
+        <v>441</v>
+      </c>
+      <c r="I70" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B72" s="9">
+        <v>53</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="D72" s="9">
+        <v>108</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>487</v>
+      </c>
+      <c r="B73">
+        <v>53</v>
+      </c>
+      <c r="C73" t="s">
+        <v>512</v>
+      </c>
+      <c r="D73">
+        <v>108</v>
+      </c>
+      <c r="E73" t="s">
+        <v>559</v>
+      </c>
+      <c r="F73" t="s">
+        <v>609</v>
+      </c>
+      <c r="G73" t="s">
+        <v>442</v>
+      </c>
+      <c r="H73" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>487</v>
+      </c>
+      <c r="B74">
+        <v>53</v>
+      </c>
+      <c r="C74" t="s">
+        <v>512</v>
+      </c>
+      <c r="D74">
+        <v>108</v>
+      </c>
+      <c r="E74" t="s">
+        <v>609</v>
+      </c>
+      <c r="F74" t="s">
+        <v>722</v>
+      </c>
+      <c r="G74" t="s">
+        <v>442</v>
+      </c>
+      <c r="H74" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>487</v>
+      </c>
+      <c r="B75">
+        <v>53</v>
+      </c>
+      <c r="C75" t="s">
+        <v>512</v>
+      </c>
+      <c r="D75">
+        <v>108</v>
+      </c>
+      <c r="E75" t="s">
+        <v>722</v>
+      </c>
+      <c r="F75" t="s">
+        <v>684</v>
+      </c>
+      <c r="G75" t="s">
+        <v>442</v>
+      </c>
+      <c r="H75" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>487</v>
+      </c>
+      <c r="B76">
+        <v>53</v>
+      </c>
+      <c r="C76" t="s">
+        <v>512</v>
+      </c>
+      <c r="D76">
+        <v>108</v>
+      </c>
+      <c r="E76" t="s">
+        <v>684</v>
+      </c>
+      <c r="F76" t="s">
+        <v>803</v>
+      </c>
+      <c r="G76" t="s">
+        <v>442</v>
+      </c>
+      <c r="H76" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>487</v>
+      </c>
+      <c r="B77">
+        <v>53</v>
+      </c>
+      <c r="C77" t="s">
+        <v>512</v>
+      </c>
+      <c r="D77">
+        <v>108</v>
+      </c>
+      <c r="E77" t="s">
+        <v>803</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G77" t="s">
+        <v>442</v>
+      </c>
+      <c r="H77" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>487</v>
+      </c>
+      <c r="B78">
+        <v>53</v>
+      </c>
+      <c r="C78" t="s">
+        <v>512</v>
+      </c>
+      <c r="D78">
+        <v>108</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F78" t="s">
+        <v>904</v>
+      </c>
+      <c r="G78" t="s">
+        <v>442</v>
+      </c>
+      <c r="H78" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>487</v>
+      </c>
+      <c r="B79">
+        <v>53</v>
+      </c>
+      <c r="C79" t="s">
+        <v>512</v>
+      </c>
+      <c r="D79">
+        <v>108</v>
+      </c>
+      <c r="E79" t="s">
+        <v>904</v>
+      </c>
+      <c r="F79" t="s">
+        <v>908</v>
+      </c>
+      <c r="G79" t="s">
+        <v>442</v>
+      </c>
+      <c r="H79" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>487</v>
+      </c>
+      <c r="B80">
+        <v>53</v>
+      </c>
+      <c r="C80" t="s">
+        <v>512</v>
+      </c>
+      <c r="D80">
+        <v>108</v>
+      </c>
+      <c r="E80" t="s">
+        <v>908</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G80" t="s">
+        <v>442</v>
+      </c>
+      <c r="H80" t="s">
+        <v>441</v>
+      </c>
+      <c r="I80" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B82" s="9">
+        <v>53</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="D82" s="9">
+        <v>109</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>487</v>
+      </c>
+      <c r="B83">
+        <v>53</v>
+      </c>
+      <c r="C83" t="s">
+        <v>512</v>
+      </c>
+      <c r="D83">
+        <v>109</v>
+      </c>
+      <c r="E83" t="s">
+        <v>559</v>
+      </c>
+      <c r="F83" t="s">
+        <v>609</v>
+      </c>
+      <c r="G83" t="s">
+        <v>442</v>
+      </c>
+      <c r="H83" t="s">
+        <v>441</v>
+      </c>
+      <c r="I83" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>487</v>
+      </c>
+      <c r="B84">
+        <v>53</v>
+      </c>
+      <c r="C84" t="s">
+        <v>512</v>
+      </c>
+      <c r="D84">
+        <v>109</v>
+      </c>
+      <c r="E84" t="s">
+        <v>609</v>
+      </c>
+      <c r="F84" t="s">
+        <v>722</v>
+      </c>
+      <c r="G84" t="s">
+        <v>442</v>
+      </c>
+      <c r="H84" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>487</v>
+      </c>
+      <c r="B85">
+        <v>53</v>
+      </c>
+      <c r="C85" t="s">
+        <v>512</v>
+      </c>
+      <c r="D85">
+        <v>109</v>
+      </c>
+      <c r="E85" t="s">
+        <v>722</v>
+      </c>
+      <c r="F85" t="s">
+        <v>684</v>
+      </c>
+      <c r="G85" t="s">
+        <v>442</v>
+      </c>
+      <c r="H85" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>487</v>
+      </c>
+      <c r="B86">
+        <v>53</v>
+      </c>
+      <c r="C86" t="s">
+        <v>512</v>
+      </c>
+      <c r="D86">
+        <v>109</v>
+      </c>
+      <c r="E86" t="s">
+        <v>684</v>
+      </c>
+      <c r="F86" t="s">
+        <v>803</v>
+      </c>
+      <c r="G86" t="s">
+        <v>442</v>
+      </c>
+      <c r="H86" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>487</v>
+      </c>
+      <c r="B87">
+        <v>53</v>
+      </c>
+      <c r="C87" t="s">
+        <v>512</v>
+      </c>
+      <c r="D87">
+        <v>109</v>
+      </c>
+      <c r="E87" t="s">
+        <v>803</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G87" t="s">
+        <v>442</v>
+      </c>
+      <c r="H87" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>487</v>
+      </c>
+      <c r="B88">
+        <v>53</v>
+      </c>
+      <c r="C88" t="s">
+        <v>512</v>
+      </c>
+      <c r="D88">
+        <v>109</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F88" t="s">
+        <v>904</v>
+      </c>
+      <c r="G88" t="s">
+        <v>442</v>
+      </c>
+      <c r="H88" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>487</v>
+      </c>
+      <c r="B89">
+        <v>53</v>
+      </c>
+      <c r="C89" t="s">
+        <v>512</v>
+      </c>
+      <c r="D89">
+        <v>109</v>
+      </c>
+      <c r="E89" t="s">
+        <v>904</v>
+      </c>
+      <c r="F89" t="s">
+        <v>908</v>
+      </c>
+      <c r="G89" t="s">
+        <v>442</v>
+      </c>
+      <c r="H89" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>487</v>
+      </c>
+      <c r="B90">
+        <v>53</v>
+      </c>
+      <c r="C90" t="s">
+        <v>512</v>
+      </c>
+      <c r="D90">
+        <v>109</v>
+      </c>
+      <c r="E90" t="s">
+        <v>908</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G90" t="s">
+        <v>442</v>
+      </c>
+      <c r="H90" t="s">
+        <v>441</v>
+      </c>
+      <c r="I90" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B92" s="9">
+        <v>53</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="D92" s="9">
+        <v>110</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>487</v>
+      </c>
+      <c r="B93">
+        <v>53</v>
+      </c>
+      <c r="C93" t="s">
+        <v>512</v>
+      </c>
+      <c r="D93">
+        <v>110</v>
+      </c>
+      <c r="E93" t="s">
+        <v>559</v>
+      </c>
+      <c r="F93" t="s">
+        <v>609</v>
+      </c>
+      <c r="G93" t="s">
+        <v>442</v>
+      </c>
+      <c r="H93" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>487</v>
+      </c>
+      <c r="B94">
+        <v>53</v>
+      </c>
+      <c r="C94" t="s">
+        <v>512</v>
+      </c>
+      <c r="D94">
+        <v>110</v>
+      </c>
+      <c r="E94" t="s">
+        <v>609</v>
+      </c>
+      <c r="F94" t="s">
+        <v>722</v>
+      </c>
+      <c r="G94" t="s">
+        <v>442</v>
+      </c>
+      <c r="H94" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>487</v>
+      </c>
+      <c r="B95">
+        <v>53</v>
+      </c>
+      <c r="C95" t="s">
+        <v>512</v>
+      </c>
+      <c r="D95">
+        <v>110</v>
+      </c>
+      <c r="E95" t="s">
+        <v>722</v>
+      </c>
+      <c r="F95" t="s">
+        <v>684</v>
+      </c>
+      <c r="G95" t="s">
+        <v>442</v>
+      </c>
+      <c r="H95" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>487</v>
+      </c>
+      <c r="B96">
+        <v>53</v>
+      </c>
+      <c r="C96" t="s">
+        <v>512</v>
+      </c>
+      <c r="D96">
+        <v>110</v>
+      </c>
+      <c r="E96" t="s">
+        <v>684</v>
+      </c>
+      <c r="F96" t="s">
+        <v>803</v>
+      </c>
+      <c r="G96" t="s">
+        <v>442</v>
+      </c>
+      <c r="H96" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>487</v>
+      </c>
+      <c r="B97">
+        <v>53</v>
+      </c>
+      <c r="C97" t="s">
+        <v>512</v>
+      </c>
+      <c r="D97">
+        <v>110</v>
+      </c>
+      <c r="E97" t="s">
+        <v>803</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G97" t="s">
+        <v>442</v>
+      </c>
+      <c r="H97" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>487</v>
+      </c>
+      <c r="B98">
+        <v>53</v>
+      </c>
+      <c r="C98" t="s">
+        <v>512</v>
+      </c>
+      <c r="D98">
+        <v>110</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F98" t="s">
+        <v>904</v>
+      </c>
+      <c r="G98" t="s">
+        <v>442</v>
+      </c>
+      <c r="H98" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>487</v>
+      </c>
+      <c r="B99">
+        <v>53</v>
+      </c>
+      <c r="C99" t="s">
+        <v>512</v>
+      </c>
+      <c r="D99">
+        <v>110</v>
+      </c>
+      <c r="E99" t="s">
+        <v>904</v>
+      </c>
+      <c r="F99" t="s">
+        <v>908</v>
+      </c>
+      <c r="G99" t="s">
+        <v>442</v>
+      </c>
+      <c r="H99" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>487</v>
+      </c>
+      <c r="B100">
+        <v>53</v>
+      </c>
+      <c r="C100" t="s">
+        <v>512</v>
+      </c>
+      <c r="D100">
+        <v>110</v>
+      </c>
+      <c r="E100" t="s">
+        <v>908</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G100" t="s">
+        <v>442</v>
+      </c>
+      <c r="H100" t="s">
+        <v>441</v>
+      </c>
+      <c r="I100" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B102" s="9">
+        <v>53</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="D102" s="9">
+        <v>111</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>487</v>
+      </c>
+      <c r="B103">
+        <v>53</v>
+      </c>
+      <c r="C103" t="s">
+        <v>512</v>
+      </c>
+      <c r="D103">
+        <v>111</v>
+      </c>
+      <c r="E103" t="s">
+        <v>559</v>
+      </c>
+      <c r="F103" t="s">
+        <v>609</v>
+      </c>
+      <c r="G103" t="s">
+        <v>442</v>
+      </c>
+      <c r="H103" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>487</v>
+      </c>
+      <c r="B104">
+        <v>53</v>
+      </c>
+      <c r="C104" t="s">
+        <v>512</v>
+      </c>
+      <c r="D104">
+        <v>111</v>
+      </c>
+      <c r="E104" t="s">
+        <v>609</v>
+      </c>
+      <c r="F104" t="s">
+        <v>722</v>
+      </c>
+      <c r="G104" t="s">
+        <v>442</v>
+      </c>
+      <c r="H104" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>487</v>
+      </c>
+      <c r="B105">
+        <v>53</v>
+      </c>
+      <c r="C105" t="s">
+        <v>512</v>
+      </c>
+      <c r="D105">
+        <v>111</v>
+      </c>
+      <c r="E105" t="s">
+        <v>722</v>
+      </c>
+      <c r="F105" t="s">
+        <v>684</v>
+      </c>
+      <c r="G105" t="s">
+        <v>442</v>
+      </c>
+      <c r="H105" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>487</v>
+      </c>
+      <c r="B106">
+        <v>53</v>
+      </c>
+      <c r="C106" t="s">
+        <v>512</v>
+      </c>
+      <c r="D106">
+        <v>111</v>
+      </c>
+      <c r="E106" t="s">
+        <v>684</v>
+      </c>
+      <c r="F106" t="s">
+        <v>803</v>
+      </c>
+      <c r="G106" t="s">
+        <v>442</v>
+      </c>
+      <c r="H106" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>487</v>
+      </c>
+      <c r="B107">
+        <v>53</v>
+      </c>
+      <c r="C107" t="s">
+        <v>512</v>
+      </c>
+      <c r="D107">
+        <v>111</v>
+      </c>
+      <c r="E107" t="s">
+        <v>803</v>
+      </c>
+      <c r="F107" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G107" t="s">
+        <v>442</v>
+      </c>
+      <c r="H107" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>487</v>
+      </c>
+      <c r="B108">
+        <v>53</v>
+      </c>
+      <c r="C108" t="s">
+        <v>512</v>
+      </c>
+      <c r="D108">
+        <v>111</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F108" t="s">
+        <v>904</v>
+      </c>
+      <c r="G108" t="s">
+        <v>442</v>
+      </c>
+      <c r="H108" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>487</v>
+      </c>
+      <c r="B109">
+        <v>53</v>
+      </c>
+      <c r="C109" t="s">
+        <v>512</v>
+      </c>
+      <c r="D109">
+        <v>111</v>
+      </c>
+      <c r="E109" t="s">
+        <v>904</v>
+      </c>
+      <c r="F109" t="s">
+        <v>908</v>
+      </c>
+      <c r="G109" t="s">
+        <v>442</v>
+      </c>
+      <c r="H109" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>487</v>
+      </c>
+      <c r="B110">
+        <v>53</v>
+      </c>
+      <c r="C110" t="s">
+        <v>512</v>
+      </c>
+      <c r="D110">
+        <v>111</v>
+      </c>
+      <c r="E110" t="s">
+        <v>908</v>
+      </c>
+      <c r="F110" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G110" t="s">
+        <v>442</v>
+      </c>
+      <c r="H110" t="s">
+        <v>441</v>
+      </c>
+      <c r="I110" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B112" s="9">
+        <v>53</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="D112" s="9">
+        <v>112</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="H112" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="I112" s="9" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>487</v>
+      </c>
+      <c r="B113">
+        <v>53</v>
+      </c>
+      <c r="C113" t="s">
+        <v>512</v>
+      </c>
+      <c r="D113">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>559</v>
+      </c>
+      <c r="F113" t="s">
+        <v>609</v>
+      </c>
+      <c r="G113" t="s">
+        <v>442</v>
+      </c>
+      <c r="H113" t="s">
+        <v>441</v>
+      </c>
+      <c r="I113" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>487</v>
+      </c>
+      <c r="B114">
+        <v>53</v>
+      </c>
+      <c r="C114" t="s">
+        <v>512</v>
+      </c>
+      <c r="D114">
+        <v>112</v>
+      </c>
+      <c r="E114" t="s">
+        <v>609</v>
+      </c>
+      <c r="F114" t="s">
+        <v>722</v>
+      </c>
+      <c r="G114" t="s">
+        <v>442</v>
+      </c>
+      <c r="H114" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>487</v>
+      </c>
+      <c r="B115">
+        <v>53</v>
+      </c>
+      <c r="C115" t="s">
+        <v>512</v>
+      </c>
+      <c r="D115">
+        <v>112</v>
+      </c>
+      <c r="E115" t="s">
+        <v>722</v>
+      </c>
+      <c r="F115" t="s">
+        <v>684</v>
+      </c>
+      <c r="G115" t="s">
+        <v>442</v>
+      </c>
+      <c r="H115" t="s">
+        <v>441</v>
+      </c>
+      <c r="I115" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>487</v>
+      </c>
+      <c r="B116">
+        <v>53</v>
+      </c>
+      <c r="C116" t="s">
+        <v>512</v>
+      </c>
+      <c r="D116">
+        <v>112</v>
+      </c>
+      <c r="E116" t="s">
+        <v>684</v>
+      </c>
+      <c r="F116" t="s">
+        <v>803</v>
+      </c>
+      <c r="G116" t="s">
+        <v>442</v>
+      </c>
+      <c r="H116" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>487</v>
+      </c>
+      <c r="B117">
+        <v>53</v>
+      </c>
+      <c r="C117" t="s">
+        <v>512</v>
+      </c>
+      <c r="D117">
+        <v>112</v>
+      </c>
+      <c r="E117" t="s">
+        <v>803</v>
+      </c>
+      <c r="F117" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G117" t="s">
+        <v>442</v>
+      </c>
+      <c r="H117" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>487</v>
+      </c>
+      <c r="B118">
+        <v>53</v>
+      </c>
+      <c r="C118" t="s">
+        <v>512</v>
+      </c>
+      <c r="D118">
+        <v>112</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F118" t="s">
+        <v>904</v>
+      </c>
+      <c r="G118" t="s">
+        <v>442</v>
+      </c>
+      <c r="H118" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>487</v>
+      </c>
+      <c r="B119">
+        <v>53</v>
+      </c>
+      <c r="C119" t="s">
+        <v>512</v>
+      </c>
+      <c r="D119">
+        <v>112</v>
+      </c>
+      <c r="E119" t="s">
+        <v>904</v>
+      </c>
+      <c r="F119" t="s">
+        <v>908</v>
+      </c>
+      <c r="G119" t="s">
+        <v>442</v>
+      </c>
+      <c r="H119" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>487</v>
+      </c>
+      <c r="B120">
+        <v>53</v>
+      </c>
+      <c r="C120" t="s">
+        <v>512</v>
+      </c>
+      <c r="D120">
+        <v>112</v>
+      </c>
+      <c r="E120" t="s">
+        <v>908</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G120" t="s">
+        <v>442</v>
+      </c>
+      <c r="H120" t="s">
+        <v>441</v>
+      </c>
+      <c r="I120" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B122" s="9">
+        <v>53</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="D122" s="9">
+        <v>113</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="G122" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>487</v>
+      </c>
+      <c r="B123">
+        <v>53</v>
+      </c>
+      <c r="C123" t="s">
+        <v>512</v>
+      </c>
+      <c r="D123">
+        <v>113</v>
+      </c>
+      <c r="E123" t="s">
+        <v>559</v>
+      </c>
+      <c r="F123" t="s">
+        <v>609</v>
+      </c>
+      <c r="G123" t="s">
+        <v>442</v>
+      </c>
+      <c r="H123" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>487</v>
+      </c>
+      <c r="B124">
+        <v>53</v>
+      </c>
+      <c r="C124" t="s">
+        <v>512</v>
+      </c>
+      <c r="D124">
+        <v>113</v>
+      </c>
+      <c r="E124" t="s">
+        <v>609</v>
+      </c>
+      <c r="F124" t="s">
+        <v>722</v>
+      </c>
+      <c r="G124" t="s">
+        <v>442</v>
+      </c>
+      <c r="H124" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>487</v>
+      </c>
+      <c r="B125">
+        <v>53</v>
+      </c>
+      <c r="C125" t="s">
+        <v>512</v>
+      </c>
+      <c r="D125">
+        <v>113</v>
+      </c>
+      <c r="E125" t="s">
+        <v>722</v>
+      </c>
+      <c r="F125" t="s">
+        <v>684</v>
+      </c>
+      <c r="G125" t="s">
+        <v>442</v>
+      </c>
+      <c r="H125" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>487</v>
+      </c>
+      <c r="B126">
+        <v>53</v>
+      </c>
+      <c r="C126" t="s">
+        <v>512</v>
+      </c>
+      <c r="D126">
+        <v>113</v>
+      </c>
+      <c r="E126" t="s">
+        <v>684</v>
+      </c>
+      <c r="F126" t="s">
+        <v>803</v>
+      </c>
+      <c r="G126" t="s">
+        <v>442</v>
+      </c>
+      <c r="H126" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>487</v>
+      </c>
+      <c r="B127">
+        <v>53</v>
+      </c>
+      <c r="C127" t="s">
+        <v>512</v>
+      </c>
+      <c r="D127">
+        <v>113</v>
+      </c>
+      <c r="E127" t="s">
+        <v>803</v>
+      </c>
+      <c r="F127" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G127" t="s">
+        <v>442</v>
+      </c>
+      <c r="H127" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>487</v>
+      </c>
+      <c r="B128">
+        <v>53</v>
+      </c>
+      <c r="C128" t="s">
+        <v>512</v>
+      </c>
+      <c r="D128">
+        <v>113</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F128" t="s">
+        <v>904</v>
+      </c>
+      <c r="G128" t="s">
+        <v>442</v>
+      </c>
+      <c r="H128" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>487</v>
+      </c>
+      <c r="B129">
+        <v>53</v>
+      </c>
+      <c r="C129" t="s">
+        <v>512</v>
+      </c>
+      <c r="D129">
+        <v>113</v>
+      </c>
+      <c r="E129" t="s">
+        <v>904</v>
+      </c>
+      <c r="F129" t="s">
+        <v>908</v>
+      </c>
+      <c r="G129" t="s">
+        <v>442</v>
+      </c>
+      <c r="H129" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>487</v>
+      </c>
+      <c r="B130">
+        <v>53</v>
+      </c>
+      <c r="C130" t="s">
+        <v>512</v>
+      </c>
+      <c r="D130">
+        <v>113</v>
+      </c>
+      <c r="E130" t="s">
+        <v>908</v>
+      </c>
+      <c r="F130" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G130" t="s">
+        <v>442</v>
+      </c>
+      <c r="H130" t="s">
+        <v>441</v>
+      </c>
+      <c r="I130" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B132" s="9">
+        <v>53</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="D132" s="9">
+        <v>114</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="G132" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="H132" s="9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>487</v>
+      </c>
+      <c r="B133">
+        <v>53</v>
+      </c>
+      <c r="C133" t="s">
+        <v>512</v>
+      </c>
+      <c r="D133">
+        <v>114</v>
+      </c>
+      <c r="E133" t="s">
+        <v>559</v>
+      </c>
+      <c r="F133" t="s">
+        <v>609</v>
+      </c>
+      <c r="G133" t="s">
+        <v>442</v>
+      </c>
+      <c r="H133" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>487</v>
+      </c>
+      <c r="B134">
+        <v>53</v>
+      </c>
+      <c r="C134" t="s">
+        <v>512</v>
+      </c>
+      <c r="D134">
+        <v>114</v>
+      </c>
+      <c r="E134" t="s">
+        <v>609</v>
+      </c>
+      <c r="F134" t="s">
+        <v>722</v>
+      </c>
+      <c r="G134" t="s">
+        <v>442</v>
+      </c>
+      <c r="H134" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>487</v>
+      </c>
+      <c r="B135">
+        <v>53</v>
+      </c>
+      <c r="C135" t="s">
+        <v>512</v>
+      </c>
+      <c r="D135">
+        <v>114</v>
+      </c>
+      <c r="E135" t="s">
+        <v>722</v>
+      </c>
+      <c r="F135" t="s">
+        <v>684</v>
+      </c>
+      <c r="G135" t="s">
+        <v>442</v>
+      </c>
+      <c r="H135" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>487</v>
+      </c>
+      <c r="B136">
+        <v>53</v>
+      </c>
+      <c r="C136" t="s">
+        <v>512</v>
+      </c>
+      <c r="D136">
+        <v>114</v>
+      </c>
+      <c r="E136" t="s">
+        <v>684</v>
+      </c>
+      <c r="F136" t="s">
+        <v>803</v>
+      </c>
+      <c r="G136" t="s">
+        <v>442</v>
+      </c>
+      <c r="H136" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>487</v>
+      </c>
+      <c r="B137">
+        <v>53</v>
+      </c>
+      <c r="C137" t="s">
+        <v>512</v>
+      </c>
+      <c r="D137">
+        <v>114</v>
+      </c>
+      <c r="E137" t="s">
+        <v>803</v>
+      </c>
+      <c r="F137" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G137" t="s">
+        <v>442</v>
+      </c>
+      <c r="H137" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>487</v>
+      </c>
+      <c r="B138">
+        <v>53</v>
+      </c>
+      <c r="C138" t="s">
+        <v>512</v>
+      </c>
+      <c r="D138">
+        <v>114</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F138" t="s">
+        <v>904</v>
+      </c>
+      <c r="G138" t="s">
+        <v>442</v>
+      </c>
+      <c r="H138" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>487</v>
+      </c>
+      <c r="B139">
+        <v>53</v>
+      </c>
+      <c r="C139" t="s">
+        <v>512</v>
+      </c>
+      <c r="D139">
+        <v>114</v>
+      </c>
+      <c r="E139" t="s">
+        <v>904</v>
+      </c>
+      <c r="F139" t="s">
+        <v>908</v>
+      </c>
+      <c r="G139" t="s">
+        <v>442</v>
+      </c>
+      <c r="H139" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>487</v>
+      </c>
+      <c r="B140">
+        <v>53</v>
+      </c>
+      <c r="C140" t="s">
+        <v>512</v>
+      </c>
+      <c r="D140">
+        <v>114</v>
+      </c>
+      <c r="E140" t="s">
+        <v>908</v>
+      </c>
+      <c r="F140" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G140" t="s">
+        <v>442</v>
+      </c>
+      <c r="H140" t="s">
+        <v>441</v>
+      </c>
+      <c r="I140" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B142" s="9">
+        <v>53</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="D142" s="9">
+        <v>115</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="H142" s="9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>487</v>
+      </c>
+      <c r="B143">
+        <v>53</v>
+      </c>
+      <c r="C143" t="s">
+        <v>512</v>
+      </c>
+      <c r="D143">
+        <v>115</v>
+      </c>
+      <c r="E143" t="s">
+        <v>559</v>
+      </c>
+      <c r="F143" t="s">
+        <v>609</v>
+      </c>
+      <c r="G143" t="s">
+        <v>442</v>
+      </c>
+      <c r="H143" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>487</v>
+      </c>
+      <c r="B144">
+        <v>53</v>
+      </c>
+      <c r="C144" t="s">
+        <v>512</v>
+      </c>
+      <c r="D144">
+        <v>115</v>
+      </c>
+      <c r="E144" t="s">
+        <v>609</v>
+      </c>
+      <c r="F144" t="s">
+        <v>722</v>
+      </c>
+      <c r="G144" t="s">
+        <v>442</v>
+      </c>
+      <c r="H144" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>487</v>
+      </c>
+      <c r="B145">
+        <v>53</v>
+      </c>
+      <c r="C145" t="s">
+        <v>512</v>
+      </c>
+      <c r="D145">
+        <v>115</v>
+      </c>
+      <c r="E145" t="s">
+        <v>722</v>
+      </c>
+      <c r="F145" t="s">
+        <v>684</v>
+      </c>
+      <c r="G145" t="s">
+        <v>442</v>
+      </c>
+      <c r="H145" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>487</v>
+      </c>
+      <c r="B146">
+        <v>53</v>
+      </c>
+      <c r="C146" t="s">
+        <v>512</v>
+      </c>
+      <c r="D146">
+        <v>115</v>
+      </c>
+      <c r="E146" t="s">
+        <v>684</v>
+      </c>
+      <c r="F146" t="s">
+        <v>803</v>
+      </c>
+      <c r="G146" t="s">
+        <v>442</v>
+      </c>
+      <c r="H146" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>487</v>
+      </c>
+      <c r="B147">
+        <v>53</v>
+      </c>
+      <c r="C147" t="s">
+        <v>512</v>
+      </c>
+      <c r="D147">
+        <v>115</v>
+      </c>
+      <c r="E147" t="s">
+        <v>803</v>
+      </c>
+      <c r="F147" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G147" t="s">
+        <v>442</v>
+      </c>
+      <c r="H147" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>487</v>
+      </c>
+      <c r="B148">
+        <v>53</v>
+      </c>
+      <c r="C148" t="s">
+        <v>512</v>
+      </c>
+      <c r="D148">
+        <v>115</v>
+      </c>
+      <c r="E148" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F148" t="s">
+        <v>904</v>
+      </c>
+      <c r="G148" t="s">
+        <v>442</v>
+      </c>
+      <c r="H148" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>487</v>
+      </c>
+      <c r="B149">
+        <v>53</v>
+      </c>
+      <c r="C149" t="s">
+        <v>512</v>
+      </c>
+      <c r="D149">
+        <v>115</v>
+      </c>
+      <c r="E149" t="s">
+        <v>904</v>
+      </c>
+      <c r="F149" t="s">
+        <v>908</v>
+      </c>
+      <c r="G149" t="s">
+        <v>442</v>
+      </c>
+      <c r="H149" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>487</v>
+      </c>
+      <c r="B150">
+        <v>53</v>
+      </c>
+      <c r="C150" t="s">
+        <v>512</v>
+      </c>
+      <c r="D150">
+        <v>115</v>
+      </c>
+      <c r="E150" t="s">
+        <v>908</v>
+      </c>
+      <c r="F150" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G150" t="s">
+        <v>442</v>
+      </c>
+      <c r="H150" t="s">
+        <v>441</v>
+      </c>
+      <c r="I150" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Raw_data/EAB_Michigan_2024_raw_data_photos_removed.xlsx
+++ b/Raw_data/EAB_Michigan_2024_raw_data_photos_removed.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/EAB_Michigan_2024_2025_github_folder/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2161" documentId="8_{81CA749C-CDAC-43F8-B952-603FF177FEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EE81AD9-BCEF-47A9-86FB-98C20FE7C57A}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{626AAFD1-2228-4D45-8913-C858FE942786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{056E0C0D-899D-4948-B477-8D3D143F4079}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="4" r:id="rId1"/>
@@ -4203,10 +4203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D88F145-B9A5-4ED2-BA4E-B069605466DD}">
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D156"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4331,838 +4331,843 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>542</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="10" t="s">
+    <row r="33" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="10" t="s">
         <v>767</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="1"/>
-    </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>543</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>1114</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>572</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A51" s="7" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>1091</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
+    <row r="59" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
+    <row r="61" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>548</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="1"/>
-    </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="7" t="s">
         <v>550</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>0</v>
+        <v>456</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>591</v>
+        <v>459</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>458</v>
+        <v>591</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>18</v>
+        <v>458</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>480</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>553</v>
+        <v>465</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>554</v>
+        <v>469</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
+    <row r="89" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
         <v>476</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>30</v>
+        <v>462</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>510</v>
+        <v>30</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>463</v>
+        <v>510</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>20</v>
+        <v>464</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="1"/>
-    </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="1"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="7" t="s">
         <v>602</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>0</v>
+        <v>456</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>589</v>
+        <v>457</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="1"/>
-    </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="1"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="7" t="s">
         <v>603</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="1" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>0</v>
+        <v>456</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>589</v>
+        <v>457</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" s="4" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="4" t="s">
         <v>1145</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" s="1" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>589</v>
+        <v>457</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>1146</v>
+        <v>589</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>1131</v>
+        <v>1141</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>1147</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>1117</v>
+        <v>1139</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>1152</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>1153</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>1142</v>
+        <v>1127</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>1128</v>
+        <v>1142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>1157</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>1158</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>1132</v>
+        <v>1126</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B151" s="1" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A151" s="1" t="s">
+    <row r="152" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B152" s="1" t="s">
         <v>1161</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A152" s="1" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A154" s="1" t="s">
+    <row r="155" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B155" s="1" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" s="1" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="1" t="s">
         <v>1140</v>
       </c>
     </row>
@@ -5179,13 +5184,13 @@
   <dimension ref="A1:R114"/>
   <sheetViews>
     <sheetView zoomScale="59" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A115" sqref="A115"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="3.90625" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.36328125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="7.90625" customWidth="1"/>
@@ -11173,8 +11178,8 @@
   <dimension ref="A1:N397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -28297,7 +28302,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M59" sqref="M59"/>
+      <selection pane="bottomLeft" sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40671,8 +40676,8 @@
   <dimension ref="A1:T477"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R92" sqref="R92"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -67375,7 +67380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1355A8E9-7FA3-45C2-9B00-12AFB3AD361D}">
   <dimension ref="A1:AU136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
